--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spina\Desktop\sitrep\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spina\Desktop\epidict\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Mortality" sheetId="7" r:id="rId1"/>
-    <sheet name="Nutrition" sheetId="8" r:id="rId2"/>
-    <sheet name="Vaccination" sheetId="10" r:id="rId3"/>
+    <sheet name="Mortality" sheetId="11" r:id="rId1"/>
+    <sheet name="Mortality_choices" sheetId="12" r:id="rId2"/>
+    <sheet name="Mortality_settings" sheetId="13" r:id="rId3"/>
+    <sheet name="Mortality_OLD" sheetId="7" r:id="rId4"/>
+    <sheet name="Nutrition" sheetId="8" r:id="rId5"/>
+    <sheet name="Vaccination" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="609">
   <si>
     <t>level</t>
   </si>
@@ -974,13 +977,895 @@
   </si>
   <si>
     <t>How many occupants were interviewed?</t>
+  </si>
+  <si>
+    <t>end_repeat</t>
+  </si>
+  <si>
+    <t>selected(${violence_nature},'other')</t>
+  </si>
+  <si>
+    <t>Autre, spécifiez</t>
+  </si>
+  <si>
+    <t>Specify other</t>
+  </si>
+  <si>
+    <t>violence_nature_other</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>if(selected(., 'no_response'), count-selected(.)=1, true())</t>
+  </si>
+  <si>
+    <t>${violent_episode}='yes'</t>
+  </si>
+  <si>
+    <t>Nature de la violence?</t>
+  </si>
+  <si>
+    <t>Nature of violence?</t>
+  </si>
+  <si>
+    <t>violence_nature</t>
+  </si>
+  <si>
+    <t>select_multiple violence_nature</t>
+  </si>
+  <si>
+    <t>Nombre d'épisodes violents?</t>
+  </si>
+  <si>
+    <t>Number of violent episodes experienced?</t>
+  </si>
+  <si>
+    <t>violent_episodes_number</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>A connu un(des) épisode(s) violent(s)?</t>
+  </si>
+  <si>
+    <t>Experienced a violent episode?</t>
+  </si>
+  <si>
+    <t>violent_episode</t>
+  </si>
+  <si>
+    <t>select_one yn</t>
+  </si>
+  <si>
+    <t>${cause}='other'</t>
+  </si>
+  <si>
+    <t>cause_other</t>
+  </si>
+  <si>
+    <t>${died}='yes'</t>
+  </si>
+  <si>
+    <t>Principale cause du décès?</t>
+  </si>
+  <si>
+    <t>Main cause of death?</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>select_one cause</t>
+  </si>
+  <si>
+    <t>.&lt;=today()</t>
+  </si>
+  <si>
+    <t>${remember_death}='yes'</t>
+  </si>
+  <si>
+    <t>Si la personne n'est pas sûre du jour, veuillez utiliser le 15 du mois</t>
+  </si>
+  <si>
+    <t>If the person is unsure of the day, please use the 15th of the month</t>
+  </si>
+  <si>
+    <t>Date de décès</t>
+  </si>
+  <si>
+    <t>Date of death</t>
+  </si>
+  <si>
+    <t>death_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Utilisez le calendrier des événements pour aider la personne</t>
+  </si>
+  <si>
+    <t>Use the calendar of events to help the person find the date. If the person is unsure of the day, please use the 15th of the month</t>
+  </si>
+  <si>
+    <t>Vous souvenez-vous de la date de décès ?</t>
+  </si>
+  <si>
+    <t>Do you remember the date of death?</t>
+  </si>
+  <si>
+    <t>remember_death</t>
+  </si>
+  <si>
+    <t>Mort pendant la période de rappel?</t>
+  </si>
+  <si>
+    <t>Died during recall period?</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>${remember_dob}='yes'</t>
+  </si>
+  <si>
+    <t>Date de naissance</t>
+  </si>
+  <si>
+    <t>Birthday date</t>
+  </si>
+  <si>
+    <t>birthday_date</t>
+  </si>
+  <si>
+    <t>${born}='yes'</t>
+  </si>
+  <si>
+    <t>Use the calendar of events to help the person</t>
+  </si>
+  <si>
+    <t>Vous souvenez-vous de la date de naissance ?</t>
+  </si>
+  <si>
+    <t>Do you remember the date of birth?</t>
+  </si>
+  <si>
+    <t>remember_dob</t>
+  </si>
+  <si>
+    <t>Né(e) pendant la période de rappel?</t>
+  </si>
+  <si>
+    <t>Born during recall period?</t>
+  </si>
+  <si>
+    <t>born</t>
+  </si>
+  <si>
+    <t>${remember_departure}='yes'</t>
+  </si>
+  <si>
+    <t>Date de départ</t>
+  </si>
+  <si>
+    <t>Date of leaving</t>
+  </si>
+  <si>
+    <t>left_date</t>
+  </si>
+  <si>
+    <t>${left}='yes'</t>
+  </si>
+  <si>
+    <t>Vous souvenez-vous de la date de départ ?</t>
+  </si>
+  <si>
+    <t>Do you remember the date of departure?</t>
+  </si>
+  <si>
+    <t>remember_departure</t>
+  </si>
+  <si>
+    <t>Parti pendant la période de rappel?</t>
+  </si>
+  <si>
+    <t>Left during recall period?</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>${remember_arrival}='yes'</t>
+  </si>
+  <si>
+    <t>Date d'arrivée</t>
+  </si>
+  <si>
+    <t>Date of arrival</t>
+  </si>
+  <si>
+    <t>arrived_date</t>
+  </si>
+  <si>
+    <t>${arrived}='yes'</t>
+  </si>
+  <si>
+    <t>Vous souvenez-vous de la date d'arrivée ?</t>
+  </si>
+  <si>
+    <t>Do you remember the date of arrival?</t>
+  </si>
+  <si>
+    <t>remember_arrival</t>
+  </si>
+  <si>
+    <t>Arrivé pendant la période de rappel?</t>
+  </si>
+  <si>
+    <t>Arrived during recall period?</t>
+  </si>
+  <si>
+    <t>arrived</t>
+  </si>
+  <si>
+    <t>${pregnant}= 'yes'</t>
+  </si>
+  <si>
+    <t>Traitement anti-paludéen?</t>
+  </si>
+  <si>
+    <t>Got malaria treatment (IPT-SP)?</t>
+  </si>
+  <si>
+    <t>malaria_treatment</t>
+  </si>
+  <si>
+    <t>${sex}='female' and ${age_years} &gt;= 15 and ${age_years} &lt;= 49</t>
+  </si>
+  <si>
+    <t>Enceinte?</t>
+  </si>
+  <si>
+    <t>pregnant</t>
+  </si>
+  <si>
+    <t>${measles_vaccination}= 'yes'</t>
+  </si>
+  <si>
+    <t>Carte de vaccination?</t>
+  </si>
+  <si>
+    <t>Vaccination card?</t>
+  </si>
+  <si>
+    <t>vaccination_card</t>
+  </si>
+  <si>
+    <t>${age_months}&gt;5 or ${age_months_calc}&lt;61</t>
+  </si>
+  <si>
+    <t>Vaccination rougeole?</t>
+  </si>
+  <si>
+    <t>Measles vaccination?</t>
+  </si>
+  <si>
+    <t>measles_vaccination</t>
+  </si>
+  <si>
+    <t>${age_years} &gt;= 15 and ${read_write}= 'yes'</t>
+  </si>
+  <si>
+    <t>Niveau d'éducation le plus élevé?</t>
+  </si>
+  <si>
+    <t>Highest education level</t>
+  </si>
+  <si>
+    <t>education_level</t>
+  </si>
+  <si>
+    <t>select_one education_level</t>
+  </si>
+  <si>
+    <t>${age_years} &gt;= 15</t>
+  </si>
+  <si>
+    <t>Capable de lire et d'écrire?</t>
+  </si>
+  <si>
+    <t>Able to read and write?</t>
+  </si>
+  <si>
+    <t>read_write</t>
+  </si>
+  <si>
+    <t>A dormi sous une moustiquaire la nuit dernière</t>
+  </si>
+  <si>
+    <t>Slept under a bednet last night</t>
+  </si>
+  <si>
+    <t>bednet</t>
+  </si>
+  <si>
+    <t>.&gt;=0</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>${age_years}=0</t>
+  </si>
+  <si>
+    <t>Si moins d'un an, mettre l'âge en mois</t>
+  </si>
+  <si>
+    <t>If less than 1 year old, put the age in months</t>
+  </si>
+  <si>
+    <t>age_months</t>
+  </si>
+  <si>
+    <t>${age_years}*12</t>
+  </si>
+  <si>
+    <t>${age_years}&gt;0 and ${age_years}&lt;6</t>
+  </si>
+  <si>
+    <t>age_months_calc</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>Mettre 0 pour un enfant âgé de 0 à 11 mois et le nombre d'années pour un enfant d'un an et plus</t>
+  </si>
+  <si>
+    <t>Enter 0 for age between 0 to 11 months, and number of years for 1 year or greater</t>
+  </si>
+  <si>
+    <t>Age en année</t>
+  </si>
+  <si>
+    <t>age_years</t>
+  </si>
+  <si>
+    <t>Sexe</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>select_one sex</t>
+  </si>
+  <si>
+    <t>${member_number}</t>
+  </si>
+  <si>
+    <t>${consent}='yes'</t>
+  </si>
+  <si>
+    <t>Information par individu</t>
+  </si>
+  <si>
+    <t>Individual information</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>begin_repeat</t>
+  </si>
+  <si>
+    <t>end_group</t>
+  </si>
+  <si>
+    <t>.&gt;0</t>
+  </si>
+  <si>
+    <t>Combien de membres ont vécu dans le ménage depuis XX</t>
+  </si>
+  <si>
+    <t>How many members have lived in the household since XX</t>
+  </si>
+  <si>
+    <t>member_number</t>
+  </si>
+  <si>
+    <t>Composition du ménage</t>
+  </si>
+  <si>
+    <t>Household count</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>begin_group</t>
+  </si>
+  <si>
+    <t>${no_consent_reason}='other'</t>
+  </si>
+  <si>
+    <t>no_consent_other</t>
+  </si>
+  <si>
+    <t>${consent}='no'</t>
+  </si>
+  <si>
+    <t>Pouvez-vous nous donner les raisons pour ne pas vouloir participer?</t>
+  </si>
+  <si>
+    <t>Can you please let me know why you do not want to participate?</t>
+  </si>
+  <si>
+    <t>no_consent_reason</t>
+  </si>
+  <si>
+    <t>select_one no_consent</t>
+  </si>
+  <si>
+    <t>Consentez-vous à prendre part à cette enquête?</t>
+  </si>
+  <si>
+    <t>Do you consent to take part in this survey?</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>Consentement</t>
+  </si>
+  <si>
+    <t>Consent</t>
+  </si>
+  <si>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>${households_building} &gt; 1</t>
+  </si>
+  <si>
+    <t>Interroger le ménage ${random_hh}</t>
+  </si>
+  <si>
+    <t>Interview household ${random_hh}</t>
+  </si>
+  <si>
+    <t>random_hh_note</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>int(${households_building}*random())+1</t>
+  </si>
+  <si>
+    <t>random_hh</t>
+  </si>
+  <si>
+    <t>. &gt; 0 and . &lt; 100</t>
+  </si>
+  <si>
+    <t>Si &gt;1 ménage dans le bâtiment, donnez un numéro à chaque ménage.</t>
+  </si>
+  <si>
+    <t>If &gt;1 household in the building/compound, give a number to each household.</t>
+  </si>
+  <si>
+    <t>Combien de ménages se trouvent dans le batîment?</t>
+  </si>
+  <si>
+    <t>How many households are in this building/compound?</t>
+  </si>
+  <si>
+    <t>households_building</t>
+  </si>
+  <si>
+    <t>Numéro du ménage</t>
+  </si>
+  <si>
+    <t>Household number</t>
+  </si>
+  <si>
+    <t>household_number</t>
+  </si>
+  <si>
+    <t>Numéro de la grappe</t>
+  </si>
+  <si>
+    <t>Cluster number</t>
+  </si>
+  <si>
+    <t>${village_name}='other'</t>
+  </si>
+  <si>
+    <t>village_other</t>
+  </si>
+  <si>
+    <t>Nom du village</t>
+  </si>
+  <si>
+    <t>Village name</t>
+  </si>
+  <si>
+    <t>village_name</t>
+  </si>
+  <si>
+    <t>select_one village</t>
+  </si>
+  <si>
+    <t>Information sur le ménage</t>
+  </si>
+  <si>
+    <t>Household information</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>.&gt; 0</t>
+  </si>
+  <si>
+    <t>Numéro d'équipe</t>
+  </si>
+  <si>
+    <t>Team number</t>
+  </si>
+  <si>
+    <t>team_number</t>
+  </si>
+  <si>
+    <t>.&lt;= today()</t>
+  </si>
+  <si>
+    <t>.today()</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Information sur l'équipe</t>
+  </si>
+  <si>
+    <t>team information</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>Phone Serial Number</t>
+  </si>
+  <si>
+    <t>deviceid</t>
+  </si>
+  <si>
+    <t>Date of Survey</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>hint::french</t>
+  </si>
+  <si>
+    <t>hint::english</t>
+  </si>
+  <si>
+    <t>label::french</t>
+  </si>
+  <si>
+    <t>label::english</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Ne veut pas répondre</t>
+  </si>
+  <si>
+    <t>Doesn’t want to respond</t>
+  </si>
+  <si>
+    <t>no_response</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Détenu/Enlevé</t>
+  </si>
+  <si>
+    <t>Detained/Kidnapped</t>
+  </si>
+  <si>
+    <t>detained_kidnapped</t>
+  </si>
+  <si>
+    <t>Tir</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>Sexuelle</t>
+  </si>
+  <si>
+    <t>sexual</t>
+  </si>
+  <si>
+    <t>Frappé(e)</t>
+  </si>
+  <si>
+    <t>beaten</t>
+  </si>
+  <si>
+    <t>Ne sait pas</t>
+  </si>
+  <si>
+    <t>Don’t know</t>
+  </si>
+  <si>
+    <t>dont_know</t>
+  </si>
+  <si>
+    <t>violence</t>
+  </si>
+  <si>
+    <t>Traumatisme/Accident</t>
+  </si>
+  <si>
+    <t>trauma_accident</t>
+  </si>
+  <si>
+    <t>Pendant/Apres la naissance</t>
+  </si>
+  <si>
+    <t>During/after delivery (&lt;1 month)</t>
+  </si>
+  <si>
+    <t>during_after_delivery</t>
+  </si>
+  <si>
+    <t>Pendant la grossesse</t>
+  </si>
+  <si>
+    <t>During pregnancy</t>
+  </si>
+  <si>
+    <t>during_pregnancy</t>
+  </si>
+  <si>
+    <t>Paludisme/Fievre</t>
+  </si>
+  <si>
+    <t>Malaria/Fever</t>
+  </si>
+  <si>
+    <t>malaria_fever</t>
+  </si>
+  <si>
+    <t>Infection respiratoire</t>
+  </si>
+  <si>
+    <t>Respiratory infection</t>
+  </si>
+  <si>
+    <t>respiratory_infection</t>
+  </si>
+  <si>
+    <t>Diarrhée</t>
+  </si>
+  <si>
+    <t>diarrhoea</t>
+  </si>
+  <si>
+    <t>Enseignement supérieur</t>
+  </si>
+  <si>
+    <t>Higher</t>
+  </si>
+  <si>
+    <t>higher</t>
+  </si>
+  <si>
+    <t>Secondaire</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>Primaire</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>Féminin</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Masculin</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>no_consent</t>
+  </si>
+  <si>
+    <t>Il n'y a aucun avantage pour ma famille ou moi-meme</t>
+  </si>
+  <si>
+    <t>There is no benefit to me and my family</t>
+  </si>
+  <si>
+    <t>no_benefit</t>
+  </si>
+  <si>
+    <t>J'ai connu une expérience négative précedemment</t>
+  </si>
+  <si>
+    <t>I have had a negative experience with a previous survey.</t>
+  </si>
+  <si>
+    <t>neg_experience</t>
+  </si>
+  <si>
+    <t>Je n'ai pas le temps</t>
+  </si>
+  <si>
+    <t>I do not have time</t>
+  </si>
+  <si>
+    <t>no_time</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yn</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Village 10</t>
+  </si>
+  <si>
+    <t>village_10</t>
+  </si>
+  <si>
+    <t>Village 9</t>
+  </si>
+  <si>
+    <t>village_9</t>
+  </si>
+  <si>
+    <t>Village 8</t>
+  </si>
+  <si>
+    <t>village_8</t>
+  </si>
+  <si>
+    <t>Village 7</t>
+  </si>
+  <si>
+    <t>village_7</t>
+  </si>
+  <si>
+    <t>Village 6</t>
+  </si>
+  <si>
+    <t>village_6</t>
+  </si>
+  <si>
+    <t>Village 5</t>
+  </si>
+  <si>
+    <t>village_5</t>
+  </si>
+  <si>
+    <t>Village 4</t>
+  </si>
+  <si>
+    <t>village_4</t>
+  </si>
+  <si>
+    <t>Village 3</t>
+  </si>
+  <si>
+    <t>village_3</t>
+  </si>
+  <si>
+    <t>Village 2</t>
+  </si>
+  <si>
+    <t>village_2</t>
+  </si>
+  <si>
+    <t>Village 1</t>
+  </si>
+  <si>
+    <t>village_1</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>vi6r5JCRuUeq6vJn9t97Na</t>
+  </si>
+  <si>
+    <t>concat(${cluster_number},'_',${household_number},'_',${date})</t>
+  </si>
+  <si>
+    <t>mortality_household_questionnaire</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>instance_id</t>
+  </si>
+  <si>
+    <t>id_string</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,6 +1880,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1066,10 +1961,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1095,6 +1991,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1108,8 +2011,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1411,9 +2315,1723 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="9"/>
+    <col min="8" max="8" width="53.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="9"/>
+    <col min="10" max="10" width="46.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="11" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="11" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="H16" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="L16" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="L58" s="10"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;P</oddHeader>
+    <oddFooter>&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>520</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;P</oddHeader>
+    <oddFooter>&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>603</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;P</oddHeader>
+    <oddFooter>&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15:C18"/>
     </sheetView>
   </sheetViews>
@@ -1448,7 +4066,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="14">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1468,7 +4086,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1486,7 +4104,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="7" t="s">
         <v>174</v>
       </c>
@@ -1504,7 +4122,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>176</v>
       </c>
@@ -1522,7 +4140,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>178</v>
       </c>
@@ -1540,11 +4158,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1558,9 +4176,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1572,11 +4190,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1590,9 +4208,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1604,11 +4222,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1622,9 +4240,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1636,7 +4254,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="8" t="s">
         <v>311</v>
       </c>
@@ -1654,7 +4272,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="8" t="s">
         <v>313</v>
       </c>
@@ -1672,11 +4290,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1690,9 +4308,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1704,9 +4322,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1718,9 +4336,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1732,7 +4350,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
@@ -1750,13 +4368,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="14">
         <v>1</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1770,9 +4388,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1784,11 +4402,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1802,9 +4420,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1816,7 +4434,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
@@ -1834,7 +4452,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
@@ -1852,7 +4470,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="2" t="s">
         <v>44</v>
       </c>
@@ -1870,11 +4488,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1888,9 +4506,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1902,11 +4520,11 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1920,9 +4538,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1934,11 +4552,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -1952,9 +4570,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
@@ -1966,9 +4584,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="2" t="s">
         <v>28</v>
       </c>
@@ -1980,11 +4598,11 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -1998,9 +4616,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="2" t="s">
         <v>17</v>
       </c>
@@ -2012,9 +4630,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="2" t="s">
         <v>28</v>
       </c>
@@ -2026,9 +4644,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="2" t="s">
         <v>30</v>
       </c>
@@ -2040,9 +4658,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="2" t="s">
         <v>62</v>
       </c>
@@ -2054,9 +4672,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="2" t="s">
         <v>64</v>
       </c>
@@ -2068,9 +4686,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="2" t="s">
         <v>66</v>
       </c>
@@ -2082,9 +4700,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="2" t="s">
         <v>68</v>
       </c>
@@ -2096,9 +4714,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="2" t="s">
         <v>70</v>
       </c>
@@ -2110,7 +4728,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="2" t="s">
         <v>71</v>
       </c>
@@ -2128,11 +4746,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D44" s="2">
@@ -2146,9 +4764,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="2">
         <v>307</v>
       </c>
@@ -2160,11 +4778,11 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="14" t="s">
         <v>76</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -2178,9 +4796,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="2" t="s">
         <v>28</v>
       </c>
@@ -2192,9 +4810,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="2" t="s">
         <v>30</v>
       </c>
@@ -2206,9 +4824,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="2" t="s">
         <v>62</v>
       </c>
@@ -2220,9 +4838,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="2" t="s">
         <v>64</v>
       </c>
@@ -2234,9 +4852,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="2" t="s">
         <v>66</v>
       </c>
@@ -2248,9 +4866,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="2" t="s">
         <v>68</v>
       </c>
@@ -2262,9 +4880,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="2" t="s">
         <v>70</v>
       </c>
@@ -2276,9 +4894,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="2" t="s">
         <v>85</v>
       </c>
@@ -2290,7 +4908,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="2" t="s">
         <v>87</v>
       </c>
@@ -2308,11 +4926,11 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -2326,9 +4944,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="2" t="s">
         <v>28</v>
       </c>
@@ -2340,9 +4958,9 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="2" t="s">
         <v>30</v>
       </c>
@@ -2354,9 +4972,9 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="2" t="s">
         <v>62</v>
       </c>
@@ -2368,7 +4986,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="2" t="s">
         <v>94</v>
       </c>
@@ -2386,7 +5004,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="2" t="s">
         <v>96</v>
       </c>
@@ -2404,11 +5022,11 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="14" t="s">
         <v>100</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -2422,9 +5040,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="2" t="s">
         <v>17</v>
       </c>
@@ -2436,9 +5054,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="2" t="s">
         <v>28</v>
       </c>
@@ -2450,11 +5068,11 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="14" t="s">
         <v>103</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -2468,9 +5086,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="2" t="s">
         <v>17</v>
       </c>
@@ -2482,9 +5100,9 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="2" t="s">
         <v>28</v>
       </c>
@@ -2496,9 +5114,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="2" t="s">
         <v>30</v>
       </c>
@@ -2510,9 +5128,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
       <c r="D69" s="2" t="s">
         <v>62</v>
       </c>
@@ -2524,9 +5142,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="2" t="s">
         <v>64</v>
       </c>
@@ -2538,7 +5156,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="2" t="s">
         <v>108</v>
       </c>
@@ -2556,7 +5174,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
+      <c r="A72" s="14"/>
       <c r="B72" s="2" t="s">
         <v>110</v>
       </c>
@@ -2574,7 +5192,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
+      <c r="A73" s="14"/>
       <c r="B73" s="2" t="s">
         <v>112</v>
       </c>
@@ -2592,11 +5210,11 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9" t="s">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="14" t="s">
         <v>115</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -2610,9 +5228,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="2" t="s">
         <v>28</v>
       </c>
@@ -2624,9 +5242,9 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
       <c r="D76" s="2" t="s">
         <v>30</v>
       </c>
@@ -2638,9 +5256,9 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="2" t="s">
         <v>62</v>
       </c>
@@ -2652,9 +5270,9 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="2" t="s">
         <v>64</v>
       </c>
@@ -2666,7 +5284,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
+      <c r="A79" s="14"/>
       <c r="B79" s="2" t="s">
         <v>119</v>
       </c>
@@ -2684,11 +5302,11 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9" t="s">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -2702,9 +5320,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="2" t="s">
         <v>17</v>
       </c>
@@ -2716,7 +5334,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
+      <c r="A82" s="14"/>
       <c r="B82" s="2" t="s">
         <v>123</v>
       </c>
@@ -2734,11 +5352,11 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9" t="s">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="14" t="s">
         <v>126</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -2752,9 +5370,9 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="2" t="s">
         <v>28</v>
       </c>
@@ -2766,9 +5384,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="2" t="s">
         <v>30</v>
       </c>
@@ -2780,7 +5398,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
+      <c r="A86" s="14"/>
       <c r="B86" s="2" t="s">
         <v>129</v>
       </c>
@@ -2798,11 +5416,11 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9" t="s">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="14" t="s">
         <v>132</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -2816,9 +5434,9 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
       <c r="D88" s="2" t="s">
         <v>17</v>
       </c>
@@ -2830,7 +5448,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
+      <c r="A89" s="14"/>
       <c r="B89" s="2" t="s">
         <v>133</v>
       </c>
@@ -2848,11 +5466,11 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9" t="s">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="14" t="s">
         <v>136</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -2866,9 +5484,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="2" t="s">
         <v>28</v>
       </c>
@@ -2880,9 +5498,9 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="2" t="s">
         <v>30</v>
       </c>
@@ -2894,7 +5512,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
+      <c r="A93" s="14"/>
       <c r="B93" s="2" t="s">
         <v>137</v>
       </c>
@@ -2912,11 +5530,11 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9" t="s">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="14" t="s">
         <v>140</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -2930,9 +5548,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
       <c r="D95" s="2" t="s">
         <v>14</v>
       </c>
@@ -2944,7 +5562,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
+      <c r="A96" s="14"/>
       <c r="B96" s="2" t="s">
         <v>141</v>
       </c>
@@ -2962,11 +5580,11 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9" t="s">
+      <c r="A97" s="14"/>
+      <c r="B97" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="14" t="s">
         <v>144</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -2980,9 +5598,9 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
       <c r="D98" s="2" t="s">
         <v>28</v>
       </c>
@@ -2994,7 +5612,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
+      <c r="A99" s="14"/>
       <c r="B99" s="2" t="s">
         <v>145</v>
       </c>
@@ -3012,11 +5630,11 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9" t="s">
+      <c r="A100" s="14"/>
+      <c r="B100" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="14" t="s">
         <v>148</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -3030,9 +5648,9 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
       <c r="D101" s="2" t="s">
         <v>28</v>
       </c>
@@ -3044,9 +5662,9 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
       <c r="D102" s="2" t="s">
         <v>30</v>
       </c>
@@ -3058,9 +5676,9 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
       <c r="D103" s="2" t="s">
         <v>62</v>
       </c>
@@ -3072,9 +5690,9 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
       <c r="D104" s="2" t="s">
         <v>64</v>
       </c>
@@ -3086,9 +5704,9 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
       <c r="D105" s="2" t="s">
         <v>66</v>
       </c>
@@ -3100,9 +5718,9 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
       <c r="D106" s="2" t="s">
         <v>68</v>
       </c>
@@ -3114,9 +5732,9 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
       <c r="D107" s="2" t="s">
         <v>70</v>
       </c>
@@ -3128,9 +5746,9 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
       <c r="D108" s="2" t="s">
         <v>85</v>
       </c>
@@ -3142,9 +5760,9 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
       <c r="D109" s="2" t="s">
         <v>149</v>
       </c>
@@ -3156,7 +5774,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
+      <c r="A110" s="14"/>
       <c r="B110" s="2" t="s">
         <v>151</v>
       </c>
@@ -3174,11 +5792,11 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9" t="s">
+      <c r="A111" s="14"/>
+      <c r="B111" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="14" t="s">
         <v>154</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -3192,9 +5810,9 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
       <c r="D112" s="2" t="s">
         <v>28</v>
       </c>
@@ -3206,9 +5824,9 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
       <c r="D113" s="2" t="s">
         <v>30</v>
       </c>
@@ -3220,9 +5838,9 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
       <c r="D114" s="2" t="s">
         <v>62</v>
       </c>
@@ -3234,9 +5852,9 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
+      <c r="A115" s="14"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
       <c r="D115" s="2" t="s">
         <v>64</v>
       </c>
@@ -3248,9 +5866,9 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
+      <c r="A116" s="14"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
       <c r="D116" s="2" t="s">
         <v>66</v>
       </c>
@@ -3262,7 +5880,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
+      <c r="A117" s="14"/>
       <c r="B117" s="2" t="s">
         <v>155</v>
       </c>
@@ -3280,7 +5898,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
+      <c r="A118" s="14"/>
       <c r="B118" s="2" t="s">
         <v>157</v>
       </c>
@@ -3298,7 +5916,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
+      <c r="A119" s="14"/>
       <c r="B119" s="2" t="s">
         <v>159</v>
       </c>
@@ -3316,11 +5934,11 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9" t="s">
+      <c r="A120" s="14"/>
+      <c r="B120" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="14" t="s">
         <v>162</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -3334,9 +5952,9 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
+      <c r="A121" s="14"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
       <c r="D121" s="2" t="s">
         <v>28</v>
       </c>
@@ -3348,9 +5966,9 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
+      <c r="A122" s="14"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
       <c r="D122" s="2" t="s">
         <v>30</v>
       </c>
@@ -3362,9 +5980,9 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
+      <c r="A123" s="14"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
       <c r="D123" s="2" t="s">
         <v>62</v>
       </c>
@@ -3376,7 +5994,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="9"/>
+      <c r="A124" s="14"/>
       <c r="B124" s="2" t="s">
         <v>164</v>
       </c>
@@ -3394,11 +6012,11 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9" t="s">
+      <c r="A125" s="14"/>
+      <c r="B125" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="14" t="s">
         <v>167</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -3412,9 +6030,9 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
+      <c r="A126" s="14"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
       <c r="D126" s="2" t="s">
         <v>28</v>
       </c>
@@ -3426,9 +6044,9 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
+      <c r="A127" s="14"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
       <c r="D127" s="2" t="s">
         <v>30</v>
       </c>
@@ -3440,7 +6058,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="9"/>
+      <c r="A128" s="14"/>
       <c r="B128" s="2" t="s">
         <v>170</v>
       </c>
@@ -3458,7 +6076,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="9"/>
+      <c r="A129" s="14"/>
       <c r="B129" s="2" t="s">
         <v>172</v>
       </c>
@@ -3536,7 +6154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
@@ -3575,7 +6193,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="14">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3595,7 +6213,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="2" t="s">
         <v>176</v>
       </c>
@@ -3613,7 +6231,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2" t="s">
         <v>178</v>
       </c>
@@ -3631,7 +6249,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>180</v>
       </c>
@@ -3649,11 +6267,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3667,9 +6285,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
@@ -3681,11 +6299,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3699,9 +6317,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
@@ -3713,11 +6331,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3731,9 +6349,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
@@ -3745,7 +6363,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="8" t="s">
         <v>311</v>
       </c>
@@ -3763,7 +6381,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="8" t="s">
         <v>313</v>
       </c>
@@ -3781,11 +6399,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3799,9 +6417,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
@@ -3813,9 +6431,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
@@ -3827,9 +6445,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
@@ -3841,7 +6459,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
@@ -3859,13 +6477,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="14">
         <v>1</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -3879,9 +6497,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="2" t="s">
         <v>28</v>
       </c>
@@ -3893,7 +6511,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="2" t="s">
         <v>183</v>
       </c>
@@ -3911,11 +6529,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="15" t="s">
         <v>185</v>
       </c>
       <c r="D22" s="2">
@@ -3929,9 +6547,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="2">
         <v>2</v>
       </c>
@@ -3943,7 +6561,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="2" t="s">
         <v>186</v>
       </c>
@@ -3961,7 +6579,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
         <v>187</v>
       </c>
@@ -3979,7 +6597,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="2" t="s">
         <v>188</v>
       </c>
@@ -3997,11 +6615,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="15" t="s">
         <v>306</v>
       </c>
       <c r="D27" s="2">
@@ -4015,9 +6633,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="3">
         <v>2</v>
       </c>
@@ -4029,9 +6647,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="2">
         <v>3</v>
       </c>
@@ -4043,7 +6661,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="2" t="s">
         <v>189</v>
       </c>
@@ -4081,12 +6699,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B53"/>
+      <selection activeCell="C44" sqref="C44:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4120,7 +6738,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="14">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4140,7 +6758,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="7" t="s">
         <v>174</v>
       </c>
@@ -4158,7 +6776,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
         <v>176</v>
       </c>
@@ -4176,7 +6794,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>192</v>
       </c>
@@ -4194,11 +6812,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="14" t="s">
         <v>199</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -4212,9 +6830,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
@@ -4226,7 +6844,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
         <v>200</v>
       </c>
@@ -4244,11 +6862,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="14" t="s">
         <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -4262,9 +6880,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
@@ -4276,11 +6894,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="14" t="s">
         <v>205</v>
       </c>
       <c r="D11" s="2">
@@ -4294,9 +6912,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="2">
         <v>2</v>
       </c>
@@ -4308,9 +6926,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
@@ -4322,9 +6940,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="2" t="s">
         <v>62</v>
       </c>
@@ -4336,9 +6954,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="2" t="s">
         <v>64</v>
       </c>
@@ -4350,9 +6968,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="2" t="s">
         <v>66</v>
       </c>
@@ -4364,9 +6982,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="2" t="s">
         <v>68</v>
       </c>
@@ -4378,9 +6996,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="2" t="s">
         <v>70</v>
       </c>
@@ -4392,9 +7010,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
@@ -4406,7 +7024,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="2" t="s">
         <v>214</v>
       </c>
@@ -4424,7 +7042,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="8" t="s">
         <v>311</v>
       </c>
@@ -4442,7 +7060,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="8" t="s">
         <v>313</v>
       </c>
@@ -4460,11 +7078,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="14" t="s">
         <v>217</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -4478,9 +7096,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="2" t="s">
         <v>28</v>
       </c>
@@ -4492,9 +7110,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="2" t="s">
         <v>30</v>
       </c>
@@ -4506,9 +7124,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="2" t="s">
         <v>62</v>
       </c>
@@ -4520,7 +7138,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="2" t="s">
         <v>220</v>
       </c>
@@ -4538,13 +7156,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="14">
         <v>1</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="14" t="s">
         <v>223</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -4558,9 +7176,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="2" t="s">
         <v>28</v>
       </c>
@@ -4572,7 +7190,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="2" t="s">
         <v>224</v>
       </c>
@@ -4590,7 +7208,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="2" t="s">
         <v>226</v>
       </c>
@@ -4608,11 +7226,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="14" t="s">
         <v>229</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -4626,9 +7244,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="2" t="s">
         <v>17</v>
       </c>
@@ -4640,9 +7258,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="2" t="s">
         <v>28</v>
       </c>
@@ -4654,9 +7272,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="2" t="s">
         <v>30</v>
       </c>
@@ -4668,9 +7286,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="2" t="s">
         <v>85</v>
       </c>
@@ -4682,7 +7300,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="2" t="s">
         <v>234</v>
       </c>
@@ -4700,7 +7318,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="2" t="s">
         <v>236</v>
       </c>
@@ -4718,11 +7336,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="14" t="s">
         <v>239</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -4736,9 +7354,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="2" t="s">
         <v>28</v>
       </c>
@@ -4750,9 +7368,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="2" t="s">
         <v>30</v>
       </c>
@@ -4764,9 +7382,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="2" t="s">
         <v>197</v>
       </c>
@@ -4778,7 +7396,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="2" t="s">
         <v>240</v>
       </c>
@@ -4796,11 +7414,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="14" t="s">
         <v>243</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -4814,9 +7432,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="2" t="s">
         <v>28</v>
       </c>
@@ -4828,9 +7446,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="2" t="s">
         <v>30</v>
       </c>
@@ -4842,9 +7460,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="2" t="s">
         <v>62</v>
       </c>
@@ -4856,9 +7474,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="2" t="s">
         <v>64</v>
       </c>
@@ -4870,9 +7488,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="2" t="s">
         <v>66</v>
       </c>
@@ -4884,9 +7502,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="2" t="s">
         <v>68</v>
       </c>
@@ -4898,9 +7516,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="2" t="s">
         <v>70</v>
       </c>
@@ -4912,9 +7530,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="2" t="s">
         <v>85</v>
       </c>
@@ -4926,9 +7544,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="2" t="s">
         <v>149</v>
       </c>
@@ -4940,7 +7558,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="2" t="s">
         <v>254</v>
       </c>
@@ -4958,11 +7576,11 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="14" t="s">
         <v>257</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -4976,9 +7594,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="2" t="s">
         <v>17</v>
       </c>
@@ -4990,9 +7608,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="2" t="s">
         <v>28</v>
       </c>
@@ -5004,9 +7622,9 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="2" t="s">
         <v>30</v>
       </c>
@@ -5018,9 +7636,9 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="2" t="s">
         <v>85</v>
       </c>
@@ -5032,11 +7650,11 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="14" t="s">
         <v>259</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -5050,9 +7668,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="2" t="s">
         <v>28</v>
       </c>
@@ -5064,9 +7682,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="2" t="s">
         <v>30</v>
       </c>
@@ -5078,9 +7696,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="2" t="s">
         <v>62</v>
       </c>
@@ -5092,9 +7710,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="2" t="s">
         <v>64</v>
       </c>
@@ -5106,9 +7724,9 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="2" t="s">
         <v>66</v>
       </c>
@@ -5120,9 +7738,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="2" t="s">
         <v>68</v>
       </c>
@@ -5134,9 +7752,9 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="2" t="s">
         <v>70</v>
       </c>
@@ -5148,9 +7766,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="2" t="s">
         <v>85</v>
       </c>
@@ -5162,9 +7780,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
       <c r="D69" s="2" t="s">
         <v>149</v>
       </c>
@@ -5176,7 +7794,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
+      <c r="A70" s="14"/>
       <c r="B70" s="2" t="s">
         <v>260</v>
       </c>
@@ -5194,7 +7812,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="2" t="s">
         <v>262</v>
       </c>
@@ -5212,7 +7830,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
+      <c r="A72" s="14"/>
       <c r="B72" s="2" t="s">
         <v>264</v>
       </c>
@@ -5230,11 +7848,11 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="14" t="s">
         <v>239</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -5248,9 +7866,9 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
       <c r="D74" s="2" t="s">
         <v>28</v>
       </c>
@@ -5262,9 +7880,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="2" t="s">
         <v>30</v>
       </c>
@@ -5276,9 +7894,9 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
       <c r="D76" s="2" t="s">
         <v>197</v>
       </c>
@@ -5290,7 +7908,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
+      <c r="A77" s="14"/>
       <c r="B77" s="2" t="s">
         <v>267</v>
       </c>
@@ -5308,11 +7926,11 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="14" t="s">
         <v>270</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -5326,9 +7944,9 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="2" t="s">
         <v>17</v>
       </c>
@@ -5340,9 +7958,9 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="2" t="s">
         <v>28</v>
       </c>
@@ -5354,9 +7972,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="2" t="s">
         <v>30</v>
       </c>
@@ -5368,9 +7986,9 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="2" t="s">
         <v>62</v>
       </c>
@@ -5382,7 +8000,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
+      <c r="A83" s="14"/>
       <c r="B83" s="2" t="s">
         <v>271</v>
       </c>
@@ -5400,7 +8018,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
+      <c r="A84" s="14"/>
       <c r="B84" s="2" t="s">
         <v>272</v>
       </c>
@@ -5418,11 +8036,11 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9" t="s">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="14" t="s">
         <v>275</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -5436,9 +8054,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
       <c r="D86" s="2" t="s">
         <v>28</v>
       </c>
@@ -5450,9 +8068,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
       <c r="D87" s="2" t="s">
         <v>30</v>
       </c>
@@ -5464,9 +8082,9 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
       <c r="D88" s="2" t="s">
         <v>197</v>
       </c>
@@ -5478,7 +8096,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
+      <c r="A89" s="14"/>
       <c r="B89" s="2" t="s">
         <v>276</v>
       </c>
@@ -5496,11 +8114,11 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9" t="s">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="14" t="s">
         <v>279</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -5514,9 +8132,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="2" t="s">
         <v>28</v>
       </c>
@@ -5528,9 +8146,9 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="2" t="s">
         <v>30</v>
       </c>
@@ -5542,9 +8160,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="2" t="s">
         <v>62</v>
       </c>
@@ -5556,9 +8174,9 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
       <c r="D94" s="2" t="s">
         <v>64</v>
       </c>
@@ -5570,9 +8188,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
       <c r="D95" s="2" t="s">
         <v>66</v>
       </c>
@@ -5584,9 +8202,9 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
       <c r="D96" s="2" t="s">
         <v>68</v>
       </c>
@@ -5598,9 +8216,9 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
       <c r="D97" s="2" t="s">
         <v>70</v>
       </c>
@@ -5612,9 +8230,9 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
       <c r="D98" s="2" t="s">
         <v>85</v>
       </c>
@@ -5626,9 +8244,9 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
       <c r="D99" s="2" t="s">
         <v>149</v>
       </c>
@@ -5640,9 +8258,9 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
       <c r="D100" s="2" t="s">
         <v>281</v>
       </c>
@@ -5654,9 +8272,9 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
       <c r="D101" s="2" t="s">
         <v>283</v>
       </c>
@@ -5668,9 +8286,9 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
       <c r="D102" s="2" t="s">
         <v>285</v>
       </c>
@@ -5682,9 +8300,9 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
       <c r="D103" s="2" t="s">
         <v>287</v>
       </c>
@@ -5696,9 +8314,9 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
       <c r="D104" s="2" t="s">
         <v>289</v>
       </c>
@@ -5710,9 +8328,9 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
       <c r="D105" s="2" t="s">
         <v>291</v>
       </c>
@@ -5724,9 +8342,9 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
       <c r="D106" s="2" t="s">
         <v>293</v>
       </c>
@@ -5738,9 +8356,9 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
       <c r="D107" s="2" t="s">
         <v>295</v>
       </c>
@@ -5752,9 +8370,9 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
       <c r="D108" s="2" t="s">
         <v>297</v>
       </c>
@@ -5766,7 +8384,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
+      <c r="A109" s="14"/>
       <c r="B109" s="2" t="s">
         <v>298</v>
       </c>
@@ -5784,11 +8402,11 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9" t="s">
+      <c r="A110" s="14"/>
+      <c r="B110" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="14" t="s">
         <v>300</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -5802,9 +8420,9 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
       <c r="D111" s="2" t="s">
         <v>14</v>
       </c>
@@ -5816,9 +8434,9 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
       <c r="D112" s="2" t="s">
         <v>28</v>
       </c>
@@ -5830,7 +8448,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="9"/>
+      <c r="A113" s="14"/>
       <c r="B113" s="2" t="s">
         <v>301</v>
       </c>
@@ -5848,7 +8466,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="9"/>
+      <c r="A114" s="14"/>
       <c r="B114" s="2" t="s">
         <v>303</v>
       </c>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality" sheetId="11" r:id="rId1"/>
@@ -17,7 +17,10 @@
     <sheet name="Mortality_settings" sheetId="13" r:id="rId3"/>
     <sheet name="Mortality_OLD" sheetId="7" r:id="rId4"/>
     <sheet name="Nutrition" sheetId="8" r:id="rId5"/>
-    <sheet name="Vaccination" sheetId="10" r:id="rId6"/>
+    <sheet name="Vaccination" sheetId="14" r:id="rId6"/>
+    <sheet name="Vaccination_choices" sheetId="15" r:id="rId7"/>
+    <sheet name="Vaccination_settings" sheetId="16" r:id="rId8"/>
+    <sheet name="Vaccination_OLD" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="836">
   <si>
     <t>level</t>
   </si>
@@ -1859,13 +1862,695 @@
   </si>
   <si>
     <t>id_string</t>
+  </si>
+  <si>
+    <t>${diagnosis_disease}='yes'</t>
+  </si>
+  <si>
+    <t>Age de l'enfant lorsqu'il a eu la rougeole (en mois)</t>
+  </si>
+  <si>
+    <t>Age of child when they had measles (months)</t>
+  </si>
+  <si>
+    <t>age_diagnosis</t>
+  </si>
+  <si>
+    <t>L'enfant a-t-il déjà eu la rougeole?</t>
+  </si>
+  <si>
+    <t>Did the child previously have measles?</t>
+  </si>
+  <si>
+    <t>diagnosis_disease</t>
+  </si>
+  <si>
+    <t>select_one yndk</t>
+  </si>
+  <si>
+    <t>${consent}='yes' and ${child_number} &gt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Antécédents de rougeole</t>
+  </si>
+  <si>
+    <t>Previous diagnosis</t>
+  </si>
+  <si>
+    <t>g9</t>
+  </si>
+  <si>
+    <t>${reason_sia_vacc}='other'</t>
+  </si>
+  <si>
+    <t>Veuillez spécifier la raison</t>
+  </si>
+  <si>
+    <t>Specify other reason</t>
+  </si>
+  <si>
+    <t>reason_sia_other</t>
+  </si>
+  <si>
+    <t>${sia_vacc} = 'no'</t>
+  </si>
+  <si>
+    <t>Raison pour ne pas avoir pris la vaccination d'avs</t>
+  </si>
+  <si>
+    <t>Reason for non SIA vaccination</t>
+  </si>
+  <si>
+    <t>reason_sia_vacc</t>
+  </si>
+  <si>
+    <t>select_one reason_msf</t>
+  </si>
+  <si>
+    <t>${sia_vacc} = 'verbal' or ${sia_vacc} = 'card'</t>
+  </si>
+  <si>
+    <t>Endroit de l'activité de vaccination supplémentaire</t>
+  </si>
+  <si>
+    <t>Place of SIA vaccination</t>
+  </si>
+  <si>
+    <t>place_sia_vacc</t>
+  </si>
+  <si>
+    <t>Âge de l'enfant au moment de la vaccination (en mois)</t>
+  </si>
+  <si>
+    <t>Age of child at the time of vaccination (months)</t>
+  </si>
+  <si>
+    <t>age_sia_vacc</t>
+  </si>
+  <si>
+    <t>AVS - 6 mois à 9 ans</t>
+  </si>
+  <si>
+    <t>Immunisation SIA/NID - 6 months to 9 years</t>
+  </si>
+  <si>
+    <t>sia_vacc</t>
+  </si>
+  <si>
+    <t>select_one vaccination</t>
+  </si>
+  <si>
+    <t>Activités de vaccination supplémentaire</t>
+  </si>
+  <si>
+    <t>Immunisation SIA/NID</t>
+  </si>
+  <si>
+    <t>g8</t>
+  </si>
+  <si>
+    <t>${reason_msf_vacc}='other'</t>
+  </si>
+  <si>
+    <t>reason_msf_other</t>
+  </si>
+  <si>
+    <t>${msf_vacc} = 'no'</t>
+  </si>
+  <si>
+    <t>Raison pour ne pas avoir pris la vaccination de MSF</t>
+  </si>
+  <si>
+    <t>Reason for non MSF vaccination</t>
+  </si>
+  <si>
+    <t>reason_msf_vacc</t>
+  </si>
+  <si>
+    <t>${msf_vacc} = 'verbal' or ${msf_vacc} = 'card'</t>
+  </si>
+  <si>
+    <t>Endroit de la vaccination de MSF</t>
+  </si>
+  <si>
+    <t>Place of MSF vaccination</t>
+  </si>
+  <si>
+    <t>place_msf_vacc</t>
+  </si>
+  <si>
+    <t>select_one place_msf</t>
+  </si>
+  <si>
+    <t>age_msf_vacc</t>
+  </si>
+  <si>
+    <t>Campagne de vaccination de MSF - 6 mois à 9 ans</t>
+  </si>
+  <si>
+    <t>MSF Vaccination Campaign - 6 months to 9 years</t>
+  </si>
+  <si>
+    <t>msf_vacc</t>
+  </si>
+  <si>
+    <t>Vaccination de MSF</t>
+  </si>
+  <si>
+    <t>MSF vaccination</t>
+  </si>
+  <si>
+    <t>g7</t>
+  </si>
+  <si>
+    <t>${reason_route_vacc}='other'</t>
+  </si>
+  <si>
+    <t>reason_route_other</t>
+  </si>
+  <si>
+    <t>${routine_vacc} = 'no'</t>
+  </si>
+  <si>
+    <t>Raison pour ne pas avoir pris la vaccination de routine</t>
+  </si>
+  <si>
+    <t>Reason for non routine vaccination</t>
+  </si>
+  <si>
+    <t>reason_route_vacc</t>
+  </si>
+  <si>
+    <t>select_one reason_routine</t>
+  </si>
+  <si>
+    <t>${routine_vacc} = 'verbal' or ${routine_vacc} = 'card'</t>
+  </si>
+  <si>
+    <t>Endroit de la vaccination de routine</t>
+  </si>
+  <si>
+    <t>Place of routine vaccination</t>
+  </si>
+  <si>
+    <t>place_routine_vacc</t>
+  </si>
+  <si>
+    <t>select_one place_routine</t>
+  </si>
+  <si>
+    <t>age_routine_vacc</t>
+  </si>
+  <si>
+    <t>Vaccination de routine - Vaccin de 9 mois</t>
+  </si>
+  <si>
+    <t>Routine Vaccination - 9 months vaccine</t>
+  </si>
+  <si>
+    <t>routine_vacc</t>
+  </si>
+  <si>
+    <t>Vaccination de routine</t>
+  </si>
+  <si>
+    <t>Routine vaccination</t>
+  </si>
+  <si>
+    <t>g6</t>
+  </si>
+  <si>
+    <t>.&lt;12</t>
+  </si>
+  <si>
+    <t>Si l'enfant a mois d'un an, indiquez l'âge en mois</t>
+  </si>
+  <si>
+    <t>.&lt;=15</t>
+  </si>
+  <si>
+    <t>Saisissez 0 pour un âge compris entre 0 et 11 mois, et le nombre d'années pour un an ou plus</t>
+  </si>
+  <si>
+    <t>Age d'enfant en années</t>
+  </si>
+  <si>
+    <t>Numéro d'enfant</t>
+  </si>
+  <si>
+    <t>Child number</t>
+  </si>
+  <si>
+    <t>child_number</t>
+  </si>
+  <si>
+    <t>Information sur les enfants</t>
+  </si>
+  <si>
+    <t>Child Demographics</t>
+  </si>
+  <si>
+    <t>g5</t>
+  </si>
+  <si>
+    <t>${children_count}</t>
+  </si>
+  <si>
+    <t>Combien d'enfants âgés de 6 mois à 9 ans se trouvent dans le ménage ?</t>
+  </si>
+  <si>
+    <t>How many children between 6 months and 9 years are in the household?</t>
+  </si>
+  <si>
+    <t>children_count</t>
+  </si>
+  <si>
+    <t>Nombre d'enfants</t>
+  </si>
+  <si>
+    <t>Children count</t>
+  </si>
+  <si>
+    <t>Pouvez-vous me faire savoir pourquoi vous ne voulez pas participer ?</t>
+  </si>
+  <si>
+    <t>Quel âge a la personne responsable d'enfants?</t>
+  </si>
+  <si>
+    <t>How old is the caretaker?</t>
+  </si>
+  <si>
+    <t>age_caretaker</t>
+  </si>
+  <si>
+    <t>${caretaker} = 'other'</t>
+  </si>
+  <si>
+    <t>Veuillez spécifier la personne responsable d'enfants</t>
+  </si>
+  <si>
+    <t>Other caretaker, please specify</t>
+  </si>
+  <si>
+    <t>other_caretaker</t>
+  </si>
+  <si>
+    <t>Qui est la personne responsable d'enfants ?</t>
+  </si>
+  <si>
+    <t>Who is the main caretaker?</t>
+  </si>
+  <si>
+    <t>caretaker</t>
+  </si>
+  <si>
+    <t>select_one caretaker</t>
+  </si>
+  <si>
+    <t>Consentement verbal donné par le participant ?</t>
+  </si>
+  <si>
+    <t>Verbal consent given by participant?</t>
+  </si>
+  <si>
+    <t>Si &gt;1 ménage dans le bâtiment/l'endroit clotûré, donnez un numéro à chaque ménage.</t>
+  </si>
+  <si>
+    <t>Combien de ménages se trouvent dans le batîment/l'endroit clotûré?</t>
+  </si>
+  <si>
+    <t>Veuillez spécifier le nom du village</t>
+  </si>
+  <si>
+    <t>Numéro de l'équipe</t>
+  </si>
+  <si>
+    <t>Place routine8</t>
+  </si>
+  <si>
+    <t>place_routine8</t>
+  </si>
+  <si>
+    <t>place_routine</t>
+  </si>
+  <si>
+    <t>Place routine7</t>
+  </si>
+  <si>
+    <t>place_routine7</t>
+  </si>
+  <si>
+    <t>Place routine6</t>
+  </si>
+  <si>
+    <t>place_routine6</t>
+  </si>
+  <si>
+    <t>Place routine5</t>
+  </si>
+  <si>
+    <t>place_routine5</t>
+  </si>
+  <si>
+    <t>Place routine4</t>
+  </si>
+  <si>
+    <t>place_routine4</t>
+  </si>
+  <si>
+    <t>Place routine3</t>
+  </si>
+  <si>
+    <t>place_routine3</t>
+  </si>
+  <si>
+    <t>Place routine2</t>
+  </si>
+  <si>
+    <t>place_routine2</t>
+  </si>
+  <si>
+    <t>Place routine1</t>
+  </si>
+  <si>
+    <t>place_routine1</t>
+  </si>
+  <si>
+    <t>Place MSF9</t>
+  </si>
+  <si>
+    <t>place_msf9</t>
+  </si>
+  <si>
+    <t>place_msf</t>
+  </si>
+  <si>
+    <t>Place MSF8</t>
+  </si>
+  <si>
+    <t>place_msf8</t>
+  </si>
+  <si>
+    <t>Place MSF7</t>
+  </si>
+  <si>
+    <t>place_msf7</t>
+  </si>
+  <si>
+    <t>Place MSF6</t>
+  </si>
+  <si>
+    <t>place_msf6</t>
+  </si>
+  <si>
+    <t>Place MSF5</t>
+  </si>
+  <si>
+    <t>place_msf5</t>
+  </si>
+  <si>
+    <t>Place MSF4</t>
+  </si>
+  <si>
+    <t>place_msf4</t>
+  </si>
+  <si>
+    <t>Place MSF3</t>
+  </si>
+  <si>
+    <t>place_msf3</t>
+  </si>
+  <si>
+    <t>Place MSF2</t>
+  </si>
+  <si>
+    <t>place_msf2</t>
+  </si>
+  <si>
+    <t>Place MSF1</t>
+  </si>
+  <si>
+    <t>place_msf1</t>
+  </si>
+  <si>
+    <t>Soeur</t>
+  </si>
+  <si>
+    <t>sister</t>
+  </si>
+  <si>
+    <t>Frère</t>
+  </si>
+  <si>
+    <t>brother</t>
+  </si>
+  <si>
+    <t>Oncle</t>
+  </si>
+  <si>
+    <t>uncle</t>
+  </si>
+  <si>
+    <t>Tante</t>
+  </si>
+  <si>
+    <t>aunt</t>
+  </si>
+  <si>
+    <t>Grand-père</t>
+  </si>
+  <si>
+    <t>grandfather</t>
+  </si>
+  <si>
+    <t>Grand-mère</t>
+  </si>
+  <si>
+    <t>grandmother</t>
+  </si>
+  <si>
+    <t>Père</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>Mère</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>Pas de réponse</t>
+  </si>
+  <si>
+    <t>no_answer</t>
+  </si>
+  <si>
+    <t>yndk</t>
+  </si>
+  <si>
+    <t>Autre raison</t>
+  </si>
+  <si>
+    <t>other_msf</t>
+  </si>
+  <si>
+    <t>reason_msf</t>
+  </si>
+  <si>
+    <t>Pas assez de vaccin sur le lieu de vaccination</t>
+  </si>
+  <si>
+    <t>no_vaccine</t>
+  </si>
+  <si>
+    <t>Le vaccinateur a décidé de ne pas vacciner l'enfant</t>
+  </si>
+  <si>
+    <t>Vaccinator decided not to vaccinate the child</t>
+  </si>
+  <si>
+    <t>vaccinator_refused</t>
+  </si>
+  <si>
+    <t>Un enfant a été malade lors d'une campagne de vaccination</t>
+  </si>
+  <si>
+    <t>Child was sick during vaccination campaign</t>
+  </si>
+  <si>
+    <t>child_sick</t>
+  </si>
+  <si>
+    <t>La famille était à l'extérieur du village pendant la campagne</t>
+  </si>
+  <si>
+    <t>family_away</t>
+  </si>
+  <si>
+    <t>La campagne a eu lieu dimanche</t>
+  </si>
+  <si>
+    <t>Campaign took place on Sunday</t>
+  </si>
+  <si>
+    <t>timing</t>
+  </si>
+  <si>
+    <t>Il/elle travaillait pendant la campagne</t>
+  </si>
+  <si>
+    <t>S/he was working during the campaign</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>Lieu de vaccination trop éloigné/trop cher</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>N'était pas au courant de la campagne de vaccination</t>
+  </si>
+  <si>
+    <t>Did not know about vaccination campaign</t>
+  </si>
+  <si>
+    <t>unaware_campaign</t>
+  </si>
+  <si>
+    <t>Ne savait pas qu'il pouvait vacciner l'enfant</t>
+  </si>
+  <si>
+    <t>Did not know that s/he could vaccinate the child</t>
+  </si>
+  <si>
+    <t>unaware_eligible</t>
+  </si>
+  <si>
+    <t>other_routine</t>
+  </si>
+  <si>
+    <t>reason_routine</t>
+  </si>
+  <si>
+    <t>L'enfant a déjà été vacciné</t>
+  </si>
+  <si>
+    <t>already_vaccinated</t>
+  </si>
+  <si>
+    <t>L'enfant était trop vieux</t>
+  </si>
+  <si>
+    <t>child_old</t>
+  </si>
+  <si>
+    <t>L'enfant était trop jeune</t>
+  </si>
+  <si>
+    <t>child_young</t>
+  </si>
+  <si>
+    <t>Croyances religieuses</t>
+  </si>
+  <si>
+    <t>religious_beliefs</t>
+  </si>
+  <si>
+    <t>Le père n'a pas permis à la mère de vacciner l'enfant</t>
+  </si>
+  <si>
+    <t>father_refused</t>
+  </si>
+  <si>
+    <t>La vaccination est douloureuse pour l'enfant</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>Les vaccins ne sont pas bénéfiques</t>
+  </si>
+  <si>
+    <t>Vaccines are not beneficial</t>
+  </si>
+  <si>
+    <t>not_beneficial</t>
+  </si>
+  <si>
+    <t>Mauvaise expérience antérieure en matière de vaccination</t>
+  </si>
+  <si>
+    <t>bad_experience</t>
+  </si>
+  <si>
+    <t>Les vaccins sont dangereux pour les enfants</t>
+  </si>
+  <si>
+    <t>Vaccines dangerous for the child</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>vaccination</t>
+  </si>
+  <si>
+    <t>Oui, avec carte</t>
+  </si>
+  <si>
+    <t>Yes, card</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>Oui, verbal</t>
+  </si>
+  <si>
+    <t>Yes, verbal</t>
+  </si>
+  <si>
+    <t>verbal</t>
+  </si>
+  <si>
+    <t>Femme</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>Il n'y a aucun avantage pour moi et ma famille</t>
+  </si>
+  <si>
+    <t>J'ai eu une expérience négative lors d'une précédente enquête</t>
+  </si>
+  <si>
+    <t>Je n'ai pas du temps</t>
+  </si>
+  <si>
+    <t>autre</t>
+  </si>
+  <si>
+    <t>vp4xBmVjJ7cMEAwbm4nAPv</t>
+  </si>
+  <si>
+    <t>concat(${cluster_number},'_',${household_number}, '_',${date})</t>
+  </si>
+  <si>
+    <t>vaccine_coverage_survey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1888,6 +2573,18 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1965,7 +2662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2010,6 +2707,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2320,8 +3035,8 @@
   </sheetPr>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4031,8 +4746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6095,6 +6810,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C100:C109"/>
+    <mergeCell ref="C111:C116"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B111:B116"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B87:B88"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A20:A129"/>
     <mergeCell ref="B7:B8"/>
@@ -6111,44 +6864,6 @@
     <mergeCell ref="B46:B54"/>
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B100:B109"/>
-    <mergeCell ref="B111:B116"/>
-    <mergeCell ref="B120:B123"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C100:C109"/>
-    <mergeCell ref="C111:C116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6701,6 +7416,2196 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L63"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" style="9" customWidth="1"/>
+    <col min="5" max="6" width="28.85546875" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="12" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="12" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="L16" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>708</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>705</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>704</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="H22" s="20" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="H24" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="H25" s="10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="H27" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="I28" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="J30" s="10" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="H31" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="K32" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:11" s="11" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="H35" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="H37" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="H39" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="H40" s="10" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="H41" s="10" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="H42" s="10" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="H44" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="H46" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="H47" s="10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="H48" s="10" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="H49" s="10" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="H51" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="H53" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="H54" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="H55" s="10" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="H56" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" spans="1:12" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="H58" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="H60" s="10" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="L63" s="10"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;P</oddHeader>
+    <oddFooter>&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>767</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>765</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>761</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>757</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>751</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>747</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>740</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>739</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>738</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>732</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>731</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>729</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>728</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>725</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>723</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>722</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>721</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>720</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>717</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>716</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>716</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;P</oddHeader>
+    <oddFooter>&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>833</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;P</oddHeader>
+    <oddFooter>&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -8485,6 +11390,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C90:C108"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C39:C42"/>
     <mergeCell ref="A2:A27"/>
     <mergeCell ref="A28:A114"/>
     <mergeCell ref="B85:B88"/>
@@ -8501,22 +11422,6 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B44:B53"/>
-    <mergeCell ref="C44:C53"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C90:C108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality" sheetId="11" r:id="rId1"/>
-    <sheet name="Mortality_choices" sheetId="12" r:id="rId2"/>
+    <sheet name="Mortality_options" sheetId="12" r:id="rId2"/>
     <sheet name="Mortality_settings" sheetId="13" r:id="rId3"/>
     <sheet name="Mortality_OLD" sheetId="7" r:id="rId4"/>
     <sheet name="Nutrition" sheetId="8" r:id="rId5"/>
     <sheet name="Vaccination" sheetId="14" r:id="rId6"/>
-    <sheet name="Vaccination_choices" sheetId="15" r:id="rId7"/>
+    <sheet name="Vaccination_options" sheetId="15" r:id="rId7"/>
     <sheet name="Vaccination_settings" sheetId="16" r:id="rId8"/>
     <sheet name="Vaccination_OLD" sheetId="10" r:id="rId9"/>
   </sheets>
@@ -2695,18 +2695,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2725,6 +2713,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3035,8 +3035,8 @@
   </sheetPr>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4144,7 +4144,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4702,7 +4702,9 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4746,7 +4748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -4781,7 +4783,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="22">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4801,7 +4803,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -4819,7 +4821,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="7" t="s">
         <v>174</v>
       </c>
@@ -4837,7 +4839,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>176</v>
       </c>
@@ -4855,7 +4857,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
         <v>178</v>
       </c>
@@ -4873,11 +4875,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -4891,9 +4893,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
@@ -4905,11 +4907,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -4923,9 +4925,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
@@ -4937,11 +4939,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -4955,9 +4957,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
@@ -4969,7 +4971,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
         <v>311</v>
       </c>
@@ -4987,7 +4989,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="8" t="s">
         <v>313</v>
       </c>
@@ -5005,11 +5007,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="22" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -5023,9 +5025,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
@@ -5037,9 +5039,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
@@ -5051,9 +5053,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
@@ -5065,7 +5067,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
@@ -5083,13 +5085,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="22">
         <v>1</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -5103,9 +5105,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="2" t="s">
         <v>28</v>
       </c>
@@ -5117,11 +5119,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -5135,9 +5137,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="2" t="s">
         <v>28</v>
       </c>
@@ -5149,7 +5151,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
@@ -5167,7 +5169,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="2" t="s">
         <v>41</v>
       </c>
@@ -5185,7 +5187,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="2" t="s">
         <v>44</v>
       </c>
@@ -5203,11 +5205,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="22" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -5221,9 +5223,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="2" t="s">
         <v>28</v>
       </c>
@@ -5235,11 +5237,11 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -5253,9 +5255,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="2" t="s">
         <v>28</v>
       </c>
@@ -5267,11 +5269,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -5285,9 +5287,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
@@ -5299,9 +5301,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="2" t="s">
         <v>28</v>
       </c>
@@ -5313,11 +5315,11 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -5331,9 +5333,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="2" t="s">
         <v>17</v>
       </c>
@@ -5345,9 +5347,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="2" t="s">
         <v>28</v>
       </c>
@@ -5359,9 +5361,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="2" t="s">
         <v>30</v>
       </c>
@@ -5373,9 +5375,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="2" t="s">
         <v>62</v>
       </c>
@@ -5387,9 +5389,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="2" t="s">
         <v>64</v>
       </c>
@@ -5401,9 +5403,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="2" t="s">
         <v>66</v>
       </c>
@@ -5415,9 +5417,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="2" t="s">
         <v>68</v>
       </c>
@@ -5429,9 +5431,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="2" t="s">
         <v>70</v>
       </c>
@@ -5443,7 +5445,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="2" t="s">
         <v>71</v>
       </c>
@@ -5461,11 +5463,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14" t="s">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="22" t="s">
         <v>74</v>
       </c>
       <c r="D44" s="2">
@@ -5479,9 +5481,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="2">
         <v>307</v>
       </c>
@@ -5493,11 +5495,11 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14" t="s">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="22" t="s">
         <v>76</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -5511,9 +5513,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="2" t="s">
         <v>28</v>
       </c>
@@ -5525,9 +5527,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="2" t="s">
         <v>30</v>
       </c>
@@ -5539,9 +5541,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="2" t="s">
         <v>62</v>
       </c>
@@ -5553,9 +5555,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="2" t="s">
         <v>64</v>
       </c>
@@ -5567,9 +5569,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="2" t="s">
         <v>66</v>
       </c>
@@ -5581,9 +5583,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="2" t="s">
         <v>68</v>
       </c>
@@ -5595,9 +5597,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="2" t="s">
         <v>70</v>
       </c>
@@ -5609,9 +5611,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="2" t="s">
         <v>85</v>
       </c>
@@ -5623,7 +5625,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="2" t="s">
         <v>87</v>
       </c>
@@ -5641,11 +5643,11 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14" t="s">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="22" t="s">
         <v>90</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -5659,9 +5661,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="2" t="s">
         <v>28</v>
       </c>
@@ -5673,9 +5675,9 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="2" t="s">
         <v>30</v>
       </c>
@@ -5687,9 +5689,9 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="2" t="s">
         <v>62</v>
       </c>
@@ -5701,7 +5703,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="2" t="s">
         <v>94</v>
       </c>
@@ -5719,7 +5721,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="2" t="s">
         <v>96</v>
       </c>
@@ -5737,11 +5739,11 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14" t="s">
+      <c r="A62" s="22"/>
+      <c r="B62" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="22" t="s">
         <v>100</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -5755,9 +5757,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="2" t="s">
         <v>17</v>
       </c>
@@ -5769,9 +5771,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="2" t="s">
         <v>28</v>
       </c>
@@ -5783,11 +5785,11 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14" t="s">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="22" t="s">
         <v>103</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -5801,9 +5803,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="2" t="s">
         <v>17</v>
       </c>
@@ -5815,9 +5817,9 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
       <c r="D67" s="2" t="s">
         <v>28</v>
       </c>
@@ -5829,9 +5831,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="2" t="s">
         <v>30</v>
       </c>
@@ -5843,9 +5845,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="2" t="s">
         <v>62</v>
       </c>
@@ -5857,9 +5859,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="2" t="s">
         <v>64</v>
       </c>
@@ -5871,7 +5873,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="2" t="s">
         <v>108</v>
       </c>
@@ -5889,7 +5891,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="2" t="s">
         <v>110</v>
       </c>
@@ -5907,7 +5909,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="2" t="s">
         <v>112</v>
       </c>
@@ -5925,11 +5927,11 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14" t="s">
+      <c r="A74" s="22"/>
+      <c r="B74" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="22" t="s">
         <v>115</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -5943,9 +5945,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
       <c r="D75" s="2" t="s">
         <v>28</v>
       </c>
@@ -5957,9 +5959,9 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
       <c r="D76" s="2" t="s">
         <v>30</v>
       </c>
@@ -5971,9 +5973,9 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
       <c r="D77" s="2" t="s">
         <v>62</v>
       </c>
@@ -5985,9 +5987,9 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
       <c r="D78" s="2" t="s">
         <v>64</v>
       </c>
@@ -5999,7 +6001,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+      <c r="A79" s="22"/>
       <c r="B79" s="2" t="s">
         <v>119</v>
       </c>
@@ -6017,11 +6019,11 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14" t="s">
+      <c r="A80" s="22"/>
+      <c r="B80" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="22" t="s">
         <v>122</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -6035,9 +6037,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
       <c r="D81" s="2" t="s">
         <v>17</v>
       </c>
@@ -6049,7 +6051,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+      <c r="A82" s="22"/>
       <c r="B82" s="2" t="s">
         <v>123</v>
       </c>
@@ -6067,11 +6069,11 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14" t="s">
+      <c r="A83" s="22"/>
+      <c r="B83" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -6085,9 +6087,9 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
       <c r="D84" s="2" t="s">
         <v>28</v>
       </c>
@@ -6099,9 +6101,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
       <c r="D85" s="2" t="s">
         <v>30</v>
       </c>
@@ -6113,7 +6115,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+      <c r="A86" s="22"/>
       <c r="B86" s="2" t="s">
         <v>129</v>
       </c>
@@ -6131,11 +6133,11 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14" t="s">
+      <c r="A87" s="22"/>
+      <c r="B87" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="22" t="s">
         <v>132</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -6149,9 +6151,9 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
       <c r="D88" s="2" t="s">
         <v>17</v>
       </c>
@@ -6163,7 +6165,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
+      <c r="A89" s="22"/>
       <c r="B89" s="2" t="s">
         <v>133</v>
       </c>
@@ -6181,11 +6183,11 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14" t="s">
+      <c r="A90" s="22"/>
+      <c r="B90" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="22" t="s">
         <v>136</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -6199,9 +6201,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
+      <c r="A91" s="22"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
       <c r="D91" s="2" t="s">
         <v>28</v>
       </c>
@@ -6213,9 +6215,9 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
+      <c r="A92" s="22"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
       <c r="D92" s="2" t="s">
         <v>30</v>
       </c>
@@ -6227,7 +6229,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
+      <c r="A93" s="22"/>
       <c r="B93" s="2" t="s">
         <v>137</v>
       </c>
@@ -6245,11 +6247,11 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="14" t="s">
+      <c r="A94" s="22"/>
+      <c r="B94" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="22" t="s">
         <v>140</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -6263,9 +6265,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
+      <c r="A95" s="22"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
       <c r="D95" s="2" t="s">
         <v>14</v>
       </c>
@@ -6277,7 +6279,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
+      <c r="A96" s="22"/>
       <c r="B96" s="2" t="s">
         <v>141</v>
       </c>
@@ -6295,11 +6297,11 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14" t="s">
+      <c r="A97" s="22"/>
+      <c r="B97" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="22" t="s">
         <v>144</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -6313,9 +6315,9 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
       <c r="D98" s="2" t="s">
         <v>28</v>
       </c>
@@ -6327,7 +6329,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
+      <c r="A99" s="22"/>
       <c r="B99" s="2" t="s">
         <v>145</v>
       </c>
@@ -6345,11 +6347,11 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
-      <c r="B100" s="14" t="s">
+      <c r="A100" s="22"/>
+      <c r="B100" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C100" s="22" t="s">
         <v>148</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -6363,9 +6365,9 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
+      <c r="A101" s="22"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
       <c r="D101" s="2" t="s">
         <v>28</v>
       </c>
@@ -6377,9 +6379,9 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
+      <c r="A102" s="22"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
       <c r="D102" s="2" t="s">
         <v>30</v>
       </c>
@@ -6391,9 +6393,9 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
+      <c r="A103" s="22"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
       <c r="D103" s="2" t="s">
         <v>62</v>
       </c>
@@ -6405,9 +6407,9 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
       <c r="D104" s="2" t="s">
         <v>64</v>
       </c>
@@ -6419,9 +6421,9 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
+      <c r="A105" s="22"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
       <c r="D105" s="2" t="s">
         <v>66</v>
       </c>
@@ -6433,9 +6435,9 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
+      <c r="A106" s="22"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
       <c r="D106" s="2" t="s">
         <v>68</v>
       </c>
@@ -6447,9 +6449,9 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
       <c r="D107" s="2" t="s">
         <v>70</v>
       </c>
@@ -6461,9 +6463,9 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
+      <c r="A108" s="22"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
       <c r="D108" s="2" t="s">
         <v>85</v>
       </c>
@@ -6475,9 +6477,9 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
       <c r="D109" s="2" t="s">
         <v>149</v>
       </c>
@@ -6489,7 +6491,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
+      <c r="A110" s="22"/>
       <c r="B110" s="2" t="s">
         <v>151</v>
       </c>
@@ -6507,11 +6509,11 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
-      <c r="B111" s="14" t="s">
+      <c r="A111" s="22"/>
+      <c r="B111" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="22" t="s">
         <v>154</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -6525,9 +6527,9 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="22"/>
       <c r="D112" s="2" t="s">
         <v>28</v>
       </c>
@@ -6539,9 +6541,9 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
+      <c r="A113" s="22"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
       <c r="D113" s="2" t="s">
         <v>30</v>
       </c>
@@ -6553,9 +6555,9 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
       <c r="D114" s="2" t="s">
         <v>62</v>
       </c>
@@ -6567,9 +6569,9 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
+      <c r="A115" s="22"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
       <c r="D115" s="2" t="s">
         <v>64</v>
       </c>
@@ -6581,9 +6583,9 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
+      <c r="A116" s="22"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22"/>
       <c r="D116" s="2" t="s">
         <v>66</v>
       </c>
@@ -6595,7 +6597,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
+      <c r="A117" s="22"/>
       <c r="B117" s="2" t="s">
         <v>155</v>
       </c>
@@ -6613,7 +6615,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
+      <c r="A118" s="22"/>
       <c r="B118" s="2" t="s">
         <v>157</v>
       </c>
@@ -6631,7 +6633,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
+      <c r="A119" s="22"/>
       <c r="B119" s="2" t="s">
         <v>159</v>
       </c>
@@ -6649,11 +6651,11 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
-      <c r="B120" s="14" t="s">
+      <c r="A120" s="22"/>
+      <c r="B120" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C120" s="22" t="s">
         <v>162</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -6667,9 +6669,9 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
+      <c r="A121" s="22"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
       <c r="D121" s="2" t="s">
         <v>28</v>
       </c>
@@ -6681,9 +6683,9 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
+      <c r="A122" s="22"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="22"/>
       <c r="D122" s="2" t="s">
         <v>30</v>
       </c>
@@ -6695,9 +6697,9 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="14"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
+      <c r="A123" s="22"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="22"/>
       <c r="D123" s="2" t="s">
         <v>62</v>
       </c>
@@ -6709,7 +6711,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
+      <c r="A124" s="22"/>
       <c r="B124" s="2" t="s">
         <v>164</v>
       </c>
@@ -6727,11 +6729,11 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
-      <c r="B125" s="14" t="s">
+      <c r="A125" s="22"/>
+      <c r="B125" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" s="22" t="s">
         <v>167</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -6745,9 +6747,9 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
+      <c r="A126" s="22"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
       <c r="D126" s="2" t="s">
         <v>28</v>
       </c>
@@ -6759,9 +6761,9 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
+      <c r="A127" s="22"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22"/>
       <c r="D127" s="2" t="s">
         <v>30</v>
       </c>
@@ -6773,7 +6775,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
+      <c r="A128" s="22"/>
       <c r="B128" s="2" t="s">
         <v>170</v>
       </c>
@@ -6791,7 +6793,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
+      <c r="A129" s="22"/>
       <c r="B129" s="2" t="s">
         <v>172</v>
       </c>
@@ -6810,18 +6812,32 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C100:C109"/>
-    <mergeCell ref="C111:C116"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A20:A129"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B109"/>
+    <mergeCell ref="B111:B116"/>
     <mergeCell ref="B120:B123"/>
     <mergeCell ref="B125:B127"/>
     <mergeCell ref="C7:C8"/>
@@ -6838,32 +6854,18 @@
     <mergeCell ref="C46:C54"/>
     <mergeCell ref="C56:C59"/>
     <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B100:B109"/>
-    <mergeCell ref="B111:B116"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A20:A129"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B54"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C100:C109"/>
+    <mergeCell ref="C111:C116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6908,7 +6910,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="22">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6928,7 +6930,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>176</v>
       </c>
@@ -6946,7 +6948,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>178</v>
       </c>
@@ -6964,7 +6966,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="2" t="s">
         <v>180</v>
       </c>
@@ -6982,11 +6984,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -7000,9 +7002,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
@@ -7014,11 +7016,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -7032,9 +7034,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
@@ -7046,11 +7048,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -7064,9 +7066,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
@@ -7078,7 +7080,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="8" t="s">
         <v>311</v>
       </c>
@@ -7096,7 +7098,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="8" t="s">
         <v>313</v>
       </c>
@@ -7114,11 +7116,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="22" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -7132,9 +7134,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
@@ -7146,9 +7148,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
@@ -7160,9 +7162,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
@@ -7174,7 +7176,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
@@ -7192,13 +7194,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="22">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="22" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -7212,9 +7214,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="2" t="s">
         <v>28</v>
       </c>
@@ -7226,7 +7228,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="2" t="s">
         <v>183</v>
       </c>
@@ -7244,11 +7246,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="23" t="s">
         <v>185</v>
       </c>
       <c r="D22" s="2">
@@ -7262,9 +7264,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="2">
         <v>2</v>
       </c>
@@ -7276,7 +7278,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="2" t="s">
         <v>186</v>
       </c>
@@ -7294,7 +7296,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="2" t="s">
         <v>187</v>
       </c>
@@ -7312,7 +7314,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="2" t="s">
         <v>188</v>
       </c>
@@ -7330,11 +7332,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="23" t="s">
         <v>306</v>
       </c>
       <c r="D27" s="2">
@@ -7348,9 +7350,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="3">
         <v>2</v>
       </c>
@@ -7362,9 +7364,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="2">
         <v>3</v>
       </c>
@@ -7376,7 +7378,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="2" t="s">
         <v>189</v>
       </c>
@@ -7432,7 +7434,7 @@
     <col min="2" max="2" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.42578125" style="9" customWidth="1"/>
-    <col min="5" max="6" width="28.85546875" style="18" customWidth="1"/>
+    <col min="5" max="6" width="28.85546875" style="14" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
@@ -7449,10 +7451,10 @@
       <c r="D1" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="15" t="s">
         <v>515</v>
       </c>
       <c r="G1" s="10" t="s">
@@ -7678,10 +7680,10 @@
       <c r="F15" s="12" t="s">
         <v>712</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
       <c r="K15" s="12" t="s">
         <v>471</v>
       </c>
@@ -7696,8 +7698,8 @@
       <c r="H16" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
       <c r="L16" s="12" t="s">
         <v>469</v>
       </c>
@@ -7718,8 +7720,8 @@
       <c r="H17" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
@@ -7744,72 +7746,72 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="18" t="s">
         <v>711</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
         <v>709</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="16" t="s">
         <v>708</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="16" t="s">
         <v>706</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="16" t="s">
         <v>705</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="16" t="s">
         <v>703</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="H22" s="20" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="H22" s="16" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
@@ -7984,10 +7986,10 @@
       <c r="D34" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="15" t="s">
         <v>684</v>
       </c>
       <c r="K34" s="10" t="s">
@@ -8399,7 +8401,7 @@
       <c r="C58" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="15" t="s">
         <v>618</v>
       </c>
       <c r="E58" s="12"/>
@@ -8418,7 +8420,7 @@
       <c r="C59" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="15" t="s">
         <v>613</v>
       </c>
       <c r="E59" s="12"/>
@@ -8483,7 +8485,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9181,13 +9183,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="21" t="s">
         <v>708</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="21" t="s">
         <v>206</v>
       </c>
       <c r="D50" s="11" t="s">
@@ -9195,13 +9197,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="21" t="s">
         <v>708</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="21" t="s">
         <v>207</v>
       </c>
       <c r="D51" s="11" t="s">
@@ -9209,13 +9211,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="21" t="s">
         <v>708</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="21" t="s">
         <v>763</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="21" t="s">
         <v>208</v>
       </c>
       <c r="D52" s="11" t="s">
@@ -9223,13 +9225,13 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="21" t="s">
         <v>708</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="21" t="s">
         <v>761</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="21" t="s">
         <v>209</v>
       </c>
       <c r="D53" s="11" t="s">
@@ -9237,13 +9239,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="21" t="s">
         <v>708</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="21" t="s">
         <v>759</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="21" t="s">
         <v>210</v>
       </c>
       <c r="D54" s="11" t="s">
@@ -9251,13 +9253,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="21" t="s">
         <v>708</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="21" t="s">
         <v>757</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="21" t="s">
         <v>211</v>
       </c>
       <c r="D55" s="11" t="s">
@@ -9265,13 +9267,13 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="21" t="s">
         <v>708</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="21" t="s">
         <v>755</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="21" t="s">
         <v>212</v>
       </c>
       <c r="D56" s="11" t="s">
@@ -9279,13 +9281,13 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="21" t="s">
         <v>708</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="21" t="s">
         <v>213</v>
       </c>
       <c r="D57" s="11" t="s">
@@ -9293,13 +9295,13 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="21" t="s">
         <v>708</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D58" s="11" t="s">
@@ -9307,240 +9309,240 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="21" t="s">
         <v>735</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="21" t="s">
         <v>751</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="21" t="s">
         <v>750</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="21" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="21" t="s">
         <v>735</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="21" t="s">
         <v>749</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="21" t="s">
         <v>748</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="21" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="21" t="s">
         <v>735</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="21" t="s">
         <v>747</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="21" t="s">
         <v>746</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="21" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="21" t="s">
         <v>735</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="21" t="s">
         <v>745</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="21" t="s">
         <v>744</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="21" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="21" t="s">
         <v>735</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="21" t="s">
         <v>743</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="21" t="s">
         <v>742</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="21" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="21" t="s">
         <v>735</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="21" t="s">
         <v>741</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="21" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="21" t="s">
         <v>735</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="21" t="s">
         <v>739</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="21" t="s">
         <v>738</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="21" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="21" t="s">
         <v>735</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="21" t="s">
         <v>737</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="21" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="21" t="s">
         <v>735</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="21" t="s">
         <v>734</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="21" t="s">
         <v>733</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="21" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="21" t="s">
         <v>732</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="21" t="s">
         <v>731</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="21" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="21" t="s">
         <v>730</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="21" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="21" t="s">
         <v>727</v>
       </c>
-      <c r="D70" s="25" t="s">
+      <c r="D70" s="21" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="21" t="s">
         <v>725</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="21" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="21" t="s">
         <v>724</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="21" t="s">
         <v>723</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="21" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="21" t="s">
         <v>721</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="21" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="21" t="s">
         <v>720</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="21" t="s">
         <v>719</v>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="D74" s="21" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="21" t="s">
         <v>717</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="21" t="s">
         <v>716</v>
       </c>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="21" t="s">
         <v>716</v>
       </c>
     </row>
@@ -9643,7 +9645,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="22">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -9663,7 +9665,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="7" t="s">
         <v>174</v>
       </c>
@@ -9681,7 +9683,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="5" t="s">
         <v>176</v>
       </c>
@@ -9699,7 +9701,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="2" t="s">
         <v>192</v>
       </c>
@@ -9717,11 +9719,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -9735,9 +9737,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
@@ -9749,7 +9751,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="2" t="s">
         <v>200</v>
       </c>
@@ -9767,11 +9769,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="22" t="s">
         <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -9785,9 +9787,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
@@ -9799,11 +9801,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="22" t="s">
         <v>205</v>
       </c>
       <c r="D11" s="2">
@@ -9817,9 +9819,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="2">
         <v>2</v>
       </c>
@@ -9831,9 +9833,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
@@ -9845,9 +9847,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="2" t="s">
         <v>62</v>
       </c>
@@ -9859,9 +9861,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="2" t="s">
         <v>64</v>
       </c>
@@ -9873,9 +9875,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="2" t="s">
         <v>66</v>
       </c>
@@ -9887,9 +9889,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="2" t="s">
         <v>68</v>
       </c>
@@ -9901,9 +9903,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="2" t="s">
         <v>70</v>
       </c>
@@ -9915,9 +9917,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
@@ -9929,7 +9931,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="2" t="s">
         <v>214</v>
       </c>
@@ -9947,7 +9949,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="8" t="s">
         <v>311</v>
       </c>
@@ -9965,7 +9967,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="8" t="s">
         <v>313</v>
       </c>
@@ -9983,11 +9985,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="22" t="s">
         <v>217</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -10001,9 +10003,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="2" t="s">
         <v>28</v>
       </c>
@@ -10015,9 +10017,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="2" t="s">
         <v>30</v>
       </c>
@@ -10029,9 +10031,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="2" t="s">
         <v>62</v>
       </c>
@@ -10043,7 +10045,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="2" t="s">
         <v>220</v>
       </c>
@@ -10061,13 +10063,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="22">
         <v>1</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="22" t="s">
         <v>223</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -10081,9 +10083,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="2" t="s">
         <v>28</v>
       </c>
@@ -10095,7 +10097,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="2" t="s">
         <v>224</v>
       </c>
@@ -10113,7 +10115,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="2" t="s">
         <v>226</v>
       </c>
@@ -10131,11 +10133,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="22" t="s">
         <v>229</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -10149,9 +10151,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="2" t="s">
         <v>17</v>
       </c>
@@ -10163,9 +10165,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="2" t="s">
         <v>28</v>
       </c>
@@ -10177,9 +10179,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="2" t="s">
         <v>30</v>
       </c>
@@ -10191,9 +10193,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="2" t="s">
         <v>85</v>
       </c>
@@ -10205,7 +10207,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="2" t="s">
         <v>234</v>
       </c>
@@ -10223,7 +10225,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="2" t="s">
         <v>236</v>
       </c>
@@ -10241,11 +10243,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14" t="s">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="22" t="s">
         <v>239</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -10259,9 +10261,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="2" t="s">
         <v>28</v>
       </c>
@@ -10273,9 +10275,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="2" t="s">
         <v>30</v>
       </c>
@@ -10287,9 +10289,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="2" t="s">
         <v>197</v>
       </c>
@@ -10301,7 +10303,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="2" t="s">
         <v>240</v>
       </c>
@@ -10319,11 +10321,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14" t="s">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -10337,9 +10339,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="2" t="s">
         <v>28</v>
       </c>
@@ -10351,9 +10353,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="2" t="s">
         <v>30</v>
       </c>
@@ -10365,9 +10367,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="2" t="s">
         <v>62</v>
       </c>
@@ -10379,9 +10381,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="2" t="s">
         <v>64</v>
       </c>
@@ -10393,9 +10395,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="2" t="s">
         <v>66</v>
       </c>
@@ -10407,9 +10409,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="2" t="s">
         <v>68</v>
       </c>
@@ -10421,9 +10423,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="2" t="s">
         <v>70</v>
       </c>
@@ -10435,9 +10437,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="2" t="s">
         <v>85</v>
       </c>
@@ -10449,9 +10451,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="2" t="s">
         <v>149</v>
       </c>
@@ -10463,7 +10465,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="2" t="s">
         <v>254</v>
       </c>
@@ -10481,11 +10483,11 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14" t="s">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="22" t="s">
         <v>257</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -10499,9 +10501,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="2" t="s">
         <v>17</v>
       </c>
@@ -10513,9 +10515,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="2" t="s">
         <v>28</v>
       </c>
@@ -10527,9 +10529,9 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="2" t="s">
         <v>30</v>
       </c>
@@ -10541,9 +10543,9 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="2" t="s">
         <v>85</v>
       </c>
@@ -10555,11 +10557,11 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14" t="s">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="22" t="s">
         <v>259</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -10573,9 +10575,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
       <c r="D61" s="2" t="s">
         <v>28</v>
       </c>
@@ -10587,9 +10589,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="2" t="s">
         <v>30</v>
       </c>
@@ -10601,9 +10603,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="2" t="s">
         <v>62</v>
       </c>
@@ -10615,9 +10617,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="2" t="s">
         <v>64</v>
       </c>
@@ -10629,9 +10631,9 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="2" t="s">
         <v>66</v>
       </c>
@@ -10643,9 +10645,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="2" t="s">
         <v>68</v>
       </c>
@@ -10657,9 +10659,9 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
       <c r="D67" s="2" t="s">
         <v>70</v>
       </c>
@@ -10671,9 +10673,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="2" t="s">
         <v>85</v>
       </c>
@@ -10685,9 +10687,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="2" t="s">
         <v>149</v>
       </c>
@@ -10699,7 +10701,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="2" t="s">
         <v>260</v>
       </c>
@@ -10717,7 +10719,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="2" t="s">
         <v>262</v>
       </c>
@@ -10735,7 +10737,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="2" t="s">
         <v>264</v>
       </c>
@@ -10753,11 +10755,11 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14" t="s">
+      <c r="A73" s="22"/>
+      <c r="B73" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="22" t="s">
         <v>239</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -10771,9 +10773,9 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
       <c r="D74" s="2" t="s">
         <v>28</v>
       </c>
@@ -10785,9 +10787,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
       <c r="D75" s="2" t="s">
         <v>30</v>
       </c>
@@ -10799,9 +10801,9 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
       <c r="D76" s="2" t="s">
         <v>197</v>
       </c>
@@ -10813,7 +10815,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="2" t="s">
         <v>267</v>
       </c>
@@ -10831,11 +10833,11 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14" t="s">
+      <c r="A78" s="22"/>
+      <c r="B78" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="22" t="s">
         <v>270</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -10849,9 +10851,9 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="2" t="s">
         <v>17</v>
       </c>
@@ -10863,9 +10865,9 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
       <c r="D80" s="2" t="s">
         <v>28</v>
       </c>
@@ -10877,9 +10879,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
       <c r="D81" s="2" t="s">
         <v>30</v>
       </c>
@@ -10891,9 +10893,9 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
       <c r="D82" s="2" t="s">
         <v>62</v>
       </c>
@@ -10905,7 +10907,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="2" t="s">
         <v>271</v>
       </c>
@@ -10923,7 +10925,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="2" t="s">
         <v>272</v>
       </c>
@@ -10941,11 +10943,11 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14" t="s">
+      <c r="A85" s="22"/>
+      <c r="B85" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="22" t="s">
         <v>275</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -10959,9 +10961,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
       <c r="D86" s="2" t="s">
         <v>28</v>
       </c>
@@ -10973,9 +10975,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
       <c r="D87" s="2" t="s">
         <v>30</v>
       </c>
@@ -10987,9 +10989,9 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
       <c r="D88" s="2" t="s">
         <v>197</v>
       </c>
@@ -11001,7 +11003,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
+      <c r="A89" s="22"/>
       <c r="B89" s="2" t="s">
         <v>276</v>
       </c>
@@ -11019,11 +11021,11 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14" t="s">
+      <c r="A90" s="22"/>
+      <c r="B90" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="22" t="s">
         <v>279</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -11037,9 +11039,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
+      <c r="A91" s="22"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
       <c r="D91" s="2" t="s">
         <v>28</v>
       </c>
@@ -11051,9 +11053,9 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
+      <c r="A92" s="22"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
       <c r="D92" s="2" t="s">
         <v>30</v>
       </c>
@@ -11065,9 +11067,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
+      <c r="A93" s="22"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
       <c r="D93" s="2" t="s">
         <v>62</v>
       </c>
@@ -11079,9 +11081,9 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
       <c r="D94" s="2" t="s">
         <v>64</v>
       </c>
@@ -11093,9 +11095,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
+      <c r="A95" s="22"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
       <c r="D95" s="2" t="s">
         <v>66</v>
       </c>
@@ -11107,9 +11109,9 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
       <c r="D96" s="2" t="s">
         <v>68</v>
       </c>
@@ -11121,9 +11123,9 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
       <c r="D97" s="2" t="s">
         <v>70</v>
       </c>
@@ -11135,9 +11137,9 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
       <c r="D98" s="2" t="s">
         <v>85</v>
       </c>
@@ -11149,9 +11151,9 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
       <c r="D99" s="2" t="s">
         <v>149</v>
       </c>
@@ -11163,9 +11165,9 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
+      <c r="A100" s="22"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
       <c r="D100" s="2" t="s">
         <v>281</v>
       </c>
@@ -11177,9 +11179,9 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
+      <c r="A101" s="22"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
       <c r="D101" s="2" t="s">
         <v>283</v>
       </c>
@@ -11191,9 +11193,9 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
+      <c r="A102" s="22"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
       <c r="D102" s="2" t="s">
         <v>285</v>
       </c>
@@ -11205,9 +11207,9 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
+      <c r="A103" s="22"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
       <c r="D103" s="2" t="s">
         <v>287</v>
       </c>
@@ -11219,9 +11221,9 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
       <c r="D104" s="2" t="s">
         <v>289</v>
       </c>
@@ -11233,9 +11235,9 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
+      <c r="A105" s="22"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
       <c r="D105" s="2" t="s">
         <v>291</v>
       </c>
@@ -11247,9 +11249,9 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
+      <c r="A106" s="22"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
       <c r="D106" s="2" t="s">
         <v>293</v>
       </c>
@@ -11261,9 +11263,9 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
       <c r="D107" s="2" t="s">
         <v>295</v>
       </c>
@@ -11275,9 +11277,9 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
+      <c r="A108" s="22"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
       <c r="D108" s="2" t="s">
         <v>297</v>
       </c>
@@ -11289,7 +11291,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
+      <c r="A109" s="22"/>
       <c r="B109" s="2" t="s">
         <v>298</v>
       </c>
@@ -11307,11 +11309,11 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14" t="s">
+      <c r="A110" s="22"/>
+      <c r="B110" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C110" s="22" t="s">
         <v>300</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -11325,9 +11327,9 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
+      <c r="A111" s="22"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
       <c r="D111" s="2" t="s">
         <v>14</v>
       </c>
@@ -11339,9 +11341,9 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="22"/>
       <c r="D112" s="2" t="s">
         <v>28</v>
       </c>
@@ -11353,7 +11355,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
+      <c r="A113" s="22"/>
       <c r="B113" s="2" t="s">
         <v>301</v>
       </c>
@@ -11371,7 +11373,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
+      <c r="A114" s="22"/>
       <c r="B114" s="2" t="s">
         <v>303</v>
       </c>
@@ -11390,22 +11392,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C90:C108"/>
-    <mergeCell ref="C44:C53"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C39:C42"/>
     <mergeCell ref="A2:A27"/>
     <mergeCell ref="A28:A114"/>
     <mergeCell ref="B85:B88"/>
@@ -11422,6 +11408,22 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B44:B53"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C90:C108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="1387">
   <si>
     <t>type</t>
   </si>
@@ -1281,9 +1281,6 @@
   </si>
   <si>
     <t>${malaria_treatment_preg}= "three_doses" or ${malaria_treatment_preg} = "less_three_doses"</t>
-  </si>
-  <si>
-    <t>end group</t>
   </si>
   <si>
     <t>n4</t>
@@ -4793,8 +4790,8 @@
   </sheetPr>
   <dimension ref="A1:L209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5918,7 +5915,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>418</v>
+        <v>153</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="13"/>
@@ -5934,7 +5931,7 @@
         <v>179</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>406</v>
@@ -5955,16 +5952,16 @@
         <v>317</v>
       </c>
       <c r="C52" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>420</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>421</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="H52" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I52" s="13"/>
     </row>
@@ -5973,7 +5970,7 @@
         <v>410</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>412</v>
@@ -6005,7 +6002,7 @@
         <v>179</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>406</v>
@@ -6025,16 +6022,16 @@
         <v>316</v>
       </c>
       <c r="C56" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>425</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>426</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
       <c r="H56" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I56" s="13"/>
     </row>
@@ -6043,13 +6040,13 @@
         <v>313</v>
       </c>
       <c r="B57" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="D57" s="13" t="s">
         <v>429</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>430</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -6062,19 +6059,19 @@
         <v>313</v>
       </c>
       <c r="B58" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="D58" s="13" t="s">
         <v>432</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>433</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
       <c r="H58" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I58" s="13"/>
     </row>
@@ -6083,13 +6080,13 @@
         <v>313</v>
       </c>
       <c r="B59" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="D59" s="13" t="s">
         <v>435</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>436</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
@@ -6110,22 +6107,22 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
       <c r="H60" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="C61" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="D61" s="13" t="s">
         <v>440</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>441</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
@@ -6138,34 +6135,34 @@
         <v>39</v>
       </c>
       <c r="B62" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="D62" s="13" t="s">
         <v>443</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>444</v>
       </c>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I62" s="13"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="C63" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="D63" s="13" t="s">
         <v>448</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>449</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
@@ -6175,16 +6172,16 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="C64" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="D64" s="13" t="s">
         <v>452</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>453</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
@@ -6197,13 +6194,13 @@
         <v>313</v>
       </c>
       <c r="B65" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="D65" s="13" t="s">
         <v>455</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>456</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
@@ -6213,32 +6210,32 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B66" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="C66" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="D66" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="E66" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="F66" s="14" t="s">
         <v>461</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>462</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I66" s="13"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>418</v>
+        <v>153</v>
       </c>
       <c r="B67" s="15"/>
       <c r="C67" s="13"/>
@@ -6251,22 +6248,22 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="C68" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="D68" s="13" t="s">
         <v>466</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>467</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="H68" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I68" s="13"/>
     </row>
@@ -6275,19 +6272,19 @@
         <v>39</v>
       </c>
       <c r="B69" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="D69" s="13" t="s">
         <v>470</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>471</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
       <c r="H69" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I69" s="13"/>
     </row>
@@ -6309,7 +6306,7 @@
         <v>179</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>406</v>
@@ -6326,19 +6323,19 @@
         <v>161</v>
       </c>
       <c r="B72" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="C72" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="D72" s="13" t="s">
         <v>475</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>476</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
       <c r="H72" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I72" s="13"/>
       <c r="J72" s="15"/>
@@ -6350,19 +6347,19 @@
         <v>49</v>
       </c>
       <c r="B73" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="D73" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="E73" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="F73" s="14" t="s">
         <v>480</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>481</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="13"/>
@@ -6376,25 +6373,25 @@
         <v>49</v>
       </c>
       <c r="B74" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="D74" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="E74" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="F74" s="14" t="s">
         <v>485</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>486</v>
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K74" s="15"/>
       <c r="L74" s="15"/>
@@ -6404,13 +6401,13 @@
         <v>53</v>
       </c>
       <c r="B75" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="C75" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="D75" s="13" t="s">
         <v>489</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>490</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
@@ -6426,13 +6423,13 @@
         <v>53</v>
       </c>
       <c r="B76" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="D76" s="13" t="s">
         <v>492</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>493</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
@@ -6445,16 +6442,16 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="C77" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="D77" s="13" t="s">
         <v>496</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>497</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
@@ -6470,19 +6467,19 @@
         <v>49</v>
       </c>
       <c r="B78" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="D78" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="E78" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="F78" s="14" t="s">
         <v>501</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>502</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="13"/>
@@ -6496,7 +6493,7 @@
         <v>387</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>388</v>
@@ -6522,7 +6519,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>393</v>
@@ -6548,7 +6545,7 @@
         <v>49</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>397</v>
@@ -6574,7 +6571,7 @@
         <v>49</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>401</v>
@@ -6600,13 +6597,13 @@
         <v>49</v>
       </c>
       <c r="B83" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="C83" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="D83" s="13" t="s">
         <v>508</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>509</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
@@ -6690,7 +6687,7 @@
         <v>101</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>80</v>
@@ -6712,7 +6709,7 @@
         <v>67</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>99</v>
@@ -6792,7 +6789,7 @@
         <v>67</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>89</v>
@@ -6872,7 +6869,7 @@
         <v>67</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>78</v>
@@ -6952,7 +6949,7 @@
         <v>67</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>66</v>
@@ -6982,10 +6979,10 @@
         <v>179</v>
       </c>
       <c r="B98" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="C98" s="27" t="s">
         <v>515</v>
-      </c>
-      <c r="C98" s="27" t="s">
-        <v>516</v>
       </c>
       <c r="D98" s="27"/>
       <c r="E98" s="28"/>
@@ -7002,13 +6999,13 @@
         <v>53</v>
       </c>
       <c r="B99" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="C99" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="D99" s="26" t="s">
         <v>518</v>
-      </c>
-      <c r="D99" s="26" t="s">
-        <v>519</v>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="26"/>
@@ -7024,13 +7021,13 @@
         <v>53</v>
       </c>
       <c r="B100" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="C100" s="25" t="s">
         <v>520</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="D100" s="26" t="s">
         <v>521</v>
-      </c>
-      <c r="D100" s="26" t="s">
-        <v>522</v>
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="26"/>
@@ -7046,13 +7043,13 @@
         <v>53</v>
       </c>
       <c r="B101" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="C101" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="D101" s="24" t="s">
         <v>524</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>525</v>
       </c>
       <c r="E101" s="25"/>
       <c r="F101" s="25"/>
@@ -7065,22 +7062,22 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="B102" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="C102" s="24" t="s">
         <v>527</v>
       </c>
-      <c r="C102" s="24" t="s">
+      <c r="D102" s="24" t="s">
         <v>528</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>529</v>
       </c>
       <c r="E102" s="25"/>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
       <c r="H102" s="24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I102" s="25"/>
       <c r="J102" s="25"/>
@@ -7092,7 +7089,7 @@
         <v>67</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C103" s="24" t="s">
         <v>66</v>
@@ -7108,7 +7105,7 @@
       </c>
       <c r="G103" s="25"/>
       <c r="H103" s="24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I103" s="25"/>
       <c r="J103" s="25"/>
@@ -7165,16 +7162,16 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="C106" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="D106" s="9" t="s">
         <v>535</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>536</v>
       </c>
       <c r="E106" s="22"/>
       <c r="F106" s="22"/>
@@ -7192,19 +7189,19 @@
         <v>39</v>
       </c>
       <c r="B107" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C107" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="D107" s="9" t="s">
         <v>538</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>539</v>
       </c>
       <c r="E107" s="22"/>
       <c r="F107" s="22"/>
       <c r="G107" s="22"/>
       <c r="H107" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I107" s="22"/>
       <c r="J107" s="22"/>
@@ -7216,10 +7213,10 @@
         <v>179</v>
       </c>
       <c r="B108" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="C108" s="19" t="s">
         <v>541</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>542</v>
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="14"/>
@@ -7236,13 +7233,13 @@
         <v>161</v>
       </c>
       <c r="B109" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C109" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="D109" s="13" t="s">
         <v>544</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>545</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
@@ -7257,16 +7254,16 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="B110" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="C110" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="D110" s="13" t="s">
         <v>548</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>549</v>
       </c>
       <c r="E110" s="14"/>
       <c r="F110" s="14"/>
@@ -7282,19 +7279,19 @@
         <v>39</v>
       </c>
       <c r="B111" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="C111" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="D111" s="15" t="s">
         <v>551</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>552</v>
       </c>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
       <c r="H111" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
@@ -7306,19 +7303,19 @@
         <v>67</v>
       </c>
       <c r="B112" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="C112" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="D112" s="15" t="s">
         <v>555</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>556</v>
       </c>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
       <c r="H112" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
@@ -7330,19 +7327,19 @@
         <v>39</v>
       </c>
       <c r="B113" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="D113" s="15" t="s">
         <v>558</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>559</v>
       </c>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
       <c r="H113" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -7351,16 +7348,16 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B114" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="C114" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="D114" s="13" t="s">
         <v>562</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>563</v>
       </c>
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
@@ -7376,23 +7373,23 @@
         <v>49</v>
       </c>
       <c r="B115" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="C115" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="D115" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="D115" s="13" t="s">
+      <c r="E115" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="E115" s="14" t="s">
+      <c r="F115" s="14" t="s">
         <v>567</v>
-      </c>
-      <c r="F115" s="14" t="s">
-        <v>568</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
@@ -7401,16 +7398,16 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C116" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="D116" s="13" t="s">
         <v>535</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>536</v>
       </c>
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
@@ -7426,19 +7423,19 @@
         <v>39</v>
       </c>
       <c r="B117" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="D117" s="13" t="s">
         <v>571</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>572</v>
       </c>
       <c r="E117" s="14"/>
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
       <c r="H117" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
@@ -7450,13 +7447,13 @@
         <v>313</v>
       </c>
       <c r="B118" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="C118" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="D118" s="13" t="s">
         <v>575</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>576</v>
       </c>
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
@@ -7469,22 +7466,22 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B119" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C119" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="D119" s="13" t="s">
         <v>578</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>579</v>
       </c>
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
       <c r="H119" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I119" s="14"/>
       <c r="J119" s="14"/>
@@ -7496,19 +7493,19 @@
         <v>39</v>
       </c>
       <c r="B120" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="C120" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="D120" s="13" t="s">
         <v>582</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>583</v>
       </c>
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
       <c r="G120" s="14"/>
       <c r="H120" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I120" s="14"/>
       <c r="J120" s="14"/>
@@ -7517,22 +7514,22 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B121" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="C121" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="D121" s="13" t="s">
         <v>586</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>587</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
       <c r="H121" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
@@ -7544,19 +7541,19 @@
         <v>39</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C122" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="D122" s="13" t="s">
         <v>470</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>471</v>
       </c>
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
       <c r="G122" s="14"/>
       <c r="H122" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I122" s="14"/>
       <c r="J122" s="14"/>
@@ -7584,10 +7581,10 @@
         <v>179</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D124" s="19"/>
       <c r="E124" s="18"/>
@@ -7604,13 +7601,13 @@
         <v>313</v>
       </c>
       <c r="B125" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="C125" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="D125" s="13" t="s">
         <v>593</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>594</v>
       </c>
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
@@ -7626,19 +7623,19 @@
         <v>161</v>
       </c>
       <c r="B126" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="C126" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="D126" s="13" t="s">
         <v>596</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>597</v>
       </c>
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
       <c r="G126" s="14"/>
       <c r="H126" s="13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I126" s="14"/>
       <c r="J126" s="14"/>
@@ -7650,13 +7647,13 @@
         <v>60</v>
       </c>
       <c r="B127" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="C127" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="D127" s="13" t="s">
         <v>600</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>601</v>
       </c>
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
@@ -7672,19 +7669,19 @@
         <v>39</v>
       </c>
       <c r="B128" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="C128" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="C128" s="13" t="s">
+      <c r="D128" s="13" t="s">
         <v>603</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>604</v>
       </c>
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
       <c r="G128" s="14"/>
       <c r="H128" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I128" s="14"/>
       <c r="J128" s="14"/>
@@ -7696,13 +7693,13 @@
         <v>313</v>
       </c>
       <c r="B129" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="C129" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="D129" s="13" t="s">
         <v>607</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>608</v>
       </c>
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
@@ -7715,22 +7712,22 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="B130" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="B130" s="13" t="s">
-        <v>610</v>
-      </c>
       <c r="C130" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D130" s="13" t="s">
         <v>578</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>579</v>
       </c>
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
       <c r="H130" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I130" s="14"/>
       <c r="J130" s="14"/>
@@ -7742,19 +7739,19 @@
         <v>39</v>
       </c>
       <c r="B131" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="C131" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="D131" s="15" t="s">
         <v>613</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>614</v>
       </c>
       <c r="E131" s="15"/>
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
       <c r="H131" s="13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
@@ -7766,23 +7763,23 @@
         <v>49</v>
       </c>
       <c r="B132" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="C132" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="D132" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="E132" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="F132" s="13" t="s">
         <v>619</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>620</v>
       </c>
       <c r="G132" s="14"/>
       <c r="H132" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I132" s="14"/>
       <c r="J132" s="14"/>
@@ -7794,23 +7791,23 @@
         <v>49</v>
       </c>
       <c r="B133" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="C133" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="D133" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="D133" s="13" t="s">
+      <c r="E133" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="E133" s="14" t="s">
+      <c r="F133" s="14" t="s">
         <v>624</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>625</v>
       </c>
       <c r="G133" s="14"/>
       <c r="H133" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I133" s="14"/>
       <c r="J133" s="14"/>
@@ -7819,22 +7816,22 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C134" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="D134" s="13" t="s">
         <v>586</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>587</v>
       </c>
       <c r="E134" s="14"/>
       <c r="F134" s="14"/>
       <c r="G134" s="14"/>
       <c r="H134" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I134" s="14"/>
       <c r="J134" s="14"/>
@@ -7846,19 +7843,19 @@
         <v>39</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C135" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="D135" s="13" t="s">
         <v>470</v>
-      </c>
-      <c r="D135" s="13" t="s">
-        <v>471</v>
       </c>
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
       <c r="H135" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I135" s="14"/>
       <c r="J135" s="14"/>
@@ -7886,10 +7883,10 @@
         <v>179</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D137" s="19"/>
       <c r="E137" s="18"/>
@@ -7906,13 +7903,13 @@
         <v>313</v>
       </c>
       <c r="B138" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="C138" s="14" t="s">
         <v>631</v>
       </c>
-      <c r="C138" s="14" t="s">
+      <c r="D138" s="13" t="s">
         <v>632</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>633</v>
       </c>
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
@@ -7928,19 +7925,19 @@
         <v>161</v>
       </c>
       <c r="B139" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="C139" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="C139" s="14" t="s">
+      <c r="D139" s="13" t="s">
         <v>635</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>636</v>
       </c>
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
       <c r="G139" s="14"/>
       <c r="H139" s="13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I139" s="14"/>
       <c r="J139" s="14"/>
@@ -7952,13 +7949,13 @@
         <v>60</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C140" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="D140" s="13" t="s">
         <v>600</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>601</v>
       </c>
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
@@ -7974,19 +7971,19 @@
         <v>39</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C141" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="D141" s="13" t="s">
         <v>603</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>604</v>
       </c>
       <c r="E141" s="14"/>
       <c r="F141" s="14"/>
       <c r="G141" s="14"/>
       <c r="H141" s="13" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I141" s="14"/>
       <c r="J141" s="14"/>
@@ -7995,16 +7992,16 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="B142" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="C142" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="D142" s="13" t="s">
         <v>643</v>
-      </c>
-      <c r="D142" s="13" t="s">
-        <v>644</v>
       </c>
       <c r="E142" s="14"/>
       <c r="F142" s="14"/>
@@ -8017,16 +8014,16 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B143" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="C143" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="D143" s="13" t="s">
         <v>646</v>
-      </c>
-      <c r="D143" s="13" t="s">
-        <v>647</v>
       </c>
       <c r="E143" s="14"/>
       <c r="F143" s="14"/>
@@ -8042,23 +8039,23 @@
         <v>49</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C144" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="D144" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="D144" s="13" t="s">
+      <c r="E144" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="E144" s="14" t="s">
+      <c r="F144" s="14" t="s">
         <v>567</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>568</v>
       </c>
       <c r="G144" s="14"/>
       <c r="H144" s="13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I144" s="14"/>
       <c r="J144" s="14"/>
@@ -8070,13 +8067,13 @@
         <v>313</v>
       </c>
       <c r="B145" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="C145" s="14" t="s">
         <v>650</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="D145" s="13" t="s">
         <v>651</v>
-      </c>
-      <c r="D145" s="13" t="s">
-        <v>652</v>
       </c>
       <c r="E145" s="14"/>
       <c r="F145" s="14"/>
@@ -8089,22 +8086,22 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B146" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="C146" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="D146" s="13" t="s">
         <v>654</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>655</v>
       </c>
       <c r="E146" s="14"/>
       <c r="F146" s="14"/>
       <c r="G146" s="14"/>
       <c r="H146" s="13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I146" s="14"/>
       <c r="J146" s="14"/>
@@ -8116,19 +8113,19 @@
         <v>39</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C147" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="D147" s="13" t="s">
         <v>470</v>
-      </c>
-      <c r="D147" s="13" t="s">
-        <v>471</v>
       </c>
       <c r="E147" s="14"/>
       <c r="F147" s="14"/>
       <c r="G147" s="14"/>
       <c r="H147" s="13" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I147" s="14"/>
       <c r="J147" s="14"/>
@@ -8137,16 +8134,16 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="B148" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="C148" s="14" t="s">
         <v>660</v>
       </c>
-      <c r="C148" s="14" t="s">
+      <c r="D148" s="13" t="s">
         <v>661</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>662</v>
       </c>
       <c r="E148" s="14"/>
       <c r="F148" s="14"/>
@@ -8159,22 +8156,22 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B149" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="C149" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="C149" s="13" t="s">
+      <c r="D149" s="13" t="s">
         <v>664</v>
-      </c>
-      <c r="D149" s="13" t="s">
-        <v>665</v>
       </c>
       <c r="E149" s="14"/>
       <c r="F149" s="14"/>
       <c r="G149" s="14"/>
       <c r="H149" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I149" s="14"/>
       <c r="J149" s="14"/>
@@ -8186,19 +8183,19 @@
         <v>39</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C150" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="D150" s="15" t="s">
         <v>613</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>614</v>
       </c>
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
       <c r="G150" s="15"/>
       <c r="H150" s="13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
@@ -8207,16 +8204,16 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>669</v>
       </c>
-      <c r="B151" s="13" t="s">
+      <c r="C151" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="D151" s="15" t="s">
         <v>671</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>672</v>
       </c>
       <c r="E151" s="14"/>
       <c r="F151" s="14"/>
@@ -8232,19 +8229,19 @@
         <v>39</v>
       </c>
       <c r="B152" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="C152" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="D152" s="15" t="s">
         <v>674</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>675</v>
       </c>
       <c r="E152" s="14"/>
       <c r="F152" s="14"/>
       <c r="G152" s="14"/>
       <c r="H152" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="15"/>
@@ -8256,19 +8253,19 @@
         <v>313</v>
       </c>
       <c r="B153" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="C153" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="C153" s="13" t="s">
+      <c r="D153" s="15" t="s">
         <v>678</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>679</v>
       </c>
       <c r="E153" s="14"/>
       <c r="F153" s="14"/>
       <c r="G153" s="14"/>
       <c r="H153" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I153" s="15"/>
       <c r="J153" s="15"/>
@@ -8277,22 +8274,22 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B154" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="C154" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="D154" s="13" t="s">
         <v>681</v>
-      </c>
-      <c r="D154" s="13" t="s">
-        <v>682</v>
       </c>
       <c r="E154" s="14"/>
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
       <c r="H154" s="13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I154" s="14"/>
       <c r="J154" s="14"/>
@@ -8304,19 +8301,19 @@
         <v>39</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C155" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="D155" s="15" t="s">
         <v>613</v>
-      </c>
-      <c r="D155" s="15" t="s">
-        <v>614</v>
       </c>
       <c r="E155" s="15"/>
       <c r="F155" s="15"/>
       <c r="G155" s="15"/>
       <c r="H155" s="13" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I155" s="15"/>
       <c r="J155" s="15"/>
@@ -8325,22 +8322,22 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B156" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="C156" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="D156" s="15" t="s">
         <v>687</v>
-      </c>
-      <c r="D156" s="15" t="s">
-        <v>688</v>
       </c>
       <c r="E156" s="14"/>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
       <c r="H156" s="13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I156" s="15"/>
       <c r="J156" s="15"/>
@@ -8352,19 +8349,19 @@
         <v>39</v>
       </c>
       <c r="B157" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="D157" s="15" t="s">
         <v>689</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>674</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>690</v>
       </c>
       <c r="E157" s="14"/>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
       <c r="H157" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I157" s="15"/>
       <c r="J157" s="15"/>
@@ -8376,23 +8373,23 @@
         <v>49</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C158" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="D158" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="D158" s="13" t="s">
+      <c r="E158" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="E158" s="14" t="s">
+      <c r="F158" s="13" t="s">
         <v>619</v>
-      </c>
-      <c r="F158" s="13" t="s">
-        <v>620</v>
       </c>
       <c r="G158" s="14"/>
       <c r="H158" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I158" s="14"/>
       <c r="J158" s="14"/>
@@ -8404,23 +8401,23 @@
         <v>49</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C159" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="D159" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="D159" s="13" t="s">
+      <c r="E159" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="E159" s="14" t="s">
+      <c r="F159" s="14" t="s">
         <v>624</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>625</v>
       </c>
       <c r="G159" s="14"/>
       <c r="H159" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I159" s="14"/>
       <c r="J159" s="14"/>
@@ -8429,22 +8426,22 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="B160" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="B160" s="13" t="s">
+      <c r="C160" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="C160" s="13" t="s">
+      <c r="D160" s="14" t="s">
         <v>696</v>
-      </c>
-      <c r="D160" s="14" t="s">
-        <v>697</v>
       </c>
       <c r="E160" s="15"/>
       <c r="F160" s="15"/>
       <c r="G160" s="15"/>
       <c r="H160" s="14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I160" s="15"/>
       <c r="J160" s="15"/>
@@ -8456,19 +8453,19 @@
         <v>39</v>
       </c>
       <c r="B161" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="C161" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="D161" s="15" t="s">
         <v>700</v>
-      </c>
-      <c r="D161" s="15" t="s">
-        <v>701</v>
       </c>
       <c r="E161" s="15"/>
       <c r="F161" s="15"/>
       <c r="G161" s="15"/>
       <c r="H161" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I161" s="15"/>
       <c r="J161" s="15"/>
@@ -8477,7 +8474,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="20" t="s">
-        <v>418</v>
+        <v>153</v>
       </c>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -8496,10 +8493,10 @@
         <v>179</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D163" s="19"/>
       <c r="E163" s="18"/>
@@ -8516,13 +8513,13 @@
         <v>313</v>
       </c>
       <c r="B164" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="C164" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="D164" s="17" t="s">
         <v>705</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>706</v>
       </c>
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
@@ -8538,19 +8535,19 @@
         <v>161</v>
       </c>
       <c r="B165" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="C165" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="D165" s="17" t="s">
         <v>708</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>709</v>
       </c>
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
       <c r="G165" s="15"/>
       <c r="H165" s="14" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I165" s="15"/>
       <c r="J165" s="15"/>
@@ -8559,16 +8556,16 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="B166" s="14" t="s">
         <v>711</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="C166" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="D166" s="17" t="s">
         <v>712</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>600</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>713</v>
       </c>
       <c r="E166" s="15"/>
       <c r="F166" s="15"/>
@@ -8581,16 +8578,16 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B167" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="C167" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="D167" s="17" t="s">
         <v>715</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>716</v>
       </c>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
@@ -8606,13 +8603,13 @@
         <v>313</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C168" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="D168" s="17" t="s">
         <v>651</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>652</v>
       </c>
       <c r="E168" s="15"/>
       <c r="F168" s="15"/>
@@ -8625,22 +8622,22 @@
     </row>
     <row r="169" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B169" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="C169" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="D169" s="17" t="s">
         <v>719</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>720</v>
       </c>
       <c r="E169" s="15"/>
       <c r="F169" s="15"/>
       <c r="G169" s="15"/>
       <c r="H169" s="14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I169" s="15"/>
       <c r="J169" s="15"/>
@@ -8652,19 +8649,19 @@
         <v>39</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C170" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="D170" s="13" t="s">
         <v>470</v>
-      </c>
-      <c r="D170" s="13" t="s">
-        <v>471</v>
       </c>
       <c r="E170" s="15"/>
       <c r="F170" s="15"/>
       <c r="G170" s="15"/>
       <c r="H170" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I170" s="15"/>
       <c r="J170" s="15"/>
@@ -8673,16 +8670,16 @@
     </row>
     <row r="171" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B171" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="D171" s="17" t="s">
         <v>724</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>725</v>
       </c>
       <c r="E171" s="15"/>
       <c r="F171" s="15"/>
@@ -8695,22 +8692,22 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C172" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="D172" s="13" t="s">
         <v>664</v>
-      </c>
-      <c r="D172" s="13" t="s">
-        <v>665</v>
       </c>
       <c r="E172" s="14"/>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
       <c r="H172" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I172" s="14"/>
       <c r="J172" s="14"/>
@@ -8722,19 +8719,19 @@
         <v>39</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C173" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="D173" s="15" t="s">
         <v>613</v>
-      </c>
-      <c r="D173" s="15" t="s">
-        <v>614</v>
       </c>
       <c r="E173" s="15"/>
       <c r="F173" s="15"/>
       <c r="G173" s="15"/>
       <c r="H173" s="13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
@@ -8743,16 +8740,16 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C174" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="D174" s="15" t="s">
         <v>671</v>
-      </c>
-      <c r="D174" s="15" t="s">
-        <v>672</v>
       </c>
       <c r="E174" s="14"/>
       <c r="F174" s="14"/>
@@ -8768,19 +8765,19 @@
         <v>39</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C175" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="D175" s="15" t="s">
         <v>674</v>
-      </c>
-      <c r="D175" s="15" t="s">
-        <v>675</v>
       </c>
       <c r="E175" s="14"/>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
       <c r="H175" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I175" s="15"/>
       <c r="J175" s="15"/>
@@ -8792,19 +8789,19 @@
         <v>313</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C176" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="D176" s="15" t="s">
         <v>678</v>
-      </c>
-      <c r="D176" s="15" t="s">
-        <v>679</v>
       </c>
       <c r="E176" s="14"/>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
       <c r="H176" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I176" s="15"/>
       <c r="J176" s="15"/>
@@ -8813,22 +8810,22 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C177" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="D177" s="13" t="s">
         <v>681</v>
-      </c>
-      <c r="D177" s="13" t="s">
-        <v>682</v>
       </c>
       <c r="E177" s="14"/>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
       <c r="H177" s="13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I177" s="14"/>
       <c r="J177" s="14"/>
@@ -8840,19 +8837,19 @@
         <v>39</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C178" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="D178" s="15" t="s">
         <v>613</v>
-      </c>
-      <c r="D178" s="15" t="s">
-        <v>614</v>
       </c>
       <c r="E178" s="15"/>
       <c r="F178" s="15"/>
       <c r="G178" s="15"/>
       <c r="H178" s="13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I178" s="15"/>
       <c r="J178" s="15"/>
@@ -8861,22 +8858,22 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C179" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="D179" s="15" t="s">
         <v>687</v>
-      </c>
-      <c r="D179" s="15" t="s">
-        <v>688</v>
       </c>
       <c r="E179" s="14"/>
       <c r="F179" s="14"/>
       <c r="G179" s="14"/>
       <c r="H179" s="13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I179" s="15"/>
       <c r="J179" s="15"/>
@@ -8888,19 +8885,19 @@
         <v>39</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E180" s="14"/>
       <c r="F180" s="14"/>
       <c r="G180" s="14"/>
       <c r="H180" s="13" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I180" s="15"/>
       <c r="J180" s="15"/>
@@ -8912,23 +8909,23 @@
         <v>49</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C181" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="D181" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="D181" s="13" t="s">
+      <c r="E181" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="E181" s="14" t="s">
+      <c r="F181" s="13" t="s">
         <v>619</v>
-      </c>
-      <c r="F181" s="13" t="s">
-        <v>620</v>
       </c>
       <c r="G181" s="14"/>
       <c r="H181" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I181" s="14"/>
       <c r="J181" s="14"/>
@@ -8940,23 +8937,23 @@
         <v>49</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C182" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="D182" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="D182" s="13" t="s">
+      <c r="E182" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="E182" s="14" t="s">
+      <c r="F182" s="14" t="s">
         <v>624</v>
-      </c>
-      <c r="F182" s="14" t="s">
-        <v>625</v>
       </c>
       <c r="G182" s="14"/>
       <c r="H182" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I182" s="14"/>
       <c r="J182" s="14"/>
@@ -8965,22 +8962,22 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B183" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="C183" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="D183" s="14" t="s">
         <v>744</v>
-      </c>
-      <c r="D183" s="14" t="s">
-        <v>745</v>
       </c>
       <c r="E183" s="15"/>
       <c r="F183" s="15"/>
       <c r="G183" s="15"/>
       <c r="H183" s="14" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I183" s="15"/>
       <c r="J183" s="15"/>
@@ -8992,19 +8989,19 @@
         <v>39</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C184" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="D184" s="15" t="s">
         <v>700</v>
-      </c>
-      <c r="D184" s="15" t="s">
-        <v>701</v>
       </c>
       <c r="E184" s="15"/>
       <c r="F184" s="15"/>
       <c r="G184" s="15"/>
       <c r="H184" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I184" s="15"/>
       <c r="J184" s="15"/>
@@ -9013,7 +9010,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="20" t="s">
-        <v>418</v>
+        <v>153</v>
       </c>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -9032,10 +9029,10 @@
         <v>179</v>
       </c>
       <c r="B186" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="C186" s="18" t="s">
         <v>749</v>
-      </c>
-      <c r="C186" s="18" t="s">
-        <v>750</v>
       </c>
       <c r="D186" s="18"/>
       <c r="E186" s="18"/>
@@ -9052,19 +9049,19 @@
         <v>161</v>
       </c>
       <c r="B187" s="14" t="s">
+        <v>750</v>
+      </c>
+      <c r="C187" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="C187" s="14" t="s">
+      <c r="D187" s="15" t="s">
         <v>752</v>
-      </c>
-      <c r="D187" s="15" t="s">
-        <v>753</v>
       </c>
       <c r="E187" s="15"/>
       <c r="F187" s="15"/>
       <c r="G187" s="15"/>
       <c r="H187" s="14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I187" s="15"/>
       <c r="J187" s="15"/>
@@ -9073,16 +9070,16 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C188" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="D188" s="13" t="s">
         <v>548</v>
-      </c>
-      <c r="D188" s="13" t="s">
-        <v>549</v>
       </c>
       <c r="E188" s="14"/>
       <c r="F188" s="14"/>
@@ -9098,19 +9095,19 @@
         <v>39</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C189" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="D189" s="15" t="s">
         <v>551</v>
-      </c>
-      <c r="D189" s="15" t="s">
-        <v>552</v>
       </c>
       <c r="E189" s="15"/>
       <c r="F189" s="15"/>
       <c r="G189" s="15"/>
       <c r="H189" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I189" s="15"/>
       <c r="J189" s="15"/>
@@ -9122,19 +9119,19 @@
         <v>67</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C190" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="D190" s="15" t="s">
         <v>555</v>
-      </c>
-      <c r="D190" s="15" t="s">
-        <v>556</v>
       </c>
       <c r="E190" s="15"/>
       <c r="F190" s="15"/>
       <c r="G190" s="15"/>
       <c r="H190" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I190" s="15"/>
       <c r="J190" s="15"/>
@@ -9146,19 +9143,19 @@
         <v>39</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C191" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="D191" s="15" t="s">
         <v>558</v>
-      </c>
-      <c r="D191" s="15" t="s">
-        <v>559</v>
       </c>
       <c r="E191" s="15"/>
       <c r="F191" s="15"/>
       <c r="G191" s="15"/>
       <c r="H191" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I191" s="15"/>
       <c r="J191" s="15"/>
@@ -9167,16 +9164,16 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C192" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="D192" s="13" t="s">
         <v>562</v>
-      </c>
-      <c r="D192" s="13" t="s">
-        <v>563</v>
       </c>
       <c r="E192" s="14"/>
       <c r="F192" s="14"/>
@@ -9192,23 +9189,23 @@
         <v>49</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C193" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="D193" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="D193" s="13" t="s">
+      <c r="E193" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="E193" s="14" t="s">
+      <c r="F193" s="14" t="s">
         <v>567</v>
-      </c>
-      <c r="F193" s="14" t="s">
-        <v>568</v>
       </c>
       <c r="G193" s="14"/>
       <c r="H193" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I193" s="14"/>
       <c r="J193" s="14"/>
@@ -9217,16 +9214,16 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C194" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="D194" s="13" t="s">
         <v>535</v>
-      </c>
-      <c r="D194" s="13" t="s">
-        <v>536</v>
       </c>
       <c r="E194" s="14"/>
       <c r="F194" s="14"/>
@@ -9242,19 +9239,19 @@
         <v>39</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C195" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="D195" s="13" t="s">
         <v>538</v>
-      </c>
-      <c r="D195" s="13" t="s">
-        <v>539</v>
       </c>
       <c r="E195" s="14"/>
       <c r="F195" s="14"/>
       <c r="G195" s="14"/>
       <c r="H195" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I195" s="14"/>
       <c r="J195" s="14"/>
@@ -9279,7 +9276,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B197" s="9" t="s">
         <v>52</v>
@@ -9330,7 +9327,7 @@
         <v>152</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
@@ -9341,7 +9338,7 @@
       <c r="I199" s="8"/>
       <c r="J199" s="9"/>
       <c r="K199" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L199" s="8"/>
     </row>
@@ -9375,10 +9372,10 @@
         <v>38</v>
       </c>
       <c r="C201" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="D201" s="9" t="s">
         <v>769</v>
-      </c>
-      <c r="D201" s="9" t="s">
-        <v>770</v>
       </c>
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
@@ -9396,10 +9393,10 @@
         <v>179</v>
       </c>
       <c r="B202" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="C202" s="19" t="s">
         <v>771</v>
-      </c>
-      <c r="C202" s="19" t="s">
-        <v>772</v>
       </c>
       <c r="D202" s="19"/>
       <c r="E202" s="18"/>
@@ -9413,16 +9410,16 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="16" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B203" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="C203" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="C203" s="15" t="s">
+      <c r="D203" s="17" t="s">
         <v>774</v>
-      </c>
-      <c r="D203" s="17" t="s">
-        <v>775</v>
       </c>
       <c r="E203" s="15"/>
       <c r="F203" s="15"/>
@@ -9438,13 +9435,13 @@
         <v>53</v>
       </c>
       <c r="B204" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="C204" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="C204" s="15" t="s">
+      <c r="D204" s="17" t="s">
         <v>777</v>
-      </c>
-      <c r="D204" s="17" t="s">
-        <v>778</v>
       </c>
       <c r="E204" s="15"/>
       <c r="F204" s="15"/>
@@ -9460,13 +9457,13 @@
         <v>67</v>
       </c>
       <c r="B205" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="C205" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="C205" s="15" t="s">
+      <c r="D205" s="17" t="s">
         <v>780</v>
-      </c>
-      <c r="D205" s="17" t="s">
-        <v>781</v>
       </c>
       <c r="E205" s="15"/>
       <c r="F205" s="15"/>
@@ -9479,16 +9476,16 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="B206" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="B206" s="14" t="s">
+      <c r="C206" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="C206" s="15" t="s">
+      <c r="D206" s="17" t="s">
         <v>784</v>
-      </c>
-      <c r="D206" s="17" t="s">
-        <v>785</v>
       </c>
       <c r="E206" s="15"/>
       <c r="F206" s="15"/>
@@ -9500,19 +9497,19 @@
         <v>39</v>
       </c>
       <c r="B207" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="C207" s="14" t="s">
         <v>786</v>
       </c>
-      <c r="C207" s="14" t="s">
+      <c r="D207" s="17" t="s">
         <v>787</v>
-      </c>
-      <c r="D207" s="17" t="s">
-        <v>788</v>
       </c>
       <c r="E207" s="15"/>
       <c r="F207" s="15"/>
       <c r="G207" s="15"/>
       <c r="H207" s="13" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -9974,7 +9971,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>286</v>
@@ -9988,7 +9985,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>283</v>
@@ -10002,16 +9999,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>791</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="D32" s="29" t="s">
         <v>792</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -10058,7 +10055,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>283</v>
@@ -10072,35 +10069,35 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="B37" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>795</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="D37" s="29" t="s">
         <v>796</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="30" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B38" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>798</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="D38" s="29" t="s">
         <v>799</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="30" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>246</v>
@@ -10114,105 +10111,105 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="B40" s="30" t="s">
         <v>801</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="C40" s="29" t="s">
         <v>802</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="D40" s="29" t="s">
         <v>803</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B41" s="30" t="s">
+        <v>804</v>
+      </c>
+      <c r="C41" s="29" t="s">
         <v>805</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="D41" s="29" t="s">
         <v>806</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B42" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>808</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="D42" s="29" t="s">
         <v>809</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B43" s="30" t="s">
+        <v>810</v>
+      </c>
+      <c r="C43" s="29" t="s">
         <v>811</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="D43" s="29" t="s">
         <v>812</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B44" s="30" t="s">
+        <v>813</v>
+      </c>
+      <c r="C44" s="29" t="s">
         <v>814</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="D44" s="29" t="s">
         <v>815</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B45" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="C45" s="29" t="s">
         <v>817</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="D45" s="29" t="s">
         <v>818</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B46" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>820</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="D46" s="29" t="s">
         <v>821</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>246</v>
@@ -10226,49 +10223,49 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>234</v>
       </c>
       <c r="C48" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="D48" s="29" t="s">
         <v>823</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="B49" s="30" t="s">
         <v>825</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="C49" s="29" t="s">
         <v>826</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="D49" s="29" t="s">
         <v>827</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C50" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="D50" s="29" t="s">
         <v>829</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B51" s="30" t="s">
         <v>246</v>
@@ -10282,7 +10279,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B52" s="30" t="s">
         <v>283</v>
@@ -10296,35 +10293,35 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="30" t="s">
+        <v>830</v>
+      </c>
+      <c r="B53" s="30" t="s">
         <v>831</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="C53" s="29" t="s">
         <v>832</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="D53" s="29" t="s">
         <v>833</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B54" s="30" t="s">
+        <v>834</v>
+      </c>
+      <c r="C54" s="29" t="s">
         <v>835</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="D54" s="29" t="s">
         <v>836</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>246</v>
@@ -10338,105 +10335,105 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B56" s="30" t="s">
+        <v>837</v>
+      </c>
+      <c r="C56" s="29" t="s">
         <v>838</v>
       </c>
-      <c r="C56" s="29" t="s">
-        <v>839</v>
-      </c>
       <c r="D56" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B57" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>840</v>
       </c>
-      <c r="C57" s="29" t="s">
-        <v>841</v>
-      </c>
       <c r="D57" s="29" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B58" s="30" t="s">
+        <v>841</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>842</v>
       </c>
-      <c r="C58" s="29" t="s">
-        <v>843</v>
-      </c>
       <c r="D58" s="29" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B59" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>844</v>
       </c>
-      <c r="C59" s="29" t="s">
-        <v>845</v>
-      </c>
       <c r="D59" s="29" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B60" s="30" t="s">
+        <v>845</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>846</v>
       </c>
-      <c r="C60" s="29" t="s">
-        <v>847</v>
-      </c>
       <c r="D60" s="29" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B61" s="30" t="s">
+        <v>847</v>
+      </c>
+      <c r="C61" s="29" t="s">
         <v>848</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="D61" s="29" t="s">
         <v>849</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B62" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>851</v>
       </c>
-      <c r="C62" s="29" t="s">
-        <v>852</v>
-      </c>
       <c r="D62" s="29" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>234</v>
@@ -10450,161 +10447,161 @@
     </row>
     <row r="64" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="30" t="s">
+        <v>852</v>
+      </c>
+      <c r="B64" s="32" t="s">
         <v>853</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="C64" s="32" t="s">
         <v>854</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="D64" s="33" t="s">
         <v>855</v>
-      </c>
-      <c r="D64" s="33" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B65" s="30" t="s">
+        <v>856</v>
+      </c>
+      <c r="C65" s="29" t="s">
         <v>857</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="D65" s="29" t="s">
         <v>858</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A66" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B66" s="32" t="s">
+        <v>859</v>
+      </c>
+      <c r="C66" s="32" t="s">
         <v>860</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="D66" s="33" t="s">
         <v>861</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B67" s="30" t="s">
+        <v>862</v>
+      </c>
+      <c r="C67" s="29" t="s">
         <v>863</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="D67" s="29" t="s">
         <v>864</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B68" s="30" t="s">
+        <v>865</v>
+      </c>
+      <c r="C68" s="29" t="s">
         <v>866</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="D68" s="29" t="s">
         <v>867</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B69" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="C69" s="29" t="s">
         <v>869</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="D69" s="29" t="s">
         <v>870</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A70" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C70" s="32" t="s">
+        <v>871</v>
+      </c>
+      <c r="D70" s="33" t="s">
         <v>872</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B71" s="30" t="s">
+        <v>873</v>
+      </c>
+      <c r="C71" s="29" t="s">
         <v>874</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="D71" s="29" t="s">
         <v>875</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B72" s="30" t="s">
+        <v>876</v>
+      </c>
+      <c r="C72" s="29" t="s">
         <v>877</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="D72" s="29" t="s">
         <v>878</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>281</v>
       </c>
       <c r="C73" s="29" t="s">
+        <v>879</v>
+      </c>
+      <c r="D73" s="29" t="s">
         <v>880</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B74" s="30" t="s">
+        <v>881</v>
+      </c>
+      <c r="C74" s="29" t="s">
         <v>882</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="D74" s="29" t="s">
         <v>883</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B75" s="30" t="s">
         <v>246</v>
@@ -10618,7 +10615,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B76" s="30" t="s">
         <v>234</v>
@@ -10632,133 +10629,133 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="30" t="s">
+        <v>884</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="C77" s="29" t="s">
         <v>885</v>
       </c>
-      <c r="B77" s="30" t="s">
-        <v>832</v>
-      </c>
-      <c r="C77" s="29" t="s">
+      <c r="D77" s="29" t="s">
         <v>886</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="30" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C78" s="29" t="s">
+        <v>887</v>
+      </c>
+      <c r="D78" s="29" t="s">
         <v>888</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="30" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B79" s="30" t="s">
+        <v>889</v>
+      </c>
+      <c r="C79" s="29" t="s">
         <v>890</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="D79" s="29" t="s">
         <v>891</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="30" t="s">
+        <v>892</v>
+      </c>
+      <c r="B80" s="30" t="s">
         <v>893</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="C80" s="29" t="s">
         <v>894</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="D80" s="29" t="s">
         <v>895</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="30" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B81" s="30" t="s">
+        <v>896</v>
+      </c>
+      <c r="C81" s="29" t="s">
         <v>897</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="D81" s="29" t="s">
         <v>898</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="30" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B82" s="30" t="s">
+        <v>899</v>
+      </c>
+      <c r="C82" s="29" t="s">
         <v>900</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="D82" s="29" t="s">
         <v>901</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="30" t="s">
+        <v>902</v>
+      </c>
+      <c r="B83" s="30" t="s">
         <v>903</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="C83" s="29" t="s">
         <v>904</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="D83" s="29" t="s">
         <v>905</v>
-      </c>
-      <c r="D83" s="29" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="30" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B84" s="30" t="s">
+        <v>906</v>
+      </c>
+      <c r="C84" s="29" t="s">
         <v>907</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="D84" s="29" t="s">
         <v>908</v>
-      </c>
-      <c r="D84" s="29" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="30" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B85" s="30" t="s">
+        <v>909</v>
+      </c>
+      <c r="C85" s="29" t="s">
         <v>910</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="D85" s="29" t="s">
         <v>911</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="30" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>246</v>
@@ -10772,63 +10769,63 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B87" s="30" t="s">
+        <v>912</v>
+      </c>
+      <c r="C87" s="29" t="s">
         <v>913</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="D87" s="29" t="s">
         <v>914</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C89" s="29" t="s">
+        <v>916</v>
+      </c>
+      <c r="D89" s="29" t="s">
         <v>917</v>
-      </c>
-      <c r="D89" s="29" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B90" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="C90" s="29" t="s">
         <v>820</v>
       </c>
-      <c r="C90" s="29" t="s">
-        <v>821</v>
-      </c>
       <c r="D90" s="29" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>246</v>
@@ -10842,7 +10839,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>234</v>
@@ -10856,49 +10853,49 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="32" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B93" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="C93" s="32" t="s">
         <v>814</v>
       </c>
-      <c r="C93" s="32" t="s">
+      <c r="D93" s="29" t="s">
         <v>815</v>
-      </c>
-      <c r="D93" s="29" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="32" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B94" s="32" t="s">
+        <v>816</v>
+      </c>
+      <c r="C94" s="32" t="s">
         <v>817</v>
       </c>
-      <c r="C94" s="32" t="s">
-        <v>818</v>
-      </c>
       <c r="D94" s="29" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="32" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B95" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="C95" s="32" t="s">
         <v>820</v>
       </c>
-      <c r="C95" s="32" t="s">
-        <v>821</v>
-      </c>
       <c r="D95" s="29" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="32" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B96" s="32" t="s">
         <v>246</v>
@@ -10912,7 +10909,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="32" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B97" s="32" t="s">
         <v>234</v>
@@ -10957,10 +10954,10 @@
         <v>59</v>
       </c>
       <c r="B100" s="32" t="s">
+        <v>920</v>
+      </c>
+      <c r="C100" s="35" t="s">
         <v>921</v>
-      </c>
-      <c r="C100" s="35" t="s">
-        <v>922</v>
       </c>
       <c r="D100" s="30" t="s">
         <v>253</v>
@@ -10985,13 +10982,13 @@
         <v>59</v>
       </c>
       <c r="B102" s="32" t="s">
+        <v>922</v>
+      </c>
+      <c r="C102" s="35" t="s">
         <v>923</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="D102" s="30" t="s">
         <v>924</v>
-      </c>
-      <c r="D102" s="30" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -10999,13 +10996,13 @@
         <v>59</v>
       </c>
       <c r="B103" s="32" t="s">
+        <v>925</v>
+      </c>
+      <c r="C103" s="35" t="s">
         <v>926</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="D103" s="30" t="s">
         <v>927</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -11066,105 +11063,105 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="32" t="s">
+        <v>928</v>
+      </c>
+      <c r="B108" s="32" t="s">
         <v>929</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="C108" s="35" t="s">
         <v>930</v>
       </c>
-      <c r="C108" s="35" t="s">
+      <c r="D108" s="30" t="s">
         <v>931</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="32" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B109" s="32" t="s">
+        <v>932</v>
+      </c>
+      <c r="C109" s="35" t="s">
         <v>933</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="D109" s="30" t="s">
         <v>934</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="32" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B110" s="32" t="s">
+        <v>935</v>
+      </c>
+      <c r="C110" s="35" t="s">
         <v>936</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="D110" s="30" t="s">
         <v>937</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="32" t="s">
+        <v>938</v>
+      </c>
+      <c r="B111" s="32" t="s">
         <v>939</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="C111" s="32" t="s">
         <v>940</v>
       </c>
-      <c r="C111" s="32" t="s">
+      <c r="D111" s="29" t="s">
         <v>941</v>
-      </c>
-      <c r="D111" s="29" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="32" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B112" s="32" t="s">
+        <v>942</v>
+      </c>
+      <c r="C112" s="32" t="s">
         <v>943</v>
       </c>
-      <c r="C112" s="32" t="s">
+      <c r="D112" s="29" t="s">
         <v>944</v>
-      </c>
-      <c r="D112" s="29" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="32" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B113" s="32" t="s">
+        <v>945</v>
+      </c>
+      <c r="C113" s="32" t="s">
         <v>946</v>
       </c>
-      <c r="C113" s="32" t="s">
+      <c r="D113" s="29" t="s">
         <v>947</v>
-      </c>
-      <c r="D113" s="29" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="32" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B114" s="32" t="s">
+        <v>948</v>
+      </c>
+      <c r="C114" s="32" t="s">
         <v>949</v>
       </c>
-      <c r="C114" s="32" t="s">
+      <c r="D114" s="29" t="s">
         <v>950</v>
-      </c>
-      <c r="D114" s="29" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="32" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B115" s="32" t="s">
         <v>246</v>
@@ -11173,68 +11170,68 @@
         <v>28</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="32" t="s">
+        <v>952</v>
+      </c>
+      <c r="B116" s="32" t="s">
         <v>953</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="C116" s="32" t="s">
         <v>954</v>
       </c>
-      <c r="C116" s="32" t="s">
+      <c r="D116" s="29" t="s">
         <v>955</v>
-      </c>
-      <c r="D116" s="29" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="32" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B117" s="32" t="s">
+        <v>956</v>
+      </c>
+      <c r="C117" s="32" t="s">
         <v>957</v>
       </c>
-      <c r="C117" s="32" t="s">
+      <c r="D117" s="29" t="s">
         <v>958</v>
-      </c>
-      <c r="D117" s="29" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="32" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B118" s="32" t="s">
+        <v>959</v>
+      </c>
+      <c r="C118" s="32" t="s">
         <v>960</v>
       </c>
-      <c r="C118" s="32" t="s">
+      <c r="D118" s="29" t="s">
         <v>961</v>
-      </c>
-      <c r="D118" s="29" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="32" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B119" s="32" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="32" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B120" s="32" t="s">
         <v>234</v>
@@ -11248,7 +11245,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="32" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B121" s="32" t="s">
         <v>246</v>
@@ -11262,77 +11259,77 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="32" t="s">
+        <v>963</v>
+      </c>
+      <c r="B122" s="32" t="s">
         <v>964</v>
       </c>
-      <c r="B122" s="32" t="s">
+      <c r="C122" s="32" t="s">
         <v>965</v>
       </c>
-      <c r="C122" s="32" t="s">
+      <c r="D122" s="29" t="s">
         <v>966</v>
-      </c>
-      <c r="D122" s="29" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="32" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B123" s="32" t="s">
+        <v>967</v>
+      </c>
+      <c r="C123" s="32" t="s">
         <v>968</v>
       </c>
-      <c r="C123" s="32" t="s">
+      <c r="D123" s="29" t="s">
         <v>969</v>
-      </c>
-      <c r="D123" s="29" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="32" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B124" s="32" t="s">
+        <v>970</v>
+      </c>
+      <c r="C124" s="32" t="s">
         <v>971</v>
       </c>
-      <c r="C124" s="32" t="s">
+      <c r="D124" s="29" t="s">
         <v>972</v>
-      </c>
-      <c r="D124" s="29" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="32" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B125" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="C125" s="32" t="s">
         <v>974</v>
       </c>
-      <c r="C125" s="32" t="s">
+      <c r="D125" s="32" t="s">
         <v>975</v>
-      </c>
-      <c r="D125" s="32" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="32" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B126" s="32" t="s">
+        <v>976</v>
+      </c>
+      <c r="C126" s="32" t="s">
         <v>977</v>
       </c>
-      <c r="C126" s="32" t="s">
+      <c r="D126" s="29" t="s">
         <v>978</v>
-      </c>
-      <c r="D126" s="29" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="32" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B127" s="32" t="s">
         <v>234</v>
@@ -11346,7 +11343,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="32" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B128" s="32" t="s">
         <v>246</v>
@@ -11360,21 +11357,21 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="29" t="s">
+        <v>979</v>
+      </c>
+      <c r="B129" s="32" t="s">
         <v>980</v>
       </c>
-      <c r="B129" s="32" t="s">
+      <c r="C129" s="32" t="s">
         <v>981</v>
       </c>
-      <c r="C129" s="32" t="s">
+      <c r="D129" s="32" t="s">
         <v>982</v>
-      </c>
-      <c r="D129" s="32" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B130" s="32" t="s">
         <v>258</v>
@@ -11388,7 +11385,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B131" s="32" t="s">
         <v>286</v>
@@ -11402,7 +11399,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B132" s="32" t="s">
         <v>283</v>
@@ -11416,13 +11413,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="32" t="s">
+        <v>983</v>
+      </c>
+      <c r="B133" s="32" t="s">
         <v>984</v>
       </c>
-      <c r="B133" s="32" t="s">
+      <c r="C133" s="32" t="s">
         <v>985</v>
-      </c>
-      <c r="C133" s="32" t="s">
-        <v>986</v>
       </c>
       <c r="D133" s="32" t="s">
         <v>230</v>
@@ -11430,7 +11427,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B134" s="32" t="s">
         <v>246</v>
@@ -11444,63 +11441,63 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="32" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B135" s="29" t="s">
+        <v>912</v>
+      </c>
+      <c r="C135" s="32" t="s">
         <v>913</v>
       </c>
-      <c r="C135" s="32" t="s">
+      <c r="D135" s="32" t="s">
         <v>914</v>
-      </c>
-      <c r="D135" s="32" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="32" t="s">
+        <v>986</v>
+      </c>
+      <c r="B136" s="29" t="s">
         <v>987</v>
       </c>
-      <c r="B136" s="29" t="s">
+      <c r="C136" s="32" t="s">
         <v>988</v>
       </c>
-      <c r="C136" s="32" t="s">
+      <c r="D136" s="32" t="s">
         <v>989</v>
-      </c>
-      <c r="D136" s="32" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="32" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B137" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="C137" s="32" t="s">
         <v>991</v>
       </c>
-      <c r="C137" s="32" t="s">
+      <c r="D137" s="32" t="s">
         <v>992</v>
-      </c>
-      <c r="D137" s="32" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="32" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B138" s="29" t="s">
+        <v>993</v>
+      </c>
+      <c r="C138" s="32" t="s">
         <v>994</v>
       </c>
-      <c r="C138" s="32" t="s">
+      <c r="D138" s="32" t="s">
         <v>995</v>
-      </c>
-      <c r="D138" s="32" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="32" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B139" s="29" t="s">
         <v>246</v>
@@ -11514,44 +11511,44 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="32" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B140" s="29" t="s">
         <v>234</v>
       </c>
       <c r="C140" s="32" t="s">
+        <v>996</v>
+      </c>
+      <c r="D140" s="32" t="s">
         <v>997</v>
-      </c>
-      <c r="D140" s="32" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="32" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B141" s="32" t="s">
         <v>75</v>
       </c>
       <c r="C141" s="32" t="s">
+        <v>999</v>
+      </c>
+      <c r="D141" s="29" t="s">
         <v>1000</v>
-      </c>
-      <c r="D141" s="29" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="32" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B142" s="32" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C142" s="32" t="s">
         <v>1002</v>
       </c>
-      <c r="C142" s="32" t="s">
+      <c r="D142" s="29" t="s">
         <v>1003</v>
-      </c>
-      <c r="D142" s="29" t="s">
-        <v>1004</v>
       </c>
     </row>
   </sheetData>
@@ -11589,7 +11586,7 @@
         <v>310</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -11842,7 +11839,7 @@
         <v>200</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
@@ -11886,7 +11883,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -11901,16 +11898,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>1008</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="C13" s="40" t="s">
         <v>1009</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="D13" s="40" t="s">
         <v>1010</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>1011</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -11932,7 +11929,7 @@
         <v>192</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -11967,7 +11964,7 @@
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
     </row>
-    <row r="16" spans="1:12" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="39" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>49</v>
       </c>
@@ -12017,7 +12014,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>179</v>
       </c>
@@ -12192,13 +12189,13 @@
         <v>49</v>
       </c>
       <c r="B26" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C26" s="40" t="s">
         <v>1013</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="D26" s="40" t="s">
         <v>1014</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>1015</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
@@ -12206,7 +12203,7 @@
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
       <c r="J26" s="41" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="K26" s="41" t="s">
         <v>134</v>
@@ -12237,15 +12234,15 @@
         <v>151</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>1017</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>1018</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -12280,10 +12277,10 @@
         <v>67</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>77</v>
@@ -12309,7 +12306,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E31" s="40" t="s">
         <v>141</v>
@@ -12352,16 +12349,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B33" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="40" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D33" s="40" t="s">
         <v>1023</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>1024</v>
       </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
@@ -12369,22 +12366,22 @@
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
       <c r="J33" s="39" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="K33" s="39"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B34" s="40" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="40" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D34" s="40" t="s">
         <v>1026</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>1027</v>
       </c>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
@@ -12423,16 +12420,16 @@
         <v>392</v>
       </c>
       <c r="C36" s="40" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D36" s="40" t="s">
         <v>1028</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>1029</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="40" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I36" s="39"/>
       <c r="J36" s="39"/>
@@ -12443,13 +12440,13 @@
         <v>49</v>
       </c>
       <c r="B37" s="40" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C37" s="40" t="s">
         <v>1031</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="D37" s="40" t="s">
         <v>1032</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>1033</v>
       </c>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -12795,12 +12792,12 @@
         <v>311</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="49" t="s">
@@ -13342,13 +13339,13 @@
         <v>335</v>
       </c>
       <c r="B23" s="51" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C23" s="51" t="s">
         <v>1036</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="D23" s="51" t="s">
         <v>1037</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>1038</v>
       </c>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
@@ -13365,19 +13362,19 @@
         <v>39</v>
       </c>
       <c r="B24" s="51" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C24" s="51" t="s">
         <v>1039</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="D24" s="51" t="s">
         <v>1040</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>1041</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
       <c r="G24" s="57"/>
       <c r="H24" s="51" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
@@ -13429,10 +13426,10 @@
         <v>330</v>
       </c>
       <c r="C27" s="51" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D27" s="51" t="s">
         <v>1043</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>1044</v>
       </c>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
@@ -13488,7 +13485,7 @@
         <v>328</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D30" s="51" t="s">
         <v>327</v>
@@ -13552,10 +13549,10 @@
         <v>67</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>77</v>
@@ -13627,13 +13624,13 @@
         <v>53</v>
       </c>
       <c r="B36" s="57" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C36" s="57" t="s">
         <v>1046</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="D36" s="57" t="s">
         <v>1047</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>1048</v>
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="52"/>
@@ -13648,19 +13645,19 @@
         <v>313</v>
       </c>
       <c r="B37" s="57" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C37" s="57" t="s">
         <v>1049</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="D37" s="57" t="s">
         <v>1050</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>1051</v>
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="52"/>
       <c r="G37" s="57"/>
       <c r="H37" s="57" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I37" s="57"/>
       <c r="J37" s="57"/>
@@ -13671,13 +13668,13 @@
         <v>313</v>
       </c>
       <c r="B38" s="57" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C38" s="57" t="s">
         <v>1053</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="D38" s="57" t="s">
         <v>1054</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>1055</v>
       </c>
       <c r="E38" s="52"/>
       <c r="F38" s="52"/>
@@ -13692,19 +13689,19 @@
         <v>39</v>
       </c>
       <c r="B39" s="57" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C39" s="57" t="s">
         <v>1056</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="D39" s="57" t="s">
         <v>1057</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>1058</v>
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
       <c r="H39" s="57" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
@@ -13715,19 +13712,19 @@
         <v>67</v>
       </c>
       <c r="B40" s="57" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C40" s="57" t="s">
         <v>1060</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="D40" s="57" t="s">
         <v>1061</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>1062</v>
       </c>
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
       <c r="G40" s="57"/>
       <c r="H40" s="57" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I40" s="57"/>
       <c r="J40" s="57"/>
@@ -13769,16 +13766,16 @@
         <v>318</v>
       </c>
       <c r="C43" s="51" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D43" s="51" t="s">
         <v>1063</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>1064</v>
       </c>
       <c r="E43" s="52"/>
       <c r="F43" s="52"/>
       <c r="G43" s="57"/>
       <c r="H43" s="51" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I43" s="57"/>
       <c r="J43" s="57"/>
@@ -13789,13 +13786,13 @@
         <v>313</v>
       </c>
       <c r="B44" s="51" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C44" s="58" t="s">
         <v>1066</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="D44" s="58" t="s">
         <v>1067</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>1068</v>
       </c>
       <c r="E44" s="52"/>
       <c r="F44" s="52"/>
@@ -13807,22 +13804,22 @@
     </row>
     <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="51" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B45" s="51" t="s">
         <v>1069</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="C45" s="58" t="s">
         <v>1070</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="D45" s="58" t="s">
         <v>1071</v>
-      </c>
-      <c r="D45" s="58" t="s">
-        <v>1072</v>
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="52"/>
       <c r="G45" s="57"/>
       <c r="H45" s="51" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I45" s="51"/>
       <c r="J45" s="57"/>
@@ -13833,13 +13830,13 @@
         <v>313</v>
       </c>
       <c r="B46" s="51" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C46" s="58" t="s">
         <v>1074</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="D46" s="58" t="s">
         <v>1075</v>
-      </c>
-      <c r="D46" s="58" t="s">
-        <v>1076</v>
       </c>
       <c r="E46" s="52"/>
       <c r="F46" s="52"/>
@@ -13854,23 +13851,23 @@
         <v>49</v>
       </c>
       <c r="B47" s="51" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C47" s="58" t="s">
         <v>1077</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="D47" s="58" t="s">
         <v>1078</v>
       </c>
-      <c r="D47" s="58" t="s">
+      <c r="E47" s="52" t="s">
         <v>1079</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="F47" s="52" t="s">
         <v>1080</v>
-      </c>
-      <c r="F47" s="52" t="s">
-        <v>1081</v>
       </c>
       <c r="G47" s="57"/>
       <c r="H47" s="51" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I47" s="57"/>
       <c r="J47" s="57"/>
@@ -13881,23 +13878,23 @@
         <v>49</v>
       </c>
       <c r="B48" s="51" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C48" s="58" t="s">
         <v>1083</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="D48" s="58" t="s">
         <v>1084</v>
       </c>
-      <c r="D48" s="58" t="s">
-        <v>1085</v>
-      </c>
       <c r="E48" s="52" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F48" s="52" t="s">
         <v>1080</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>1081</v>
       </c>
       <c r="G48" s="57"/>
       <c r="H48" s="51" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I48" s="57"/>
       <c r="J48" s="57"/>
@@ -13908,13 +13905,13 @@
         <v>313</v>
       </c>
       <c r="B49" s="57" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C49" s="58" t="s">
         <v>1086</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="D49" s="52" t="s">
         <v>1087</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>1088</v>
       </c>
       <c r="E49" s="52"/>
       <c r="F49" s="52"/>
@@ -13927,23 +13924,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="57" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C50" s="58" t="s">
         <v>1089</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="D50" s="52" t="s">
         <v>1090</v>
       </c>
-      <c r="D50" s="52" t="s">
-        <v>1091</v>
-      </c>
       <c r="E50" s="52" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F50" s="52" t="s">
         <v>1080</v>
-      </c>
-      <c r="F50" s="52" t="s">
-        <v>1081</v>
       </c>
       <c r="G50" s="57"/>
       <c r="H50" s="51" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I50" s="57"/>
     </row>
@@ -13952,13 +13949,13 @@
         <v>313</v>
       </c>
       <c r="B51" s="57" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C51" s="58" t="s">
         <v>1093</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="D51" s="52" t="s">
         <v>1094</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>1095</v>
       </c>
       <c r="E51" s="52"/>
       <c r="F51" s="52"/>
@@ -13971,19 +13968,19 @@
         <v>49</v>
       </c>
       <c r="B52" s="57" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C52" s="58" t="s">
         <v>1096</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="D52" s="52" t="s">
         <v>1097</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>1098</v>
       </c>
       <c r="E52" s="52"/>
       <c r="F52" s="52"/>
       <c r="G52" s="57"/>
       <c r="H52" s="51" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I52" s="51"/>
     </row>
@@ -13992,19 +13989,19 @@
         <v>313</v>
       </c>
       <c r="B53" s="57" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C53" s="58" t="s">
         <v>1100</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="D53" s="52" t="s">
         <v>1101</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="E53" s="52" t="s">
         <v>1102</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="F53" s="52" t="s">
         <v>1103</v>
-      </c>
-      <c r="F53" s="52" t="s">
-        <v>1104</v>
       </c>
       <c r="G53" s="57"/>
       <c r="H53" s="51"/>
@@ -14015,19 +14012,19 @@
         <v>49</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C54" s="58" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D54" s="52" t="s">
         <v>1097</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>1098</v>
       </c>
       <c r="E54" s="52"/>
       <c r="F54" s="52"/>
       <c r="G54" s="57"/>
       <c r="H54" s="51" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I54" s="57"/>
     </row>
@@ -14036,19 +14033,19 @@
         <v>313</v>
       </c>
       <c r="B55" s="57" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C55" s="58" t="s">
         <v>1107</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="D55" s="52" t="s">
         <v>1108</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="E55" s="52" t="s">
         <v>1109</v>
       </c>
-      <c r="E55" s="52" t="s">
+      <c r="F55" s="52" t="s">
         <v>1110</v>
-      </c>
-      <c r="F55" s="52" t="s">
-        <v>1111</v>
       </c>
       <c r="G55" s="57"/>
       <c r="H55" s="51"/>
@@ -14059,19 +14056,19 @@
         <v>49</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C56" s="58" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D56" s="52" t="s">
         <v>1097</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>1098</v>
       </c>
       <c r="E56" s="52"/>
       <c r="F56" s="52"/>
       <c r="G56" s="57"/>
       <c r="H56" s="57" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I56" s="57"/>
     </row>
@@ -14080,19 +14077,19 @@
         <v>49</v>
       </c>
       <c r="B57" s="57" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C57" s="58" t="s">
         <v>1114</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="D57" s="52" t="s">
         <v>1115</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>1116</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="52"/>
       <c r="G57" s="57"/>
       <c r="H57" s="57" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I57" s="57"/>
     </row>
@@ -14101,19 +14098,19 @@
         <v>49</v>
       </c>
       <c r="B58" s="57" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C58" s="58" t="s">
         <v>1117</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="D58" s="52" t="s">
         <v>1118</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>1119</v>
       </c>
       <c r="E58" s="52"/>
       <c r="F58" s="52"/>
       <c r="G58" s="57"/>
       <c r="H58" s="57" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I58" s="57"/>
     </row>
@@ -14122,13 +14119,13 @@
         <v>313</v>
       </c>
       <c r="B59" s="57" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C59" s="58" t="s">
         <v>1120</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="D59" s="52" t="s">
         <v>1121</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>1122</v>
       </c>
       <c r="E59" s="52"/>
       <c r="F59" s="52"/>
@@ -14141,19 +14138,19 @@
         <v>49</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C60" s="58" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D60" s="52" t="s">
         <v>1097</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>1098</v>
       </c>
       <c r="E60" s="52"/>
       <c r="F60" s="52"/>
       <c r="G60" s="57"/>
       <c r="H60" s="51" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I60" s="51"/>
     </row>
@@ -14162,19 +14159,19 @@
         <v>49</v>
       </c>
       <c r="B61" s="57" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C61" s="58" t="s">
         <v>1125</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="D61" s="52" t="s">
         <v>1126</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>1127</v>
       </c>
       <c r="E61" s="52"/>
       <c r="F61" s="52"/>
       <c r="G61" s="57"/>
       <c r="H61" s="51" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I61" s="51"/>
     </row>
@@ -14183,19 +14180,19 @@
         <v>49</v>
       </c>
       <c r="B62" s="57" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C62" s="58" t="s">
         <v>1128</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="D62" s="52" t="s">
         <v>1129</v>
-      </c>
-      <c r="D62" s="52" t="s">
-        <v>1130</v>
       </c>
       <c r="E62" s="52"/>
       <c r="F62" s="52"/>
       <c r="G62" s="57"/>
       <c r="H62" s="51" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I62" s="57"/>
     </row>
@@ -14204,13 +14201,13 @@
         <v>313</v>
       </c>
       <c r="B63" s="57" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C63" s="58" t="s">
         <v>1131</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="D63" s="52" t="s">
         <v>1132</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>1133</v>
       </c>
       <c r="E63" s="52"/>
       <c r="F63" s="52"/>
@@ -14224,34 +14221,34 @@
         <v>49</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C64" s="58" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D64" s="52" t="s">
         <v>1097</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>1098</v>
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="52"/>
       <c r="G64" s="57"/>
       <c r="H64" s="57" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I64" s="57"/>
     </row>
     <row r="65" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="57" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B65" s="57" t="s">
         <v>1136</v>
       </c>
-      <c r="B65" s="57" t="s">
+      <c r="C65" s="58" t="s">
         <v>1137</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="D65" s="52" t="s">
         <v>1138</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>1139</v>
       </c>
       <c r="E65" s="52"/>
       <c r="F65" s="52"/>
@@ -14267,19 +14264,19 @@
         <v>39</v>
       </c>
       <c r="B66" s="57" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C66" s="58" t="s">
         <v>1140</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="D66" s="52" t="s">
         <v>1141</v>
-      </c>
-      <c r="D66" s="52" t="s">
-        <v>1142</v>
       </c>
       <c r="E66" s="52"/>
       <c r="F66" s="52"/>
       <c r="G66" s="57"/>
       <c r="H66" s="57" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I66" s="57"/>
       <c r="J66" s="57"/>
@@ -14291,19 +14288,19 @@
         <v>39</v>
       </c>
       <c r="B67" s="57" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C67" s="58" t="s">
         <v>1144</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="D67" s="52" t="s">
         <v>1145</v>
       </c>
-      <c r="D67" s="52" t="s">
+      <c r="E67" s="52" t="s">
         <v>1146</v>
       </c>
-      <c r="E67" s="52" t="s">
+      <c r="F67" s="52" t="s">
         <v>1147</v>
-      </c>
-      <c r="F67" s="52" t="s">
-        <v>1148</v>
       </c>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
@@ -14317,13 +14314,13 @@
         <v>313</v>
       </c>
       <c r="B68" s="57" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C68" s="58" t="s">
         <v>1149</v>
       </c>
-      <c r="C68" s="58" t="s">
+      <c r="D68" s="53" t="s">
         <v>1150</v>
-      </c>
-      <c r="D68" s="53" t="s">
-        <v>1151</v>
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38"/>
@@ -14339,19 +14336,19 @@
         <v>313</v>
       </c>
       <c r="B69" s="57" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C69" s="57" t="s">
         <v>1152</v>
       </c>
-      <c r="C69" s="57" t="s">
+      <c r="D69" s="53" t="s">
         <v>1153</v>
-      </c>
-      <c r="D69" s="53" t="s">
-        <v>1154</v>
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
       <c r="H69" s="57" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="I69" s="38"/>
       <c r="J69" s="38"/>
@@ -14363,19 +14360,19 @@
         <v>179</v>
       </c>
       <c r="B70" s="57" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C70" s="52" t="s">
         <v>1156</v>
       </c>
-      <c r="C70" s="52" t="s">
+      <c r="D70" s="53" t="s">
         <v>1157</v>
-      </c>
-      <c r="D70" s="53" t="s">
-        <v>1158</v>
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
       <c r="H70" s="57" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="I70" s="38"/>
       <c r="J70" s="38"/>
@@ -14420,16 +14417,16 @@
         <v>317</v>
       </c>
       <c r="C73" s="57" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D73" s="53" t="s">
         <v>1160</v>
-      </c>
-      <c r="D73" s="53" t="s">
-        <v>1161</v>
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
       <c r="H73" s="57" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I73" s="38"/>
       <c r="J73" s="38"/>
@@ -14441,13 +14438,13 @@
         <v>179</v>
       </c>
       <c r="B74" s="57" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C74" s="57" t="s">
         <v>1163</v>
       </c>
-      <c r="C74" s="57" t="s">
+      <c r="D74" s="51" t="s">
         <v>1164</v>
-      </c>
-      <c r="D74" s="51" t="s">
-        <v>1165</v>
       </c>
       <c r="E74" s="38"/>
       <c r="F74" s="38"/>
@@ -14460,16 +14457,16 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="51" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B75" s="51" t="s">
         <v>1166</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="C75" s="51" t="s">
         <v>1167</v>
       </c>
-      <c r="C75" s="51" t="s">
-        <v>1168</v>
-      </c>
       <c r="D75" s="51" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E75" s="38"/>
       <c r="F75" s="38"/>
@@ -14485,19 +14482,19 @@
         <v>67</v>
       </c>
       <c r="B76" s="51" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C76" s="51" t="s">
         <v>1169</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="D76" s="51" t="s">
         <v>1170</v>
-      </c>
-      <c r="D76" s="51" t="s">
-        <v>1171</v>
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
       <c r="H76" s="57" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I76" s="38"/>
       <c r="J76" s="38"/>
@@ -14506,16 +14503,16 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B77" s="51" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C77" s="51" t="s">
         <v>1173</v>
       </c>
-      <c r="C77" s="51" t="s">
-        <v>1174</v>
-      </c>
       <c r="D77" s="51" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38"/>
@@ -14531,19 +14528,19 @@
         <v>67</v>
       </c>
       <c r="B78" s="51" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C78" s="51" t="s">
         <v>1175</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="D78" s="51" t="s">
         <v>1176</v>
-      </c>
-      <c r="D78" s="51" t="s">
-        <v>1177</v>
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
       <c r="H78" s="57" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I78" s="38"/>
       <c r="J78" s="38"/>
@@ -14552,16 +14549,16 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B79" s="51" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C79" s="51" t="s">
         <v>1179</v>
       </c>
-      <c r="C79" s="51" t="s">
-        <v>1180</v>
-      </c>
       <c r="D79" s="51" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38"/>
@@ -14577,19 +14574,19 @@
         <v>67</v>
       </c>
       <c r="B80" s="51" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C80" s="51" t="s">
         <v>1181</v>
       </c>
-      <c r="C80" s="51" t="s">
+      <c r="D80" s="57" t="s">
         <v>1182</v>
-      </c>
-      <c r="D80" s="57" t="s">
-        <v>1183</v>
       </c>
       <c r="E80" s="38"/>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
       <c r="H80" s="57" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I80" s="38"/>
       <c r="J80" s="38"/>
@@ -14598,16 +14595,16 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B81" s="51" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C81" s="51" t="s">
         <v>1185</v>
       </c>
-      <c r="C81" s="51" t="s">
-        <v>1186</v>
-      </c>
       <c r="D81" s="51" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E81" s="38"/>
       <c r="F81" s="38"/>
@@ -14619,33 +14616,33 @@
         <v>67</v>
       </c>
       <c r="B82" s="51" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C82" s="51" t="s">
         <v>1187</v>
       </c>
-      <c r="C82" s="51" t="s">
+      <c r="D82" s="51" t="s">
         <v>1188</v>
-      </c>
-      <c r="D82" s="51" t="s">
-        <v>1189</v>
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
       <c r="H82" s="57" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B83" s="51" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C83" s="51" t="s">
         <v>1191</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="D83" s="51" t="s">
         <v>1192</v>
-      </c>
-      <c r="D83" s="51" t="s">
-        <v>1193</v>
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38"/>
@@ -14657,33 +14654,33 @@
         <v>67</v>
       </c>
       <c r="B84" s="51" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C84" s="51" t="s">
         <v>1194</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="D84" s="51" t="s">
         <v>1195</v>
-      </c>
-      <c r="D84" s="51" t="s">
-        <v>1196</v>
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
       <c r="H84" s="57" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B85" s="51" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C85" s="51" t="s">
         <v>1198</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="D85" s="51" t="s">
         <v>1199</v>
-      </c>
-      <c r="D85" s="51" t="s">
-        <v>1200</v>
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38"/>
@@ -14695,33 +14692,33 @@
         <v>67</v>
       </c>
       <c r="B86" s="51" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C86" s="51" t="s">
         <v>1201</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="D86" s="51" t="s">
         <v>1202</v>
-      </c>
-      <c r="D86" s="51" t="s">
-        <v>1203</v>
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
       <c r="H86" s="57" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B87" s="51" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C87" s="51" t="s">
         <v>1205</v>
       </c>
-      <c r="C87" s="51" t="s">
+      <c r="D87" s="57" t="s">
         <v>1206</v>
-      </c>
-      <c r="D87" s="57" t="s">
-        <v>1207</v>
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38"/>
@@ -14733,33 +14730,33 @@
         <v>67</v>
       </c>
       <c r="B88" s="51" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C88" s="57" t="s">
         <v>1208</v>
       </c>
-      <c r="C88" s="57" t="s">
+      <c r="D88" s="58" t="s">
         <v>1209</v>
-      </c>
-      <c r="D88" s="58" t="s">
-        <v>1210</v>
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
       <c r="H88" s="57" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B89" s="51" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C89" s="51" t="s">
         <v>1212</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="D89" s="58" t="s">
         <v>1213</v>
-      </c>
-      <c r="D89" s="58" t="s">
-        <v>1214</v>
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38"/>
@@ -14771,33 +14768,33 @@
         <v>67</v>
       </c>
       <c r="B90" s="51" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C90" s="51" t="s">
         <v>1215</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="D90" s="51" t="s">
         <v>1216</v>
-      </c>
-      <c r="D90" s="51" t="s">
-        <v>1217</v>
       </c>
       <c r="E90" s="38"/>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
       <c r="H90" s="57" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B91" s="51" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C91" s="51" t="s">
         <v>1219</v>
       </c>
-      <c r="C91" s="51" t="s">
+      <c r="D91" s="57" t="s">
         <v>1220</v>
-      </c>
-      <c r="D91" s="57" t="s">
-        <v>1221</v>
       </c>
       <c r="E91" s="38"/>
       <c r="F91" s="38"/>
@@ -14809,33 +14806,33 @@
         <v>67</v>
       </c>
       <c r="B92" s="51" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C92" s="57" t="s">
         <v>1222</v>
       </c>
-      <c r="C92" s="57" t="s">
+      <c r="D92" s="57" t="s">
         <v>1223</v>
-      </c>
-      <c r="D92" s="57" t="s">
-        <v>1224</v>
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
       <c r="H92" s="57" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B93" s="57" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C93" s="57" t="s">
         <v>1226</v>
       </c>
-      <c r="C93" s="57" t="s">
-        <v>1227</v>
-      </c>
       <c r="D93" s="57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38"/>
@@ -14847,33 +14844,33 @@
         <v>67</v>
       </c>
       <c r="B94" s="51" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C94" s="57" t="s">
         <v>1228</v>
       </c>
-      <c r="C94" s="57" t="s">
+      <c r="D94" s="38" t="s">
         <v>1229</v>
-      </c>
-      <c r="D94" s="38" t="s">
-        <v>1230</v>
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
       <c r="H94" s="57" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B95" s="57" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C95" s="57" t="s">
         <v>1232</v>
       </c>
-      <c r="C95" s="57" t="s">
-        <v>1233</v>
-      </c>
       <c r="D95" s="38" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38"/>
@@ -14885,33 +14882,33 @@
         <v>67</v>
       </c>
       <c r="B96" s="51" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C96" s="57" t="s">
         <v>1234</v>
       </c>
-      <c r="C96" s="57" t="s">
+      <c r="D96" s="38" t="s">
         <v>1235</v>
-      </c>
-      <c r="D96" s="38" t="s">
-        <v>1236</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
       <c r="H96" s="57" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B97" s="57" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C97" s="57" t="s">
         <v>1238</v>
       </c>
-      <c r="C97" s="57" t="s">
-        <v>1239</v>
-      </c>
       <c r="D97" s="38" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38"/>
@@ -14923,33 +14920,33 @@
         <v>67</v>
       </c>
       <c r="B98" s="51" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C98" s="57" t="s">
         <v>1240</v>
       </c>
-      <c r="C98" s="57" t="s">
+      <c r="D98" s="38" t="s">
         <v>1241</v>
-      </c>
-      <c r="D98" s="38" t="s">
-        <v>1242</v>
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
       <c r="H98" s="57" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B99" s="57" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C99" s="57" t="s">
         <v>1244</v>
       </c>
-      <c r="C99" s="57" t="s">
+      <c r="D99" s="38" t="s">
         <v>1245</v>
-      </c>
-      <c r="D99" s="38" t="s">
-        <v>1246</v>
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38"/>
@@ -14961,33 +14958,33 @@
         <v>67</v>
       </c>
       <c r="B100" s="57" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C100" s="57" t="s">
         <v>1247</v>
       </c>
-      <c r="C100" s="57" t="s">
+      <c r="D100" s="38" t="s">
         <v>1248</v>
-      </c>
-      <c r="D100" s="38" t="s">
-        <v>1249</v>
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
       <c r="H100" s="57" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B101" s="57" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C101" s="57" t="s">
         <v>1251</v>
       </c>
-      <c r="C101" s="57" t="s">
-        <v>1252</v>
-      </c>
       <c r="D101" s="38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38"/>
@@ -14999,33 +14996,33 @@
         <v>67</v>
       </c>
       <c r="B102" s="57" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C102" s="57" t="s">
         <v>1253</v>
       </c>
-      <c r="C102" s="57" t="s">
+      <c r="D102" s="38" t="s">
         <v>1254</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>1255</v>
       </c>
       <c r="E102" s="38"/>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
       <c r="H102" s="57" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B103" s="57" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C103" s="57" t="s">
         <v>1257</v>
       </c>
-      <c r="C103" s="57" t="s">
-        <v>1258</v>
-      </c>
       <c r="D103" s="38" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E103" s="38"/>
       <c r="F103" s="38"/>
@@ -15037,33 +15034,33 @@
         <v>67</v>
       </c>
       <c r="B104" s="57" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C104" s="57" t="s">
         <v>1259</v>
       </c>
-      <c r="C104" s="57" t="s">
+      <c r="D104" s="38" t="s">
         <v>1260</v>
-      </c>
-      <c r="D104" s="38" t="s">
-        <v>1261</v>
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
       <c r="H104" s="57" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B105" s="57" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C105" s="57" t="s">
         <v>1263</v>
       </c>
-      <c r="C105" s="57" t="s">
-        <v>1264</v>
-      </c>
       <c r="D105" s="38" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38"/>
@@ -15075,33 +15072,33 @@
         <v>67</v>
       </c>
       <c r="B106" s="57" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C106" s="57" t="s">
         <v>1265</v>
       </c>
-      <c r="C106" s="57" t="s">
+      <c r="D106" s="57" t="s">
         <v>1266</v>
-      </c>
-      <c r="D106" s="57" t="s">
-        <v>1267</v>
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
       <c r="H106" s="57" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B107" s="57" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C107" s="57" t="s">
         <v>1269</v>
       </c>
-      <c r="C107" s="57" t="s">
+      <c r="D107" s="38" t="s">
         <v>1270</v>
-      </c>
-      <c r="D107" s="38" t="s">
-        <v>1271</v>
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38"/>
@@ -15113,33 +15110,33 @@
         <v>67</v>
       </c>
       <c r="B108" s="57" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C108" s="57" t="s">
         <v>1272</v>
       </c>
-      <c r="C108" s="57" t="s">
+      <c r="D108" s="38" t="s">
         <v>1273</v>
-      </c>
-      <c r="D108" s="38" t="s">
-        <v>1274</v>
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
       <c r="H108" s="57" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B109" s="57" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C109" s="57" t="s">
         <v>1276</v>
       </c>
-      <c r="C109" s="57" t="s">
+      <c r="D109" s="38" t="s">
         <v>1277</v>
-      </c>
-      <c r="D109" s="38" t="s">
-        <v>1278</v>
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38"/>
@@ -15151,33 +15148,33 @@
         <v>67</v>
       </c>
       <c r="B110" s="57" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C110" s="57" t="s">
         <v>1279</v>
       </c>
-      <c r="C110" s="57" t="s">
+      <c r="D110" s="38" t="s">
         <v>1280</v>
-      </c>
-      <c r="D110" s="38" t="s">
-        <v>1281</v>
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
       <c r="H110" s="57" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B111" s="57" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C111" s="57" t="s">
         <v>1283</v>
       </c>
-      <c r="C111" s="57" t="s">
-        <v>1284</v>
-      </c>
       <c r="D111" s="38" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38"/>
@@ -15189,33 +15186,33 @@
         <v>67</v>
       </c>
       <c r="B112" s="57" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C112" s="57" t="s">
         <v>1285</v>
       </c>
-      <c r="C112" s="57" t="s">
+      <c r="D112" s="38" t="s">
         <v>1286</v>
-      </c>
-      <c r="D112" s="38" t="s">
-        <v>1287</v>
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
       <c r="H112" s="57" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B113" s="57" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C113" s="57" t="s">
         <v>1289</v>
       </c>
-      <c r="C113" s="57" t="s">
+      <c r="D113" s="38" t="s">
         <v>1290</v>
-      </c>
-      <c r="D113" s="38" t="s">
-        <v>1291</v>
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38"/>
@@ -15227,33 +15224,33 @@
         <v>67</v>
       </c>
       <c r="B114" s="57" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C114" s="57" t="s">
         <v>1292</v>
       </c>
-      <c r="C114" s="57" t="s">
+      <c r="D114" s="38" t="s">
         <v>1293</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>1294</v>
       </c>
       <c r="E114" s="38"/>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
       <c r="H114" s="57" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B115" s="57" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C115" s="57" t="s">
         <v>1296</v>
       </c>
-      <c r="C115" s="57" t="s">
+      <c r="D115" s="38" t="s">
         <v>1297</v>
-      </c>
-      <c r="D115" s="38" t="s">
-        <v>1298</v>
       </c>
       <c r="E115" s="38"/>
       <c r="F115" s="38"/>
@@ -15265,33 +15262,33 @@
         <v>67</v>
       </c>
       <c r="B116" s="57" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C116" s="57" t="s">
         <v>1299</v>
       </c>
-      <c r="C116" s="57" t="s">
+      <c r="D116" s="38" t="s">
         <v>1300</v>
-      </c>
-      <c r="D116" s="38" t="s">
-        <v>1301</v>
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
       <c r="H116" s="57" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B117" s="57" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C117" s="57" t="s">
         <v>1303</v>
       </c>
-      <c r="C117" s="57" t="s">
+      <c r="D117" s="38" t="s">
         <v>1304</v>
-      </c>
-      <c r="D117" s="38" t="s">
-        <v>1305</v>
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38"/>
@@ -15303,19 +15300,19 @@
         <v>67</v>
       </c>
       <c r="B118" s="57" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C118" s="57" t="s">
         <v>1306</v>
       </c>
-      <c r="C118" s="57" t="s">
+      <c r="D118" s="38" t="s">
         <v>1307</v>
-      </c>
-      <c r="D118" s="38" t="s">
-        <v>1308</v>
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
       <c r="H118" s="57" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -15323,13 +15320,13 @@
         <v>179</v>
       </c>
       <c r="B119" s="57" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C119" s="52" t="s">
         <v>1310</v>
       </c>
-      <c r="C119" s="52" t="s">
+      <c r="D119" s="53" t="s">
         <v>1311</v>
-      </c>
-      <c r="D119" s="53" t="s">
-        <v>1312</v>
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38"/>
@@ -15341,13 +15338,13 @@
         <v>313</v>
       </c>
       <c r="B120" s="57" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C120" s="57" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D120" s="38" t="s">
         <v>1153</v>
-      </c>
-      <c r="D120" s="38" t="s">
-        <v>1154</v>
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38"/>
@@ -15384,16 +15381,16 @@
         <v>316</v>
       </c>
       <c r="C123" s="57" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D123" s="38" t="s">
         <v>1314</v>
-      </c>
-      <c r="D123" s="38" t="s">
-        <v>1315</v>
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
       <c r="H123" s="57" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -15401,13 +15398,13 @@
         <v>179</v>
       </c>
       <c r="B124" s="57" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C124" s="57" t="s">
         <v>1317</v>
       </c>
-      <c r="C124" s="57" t="s">
+      <c r="D124" s="57" t="s">
         <v>1318</v>
-      </c>
-      <c r="D124" s="57" t="s">
-        <v>1319</v>
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="38"/>
@@ -15416,16 +15413,16 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="57" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B125" s="57" t="s">
         <v>1320</v>
       </c>
-      <c r="B125" s="57" t="s">
+      <c r="C125" s="57" t="s">
         <v>1321</v>
       </c>
-      <c r="C125" s="57" t="s">
+      <c r="D125" s="38" t="s">
         <v>1322</v>
-      </c>
-      <c r="D125" s="38" t="s">
-        <v>1323</v>
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="38"/>
@@ -15437,19 +15434,19 @@
         <v>39</v>
       </c>
       <c r="B126" s="57" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C126" s="57" t="s">
         <v>1324</v>
       </c>
-      <c r="C126" s="57" t="s">
+      <c r="D126" s="38" t="s">
         <v>1325</v>
-      </c>
-      <c r="D126" s="38" t="s">
-        <v>1326</v>
       </c>
       <c r="E126" s="38"/>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
       <c r="H126" s="57" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -15956,161 +15953,161 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="64" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C33" s="64" t="s">
         <v>1328</v>
       </c>
-      <c r="B33" s="64" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C33" s="64" t="s">
+      <c r="D33" s="61" t="s">
         <v>1329</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="64" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B34" s="64" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C34" s="64" t="s">
         <v>1331</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="D34" s="61" t="s">
         <v>1332</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="64" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B35" s="64" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C35" s="64" t="s">
         <v>1334</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="D35" s="61" t="s">
         <v>1335</v>
-      </c>
-      <c r="D35" s="61" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B36" s="64" t="s">
         <v>1337</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="C36" s="64" t="s">
         <v>1338</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="D36" s="61" t="s">
         <v>1339</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B37" s="64" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C37" s="64" t="s">
         <v>1341</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="D37" s="61" t="s">
         <v>1342</v>
-      </c>
-      <c r="D37" s="61" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="64" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B38" s="64" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C38" s="64" t="s">
         <v>1344</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="D38" s="61" t="s">
         <v>1345</v>
-      </c>
-      <c r="D38" s="61" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="64" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B39" s="64" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C39" s="64" t="s">
         <v>1347</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="D39" s="61" t="s">
         <v>1348</v>
-      </c>
-      <c r="D39" s="61" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="64" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B40" s="64" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C40" s="64" t="s">
         <v>1350</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="D40" s="61" t="s">
         <v>1351</v>
-      </c>
-      <c r="D40" s="61" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="64" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B41" s="64" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C41" s="64" t="s">
         <v>1353</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="D41" s="61" t="s">
         <v>1354</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="64" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B42" s="64" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C42" s="64" t="s">
         <v>1356</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="D42" s="64" t="s">
         <v>1357</v>
-      </c>
-      <c r="D42" s="64" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="64" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B43" s="64" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C43" s="64" t="s">
         <v>1359</v>
       </c>
-      <c r="C43" s="64" t="s">
+      <c r="D43" s="64" t="s">
         <v>1360</v>
-      </c>
-      <c r="D43" s="64" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="64" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B44" s="64" t="s">
         <v>283</v>
@@ -16124,35 +16121,35 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="64" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B45" s="64" t="s">
         <v>1362</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="C45" s="64" t="s">
         <v>1363</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="D45" s="61" t="s">
         <v>1364</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="64" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B46" s="64" t="s">
         <v>367</v>
       </c>
       <c r="C46" s="64" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D46" s="61" t="s">
         <v>1366</v>
-      </c>
-      <c r="D46" s="61" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="64" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B47" s="64" t="s">
         <v>366</v>
@@ -16166,7 +16163,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="64" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B48" s="64" t="s">
         <v>363</v>
@@ -16180,10 +16177,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="64" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C49" s="64" t="s">
         <v>30</v>
@@ -16194,10 +16191,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="64" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C50" s="64" t="s">
         <v>31</v>
@@ -16208,24 +16205,24 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="64" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C51" s="64" t="s">
         <v>359</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="64" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C52" s="64" t="s">
         <v>32</v>
@@ -16236,66 +16233,66 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="64" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B53" s="64" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C53" s="64" t="s">
         <v>1373</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="D53" s="61" t="s">
         <v>1374</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="64" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B54" s="64" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C54" s="64" t="s">
         <v>1376</v>
       </c>
-      <c r="C54" s="64" t="s">
+      <c r="D54" s="61" t="s">
         <v>1377</v>
-      </c>
-      <c r="D54" s="61" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="64" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B55" s="64" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C55" s="64" t="s">
         <v>1379</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="D55" s="61" t="s">
         <v>1380</v>
-      </c>
-      <c r="D55" s="61" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="64" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C56" s="64" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D56" s="61" t="s">
         <v>1382</v>
-      </c>
-      <c r="D56" s="61" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="64" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B57" s="64" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C57" s="64" t="s">
         <v>33</v>
@@ -16306,21 +16303,21 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="64" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B58" s="64" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C58" s="64" t="s">
         <v>1385</v>
       </c>
-      <c r="C58" s="64" t="s">
+      <c r="D58" s="61" t="s">
         <v>1386</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="64" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B59" s="64" t="s">
         <v>234</v>
@@ -16334,7 +16331,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="64" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B60" s="64" t="s">
         <v>246</v>
@@ -16387,7 +16384,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="65" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>311</v>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -1677,9 +1677,6 @@
   </si>
   <si>
     <t>Quelle est la source du rapport écrit</t>
-  </si>
-  <si>
-    <t>${source_death} = "written"</t>
   </si>
   <si>
     <t>source_date_death_hsb</t>
@@ -4268,6 +4265,9 @@
   </si>
   <si>
     <t>${age_months}&gt;5 or ${age_months}&lt;61</t>
+  </si>
+  <si>
+    <t>${source_death_hsb} = "written"</t>
   </si>
 </sst>
 </file>
@@ -4787,8 +4787,8 @@
   </sheetPr>
   <dimension ref="A1:L209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5783,7 +5783,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="9" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -7288,7 +7288,7 @@
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
       <c r="H111" s="14" t="s">
-        <v>550</v>
+        <v>1385</v>
       </c>
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
@@ -7300,19 +7300,19 @@
         <v>67</v>
       </c>
       <c r="B112" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="C112" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="D112" s="15" t="s">
         <v>552</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>553</v>
       </c>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
       <c r="H112" s="14" t="s">
-        <v>550</v>
+        <v>1385</v>
       </c>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
@@ -7324,19 +7324,19 @@
         <v>39</v>
       </c>
       <c r="B113" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="D113" s="15" t="s">
         <v>555</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>556</v>
       </c>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
       <c r="H113" s="14" t="s">
-        <v>550</v>
+        <v>1385</v>
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -7345,16 +7345,16 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="B114" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="C114" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="D114" s="13" t="s">
         <v>559</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>560</v>
       </c>
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
@@ -7370,23 +7370,23 @@
         <v>49</v>
       </c>
       <c r="B115" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="C115" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="D115" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="D115" s="13" t="s">
+      <c r="E115" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="E115" s="14" t="s">
+      <c r="F115" s="14" t="s">
         <v>564</v>
-      </c>
-      <c r="F115" s="14" t="s">
-        <v>565</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
@@ -7398,7 +7398,7 @@
         <v>530</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>532</v>
@@ -7420,19 +7420,19 @@
         <v>39</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>535</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E117" s="14"/>
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
       <c r="H117" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
@@ -7444,13 +7444,13 @@
         <v>312</v>
       </c>
       <c r="B118" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="C118" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="D118" s="13" t="s">
         <v>572</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>573</v>
       </c>
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
@@ -7466,19 +7466,19 @@
         <v>530</v>
       </c>
       <c r="B119" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="C119" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="D119" s="13" t="s">
         <v>575</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>576</v>
       </c>
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
       <c r="H119" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I119" s="14"/>
       <c r="J119" s="14"/>
@@ -7490,19 +7490,19 @@
         <v>39</v>
       </c>
       <c r="B120" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="C120" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="D120" s="13" t="s">
         <v>579</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>580</v>
       </c>
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
       <c r="G120" s="14"/>
       <c r="H120" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I120" s="14"/>
       <c r="J120" s="14"/>
@@ -7514,19 +7514,19 @@
         <v>461</v>
       </c>
       <c r="B121" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="C121" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="D121" s="13" t="s">
         <v>583</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>584</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
       <c r="H121" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
@@ -7538,7 +7538,7 @@
         <v>39</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>467</v>
@@ -7550,7 +7550,7 @@
       <c r="F122" s="14"/>
       <c r="G122" s="14"/>
       <c r="H122" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I122" s="14"/>
       <c r="J122" s="14"/>
@@ -7578,7 +7578,7 @@
         <v>178</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C124" s="19" t="s">
         <v>539</v>
@@ -7598,13 +7598,13 @@
         <v>312</v>
       </c>
       <c r="B125" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="C125" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="D125" s="13" t="s">
         <v>590</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>591</v>
       </c>
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
@@ -7620,19 +7620,19 @@
         <v>160</v>
       </c>
       <c r="B126" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="C126" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="D126" s="13" t="s">
         <v>593</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>594</v>
       </c>
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
       <c r="G126" s="14"/>
       <c r="H126" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I126" s="14"/>
       <c r="J126" s="14"/>
@@ -7644,13 +7644,13 @@
         <v>60</v>
       </c>
       <c r="B127" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="C127" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="D127" s="13" t="s">
         <v>597</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>598</v>
       </c>
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
@@ -7666,19 +7666,19 @@
         <v>39</v>
       </c>
       <c r="B128" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="C128" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="C128" s="13" t="s">
+      <c r="D128" s="13" t="s">
         <v>600</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>601</v>
       </c>
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
       <c r="G128" s="14"/>
       <c r="H128" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I128" s="14"/>
       <c r="J128" s="14"/>
@@ -7690,13 +7690,13 @@
         <v>312</v>
       </c>
       <c r="B129" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="C129" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="D129" s="13" t="s">
         <v>604</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>605</v>
       </c>
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
@@ -7709,22 +7709,22 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="B130" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="B130" s="13" t="s">
-        <v>607</v>
-      </c>
       <c r="C130" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="D130" s="13" t="s">
         <v>575</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>576</v>
       </c>
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
       <c r="H130" s="13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I130" s="14"/>
       <c r="J130" s="14"/>
@@ -7736,19 +7736,19 @@
         <v>39</v>
       </c>
       <c r="B131" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="C131" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="D131" s="15" t="s">
         <v>610</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>611</v>
       </c>
       <c r="E131" s="15"/>
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
       <c r="H131" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
@@ -7760,23 +7760,23 @@
         <v>49</v>
       </c>
       <c r="B132" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="C132" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="D132" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="E132" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="F132" s="13" t="s">
         <v>616</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>617</v>
       </c>
       <c r="G132" s="14"/>
       <c r="H132" s="13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I132" s="14"/>
       <c r="J132" s="14"/>
@@ -7788,23 +7788,23 @@
         <v>49</v>
       </c>
       <c r="B133" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="C133" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="D133" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="D133" s="13" t="s">
+      <c r="E133" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="E133" s="14" t="s">
+      <c r="F133" s="14" t="s">
         <v>621</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>622</v>
       </c>
       <c r="G133" s="14"/>
       <c r="H133" s="13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I133" s="14"/>
       <c r="J133" s="14"/>
@@ -7816,19 +7816,19 @@
         <v>461</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C134" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="D134" s="13" t="s">
         <v>583</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>584</v>
       </c>
       <c r="E134" s="14"/>
       <c r="F134" s="14"/>
       <c r="G134" s="14"/>
       <c r="H134" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I134" s="14"/>
       <c r="J134" s="14"/>
@@ -7840,7 +7840,7 @@
         <v>39</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>467</v>
@@ -7852,7 +7852,7 @@
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
       <c r="H135" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I135" s="14"/>
       <c r="J135" s="14"/>
@@ -7880,7 +7880,7 @@
         <v>178</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C137" s="19" t="s">
         <v>539</v>
@@ -7900,13 +7900,13 @@
         <v>312</v>
       </c>
       <c r="B138" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="C138" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="C138" s="14" t="s">
+      <c r="D138" s="13" t="s">
         <v>629</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>630</v>
       </c>
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
@@ -7922,19 +7922,19 @@
         <v>160</v>
       </c>
       <c r="B139" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="C139" s="14" t="s">
         <v>631</v>
       </c>
-      <c r="C139" s="14" t="s">
+      <c r="D139" s="13" t="s">
         <v>632</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>633</v>
       </c>
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
       <c r="G139" s="14"/>
       <c r="H139" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I139" s="14"/>
       <c r="J139" s="14"/>
@@ -7946,13 +7946,13 @@
         <v>60</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C140" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="D140" s="13" t="s">
         <v>597</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>598</v>
       </c>
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
@@ -7968,19 +7968,19 @@
         <v>39</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C141" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="D141" s="13" t="s">
         <v>600</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>601</v>
       </c>
       <c r="E141" s="14"/>
       <c r="F141" s="14"/>
       <c r="G141" s="14"/>
       <c r="H141" s="13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I141" s="14"/>
       <c r="J141" s="14"/>
@@ -7989,16 +7989,16 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B142" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="C142" s="14" t="s">
         <v>639</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="D142" s="13" t="s">
         <v>640</v>
-      </c>
-      <c r="D142" s="13" t="s">
-        <v>641</v>
       </c>
       <c r="E142" s="14"/>
       <c r="F142" s="14"/>
@@ -8011,16 +8011,16 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B143" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="C143" s="13" t="s">
         <v>642</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="D143" s="13" t="s">
         <v>643</v>
-      </c>
-      <c r="D143" s="13" t="s">
-        <v>644</v>
       </c>
       <c r="E143" s="14"/>
       <c r="F143" s="14"/>
@@ -8036,23 +8036,23 @@
         <v>49</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C144" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="D144" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="D144" s="13" t="s">
+      <c r="E144" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="E144" s="14" t="s">
+      <c r="F144" s="14" t="s">
         <v>564</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>565</v>
       </c>
       <c r="G144" s="14"/>
       <c r="H144" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I144" s="14"/>
       <c r="J144" s="14"/>
@@ -8064,13 +8064,13 @@
         <v>312</v>
       </c>
       <c r="B145" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="C145" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="D145" s="13" t="s">
         <v>648</v>
-      </c>
-      <c r="D145" s="13" t="s">
-        <v>649</v>
       </c>
       <c r="E145" s="14"/>
       <c r="F145" s="14"/>
@@ -8086,19 +8086,19 @@
         <v>461</v>
       </c>
       <c r="B146" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="C146" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="D146" s="13" t="s">
         <v>651</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>652</v>
       </c>
       <c r="E146" s="14"/>
       <c r="F146" s="14"/>
       <c r="G146" s="14"/>
       <c r="H146" s="13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I146" s="14"/>
       <c r="J146" s="14"/>
@@ -8110,7 +8110,7 @@
         <v>39</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>467</v>
@@ -8122,7 +8122,7 @@
       <c r="F147" s="14"/>
       <c r="G147" s="14"/>
       <c r="H147" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I147" s="14"/>
       <c r="J147" s="14"/>
@@ -8131,16 +8131,16 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="B148" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="C148" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="C148" s="14" t="s">
+      <c r="D148" s="13" t="s">
         <v>658</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>659</v>
       </c>
       <c r="E148" s="14"/>
       <c r="F148" s="14"/>
@@ -8153,22 +8153,22 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B149" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="C149" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="C149" s="13" t="s">
+      <c r="D149" s="13" t="s">
         <v>661</v>
-      </c>
-      <c r="D149" s="13" t="s">
-        <v>662</v>
       </c>
       <c r="E149" s="14"/>
       <c r="F149" s="14"/>
       <c r="G149" s="14"/>
       <c r="H149" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I149" s="14"/>
       <c r="J149" s="14"/>
@@ -8180,19 +8180,19 @@
         <v>39</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C150" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="D150" s="15" t="s">
         <v>610</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>611</v>
       </c>
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
       <c r="G150" s="15"/>
       <c r="H150" s="13" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
@@ -8201,16 +8201,16 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="B151" s="13" t="s">
+      <c r="C151" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="D151" s="15" t="s">
         <v>668</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>669</v>
       </c>
       <c r="E151" s="14"/>
       <c r="F151" s="14"/>
@@ -8226,19 +8226,19 @@
         <v>39</v>
       </c>
       <c r="B152" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="C152" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="D152" s="15" t="s">
         <v>671</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>672</v>
       </c>
       <c r="E152" s="14"/>
       <c r="F152" s="14"/>
       <c r="G152" s="14"/>
       <c r="H152" s="13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="15"/>
@@ -8250,19 +8250,19 @@
         <v>312</v>
       </c>
       <c r="B153" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="C153" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="C153" s="13" t="s">
+      <c r="D153" s="15" t="s">
         <v>675</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>676</v>
       </c>
       <c r="E153" s="14"/>
       <c r="F153" s="14"/>
       <c r="G153" s="14"/>
       <c r="H153" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I153" s="15"/>
       <c r="J153" s="15"/>
@@ -8271,22 +8271,22 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B154" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="C154" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="D154" s="13" t="s">
         <v>678</v>
-      </c>
-      <c r="D154" s="13" t="s">
-        <v>679</v>
       </c>
       <c r="E154" s="14"/>
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
       <c r="H154" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I154" s="14"/>
       <c r="J154" s="14"/>
@@ -8298,19 +8298,19 @@
         <v>39</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C155" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="D155" s="15" t="s">
         <v>610</v>
-      </c>
-      <c r="D155" s="15" t="s">
-        <v>611</v>
       </c>
       <c r="E155" s="15"/>
       <c r="F155" s="15"/>
       <c r="G155" s="15"/>
       <c r="H155" s="13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I155" s="15"/>
       <c r="J155" s="15"/>
@@ -8319,22 +8319,22 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B156" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="C156" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="D156" s="15" t="s">
         <v>684</v>
-      </c>
-      <c r="D156" s="15" t="s">
-        <v>685</v>
       </c>
       <c r="E156" s="14"/>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
       <c r="H156" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I156" s="15"/>
       <c r="J156" s="15"/>
@@ -8346,19 +8346,19 @@
         <v>39</v>
       </c>
       <c r="B157" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="D157" s="15" t="s">
         <v>686</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>671</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>687</v>
       </c>
       <c r="E157" s="14"/>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
       <c r="H157" s="13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I157" s="15"/>
       <c r="J157" s="15"/>
@@ -8370,23 +8370,23 @@
         <v>49</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C158" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="D158" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="D158" s="13" t="s">
+      <c r="E158" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="E158" s="14" t="s">
+      <c r="F158" s="13" t="s">
         <v>616</v>
-      </c>
-      <c r="F158" s="13" t="s">
-        <v>617</v>
       </c>
       <c r="G158" s="14"/>
       <c r="H158" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I158" s="14"/>
       <c r="J158" s="14"/>
@@ -8398,23 +8398,23 @@
         <v>49</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C159" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="D159" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="D159" s="13" t="s">
+      <c r="E159" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="E159" s="14" t="s">
+      <c r="F159" s="14" t="s">
         <v>621</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>622</v>
       </c>
       <c r="G159" s="14"/>
       <c r="H159" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I159" s="14"/>
       <c r="J159" s="14"/>
@@ -8423,22 +8423,22 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="B160" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="B160" s="13" t="s">
+      <c r="C160" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="C160" s="13" t="s">
+      <c r="D160" s="14" t="s">
         <v>693</v>
-      </c>
-      <c r="D160" s="14" t="s">
-        <v>694</v>
       </c>
       <c r="E160" s="15"/>
       <c r="F160" s="15"/>
       <c r="G160" s="15"/>
       <c r="H160" s="14" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I160" s="15"/>
       <c r="J160" s="15"/>
@@ -8450,19 +8450,19 @@
         <v>39</v>
       </c>
       <c r="B161" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="C161" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="D161" s="15" t="s">
         <v>697</v>
-      </c>
-      <c r="D161" s="15" t="s">
-        <v>698</v>
       </c>
       <c r="E161" s="15"/>
       <c r="F161" s="15"/>
       <c r="G161" s="15"/>
       <c r="H161" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I161" s="15"/>
       <c r="J161" s="15"/>
@@ -8490,7 +8490,7 @@
         <v>178</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C163" s="19" t="s">
         <v>539</v>
@@ -8510,13 +8510,13 @@
         <v>312</v>
       </c>
       <c r="B164" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="C164" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="D164" s="17" t="s">
         <v>702</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>703</v>
       </c>
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
@@ -8532,19 +8532,19 @@
         <v>160</v>
       </c>
       <c r="B165" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="C165" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="D165" s="17" t="s">
         <v>705</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>706</v>
       </c>
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
       <c r="G165" s="15"/>
       <c r="H165" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I165" s="15"/>
       <c r="J165" s="15"/>
@@ -8553,16 +8553,16 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="B166" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="C166" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="D166" s="17" t="s">
         <v>709</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>597</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>710</v>
       </c>
       <c r="E166" s="15"/>
       <c r="F166" s="15"/>
@@ -8575,16 +8575,16 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B167" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="C167" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="D167" s="17" t="s">
         <v>712</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>713</v>
       </c>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
@@ -8600,13 +8600,13 @@
         <v>312</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C168" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="D168" s="17" t="s">
         <v>648</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>649</v>
       </c>
       <c r="E168" s="15"/>
       <c r="F168" s="15"/>
@@ -8622,19 +8622,19 @@
         <v>461</v>
       </c>
       <c r="B169" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="C169" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="D169" s="17" t="s">
         <v>716</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>717</v>
       </c>
       <c r="E169" s="15"/>
       <c r="F169" s="15"/>
       <c r="G169" s="15"/>
       <c r="H169" s="14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I169" s="15"/>
       <c r="J169" s="15"/>
@@ -8646,7 +8646,7 @@
         <v>39</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C170" s="13" t="s">
         <v>467</v>
@@ -8658,7 +8658,7 @@
       <c r="F170" s="15"/>
       <c r="G170" s="15"/>
       <c r="H170" s="13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I170" s="15"/>
       <c r="J170" s="15"/>
@@ -8667,16 +8667,16 @@
     </row>
     <row r="171" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B171" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="D171" s="17" t="s">
         <v>721</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>722</v>
       </c>
       <c r="E171" s="15"/>
       <c r="F171" s="15"/>
@@ -8689,22 +8689,22 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C172" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="D172" s="13" t="s">
         <v>661</v>
-      </c>
-      <c r="D172" s="13" t="s">
-        <v>662</v>
       </c>
       <c r="E172" s="14"/>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
       <c r="H172" s="13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I172" s="14"/>
       <c r="J172" s="14"/>
@@ -8716,19 +8716,19 @@
         <v>39</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C173" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="D173" s="15" t="s">
         <v>610</v>
-      </c>
-      <c r="D173" s="15" t="s">
-        <v>611</v>
       </c>
       <c r="E173" s="15"/>
       <c r="F173" s="15"/>
       <c r="G173" s="15"/>
       <c r="H173" s="13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
@@ -8737,16 +8737,16 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C174" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="D174" s="15" t="s">
         <v>668</v>
-      </c>
-      <c r="D174" s="15" t="s">
-        <v>669</v>
       </c>
       <c r="E174" s="14"/>
       <c r="F174" s="14"/>
@@ -8762,19 +8762,19 @@
         <v>39</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C175" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="D175" s="15" t="s">
         <v>671</v>
-      </c>
-      <c r="D175" s="15" t="s">
-        <v>672</v>
       </c>
       <c r="E175" s="14"/>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
       <c r="H175" s="13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I175" s="15"/>
       <c r="J175" s="15"/>
@@ -8786,19 +8786,19 @@
         <v>312</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C176" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="D176" s="15" t="s">
         <v>675</v>
-      </c>
-      <c r="D176" s="15" t="s">
-        <v>676</v>
       </c>
       <c r="E176" s="14"/>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
       <c r="H176" s="13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I176" s="15"/>
       <c r="J176" s="15"/>
@@ -8807,22 +8807,22 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C177" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="D177" s="13" t="s">
         <v>678</v>
-      </c>
-      <c r="D177" s="13" t="s">
-        <v>679</v>
       </c>
       <c r="E177" s="14"/>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
       <c r="H177" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I177" s="14"/>
       <c r="J177" s="14"/>
@@ -8834,19 +8834,19 @@
         <v>39</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C178" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="D178" s="15" t="s">
         <v>610</v>
-      </c>
-      <c r="D178" s="15" t="s">
-        <v>611</v>
       </c>
       <c r="E178" s="15"/>
       <c r="F178" s="15"/>
       <c r="G178" s="15"/>
       <c r="H178" s="13" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I178" s="15"/>
       <c r="J178" s="15"/>
@@ -8855,22 +8855,22 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C179" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="D179" s="15" t="s">
         <v>684</v>
-      </c>
-      <c r="D179" s="15" t="s">
-        <v>685</v>
       </c>
       <c r="E179" s="14"/>
       <c r="F179" s="14"/>
       <c r="G179" s="14"/>
       <c r="H179" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I179" s="15"/>
       <c r="J179" s="15"/>
@@ -8882,19 +8882,19 @@
         <v>39</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E180" s="14"/>
       <c r="F180" s="14"/>
       <c r="G180" s="14"/>
       <c r="H180" s="13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I180" s="15"/>
       <c r="J180" s="15"/>
@@ -8906,23 +8906,23 @@
         <v>49</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C181" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="D181" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="D181" s="13" t="s">
+      <c r="E181" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="E181" s="14" t="s">
+      <c r="F181" s="13" t="s">
         <v>616</v>
-      </c>
-      <c r="F181" s="13" t="s">
-        <v>617</v>
       </c>
       <c r="G181" s="14"/>
       <c r="H181" s="13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I181" s="14"/>
       <c r="J181" s="14"/>
@@ -8934,23 +8934,23 @@
         <v>49</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C182" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="D182" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="D182" s="13" t="s">
+      <c r="E182" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="E182" s="14" t="s">
+      <c r="F182" s="14" t="s">
         <v>621</v>
-      </c>
-      <c r="F182" s="14" t="s">
-        <v>622</v>
       </c>
       <c r="G182" s="14"/>
       <c r="H182" s="13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I182" s="14"/>
       <c r="J182" s="14"/>
@@ -8959,22 +8959,22 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B183" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="C183" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="D183" s="14" t="s">
         <v>741</v>
-      </c>
-      <c r="D183" s="14" t="s">
-        <v>742</v>
       </c>
       <c r="E183" s="15"/>
       <c r="F183" s="15"/>
       <c r="G183" s="15"/>
       <c r="H183" s="14" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I183" s="15"/>
       <c r="J183" s="15"/>
@@ -8986,19 +8986,19 @@
         <v>39</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C184" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="D184" s="15" t="s">
         <v>697</v>
-      </c>
-      <c r="D184" s="15" t="s">
-        <v>698</v>
       </c>
       <c r="E184" s="15"/>
       <c r="F184" s="15"/>
       <c r="G184" s="15"/>
       <c r="H184" s="14" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I184" s="15"/>
       <c r="J184" s="15"/>
@@ -9026,10 +9026,10 @@
         <v>178</v>
       </c>
       <c r="B186" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="C186" s="18" t="s">
         <v>746</v>
-      </c>
-      <c r="C186" s="18" t="s">
-        <v>747</v>
       </c>
       <c r="D186" s="18"/>
       <c r="E186" s="18"/>
@@ -9046,19 +9046,19 @@
         <v>160</v>
       </c>
       <c r="B187" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="C187" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="C187" s="14" t="s">
+      <c r="D187" s="15" t="s">
         <v>749</v>
-      </c>
-      <c r="D187" s="15" t="s">
-        <v>750</v>
       </c>
       <c r="E187" s="15"/>
       <c r="F187" s="15"/>
       <c r="G187" s="15"/>
       <c r="H187" s="14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I187" s="15"/>
       <c r="J187" s="15"/>
@@ -9070,7 +9070,7 @@
         <v>543</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C188" s="13" t="s">
         <v>545</v>
@@ -9092,7 +9092,7 @@
         <v>39</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C189" s="17" t="s">
         <v>548</v>
@@ -9104,7 +9104,7 @@
       <c r="F189" s="15"/>
       <c r="G189" s="15"/>
       <c r="H189" s="14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I189" s="15"/>
       <c r="J189" s="15"/>
@@ -9116,19 +9116,19 @@
         <v>67</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C190" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="D190" s="15" t="s">
         <v>552</v>
-      </c>
-      <c r="D190" s="15" t="s">
-        <v>553</v>
       </c>
       <c r="E190" s="15"/>
       <c r="F190" s="15"/>
       <c r="G190" s="15"/>
       <c r="H190" s="14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I190" s="15"/>
       <c r="J190" s="15"/>
@@ -9140,19 +9140,19 @@
         <v>39</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C191" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="D191" s="15" t="s">
         <v>555</v>
-      </c>
-      <c r="D191" s="15" t="s">
-        <v>556</v>
       </c>
       <c r="E191" s="15"/>
       <c r="F191" s="15"/>
       <c r="G191" s="15"/>
       <c r="H191" s="14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I191" s="15"/>
       <c r="J191" s="15"/>
@@ -9161,16 +9161,16 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C192" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="D192" s="13" t="s">
         <v>559</v>
-      </c>
-      <c r="D192" s="13" t="s">
-        <v>560</v>
       </c>
       <c r="E192" s="14"/>
       <c r="F192" s="14"/>
@@ -9186,23 +9186,23 @@
         <v>49</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C193" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="D193" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="D193" s="13" t="s">
+      <c r="E193" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="E193" s="14" t="s">
+      <c r="F193" s="14" t="s">
         <v>564</v>
-      </c>
-      <c r="F193" s="14" t="s">
-        <v>565</v>
       </c>
       <c r="G193" s="14"/>
       <c r="H193" s="13" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I193" s="14"/>
       <c r="J193" s="14"/>
@@ -9214,7 +9214,7 @@
         <v>530</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C194" s="13" t="s">
         <v>532</v>
@@ -9236,7 +9236,7 @@
         <v>39</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C195" s="13" t="s">
         <v>535</v>
@@ -9248,7 +9248,7 @@
       <c r="F195" s="14"/>
       <c r="G195" s="14"/>
       <c r="H195" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I195" s="14"/>
       <c r="J195" s="14"/>
@@ -9273,7 +9273,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B197" s="9" t="s">
         <v>52</v>
@@ -9324,7 +9324,7 @@
         <v>151</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
@@ -9335,7 +9335,7 @@
       <c r="I199" s="8"/>
       <c r="J199" s="9"/>
       <c r="K199" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L199" s="8"/>
     </row>
@@ -9369,10 +9369,10 @@
         <v>38</v>
       </c>
       <c r="C201" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="D201" s="9" t="s">
         <v>766</v>
-      </c>
-      <c r="D201" s="9" t="s">
-        <v>767</v>
       </c>
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
@@ -9390,10 +9390,10 @@
         <v>178</v>
       </c>
       <c r="B202" s="19" t="s">
+        <v>767</v>
+      </c>
+      <c r="C202" s="19" t="s">
         <v>768</v>
-      </c>
-      <c r="C202" s="19" t="s">
-        <v>769</v>
       </c>
       <c r="D202" s="19"/>
       <c r="E202" s="18"/>
@@ -9407,16 +9407,16 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="16" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B203" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="C203" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="C203" s="15" t="s">
+      <c r="D203" s="17" t="s">
         <v>771</v>
-      </c>
-      <c r="D203" s="17" t="s">
-        <v>772</v>
       </c>
       <c r="E203" s="15"/>
       <c r="F203" s="15"/>
@@ -9432,13 +9432,13 @@
         <v>53</v>
       </c>
       <c r="B204" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="C204" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="C204" s="15" t="s">
+      <c r="D204" s="17" t="s">
         <v>774</v>
-      </c>
-      <c r="D204" s="17" t="s">
-        <v>775</v>
       </c>
       <c r="E204" s="15"/>
       <c r="F204" s="15"/>
@@ -9454,13 +9454,13 @@
         <v>67</v>
       </c>
       <c r="B205" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="C205" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="C205" s="15" t="s">
+      <c r="D205" s="17" t="s">
         <v>777</v>
-      </c>
-      <c r="D205" s="17" t="s">
-        <v>778</v>
       </c>
       <c r="E205" s="15"/>
       <c r="F205" s="15"/>
@@ -9473,16 +9473,16 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="B206" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="B206" s="14" t="s">
+      <c r="C206" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="C206" s="15" t="s">
+      <c r="D206" s="17" t="s">
         <v>781</v>
-      </c>
-      <c r="D206" s="17" t="s">
-        <v>782</v>
       </c>
       <c r="E206" s="15"/>
       <c r="F206" s="15"/>
@@ -9494,19 +9494,19 @@
         <v>39</v>
       </c>
       <c r="B207" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="C207" s="14" t="s">
         <v>783</v>
       </c>
-      <c r="C207" s="14" t="s">
+      <c r="D207" s="17" t="s">
         <v>784</v>
-      </c>
-      <c r="D207" s="17" t="s">
-        <v>785</v>
       </c>
       <c r="E207" s="15"/>
       <c r="F207" s="15"/>
       <c r="G207" s="15"/>
       <c r="H207" s="13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -9968,7 +9968,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>285</v>
@@ -9982,7 +9982,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>282</v>
@@ -9996,16 +9996,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>787</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>788</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="D32" s="29" t="s">
         <v>789</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -10052,7 +10052,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>282</v>
@@ -10066,35 +10066,35 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="B37" s="30" t="s">
         <v>791</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>792</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="D37" s="29" t="s">
         <v>793</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="30" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B38" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>795</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="D38" s="29" t="s">
         <v>796</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="30" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>245</v>
@@ -10108,105 +10108,105 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="B40" s="30" t="s">
         <v>798</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="C40" s="29" t="s">
         <v>799</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="D40" s="29" t="s">
         <v>800</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B41" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="C41" s="29" t="s">
         <v>802</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="D41" s="29" t="s">
         <v>803</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B42" s="30" t="s">
+        <v>804</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>805</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="D42" s="29" t="s">
         <v>806</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B43" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="C43" s="29" t="s">
         <v>808</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="D43" s="29" t="s">
         <v>809</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B44" s="30" t="s">
+        <v>810</v>
+      </c>
+      <c r="C44" s="29" t="s">
         <v>811</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="D44" s="29" t="s">
         <v>812</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B45" s="30" t="s">
+        <v>813</v>
+      </c>
+      <c r="C45" s="29" t="s">
         <v>814</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="D45" s="29" t="s">
         <v>815</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B46" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>817</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="D46" s="29" t="s">
         <v>818</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>245</v>
@@ -10220,49 +10220,49 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>233</v>
       </c>
       <c r="C48" s="29" t="s">
+        <v>819</v>
+      </c>
+      <c r="D48" s="29" t="s">
         <v>820</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="B49" s="30" t="s">
         <v>822</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="C49" s="29" t="s">
         <v>823</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="D49" s="29" t="s">
         <v>824</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="30" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C50" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="D50" s="29" t="s">
         <v>826</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="30" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B51" s="30" t="s">
         <v>245</v>
@@ -10276,7 +10276,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B52" s="30" t="s">
         <v>282</v>
@@ -10290,35 +10290,35 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="B53" s="30" t="s">
         <v>828</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="C53" s="29" t="s">
         <v>829</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="D53" s="29" t="s">
         <v>830</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B54" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="C54" s="29" t="s">
         <v>832</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="D54" s="29" t="s">
         <v>833</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="30" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>245</v>
@@ -10335,13 +10335,13 @@
         <v>451</v>
       </c>
       <c r="B56" s="30" t="s">
+        <v>834</v>
+      </c>
+      <c r="C56" s="29" t="s">
         <v>835</v>
       </c>
-      <c r="C56" s="29" t="s">
-        <v>836</v>
-      </c>
       <c r="D56" s="29" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -10349,13 +10349,13 @@
         <v>451</v>
       </c>
       <c r="B57" s="30" t="s">
+        <v>836</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>837</v>
       </c>
-      <c r="C57" s="29" t="s">
-        <v>838</v>
-      </c>
       <c r="D57" s="29" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -10363,13 +10363,13 @@
         <v>451</v>
       </c>
       <c r="B58" s="30" t="s">
+        <v>838</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>839</v>
       </c>
-      <c r="C58" s="29" t="s">
-        <v>840</v>
-      </c>
       <c r="D58" s="29" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -10377,13 +10377,13 @@
         <v>451</v>
       </c>
       <c r="B59" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>841</v>
       </c>
-      <c r="C59" s="29" t="s">
-        <v>842</v>
-      </c>
       <c r="D59" s="29" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -10391,13 +10391,13 @@
         <v>451</v>
       </c>
       <c r="B60" s="30" t="s">
+        <v>842</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>843</v>
       </c>
-      <c r="C60" s="29" t="s">
-        <v>844</v>
-      </c>
       <c r="D60" s="29" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -10405,13 +10405,13 @@
         <v>451</v>
       </c>
       <c r="B61" s="30" t="s">
+        <v>844</v>
+      </c>
+      <c r="C61" s="29" t="s">
         <v>845</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="D61" s="29" t="s">
         <v>846</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -10419,13 +10419,13 @@
         <v>451</v>
       </c>
       <c r="B62" s="30" t="s">
+        <v>847</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>848</v>
       </c>
-      <c r="C62" s="29" t="s">
-        <v>849</v>
-      </c>
       <c r="D62" s="29" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -10444,161 +10444,161 @@
     </row>
     <row r="64" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="30" t="s">
+        <v>849</v>
+      </c>
+      <c r="B64" s="32" t="s">
         <v>850</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="C64" s="32" t="s">
         <v>851</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="D64" s="33" t="s">
         <v>852</v>
-      </c>
-      <c r="D64" s="33" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="30" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B65" s="30" t="s">
+        <v>853</v>
+      </c>
+      <c r="C65" s="29" t="s">
         <v>854</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="D65" s="29" t="s">
         <v>855</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A66" s="30" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B66" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="C66" s="32" t="s">
         <v>857</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="D66" s="33" t="s">
         <v>858</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="30" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B67" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="C67" s="29" t="s">
         <v>860</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="D67" s="29" t="s">
         <v>861</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="30" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B68" s="30" t="s">
+        <v>862</v>
+      </c>
+      <c r="C68" s="29" t="s">
         <v>863</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="D68" s="29" t="s">
         <v>864</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="30" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B69" s="30" t="s">
+        <v>865</v>
+      </c>
+      <c r="C69" s="29" t="s">
         <v>866</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="D69" s="29" t="s">
         <v>867</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A70" s="30" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C70" s="32" t="s">
+        <v>868</v>
+      </c>
+      <c r="D70" s="33" t="s">
         <v>869</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="30" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B71" s="30" t="s">
+        <v>870</v>
+      </c>
+      <c r="C71" s="29" t="s">
         <v>871</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="D71" s="29" t="s">
         <v>872</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="30" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B72" s="30" t="s">
+        <v>873</v>
+      </c>
+      <c r="C72" s="29" t="s">
         <v>874</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="D72" s="29" t="s">
         <v>875</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="30" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>280</v>
       </c>
       <c r="C73" s="29" t="s">
+        <v>876</v>
+      </c>
+      <c r="D73" s="29" t="s">
         <v>877</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="30" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B74" s="30" t="s">
+        <v>878</v>
+      </c>
+      <c r="C74" s="29" t="s">
         <v>879</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="D74" s="29" t="s">
         <v>880</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="30" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B75" s="30" t="s">
         <v>245</v>
@@ -10612,7 +10612,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="30" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B76" s="30" t="s">
         <v>233</v>
@@ -10626,133 +10626,133 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="30" t="s">
+        <v>881</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="C77" s="29" t="s">
         <v>882</v>
       </c>
-      <c r="B77" s="30" t="s">
-        <v>829</v>
-      </c>
-      <c r="C77" s="29" t="s">
+      <c r="D77" s="29" t="s">
         <v>883</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="30" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C78" s="29" t="s">
+        <v>884</v>
+      </c>
+      <c r="D78" s="29" t="s">
         <v>885</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="30" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B79" s="30" t="s">
+        <v>886</v>
+      </c>
+      <c r="C79" s="29" t="s">
         <v>887</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="D79" s="29" t="s">
         <v>888</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="30" t="s">
+        <v>889</v>
+      </c>
+      <c r="B80" s="30" t="s">
         <v>890</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="C80" s="29" t="s">
         <v>891</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="D80" s="29" t="s">
         <v>892</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="30" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B81" s="30" t="s">
+        <v>893</v>
+      </c>
+      <c r="C81" s="29" t="s">
         <v>894</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="D81" s="29" t="s">
         <v>895</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="30" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B82" s="30" t="s">
+        <v>896</v>
+      </c>
+      <c r="C82" s="29" t="s">
         <v>897</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="D82" s="29" t="s">
         <v>898</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="30" t="s">
+        <v>899</v>
+      </c>
+      <c r="B83" s="30" t="s">
         <v>900</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="C83" s="29" t="s">
         <v>901</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="D83" s="29" t="s">
         <v>902</v>
-      </c>
-      <c r="D83" s="29" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="30" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B84" s="30" t="s">
+        <v>903</v>
+      </c>
+      <c r="C84" s="29" t="s">
         <v>904</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="D84" s="29" t="s">
         <v>905</v>
-      </c>
-      <c r="D84" s="29" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="30" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B85" s="30" t="s">
+        <v>906</v>
+      </c>
+      <c r="C85" s="29" t="s">
         <v>907</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="D85" s="29" t="s">
         <v>908</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="30" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>245</v>
@@ -10769,13 +10769,13 @@
         <v>531</v>
       </c>
       <c r="B87" s="30" t="s">
+        <v>909</v>
+      </c>
+      <c r="C87" s="29" t="s">
         <v>910</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="D87" s="29" t="s">
         <v>911</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -10783,13 +10783,13 @@
         <v>531</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -10797,13 +10797,13 @@
         <v>531</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C89" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D89" s="29" t="s">
         <v>914</v>
-      </c>
-      <c r="D89" s="29" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -10811,13 +10811,13 @@
         <v>531</v>
       </c>
       <c r="B90" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="C90" s="29" t="s">
         <v>817</v>
       </c>
-      <c r="C90" s="29" t="s">
-        <v>818</v>
-      </c>
       <c r="D90" s="29" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -10850,49 +10850,49 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="32" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B93" s="32" t="s">
+        <v>810</v>
+      </c>
+      <c r="C93" s="32" t="s">
         <v>811</v>
       </c>
-      <c r="C93" s="32" t="s">
+      <c r="D93" s="29" t="s">
         <v>812</v>
-      </c>
-      <c r="D93" s="29" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="32" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B94" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="C94" s="32" t="s">
         <v>814</v>
       </c>
-      <c r="C94" s="32" t="s">
-        <v>815</v>
-      </c>
       <c r="D94" s="29" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="32" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B95" s="32" t="s">
+        <v>816</v>
+      </c>
+      <c r="C95" s="32" t="s">
         <v>817</v>
       </c>
-      <c r="C95" s="32" t="s">
-        <v>818</v>
-      </c>
       <c r="D95" s="29" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="32" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B96" s="32" t="s">
         <v>245</v>
@@ -10906,7 +10906,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="32" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B97" s="32" t="s">
         <v>233</v>
@@ -10951,10 +10951,10 @@
         <v>59</v>
       </c>
       <c r="B100" s="32" t="s">
+        <v>917</v>
+      </c>
+      <c r="C100" s="35" t="s">
         <v>918</v>
-      </c>
-      <c r="C100" s="35" t="s">
-        <v>919</v>
       </c>
       <c r="D100" s="30" t="s">
         <v>252</v>
@@ -10979,13 +10979,13 @@
         <v>59</v>
       </c>
       <c r="B102" s="32" t="s">
+        <v>919</v>
+      </c>
+      <c r="C102" s="35" t="s">
         <v>920</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="D102" s="30" t="s">
         <v>921</v>
-      </c>
-      <c r="D102" s="30" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -10993,13 +10993,13 @@
         <v>59</v>
       </c>
       <c r="B103" s="32" t="s">
+        <v>922</v>
+      </c>
+      <c r="C103" s="35" t="s">
         <v>923</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="D103" s="30" t="s">
         <v>924</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -11060,105 +11060,105 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="32" t="s">
+        <v>925</v>
+      </c>
+      <c r="B108" s="32" t="s">
         <v>926</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="C108" s="35" t="s">
         <v>927</v>
       </c>
-      <c r="C108" s="35" t="s">
+      <c r="D108" s="30" t="s">
         <v>928</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="32" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B109" s="32" t="s">
+        <v>929</v>
+      </c>
+      <c r="C109" s="35" t="s">
         <v>930</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="D109" s="30" t="s">
         <v>931</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="32" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B110" s="32" t="s">
+        <v>932</v>
+      </c>
+      <c r="C110" s="35" t="s">
         <v>933</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="D110" s="30" t="s">
         <v>934</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="32" t="s">
+        <v>935</v>
+      </c>
+      <c r="B111" s="32" t="s">
         <v>936</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="C111" s="32" t="s">
         <v>937</v>
       </c>
-      <c r="C111" s="32" t="s">
+      <c r="D111" s="29" t="s">
         <v>938</v>
-      </c>
-      <c r="D111" s="29" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="32" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B112" s="32" t="s">
+        <v>939</v>
+      </c>
+      <c r="C112" s="32" t="s">
         <v>940</v>
       </c>
-      <c r="C112" s="32" t="s">
+      <c r="D112" s="29" t="s">
         <v>941</v>
-      </c>
-      <c r="D112" s="29" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="32" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B113" s="32" t="s">
+        <v>942</v>
+      </c>
+      <c r="C113" s="32" t="s">
         <v>943</v>
       </c>
-      <c r="C113" s="32" t="s">
+      <c r="D113" s="29" t="s">
         <v>944</v>
-      </c>
-      <c r="D113" s="29" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="32" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B114" s="32" t="s">
+        <v>945</v>
+      </c>
+      <c r="C114" s="32" t="s">
         <v>946</v>
       </c>
-      <c r="C114" s="32" t="s">
+      <c r="D114" s="29" t="s">
         <v>947</v>
-      </c>
-      <c r="D114" s="29" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="32" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B115" s="32" t="s">
         <v>245</v>
@@ -11167,68 +11167,68 @@
         <v>28</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="32" t="s">
+        <v>949</v>
+      </c>
+      <c r="B116" s="32" t="s">
         <v>950</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="C116" s="32" t="s">
         <v>951</v>
       </c>
-      <c r="C116" s="32" t="s">
+      <c r="D116" s="29" t="s">
         <v>952</v>
-      </c>
-      <c r="D116" s="29" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="32" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B117" s="32" t="s">
+        <v>953</v>
+      </c>
+      <c r="C117" s="32" t="s">
         <v>954</v>
       </c>
-      <c r="C117" s="32" t="s">
+      <c r="D117" s="29" t="s">
         <v>955</v>
-      </c>
-      <c r="D117" s="29" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="32" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B118" s="32" t="s">
+        <v>956</v>
+      </c>
+      <c r="C118" s="32" t="s">
         <v>957</v>
       </c>
-      <c r="C118" s="32" t="s">
+      <c r="D118" s="29" t="s">
         <v>958</v>
-      </c>
-      <c r="D118" s="29" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="32" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B119" s="32" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="32" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B120" s="32" t="s">
         <v>233</v>
@@ -11242,7 +11242,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="32" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B121" s="32" t="s">
         <v>245</v>
@@ -11256,77 +11256,77 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="32" t="s">
+        <v>960</v>
+      </c>
+      <c r="B122" s="32" t="s">
         <v>961</v>
       </c>
-      <c r="B122" s="32" t="s">
+      <c r="C122" s="32" t="s">
         <v>962</v>
       </c>
-      <c r="C122" s="32" t="s">
+      <c r="D122" s="29" t="s">
         <v>963</v>
-      </c>
-      <c r="D122" s="29" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B123" s="32" t="s">
+        <v>964</v>
+      </c>
+      <c r="C123" s="32" t="s">
         <v>965</v>
       </c>
-      <c r="C123" s="32" t="s">
+      <c r="D123" s="29" t="s">
         <v>966</v>
-      </c>
-      <c r="D123" s="29" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B124" s="32" t="s">
+        <v>967</v>
+      </c>
+      <c r="C124" s="32" t="s">
         <v>968</v>
       </c>
-      <c r="C124" s="32" t="s">
+      <c r="D124" s="29" t="s">
         <v>969</v>
-      </c>
-      <c r="D124" s="29" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B125" s="32" t="s">
+        <v>970</v>
+      </c>
+      <c r="C125" s="32" t="s">
         <v>971</v>
       </c>
-      <c r="C125" s="32" t="s">
+      <c r="D125" s="32" t="s">
         <v>972</v>
-      </c>
-      <c r="D125" s="32" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B126" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="C126" s="32" t="s">
         <v>974</v>
       </c>
-      <c r="C126" s="32" t="s">
+      <c r="D126" s="29" t="s">
         <v>975</v>
-      </c>
-      <c r="D126" s="29" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B127" s="32" t="s">
         <v>233</v>
@@ -11340,7 +11340,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="32" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B128" s="32" t="s">
         <v>245</v>
@@ -11354,21 +11354,21 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="29" t="s">
+        <v>976</v>
+      </c>
+      <c r="B129" s="32" t="s">
         <v>977</v>
       </c>
-      <c r="B129" s="32" t="s">
+      <c r="C129" s="32" t="s">
         <v>978</v>
       </c>
-      <c r="C129" s="32" t="s">
+      <c r="D129" s="32" t="s">
         <v>979</v>
-      </c>
-      <c r="D129" s="32" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="29" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B130" s="32" t="s">
         <v>257</v>
@@ -11382,7 +11382,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="32" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B131" s="32" t="s">
         <v>285</v>
@@ -11396,7 +11396,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="32" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B132" s="32" t="s">
         <v>282</v>
@@ -11410,13 +11410,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="32" t="s">
+        <v>980</v>
+      </c>
+      <c r="B133" s="32" t="s">
         <v>981</v>
       </c>
-      <c r="B133" s="32" t="s">
+      <c r="C133" s="32" t="s">
         <v>982</v>
-      </c>
-      <c r="C133" s="32" t="s">
-        <v>983</v>
       </c>
       <c r="D133" s="32" t="s">
         <v>229</v>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="32" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B134" s="32" t="s">
         <v>245</v>
@@ -11438,63 +11438,63 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B135" s="29" t="s">
+        <v>909</v>
+      </c>
+      <c r="C135" s="32" t="s">
         <v>910</v>
       </c>
-      <c r="C135" s="32" t="s">
+      <c r="D135" s="32" t="s">
         <v>911</v>
-      </c>
-      <c r="D135" s="32" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="32" t="s">
+        <v>983</v>
+      </c>
+      <c r="B136" s="29" t="s">
         <v>984</v>
       </c>
-      <c r="B136" s="29" t="s">
+      <c r="C136" s="32" t="s">
         <v>985</v>
       </c>
-      <c r="C136" s="32" t="s">
+      <c r="D136" s="32" t="s">
         <v>986</v>
-      </c>
-      <c r="D136" s="32" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B137" s="29" t="s">
+        <v>987</v>
+      </c>
+      <c r="C137" s="32" t="s">
         <v>988</v>
       </c>
-      <c r="C137" s="32" t="s">
+      <c r="D137" s="32" t="s">
         <v>989</v>
-      </c>
-      <c r="D137" s="32" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B138" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="C138" s="32" t="s">
         <v>991</v>
       </c>
-      <c r="C138" s="32" t="s">
+      <c r="D138" s="32" t="s">
         <v>992</v>
-      </c>
-      <c r="D138" s="32" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B139" s="29" t="s">
         <v>245</v>
@@ -11508,44 +11508,44 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B140" s="29" t="s">
         <v>233</v>
       </c>
       <c r="C140" s="32" t="s">
+        <v>993</v>
+      </c>
+      <c r="D140" s="32" t="s">
         <v>994</v>
-      </c>
-      <c r="D140" s="32" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="32" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B141" s="32" t="s">
         <v>75</v>
       </c>
       <c r="C141" s="32" t="s">
+        <v>996</v>
+      </c>
+      <c r="D141" s="29" t="s">
         <v>997</v>
-      </c>
-      <c r="D141" s="29" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="32" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B142" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="C142" s="32" t="s">
         <v>999</v>
       </c>
-      <c r="C142" s="32" t="s">
+      <c r="D142" s="29" t="s">
         <v>1000</v>
-      </c>
-      <c r="D142" s="29" t="s">
-        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -11583,7 +11583,7 @@
         <v>309</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -11836,7 +11836,7 @@
         <v>199</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
@@ -11880,7 +11880,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -11895,16 +11895,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>1005</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="C13" s="40" t="s">
         <v>1006</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="D13" s="40" t="s">
         <v>1007</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>1008</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -11926,7 +11926,7 @@
         <v>191</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -12186,13 +12186,13 @@
         <v>49</v>
       </c>
       <c r="B26" s="40" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C26" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="D26" s="40" t="s">
         <v>1011</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>1012</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
@@ -12200,7 +12200,7 @@
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
       <c r="J26" s="41" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K26" s="41" t="s">
         <v>133</v>
@@ -12231,15 +12231,15 @@
         <v>150</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>1014</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>1015</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -12277,7 +12277,7 @@
         <v>510</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>77</v>
@@ -12303,7 +12303,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E31" s="40" t="s">
         <v>140</v>
@@ -12346,16 +12346,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B33" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D33" s="40" t="s">
         <v>1020</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>1021</v>
       </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
@@ -12363,22 +12363,22 @@
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
       <c r="J33" s="39" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="K33" s="39"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B34" s="40" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="40" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D34" s="40" t="s">
         <v>1023</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>1024</v>
       </c>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
@@ -12417,16 +12417,16 @@
         <v>391</v>
       </c>
       <c r="C36" s="40" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D36" s="40" t="s">
         <v>1025</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>1026</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="40" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I36" s="39"/>
       <c r="J36" s="39"/>
@@ -12437,13 +12437,13 @@
         <v>49</v>
       </c>
       <c r="B37" s="40" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C37" s="40" t="s">
         <v>1028</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="D37" s="40" t="s">
         <v>1029</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>1030</v>
       </c>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -12789,12 +12789,12 @@
         <v>310</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="49" t="s">
@@ -13336,13 +13336,13 @@
         <v>334</v>
       </c>
       <c r="B23" s="51" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C23" s="51" t="s">
         <v>1033</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="D23" s="51" t="s">
         <v>1034</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>1035</v>
       </c>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
@@ -13359,19 +13359,19 @@
         <v>39</v>
       </c>
       <c r="B24" s="51" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C24" s="51" t="s">
         <v>1036</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="D24" s="51" t="s">
         <v>1037</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>1038</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
       <c r="G24" s="57"/>
       <c r="H24" s="51" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
@@ -13423,10 +13423,10 @@
         <v>329</v>
       </c>
       <c r="C27" s="51" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D27" s="51" t="s">
         <v>1040</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>1041</v>
       </c>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
@@ -13482,7 +13482,7 @@
         <v>327</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D30" s="51" t="s">
         <v>326</v>
@@ -13549,7 +13549,7 @@
         <v>510</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>77</v>
@@ -13621,13 +13621,13 @@
         <v>53</v>
       </c>
       <c r="B36" s="57" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C36" s="57" t="s">
         <v>1043</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="D36" s="57" t="s">
         <v>1044</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>1045</v>
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="52"/>
@@ -13642,19 +13642,19 @@
         <v>312</v>
       </c>
       <c r="B37" s="57" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C37" s="57" t="s">
         <v>1046</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="D37" s="57" t="s">
         <v>1047</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>1048</v>
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="52"/>
       <c r="G37" s="57"/>
       <c r="H37" s="57" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I37" s="57"/>
       <c r="J37" s="57"/>
@@ -13665,13 +13665,13 @@
         <v>312</v>
       </c>
       <c r="B38" s="57" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C38" s="57" t="s">
         <v>1050</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="D38" s="57" t="s">
         <v>1051</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>1052</v>
       </c>
       <c r="E38" s="52"/>
       <c r="F38" s="52"/>
@@ -13686,19 +13686,19 @@
         <v>39</v>
       </c>
       <c r="B39" s="57" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C39" s="57" t="s">
         <v>1053</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="D39" s="57" t="s">
         <v>1054</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>1055</v>
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
       <c r="H39" s="57" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
@@ -13709,19 +13709,19 @@
         <v>67</v>
       </c>
       <c r="B40" s="57" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C40" s="57" t="s">
         <v>1057</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="D40" s="57" t="s">
         <v>1058</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>1059</v>
       </c>
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
       <c r="G40" s="57"/>
       <c r="H40" s="57" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I40" s="57"/>
       <c r="J40" s="57"/>
@@ -13763,16 +13763,16 @@
         <v>317</v>
       </c>
       <c r="C43" s="51" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D43" s="51" t="s">
         <v>1060</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>1061</v>
       </c>
       <c r="E43" s="52"/>
       <c r="F43" s="52"/>
       <c r="G43" s="57"/>
       <c r="H43" s="51" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I43" s="57"/>
       <c r="J43" s="57"/>
@@ -13783,13 +13783,13 @@
         <v>312</v>
       </c>
       <c r="B44" s="51" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C44" s="58" t="s">
         <v>1063</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="D44" s="58" t="s">
         <v>1064</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>1065</v>
       </c>
       <c r="E44" s="52"/>
       <c r="F44" s="52"/>
@@ -13801,22 +13801,22 @@
     </row>
     <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="51" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B45" s="51" t="s">
         <v>1066</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="C45" s="58" t="s">
         <v>1067</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="D45" s="58" t="s">
         <v>1068</v>
-      </c>
-      <c r="D45" s="58" t="s">
-        <v>1069</v>
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="52"/>
       <c r="G45" s="57"/>
       <c r="H45" s="51" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I45" s="51"/>
       <c r="J45" s="57"/>
@@ -13827,13 +13827,13 @@
         <v>312</v>
       </c>
       <c r="B46" s="51" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C46" s="58" t="s">
         <v>1071</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="D46" s="58" t="s">
         <v>1072</v>
-      </c>
-      <c r="D46" s="58" t="s">
-        <v>1073</v>
       </c>
       <c r="E46" s="52"/>
       <c r="F46" s="52"/>
@@ -13848,23 +13848,23 @@
         <v>49</v>
       </c>
       <c r="B47" s="51" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C47" s="58" t="s">
         <v>1074</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="D47" s="58" t="s">
         <v>1075</v>
       </c>
-      <c r="D47" s="58" t="s">
+      <c r="E47" s="52" t="s">
         <v>1076</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="F47" s="52" t="s">
         <v>1077</v>
-      </c>
-      <c r="F47" s="52" t="s">
-        <v>1078</v>
       </c>
       <c r="G47" s="57"/>
       <c r="H47" s="51" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I47" s="57"/>
       <c r="J47" s="57"/>
@@ -13875,23 +13875,23 @@
         <v>49</v>
       </c>
       <c r="B48" s="51" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C48" s="58" t="s">
         <v>1080</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="D48" s="58" t="s">
         <v>1081</v>
       </c>
-      <c r="D48" s="58" t="s">
-        <v>1082</v>
-      </c>
       <c r="E48" s="52" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F48" s="52" t="s">
         <v>1077</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>1078</v>
       </c>
       <c r="G48" s="57"/>
       <c r="H48" s="51" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I48" s="57"/>
       <c r="J48" s="57"/>
@@ -13902,13 +13902,13 @@
         <v>312</v>
       </c>
       <c r="B49" s="57" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C49" s="58" t="s">
         <v>1083</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="D49" s="52" t="s">
         <v>1084</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>1085</v>
       </c>
       <c r="E49" s="52"/>
       <c r="F49" s="52"/>
@@ -13921,23 +13921,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="57" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C50" s="58" t="s">
         <v>1086</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="D50" s="52" t="s">
         <v>1087</v>
       </c>
-      <c r="D50" s="52" t="s">
-        <v>1088</v>
-      </c>
       <c r="E50" s="52" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F50" s="52" t="s">
         <v>1077</v>
-      </c>
-      <c r="F50" s="52" t="s">
-        <v>1078</v>
       </c>
       <c r="G50" s="57"/>
       <c r="H50" s="51" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I50" s="57"/>
     </row>
@@ -13946,13 +13946,13 @@
         <v>312</v>
       </c>
       <c r="B51" s="57" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C51" s="58" t="s">
         <v>1090</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="D51" s="52" t="s">
         <v>1091</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>1092</v>
       </c>
       <c r="E51" s="52"/>
       <c r="F51" s="52"/>
@@ -13965,19 +13965,19 @@
         <v>49</v>
       </c>
       <c r="B52" s="57" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C52" s="58" t="s">
         <v>1093</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="D52" s="52" t="s">
         <v>1094</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>1095</v>
       </c>
       <c r="E52" s="52"/>
       <c r="F52" s="52"/>
       <c r="G52" s="57"/>
       <c r="H52" s="51" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I52" s="51"/>
     </row>
@@ -13986,19 +13986,19 @@
         <v>312</v>
       </c>
       <c r="B53" s="57" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C53" s="58" t="s">
         <v>1097</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="D53" s="52" t="s">
         <v>1098</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="E53" s="52" t="s">
         <v>1099</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="F53" s="52" t="s">
         <v>1100</v>
-      </c>
-      <c r="F53" s="52" t="s">
-        <v>1101</v>
       </c>
       <c r="G53" s="57"/>
       <c r="H53" s="51"/>
@@ -14009,19 +14009,19 @@
         <v>49</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C54" s="58" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D54" s="52" t="s">
         <v>1094</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>1095</v>
       </c>
       <c r="E54" s="52"/>
       <c r="F54" s="52"/>
       <c r="G54" s="57"/>
       <c r="H54" s="51" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I54" s="57"/>
     </row>
@@ -14030,19 +14030,19 @@
         <v>312</v>
       </c>
       <c r="B55" s="57" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C55" s="58" t="s">
         <v>1104</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="D55" s="52" t="s">
         <v>1105</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="E55" s="52" t="s">
         <v>1106</v>
       </c>
-      <c r="E55" s="52" t="s">
+      <c r="F55" s="52" t="s">
         <v>1107</v>
-      </c>
-      <c r="F55" s="52" t="s">
-        <v>1108</v>
       </c>
       <c r="G55" s="57"/>
       <c r="H55" s="51"/>
@@ -14053,19 +14053,19 @@
         <v>49</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C56" s="58" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D56" s="52" t="s">
         <v>1094</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>1095</v>
       </c>
       <c r="E56" s="52"/>
       <c r="F56" s="52"/>
       <c r="G56" s="57"/>
       <c r="H56" s="57" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I56" s="57"/>
     </row>
@@ -14074,19 +14074,19 @@
         <v>49</v>
       </c>
       <c r="B57" s="57" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C57" s="58" t="s">
         <v>1111</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="D57" s="52" t="s">
         <v>1112</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>1113</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="52"/>
       <c r="G57" s="57"/>
       <c r="H57" s="57" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I57" s="57"/>
     </row>
@@ -14095,19 +14095,19 @@
         <v>49</v>
       </c>
       <c r="B58" s="57" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C58" s="58" t="s">
         <v>1114</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="D58" s="52" t="s">
         <v>1115</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>1116</v>
       </c>
       <c r="E58" s="52"/>
       <c r="F58" s="52"/>
       <c r="G58" s="57"/>
       <c r="H58" s="57" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I58" s="57"/>
     </row>
@@ -14116,13 +14116,13 @@
         <v>312</v>
       </c>
       <c r="B59" s="57" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C59" s="58" t="s">
         <v>1117</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="D59" s="52" t="s">
         <v>1118</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>1119</v>
       </c>
       <c r="E59" s="52"/>
       <c r="F59" s="52"/>
@@ -14135,19 +14135,19 @@
         <v>49</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C60" s="58" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D60" s="52" t="s">
         <v>1094</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>1095</v>
       </c>
       <c r="E60" s="52"/>
       <c r="F60" s="52"/>
       <c r="G60" s="57"/>
       <c r="H60" s="51" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I60" s="51"/>
     </row>
@@ -14156,19 +14156,19 @@
         <v>49</v>
       </c>
       <c r="B61" s="57" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C61" s="58" t="s">
         <v>1122</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="D61" s="52" t="s">
         <v>1123</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>1124</v>
       </c>
       <c r="E61" s="52"/>
       <c r="F61" s="52"/>
       <c r="G61" s="57"/>
       <c r="H61" s="51" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I61" s="51"/>
     </row>
@@ -14177,19 +14177,19 @@
         <v>49</v>
       </c>
       <c r="B62" s="57" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C62" s="58" t="s">
         <v>1125</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="D62" s="52" t="s">
         <v>1126</v>
-      </c>
-      <c r="D62" s="52" t="s">
-        <v>1127</v>
       </c>
       <c r="E62" s="52"/>
       <c r="F62" s="52"/>
       <c r="G62" s="57"/>
       <c r="H62" s="51" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I62" s="57"/>
     </row>
@@ -14198,13 +14198,13 @@
         <v>312</v>
       </c>
       <c r="B63" s="57" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C63" s="58" t="s">
         <v>1128</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="D63" s="52" t="s">
         <v>1129</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>1130</v>
       </c>
       <c r="E63" s="52"/>
       <c r="F63" s="52"/>
@@ -14218,34 +14218,34 @@
         <v>49</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C64" s="58" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D64" s="52" t="s">
         <v>1094</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>1095</v>
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="52"/>
       <c r="G64" s="57"/>
       <c r="H64" s="57" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I64" s="57"/>
     </row>
     <row r="65" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="57" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B65" s="57" t="s">
         <v>1133</v>
       </c>
-      <c r="B65" s="57" t="s">
+      <c r="C65" s="58" t="s">
         <v>1134</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="D65" s="52" t="s">
         <v>1135</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>1136</v>
       </c>
       <c r="E65" s="52"/>
       <c r="F65" s="52"/>
@@ -14261,19 +14261,19 @@
         <v>39</v>
       </c>
       <c r="B66" s="57" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C66" s="58" t="s">
         <v>1137</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="D66" s="52" t="s">
         <v>1138</v>
-      </c>
-      <c r="D66" s="52" t="s">
-        <v>1139</v>
       </c>
       <c r="E66" s="52"/>
       <c r="F66" s="52"/>
       <c r="G66" s="57"/>
       <c r="H66" s="57" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I66" s="57"/>
       <c r="J66" s="57"/>
@@ -14285,19 +14285,19 @@
         <v>39</v>
       </c>
       <c r="B67" s="57" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C67" s="58" t="s">
         <v>1141</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="D67" s="52" t="s">
         <v>1142</v>
       </c>
-      <c r="D67" s="52" t="s">
+      <c r="E67" s="52" t="s">
         <v>1143</v>
       </c>
-      <c r="E67" s="52" t="s">
+      <c r="F67" s="52" t="s">
         <v>1144</v>
-      </c>
-      <c r="F67" s="52" t="s">
-        <v>1145</v>
       </c>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
@@ -14311,13 +14311,13 @@
         <v>312</v>
       </c>
       <c r="B68" s="57" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C68" s="58" t="s">
         <v>1146</v>
       </c>
-      <c r="C68" s="58" t="s">
+      <c r="D68" s="53" t="s">
         <v>1147</v>
-      </c>
-      <c r="D68" s="53" t="s">
-        <v>1148</v>
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38"/>
@@ -14333,19 +14333,19 @@
         <v>312</v>
       </c>
       <c r="B69" s="57" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C69" s="57" t="s">
         <v>1149</v>
       </c>
-      <c r="C69" s="57" t="s">
+      <c r="D69" s="53" t="s">
         <v>1150</v>
-      </c>
-      <c r="D69" s="53" t="s">
-        <v>1151</v>
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
       <c r="H69" s="57" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="I69" s="38"/>
       <c r="J69" s="38"/>
@@ -14357,19 +14357,19 @@
         <v>178</v>
       </c>
       <c r="B70" s="57" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C70" s="52" t="s">
         <v>1153</v>
       </c>
-      <c r="C70" s="52" t="s">
+      <c r="D70" s="53" t="s">
         <v>1154</v>
-      </c>
-      <c r="D70" s="53" t="s">
-        <v>1155</v>
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
       <c r="H70" s="57" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I70" s="38"/>
       <c r="J70" s="38"/>
@@ -14414,16 +14414,16 @@
         <v>316</v>
       </c>
       <c r="C73" s="57" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D73" s="53" t="s">
         <v>1157</v>
-      </c>
-      <c r="D73" s="53" t="s">
-        <v>1158</v>
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
       <c r="H73" s="57" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="I73" s="38"/>
       <c r="J73" s="38"/>
@@ -14435,13 +14435,13 @@
         <v>178</v>
       </c>
       <c r="B74" s="57" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C74" s="57" t="s">
         <v>1160</v>
       </c>
-      <c r="C74" s="57" t="s">
+      <c r="D74" s="51" t="s">
         <v>1161</v>
-      </c>
-      <c r="D74" s="51" t="s">
-        <v>1162</v>
       </c>
       <c r="E74" s="38"/>
       <c r="F74" s="38"/>
@@ -14454,16 +14454,16 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="51" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B75" s="51" t="s">
         <v>1163</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="C75" s="51" t="s">
         <v>1164</v>
       </c>
-      <c r="C75" s="51" t="s">
-        <v>1165</v>
-      </c>
       <c r="D75" s="51" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E75" s="38"/>
       <c r="F75" s="38"/>
@@ -14479,19 +14479,19 @@
         <v>67</v>
       </c>
       <c r="B76" s="51" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C76" s="51" t="s">
         <v>1166</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="D76" s="51" t="s">
         <v>1167</v>
-      </c>
-      <c r="D76" s="51" t="s">
-        <v>1168</v>
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
       <c r="H76" s="57" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I76" s="38"/>
       <c r="J76" s="38"/>
@@ -14500,16 +14500,16 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B77" s="51" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C77" s="51" t="s">
         <v>1170</v>
       </c>
-      <c r="C77" s="51" t="s">
-        <v>1171</v>
-      </c>
       <c r="D77" s="51" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38"/>
@@ -14525,19 +14525,19 @@
         <v>67</v>
       </c>
       <c r="B78" s="51" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C78" s="51" t="s">
         <v>1172</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="D78" s="51" t="s">
         <v>1173</v>
-      </c>
-      <c r="D78" s="51" t="s">
-        <v>1174</v>
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
       <c r="H78" s="57" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I78" s="38"/>
       <c r="J78" s="38"/>
@@ -14546,16 +14546,16 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B79" s="51" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C79" s="51" t="s">
         <v>1176</v>
       </c>
-      <c r="C79" s="51" t="s">
-        <v>1177</v>
-      </c>
       <c r="D79" s="51" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38"/>
@@ -14571,19 +14571,19 @@
         <v>67</v>
       </c>
       <c r="B80" s="51" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C80" s="51" t="s">
         <v>1178</v>
       </c>
-      <c r="C80" s="51" t="s">
+      <c r="D80" s="57" t="s">
         <v>1179</v>
-      </c>
-      <c r="D80" s="57" t="s">
-        <v>1180</v>
       </c>
       <c r="E80" s="38"/>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
       <c r="H80" s="57" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I80" s="38"/>
       <c r="J80" s="38"/>
@@ -14592,16 +14592,16 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B81" s="51" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C81" s="51" t="s">
         <v>1182</v>
       </c>
-      <c r="C81" s="51" t="s">
-        <v>1183</v>
-      </c>
       <c r="D81" s="51" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E81" s="38"/>
       <c r="F81" s="38"/>
@@ -14613,33 +14613,33 @@
         <v>67</v>
       </c>
       <c r="B82" s="51" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C82" s="51" t="s">
         <v>1184</v>
       </c>
-      <c r="C82" s="51" t="s">
+      <c r="D82" s="51" t="s">
         <v>1185</v>
-      </c>
-      <c r="D82" s="51" t="s">
-        <v>1186</v>
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
       <c r="H82" s="57" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B83" s="51" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C83" s="51" t="s">
         <v>1188</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="D83" s="51" t="s">
         <v>1189</v>
-      </c>
-      <c r="D83" s="51" t="s">
-        <v>1190</v>
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38"/>
@@ -14651,33 +14651,33 @@
         <v>67</v>
       </c>
       <c r="B84" s="51" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C84" s="51" t="s">
         <v>1191</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="D84" s="51" t="s">
         <v>1192</v>
-      </c>
-      <c r="D84" s="51" t="s">
-        <v>1193</v>
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
       <c r="H84" s="57" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B85" s="51" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C85" s="51" t="s">
         <v>1195</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="D85" s="51" t="s">
         <v>1196</v>
-      </c>
-      <c r="D85" s="51" t="s">
-        <v>1197</v>
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38"/>
@@ -14689,33 +14689,33 @@
         <v>67</v>
       </c>
       <c r="B86" s="51" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C86" s="51" t="s">
         <v>1198</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="D86" s="51" t="s">
         <v>1199</v>
-      </c>
-      <c r="D86" s="51" t="s">
-        <v>1200</v>
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
       <c r="H86" s="57" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B87" s="51" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C87" s="51" t="s">
         <v>1202</v>
       </c>
-      <c r="C87" s="51" t="s">
+      <c r="D87" s="57" t="s">
         <v>1203</v>
-      </c>
-      <c r="D87" s="57" t="s">
-        <v>1204</v>
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38"/>
@@ -14727,33 +14727,33 @@
         <v>67</v>
       </c>
       <c r="B88" s="51" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C88" s="57" t="s">
         <v>1205</v>
       </c>
-      <c r="C88" s="57" t="s">
+      <c r="D88" s="58" t="s">
         <v>1206</v>
-      </c>
-      <c r="D88" s="58" t="s">
-        <v>1207</v>
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
       <c r="H88" s="57" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B89" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C89" s="51" t="s">
         <v>1209</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="D89" s="58" t="s">
         <v>1210</v>
-      </c>
-      <c r="D89" s="58" t="s">
-        <v>1211</v>
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38"/>
@@ -14765,33 +14765,33 @@
         <v>67</v>
       </c>
       <c r="B90" s="51" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C90" s="51" t="s">
         <v>1212</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="D90" s="51" t="s">
         <v>1213</v>
-      </c>
-      <c r="D90" s="51" t="s">
-        <v>1214</v>
       </c>
       <c r="E90" s="38"/>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
       <c r="H90" s="57" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B91" s="51" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C91" s="51" t="s">
         <v>1216</v>
       </c>
-      <c r="C91" s="51" t="s">
+      <c r="D91" s="57" t="s">
         <v>1217</v>
-      </c>
-      <c r="D91" s="57" t="s">
-        <v>1218</v>
       </c>
       <c r="E91" s="38"/>
       <c r="F91" s="38"/>
@@ -14803,33 +14803,33 @@
         <v>67</v>
       </c>
       <c r="B92" s="51" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C92" s="57" t="s">
         <v>1219</v>
       </c>
-      <c r="C92" s="57" t="s">
+      <c r="D92" s="57" t="s">
         <v>1220</v>
-      </c>
-      <c r="D92" s="57" t="s">
-        <v>1221</v>
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
       <c r="H92" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B93" s="57" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C93" s="57" t="s">
         <v>1223</v>
       </c>
-      <c r="C93" s="57" t="s">
-        <v>1224</v>
-      </c>
       <c r="D93" s="57" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38"/>
@@ -14841,33 +14841,33 @@
         <v>67</v>
       </c>
       <c r="B94" s="51" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C94" s="57" t="s">
         <v>1225</v>
       </c>
-      <c r="C94" s="57" t="s">
+      <c r="D94" s="38" t="s">
         <v>1226</v>
-      </c>
-      <c r="D94" s="38" t="s">
-        <v>1227</v>
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
       <c r="H94" s="57" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B95" s="57" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C95" s="57" t="s">
         <v>1229</v>
       </c>
-      <c r="C95" s="57" t="s">
-        <v>1230</v>
-      </c>
       <c r="D95" s="38" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38"/>
@@ -14879,33 +14879,33 @@
         <v>67</v>
       </c>
       <c r="B96" s="51" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C96" s="57" t="s">
         <v>1231</v>
       </c>
-      <c r="C96" s="57" t="s">
+      <c r="D96" s="38" t="s">
         <v>1232</v>
-      </c>
-      <c r="D96" s="38" t="s">
-        <v>1233</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
       <c r="H96" s="57" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B97" s="57" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C97" s="57" t="s">
         <v>1235</v>
       </c>
-      <c r="C97" s="57" t="s">
-        <v>1236</v>
-      </c>
       <c r="D97" s="38" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38"/>
@@ -14917,33 +14917,33 @@
         <v>67</v>
       </c>
       <c r="B98" s="51" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C98" s="57" t="s">
         <v>1237</v>
       </c>
-      <c r="C98" s="57" t="s">
+      <c r="D98" s="38" t="s">
         <v>1238</v>
-      </c>
-      <c r="D98" s="38" t="s">
-        <v>1239</v>
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
       <c r="H98" s="57" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B99" s="57" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C99" s="57" t="s">
         <v>1241</v>
       </c>
-      <c r="C99" s="57" t="s">
+      <c r="D99" s="38" t="s">
         <v>1242</v>
-      </c>
-      <c r="D99" s="38" t="s">
-        <v>1243</v>
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38"/>
@@ -14955,33 +14955,33 @@
         <v>67</v>
       </c>
       <c r="B100" s="57" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C100" s="57" t="s">
         <v>1244</v>
       </c>
-      <c r="C100" s="57" t="s">
+      <c r="D100" s="38" t="s">
         <v>1245</v>
-      </c>
-      <c r="D100" s="38" t="s">
-        <v>1246</v>
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
       <c r="H100" s="57" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B101" s="57" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C101" s="57" t="s">
         <v>1248</v>
       </c>
-      <c r="C101" s="57" t="s">
-        <v>1249</v>
-      </c>
       <c r="D101" s="38" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38"/>
@@ -14993,33 +14993,33 @@
         <v>67</v>
       </c>
       <c r="B102" s="57" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C102" s="57" t="s">
         <v>1250</v>
       </c>
-      <c r="C102" s="57" t="s">
+      <c r="D102" s="38" t="s">
         <v>1251</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>1252</v>
       </c>
       <c r="E102" s="38"/>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
       <c r="H102" s="57" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B103" s="57" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C103" s="57" t="s">
         <v>1254</v>
       </c>
-      <c r="C103" s="57" t="s">
-        <v>1255</v>
-      </c>
       <c r="D103" s="38" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E103" s="38"/>
       <c r="F103" s="38"/>
@@ -15031,33 +15031,33 @@
         <v>67</v>
       </c>
       <c r="B104" s="57" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C104" s="57" t="s">
         <v>1256</v>
       </c>
-      <c r="C104" s="57" t="s">
+      <c r="D104" s="38" t="s">
         <v>1257</v>
-      </c>
-      <c r="D104" s="38" t="s">
-        <v>1258</v>
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
       <c r="H104" s="57" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B105" s="57" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C105" s="57" t="s">
         <v>1260</v>
       </c>
-      <c r="C105" s="57" t="s">
-        <v>1261</v>
-      </c>
       <c r="D105" s="38" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38"/>
@@ -15069,33 +15069,33 @@
         <v>67</v>
       </c>
       <c r="B106" s="57" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C106" s="57" t="s">
         <v>1262</v>
       </c>
-      <c r="C106" s="57" t="s">
+      <c r="D106" s="57" t="s">
         <v>1263</v>
-      </c>
-      <c r="D106" s="57" t="s">
-        <v>1264</v>
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
       <c r="H106" s="57" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B107" s="57" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C107" s="57" t="s">
         <v>1266</v>
       </c>
-      <c r="C107" s="57" t="s">
+      <c r="D107" s="38" t="s">
         <v>1267</v>
-      </c>
-      <c r="D107" s="38" t="s">
-        <v>1268</v>
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38"/>
@@ -15107,33 +15107,33 @@
         <v>67</v>
       </c>
       <c r="B108" s="57" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C108" s="57" t="s">
         <v>1269</v>
       </c>
-      <c r="C108" s="57" t="s">
+      <c r="D108" s="38" t="s">
         <v>1270</v>
-      </c>
-      <c r="D108" s="38" t="s">
-        <v>1271</v>
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
       <c r="H108" s="57" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B109" s="57" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C109" s="57" t="s">
         <v>1273</v>
       </c>
-      <c r="C109" s="57" t="s">
+      <c r="D109" s="38" t="s">
         <v>1274</v>
-      </c>
-      <c r="D109" s="38" t="s">
-        <v>1275</v>
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38"/>
@@ -15145,33 +15145,33 @@
         <v>67</v>
       </c>
       <c r="B110" s="57" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C110" s="57" t="s">
         <v>1276</v>
       </c>
-      <c r="C110" s="57" t="s">
+      <c r="D110" s="38" t="s">
         <v>1277</v>
-      </c>
-      <c r="D110" s="38" t="s">
-        <v>1278</v>
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
       <c r="H110" s="57" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B111" s="57" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C111" s="57" t="s">
         <v>1280</v>
       </c>
-      <c r="C111" s="57" t="s">
-        <v>1281</v>
-      </c>
       <c r="D111" s="38" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38"/>
@@ -15183,33 +15183,33 @@
         <v>67</v>
       </c>
       <c r="B112" s="57" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C112" s="57" t="s">
         <v>1282</v>
       </c>
-      <c r="C112" s="57" t="s">
+      <c r="D112" s="38" t="s">
         <v>1283</v>
-      </c>
-      <c r="D112" s="38" t="s">
-        <v>1284</v>
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
       <c r="H112" s="57" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B113" s="57" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C113" s="57" t="s">
         <v>1286</v>
       </c>
-      <c r="C113" s="57" t="s">
+      <c r="D113" s="38" t="s">
         <v>1287</v>
-      </c>
-      <c r="D113" s="38" t="s">
-        <v>1288</v>
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38"/>
@@ -15221,33 +15221,33 @@
         <v>67</v>
       </c>
       <c r="B114" s="57" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C114" s="57" t="s">
         <v>1289</v>
       </c>
-      <c r="C114" s="57" t="s">
+      <c r="D114" s="38" t="s">
         <v>1290</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>1291</v>
       </c>
       <c r="E114" s="38"/>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
       <c r="H114" s="57" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B115" s="57" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C115" s="57" t="s">
         <v>1293</v>
       </c>
-      <c r="C115" s="57" t="s">
+      <c r="D115" s="38" t="s">
         <v>1294</v>
-      </c>
-      <c r="D115" s="38" t="s">
-        <v>1295</v>
       </c>
       <c r="E115" s="38"/>
       <c r="F115" s="38"/>
@@ -15259,33 +15259,33 @@
         <v>67</v>
       </c>
       <c r="B116" s="57" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C116" s="57" t="s">
         <v>1296</v>
       </c>
-      <c r="C116" s="57" t="s">
+      <c r="D116" s="38" t="s">
         <v>1297</v>
-      </c>
-      <c r="D116" s="38" t="s">
-        <v>1298</v>
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
       <c r="H116" s="57" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B117" s="57" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C117" s="57" t="s">
         <v>1300</v>
       </c>
-      <c r="C117" s="57" t="s">
+      <c r="D117" s="38" t="s">
         <v>1301</v>
-      </c>
-      <c r="D117" s="38" t="s">
-        <v>1302</v>
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38"/>
@@ -15297,19 +15297,19 @@
         <v>67</v>
       </c>
       <c r="B118" s="57" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C118" s="57" t="s">
         <v>1303</v>
       </c>
-      <c r="C118" s="57" t="s">
+      <c r="D118" s="38" t="s">
         <v>1304</v>
-      </c>
-      <c r="D118" s="38" t="s">
-        <v>1305</v>
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
       <c r="H118" s="57" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -15317,13 +15317,13 @@
         <v>178</v>
       </c>
       <c r="B119" s="57" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C119" s="52" t="s">
         <v>1307</v>
       </c>
-      <c r="C119" s="52" t="s">
+      <c r="D119" s="53" t="s">
         <v>1308</v>
-      </c>
-      <c r="D119" s="53" t="s">
-        <v>1309</v>
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38"/>
@@ -15335,13 +15335,13 @@
         <v>312</v>
       </c>
       <c r="B120" s="57" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C120" s="57" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D120" s="38" t="s">
         <v>1150</v>
-      </c>
-      <c r="D120" s="38" t="s">
-        <v>1151</v>
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38"/>
@@ -15378,16 +15378,16 @@
         <v>315</v>
       </c>
       <c r="C123" s="57" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D123" s="38" t="s">
         <v>1311</v>
-      </c>
-      <c r="D123" s="38" t="s">
-        <v>1312</v>
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
       <c r="H123" s="57" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -15395,13 +15395,13 @@
         <v>178</v>
       </c>
       <c r="B124" s="57" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C124" s="57" t="s">
         <v>1314</v>
       </c>
-      <c r="C124" s="57" t="s">
+      <c r="D124" s="57" t="s">
         <v>1315</v>
-      </c>
-      <c r="D124" s="57" t="s">
-        <v>1316</v>
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="38"/>
@@ -15410,16 +15410,16 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="57" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B125" s="57" t="s">
         <v>1317</v>
       </c>
-      <c r="B125" s="57" t="s">
+      <c r="C125" s="57" t="s">
         <v>1318</v>
       </c>
-      <c r="C125" s="57" t="s">
+      <c r="D125" s="38" t="s">
         <v>1319</v>
-      </c>
-      <c r="D125" s="38" t="s">
-        <v>1320</v>
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="38"/>
@@ -15431,19 +15431,19 @@
         <v>39</v>
       </c>
       <c r="B126" s="57" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C126" s="57" t="s">
         <v>1321</v>
       </c>
-      <c r="C126" s="57" t="s">
+      <c r="D126" s="38" t="s">
         <v>1322</v>
-      </c>
-      <c r="D126" s="38" t="s">
-        <v>1323</v>
       </c>
       <c r="E126" s="38"/>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
       <c r="H126" s="57" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -15950,161 +15950,161 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="64" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C33" s="64" t="s">
         <v>1325</v>
       </c>
-      <c r="B33" s="64" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C33" s="64" t="s">
+      <c r="D33" s="61" t="s">
         <v>1326</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="64" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B34" s="64" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C34" s="64" t="s">
         <v>1328</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="D34" s="61" t="s">
         <v>1329</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="64" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B35" s="64" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C35" s="64" t="s">
         <v>1331</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="D35" s="61" t="s">
         <v>1332</v>
-      </c>
-      <c r="D35" s="61" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B36" s="64" t="s">
         <v>1334</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="C36" s="64" t="s">
         <v>1335</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="D36" s="61" t="s">
         <v>1336</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B37" s="64" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C37" s="64" t="s">
         <v>1338</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="D37" s="61" t="s">
         <v>1339</v>
-      </c>
-      <c r="D37" s="61" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="64" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B38" s="64" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C38" s="64" t="s">
         <v>1341</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="D38" s="61" t="s">
         <v>1342</v>
-      </c>
-      <c r="D38" s="61" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="64" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B39" s="64" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C39" s="64" t="s">
         <v>1344</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="D39" s="61" t="s">
         <v>1345</v>
-      </c>
-      <c r="D39" s="61" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="64" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B40" s="64" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C40" s="64" t="s">
         <v>1347</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="D40" s="61" t="s">
         <v>1348</v>
-      </c>
-      <c r="D40" s="61" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="64" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B41" s="64" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C41" s="64" t="s">
         <v>1350</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="D41" s="61" t="s">
         <v>1351</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="64" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B42" s="64" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C42" s="64" t="s">
         <v>1353</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="D42" s="64" t="s">
         <v>1354</v>
-      </c>
-      <c r="D42" s="64" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="64" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B43" s="64" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C43" s="64" t="s">
         <v>1356</v>
       </c>
-      <c r="C43" s="64" t="s">
+      <c r="D43" s="64" t="s">
         <v>1357</v>
-      </c>
-      <c r="D43" s="64" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="64" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B44" s="64" t="s">
         <v>282</v>
@@ -16118,35 +16118,35 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="64" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B45" s="64" t="s">
         <v>1359</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="C45" s="64" t="s">
         <v>1360</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="D45" s="61" t="s">
         <v>1361</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="64" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B46" s="64" t="s">
         <v>366</v>
       </c>
       <c r="C46" s="64" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D46" s="61" t="s">
         <v>1363</v>
-      </c>
-      <c r="D46" s="61" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="64" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B47" s="64" t="s">
         <v>365</v>
@@ -16160,7 +16160,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="64" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B48" s="64" t="s">
         <v>362</v>
@@ -16174,10 +16174,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="64" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C49" s="64" t="s">
         <v>30</v>
@@ -16188,10 +16188,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="64" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C50" s="64" t="s">
         <v>31</v>
@@ -16202,24 +16202,24 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="64" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C51" s="64" t="s">
         <v>358</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="64" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C52" s="64" t="s">
         <v>32</v>
@@ -16230,66 +16230,66 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="64" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B53" s="64" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C53" s="64" t="s">
         <v>1370</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="D53" s="61" t="s">
         <v>1371</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="64" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B54" s="64" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C54" s="64" t="s">
         <v>1373</v>
       </c>
-      <c r="C54" s="64" t="s">
+      <c r="D54" s="61" t="s">
         <v>1374</v>
-      </c>
-      <c r="D54" s="61" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="64" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B55" s="64" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C55" s="64" t="s">
         <v>1376</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="D55" s="61" t="s">
         <v>1377</v>
-      </c>
-      <c r="D55" s="61" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="64" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C56" s="64" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D56" s="61" t="s">
         <v>1379</v>
-      </c>
-      <c r="D56" s="61" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="64" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B57" s="64" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C57" s="64" t="s">
         <v>33</v>
@@ -16300,21 +16300,21 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="64" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B58" s="64" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C58" s="64" t="s">
         <v>1382</v>
       </c>
-      <c r="C58" s="64" t="s">
+      <c r="D58" s="61" t="s">
         <v>1383</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="64" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B59" s="64" t="s">
         <v>233</v>
@@ -16328,7 +16328,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="64" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B60" s="64" t="s">
         <v>245</v>
@@ -16381,7 +16381,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="65" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>310</v>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -1422,9 +1422,6 @@
   </si>
   <si>
     <t>Principale raison du renoncement aux soins?</t>
-  </si>
-  <si>
-    <t>${health_care} = "no" or ${health_care} = "don’t_know"</t>
   </si>
   <si>
     <t>reason_no_care_other</t>
@@ -4264,10 +4261,13 @@
     <t>Le lieu de vaccination était fermé ou l'attente était longue.</t>
   </si>
   <si>
-    <t>${age_months}&gt;5 or ${age_months}&lt;61</t>
-  </si>
-  <si>
     <t>${source_death_hsb} = "written"</t>
+  </si>
+  <si>
+    <t>${age_years}&lt;5</t>
+  </si>
+  <si>
+    <t>${care_fever} = "no" or ${care_fever} = "don’t_know"</t>
   </si>
 </sst>
 </file>
@@ -4787,8 +4787,8 @@
   </sheetPr>
   <dimension ref="A1:L209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6260,7 +6260,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="H68" s="13" t="s">
-        <v>465</v>
+        <v>1385</v>
       </c>
       <c r="I68" s="13"/>
     </row>
@@ -6269,19 +6269,19 @@
         <v>39</v>
       </c>
       <c r="B69" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="D69" s="13" t="s">
         <v>467</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>468</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
       <c r="H69" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I69" s="13"/>
     </row>
@@ -6303,7 +6303,7 @@
         <v>178</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>405</v>
@@ -6320,13 +6320,13 @@
         <v>160</v>
       </c>
       <c r="B72" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="C72" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="D72" s="13" t="s">
         <v>472</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>473</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
@@ -6344,19 +6344,19 @@
         <v>49</v>
       </c>
       <c r="B73" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="D73" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="E73" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="F73" s="14" t="s">
         <v>477</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>478</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="13"/>
@@ -6370,25 +6370,25 @@
         <v>49</v>
       </c>
       <c r="B74" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="D74" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="E74" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="F74" s="14" t="s">
         <v>482</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>483</v>
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K74" s="15"/>
       <c r="L74" s="15"/>
@@ -6398,13 +6398,13 @@
         <v>53</v>
       </c>
       <c r="B75" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="C75" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="D75" s="13" t="s">
         <v>486</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>487</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
@@ -6420,13 +6420,13 @@
         <v>53</v>
       </c>
       <c r="B76" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="D76" s="13" t="s">
         <v>489</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>490</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
@@ -6439,16 +6439,16 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="C77" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="D77" s="13" t="s">
         <v>493</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>494</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
@@ -6464,19 +6464,19 @@
         <v>49</v>
       </c>
       <c r="B78" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="D78" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="E78" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="F78" s="14" t="s">
         <v>498</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>499</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="13"/>
@@ -6490,7 +6490,7 @@
         <v>386</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>387</v>
@@ -6516,7 +6516,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>392</v>
@@ -6542,7 +6542,7 @@
         <v>49</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>396</v>
@@ -6568,7 +6568,7 @@
         <v>49</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>400</v>
@@ -6594,13 +6594,13 @@
         <v>49</v>
       </c>
       <c r="B83" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="C83" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="D83" s="13" t="s">
         <v>505</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>506</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
@@ -6684,7 +6684,7 @@
         <v>101</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>80</v>
@@ -6706,7 +6706,7 @@
         <v>67</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>99</v>
@@ -6786,7 +6786,7 @@
         <v>67</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>89</v>
@@ -6866,7 +6866,7 @@
         <v>67</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>78</v>
@@ -6946,7 +6946,7 @@
         <v>67</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>66</v>
@@ -6976,10 +6976,10 @@
         <v>178</v>
       </c>
       <c r="B98" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="C98" s="27" t="s">
         <v>512</v>
-      </c>
-      <c r="C98" s="27" t="s">
-        <v>513</v>
       </c>
       <c r="D98" s="27"/>
       <c r="E98" s="28"/>
@@ -6996,13 +6996,13 @@
         <v>53</v>
       </c>
       <c r="B99" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="C99" s="25" t="s">
         <v>514</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="D99" s="26" t="s">
         <v>515</v>
-      </c>
-      <c r="D99" s="26" t="s">
-        <v>516</v>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="26"/>
@@ -7018,13 +7018,13 @@
         <v>53</v>
       </c>
       <c r="B100" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="C100" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="D100" s="26" t="s">
         <v>518</v>
-      </c>
-      <c r="D100" s="26" t="s">
-        <v>519</v>
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="26"/>
@@ -7040,13 +7040,13 @@
         <v>53</v>
       </c>
       <c r="B101" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="C101" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="D101" s="24" t="s">
         <v>521</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>522</v>
       </c>
       <c r="E101" s="25"/>
       <c r="F101" s="25"/>
@@ -7059,22 +7059,22 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="B102" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="C102" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="C102" s="24" t="s">
+      <c r="D102" s="24" t="s">
         <v>525</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>526</v>
       </c>
       <c r="E102" s="25"/>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
       <c r="H102" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I102" s="25"/>
       <c r="J102" s="25"/>
@@ -7086,7 +7086,7 @@
         <v>67</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C103" s="24" t="s">
         <v>66</v>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="G103" s="25"/>
       <c r="H103" s="24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I103" s="25"/>
       <c r="J103" s="25"/>
@@ -7159,16 +7159,16 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="C106" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="D106" s="9" t="s">
         <v>532</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>533</v>
       </c>
       <c r="E106" s="22"/>
       <c r="F106" s="22"/>
@@ -7186,19 +7186,19 @@
         <v>39</v>
       </c>
       <c r="B107" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C107" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="D107" s="9" t="s">
         <v>535</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>536</v>
       </c>
       <c r="E107" s="22"/>
       <c r="F107" s="22"/>
       <c r="G107" s="22"/>
       <c r="H107" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I107" s="22"/>
       <c r="J107" s="22"/>
@@ -7210,10 +7210,10 @@
         <v>178</v>
       </c>
       <c r="B108" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="C108" s="19" t="s">
         <v>538</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>539</v>
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="14"/>
@@ -7230,13 +7230,13 @@
         <v>160</v>
       </c>
       <c r="B109" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="C109" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="D109" s="13" t="s">
         <v>541</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>542</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
@@ -7251,16 +7251,16 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="B110" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="C110" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="D110" s="13" t="s">
         <v>545</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>546</v>
       </c>
       <c r="E110" s="14"/>
       <c r="F110" s="14"/>
@@ -7276,19 +7276,19 @@
         <v>39</v>
       </c>
       <c r="B111" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="C111" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="D111" s="15" t="s">
         <v>548</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>549</v>
       </c>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
       <c r="H111" s="14" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
@@ -7300,19 +7300,19 @@
         <v>67</v>
       </c>
       <c r="B112" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="C112" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="D112" s="15" t="s">
         <v>551</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>552</v>
       </c>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
       <c r="H112" s="14" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
@@ -7324,19 +7324,19 @@
         <v>39</v>
       </c>
       <c r="B113" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="D113" s="15" t="s">
         <v>554</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>555</v>
       </c>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
       <c r="H113" s="14" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -7345,16 +7345,16 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="B114" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="C114" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="D114" s="13" t="s">
         <v>558</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>559</v>
       </c>
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
@@ -7370,23 +7370,23 @@
         <v>49</v>
       </c>
       <c r="B115" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="C115" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="D115" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="D115" s="13" t="s">
+      <c r="E115" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="E115" s="14" t="s">
+      <c r="F115" s="14" t="s">
         <v>563</v>
-      </c>
-      <c r="F115" s="14" t="s">
-        <v>564</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
@@ -7395,16 +7395,16 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C116" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D116" s="13" t="s">
         <v>532</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>533</v>
       </c>
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
@@ -7420,19 +7420,19 @@
         <v>39</v>
       </c>
       <c r="B117" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="D117" s="13" t="s">
         <v>567</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>568</v>
       </c>
       <c r="E117" s="14"/>
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
       <c r="H117" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
@@ -7444,13 +7444,13 @@
         <v>312</v>
       </c>
       <c r="B118" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="C118" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="D118" s="13" t="s">
         <v>571</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>572</v>
       </c>
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
@@ -7463,22 +7463,22 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B119" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="C119" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="D119" s="13" t="s">
         <v>574</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>575</v>
       </c>
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
       <c r="H119" s="13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I119" s="14"/>
       <c r="J119" s="14"/>
@@ -7490,19 +7490,19 @@
         <v>39</v>
       </c>
       <c r="B120" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C120" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="D120" s="13" t="s">
         <v>578</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>579</v>
       </c>
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
       <c r="G120" s="14"/>
       <c r="H120" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I120" s="14"/>
       <c r="J120" s="14"/>
@@ -7514,19 +7514,19 @@
         <v>461</v>
       </c>
       <c r="B121" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="C121" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="D121" s="13" t="s">
         <v>582</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>583</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
       <c r="H121" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
@@ -7538,19 +7538,19 @@
         <v>39</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C122" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="D122" s="13" t="s">
         <v>467</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>468</v>
       </c>
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
       <c r="G122" s="14"/>
       <c r="H122" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I122" s="14"/>
       <c r="J122" s="14"/>
@@ -7578,10 +7578,10 @@
         <v>178</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D124" s="19"/>
       <c r="E124" s="18"/>
@@ -7598,13 +7598,13 @@
         <v>312</v>
       </c>
       <c r="B125" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="C125" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="D125" s="13" t="s">
         <v>589</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>590</v>
       </c>
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
@@ -7620,19 +7620,19 @@
         <v>160</v>
       </c>
       <c r="B126" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="C126" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="D126" s="13" t="s">
         <v>592</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>593</v>
       </c>
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
       <c r="G126" s="14"/>
       <c r="H126" s="13" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I126" s="14"/>
       <c r="J126" s="14"/>
@@ -7644,13 +7644,13 @@
         <v>60</v>
       </c>
       <c r="B127" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="C127" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="D127" s="13" t="s">
         <v>596</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>597</v>
       </c>
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
@@ -7666,19 +7666,19 @@
         <v>39</v>
       </c>
       <c r="B128" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="C128" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="C128" s="13" t="s">
+      <c r="D128" s="13" t="s">
         <v>599</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>600</v>
       </c>
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
       <c r="G128" s="14"/>
       <c r="H128" s="13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I128" s="14"/>
       <c r="J128" s="14"/>
@@ -7690,13 +7690,13 @@
         <v>312</v>
       </c>
       <c r="B129" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="C129" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="D129" s="13" t="s">
         <v>603</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>604</v>
       </c>
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
@@ -7709,22 +7709,22 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="B130" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="B130" s="13" t="s">
-        <v>606</v>
-      </c>
       <c r="C130" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="D130" s="13" t="s">
         <v>574</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>575</v>
       </c>
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
       <c r="H130" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I130" s="14"/>
       <c r="J130" s="14"/>
@@ -7736,19 +7736,19 @@
         <v>39</v>
       </c>
       <c r="B131" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C131" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="D131" s="15" t="s">
         <v>609</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>610</v>
       </c>
       <c r="E131" s="15"/>
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
       <c r="H131" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
@@ -7760,23 +7760,23 @@
         <v>49</v>
       </c>
       <c r="B132" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="C132" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="D132" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="E132" s="14" t="s">
         <v>614</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="F132" s="13" t="s">
         <v>615</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>616</v>
       </c>
       <c r="G132" s="14"/>
       <c r="H132" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I132" s="14"/>
       <c r="J132" s="14"/>
@@ -7788,23 +7788,23 @@
         <v>49</v>
       </c>
       <c r="B133" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="C133" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="D133" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="D133" s="13" t="s">
+      <c r="E133" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="E133" s="14" t="s">
+      <c r="F133" s="14" t="s">
         <v>620</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>621</v>
       </c>
       <c r="G133" s="14"/>
       <c r="H133" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I133" s="14"/>
       <c r="J133" s="14"/>
@@ -7816,19 +7816,19 @@
         <v>461</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C134" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="D134" s="13" t="s">
         <v>582</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>583</v>
       </c>
       <c r="E134" s="14"/>
       <c r="F134" s="14"/>
       <c r="G134" s="14"/>
       <c r="H134" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I134" s="14"/>
       <c r="J134" s="14"/>
@@ -7840,19 +7840,19 @@
         <v>39</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C135" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="D135" s="13" t="s">
         <v>467</v>
-      </c>
-      <c r="D135" s="13" t="s">
-        <v>468</v>
       </c>
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
       <c r="H135" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I135" s="14"/>
       <c r="J135" s="14"/>
@@ -7880,10 +7880,10 @@
         <v>178</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D137" s="19"/>
       <c r="E137" s="18"/>
@@ -7900,13 +7900,13 @@
         <v>312</v>
       </c>
       <c r="B138" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="C138" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="C138" s="14" t="s">
+      <c r="D138" s="13" t="s">
         <v>628</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>629</v>
       </c>
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
@@ -7922,19 +7922,19 @@
         <v>160</v>
       </c>
       <c r="B139" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="C139" s="14" t="s">
         <v>630</v>
       </c>
-      <c r="C139" s="14" t="s">
+      <c r="D139" s="13" t="s">
         <v>631</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>632</v>
       </c>
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
       <c r="G139" s="14"/>
       <c r="H139" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I139" s="14"/>
       <c r="J139" s="14"/>
@@ -7946,13 +7946,13 @@
         <v>60</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C140" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="D140" s="13" t="s">
         <v>596</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>597</v>
       </c>
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
@@ -7968,19 +7968,19 @@
         <v>39</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C141" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="D141" s="13" t="s">
         <v>599</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>600</v>
       </c>
       <c r="E141" s="14"/>
       <c r="F141" s="14"/>
       <c r="G141" s="14"/>
       <c r="H141" s="13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I141" s="14"/>
       <c r="J141" s="14"/>
@@ -7989,16 +7989,16 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="B142" s="14" t="s">
         <v>637</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="C142" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="D142" s="13" t="s">
         <v>639</v>
-      </c>
-      <c r="D142" s="13" t="s">
-        <v>640</v>
       </c>
       <c r="E142" s="14"/>
       <c r="F142" s="14"/>
@@ -8011,16 +8011,16 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B143" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="C143" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="D143" s="13" t="s">
         <v>642</v>
-      </c>
-      <c r="D143" s="13" t="s">
-        <v>643</v>
       </c>
       <c r="E143" s="14"/>
       <c r="F143" s="14"/>
@@ -8036,23 +8036,23 @@
         <v>49</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C144" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="D144" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="D144" s="13" t="s">
+      <c r="E144" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="E144" s="14" t="s">
+      <c r="F144" s="14" t="s">
         <v>563</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>564</v>
       </c>
       <c r="G144" s="14"/>
       <c r="H144" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I144" s="14"/>
       <c r="J144" s="14"/>
@@ -8064,13 +8064,13 @@
         <v>312</v>
       </c>
       <c r="B145" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="C145" s="14" t="s">
         <v>646</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="D145" s="13" t="s">
         <v>647</v>
-      </c>
-      <c r="D145" s="13" t="s">
-        <v>648</v>
       </c>
       <c r="E145" s="14"/>
       <c r="F145" s="14"/>
@@ -8086,19 +8086,19 @@
         <v>461</v>
       </c>
       <c r="B146" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="C146" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="D146" s="13" t="s">
         <v>650</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>651</v>
       </c>
       <c r="E146" s="14"/>
       <c r="F146" s="14"/>
       <c r="G146" s="14"/>
       <c r="H146" s="13" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I146" s="14"/>
       <c r="J146" s="14"/>
@@ -8110,19 +8110,19 @@
         <v>39</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C147" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="D147" s="13" t="s">
         <v>467</v>
-      </c>
-      <c r="D147" s="13" t="s">
-        <v>468</v>
       </c>
       <c r="E147" s="14"/>
       <c r="F147" s="14"/>
       <c r="G147" s="14"/>
       <c r="H147" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I147" s="14"/>
       <c r="J147" s="14"/>
@@ -8131,16 +8131,16 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="B148" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="C148" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="C148" s="14" t="s">
+      <c r="D148" s="13" t="s">
         <v>657</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>658</v>
       </c>
       <c r="E148" s="14"/>
       <c r="F148" s="14"/>
@@ -8153,22 +8153,22 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B149" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="C149" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="C149" s="13" t="s">
+      <c r="D149" s="13" t="s">
         <v>660</v>
-      </c>
-      <c r="D149" s="13" t="s">
-        <v>661</v>
       </c>
       <c r="E149" s="14"/>
       <c r="F149" s="14"/>
       <c r="G149" s="14"/>
       <c r="H149" s="13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I149" s="14"/>
       <c r="J149" s="14"/>
@@ -8180,19 +8180,19 @@
         <v>39</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C150" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="D150" s="15" t="s">
         <v>609</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>610</v>
       </c>
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
       <c r="G150" s="15"/>
       <c r="H150" s="13" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
@@ -8201,16 +8201,16 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="B151" s="13" t="s">
+      <c r="C151" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="D151" s="15" t="s">
         <v>667</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>668</v>
       </c>
       <c r="E151" s="14"/>
       <c r="F151" s="14"/>
@@ -8226,19 +8226,19 @@
         <v>39</v>
       </c>
       <c r="B152" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="C152" s="13" t="s">
         <v>669</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="D152" s="15" t="s">
         <v>670</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>671</v>
       </c>
       <c r="E152" s="14"/>
       <c r="F152" s="14"/>
       <c r="G152" s="14"/>
       <c r="H152" s="13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="15"/>
@@ -8250,19 +8250,19 @@
         <v>312</v>
       </c>
       <c r="B153" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="C153" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="C153" s="13" t="s">
+      <c r="D153" s="15" t="s">
         <v>674</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>675</v>
       </c>
       <c r="E153" s="14"/>
       <c r="F153" s="14"/>
       <c r="G153" s="14"/>
       <c r="H153" s="13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I153" s="15"/>
       <c r="J153" s="15"/>
@@ -8271,22 +8271,22 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B154" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="C154" s="13" t="s">
         <v>676</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="D154" s="13" t="s">
         <v>677</v>
-      </c>
-      <c r="D154" s="13" t="s">
-        <v>678</v>
       </c>
       <c r="E154" s="14"/>
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
       <c r="H154" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I154" s="14"/>
       <c r="J154" s="14"/>
@@ -8298,19 +8298,19 @@
         <v>39</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C155" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="D155" s="15" t="s">
         <v>609</v>
-      </c>
-      <c r="D155" s="15" t="s">
-        <v>610</v>
       </c>
       <c r="E155" s="15"/>
       <c r="F155" s="15"/>
       <c r="G155" s="15"/>
       <c r="H155" s="13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I155" s="15"/>
       <c r="J155" s="15"/>
@@ -8319,22 +8319,22 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B156" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="C156" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="D156" s="15" t="s">
         <v>683</v>
-      </c>
-      <c r="D156" s="15" t="s">
-        <v>684</v>
       </c>
       <c r="E156" s="14"/>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
       <c r="H156" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I156" s="15"/>
       <c r="J156" s="15"/>
@@ -8346,19 +8346,19 @@
         <v>39</v>
       </c>
       <c r="B157" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="D157" s="15" t="s">
         <v>685</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>670</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>686</v>
       </c>
       <c r="E157" s="14"/>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
       <c r="H157" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I157" s="15"/>
       <c r="J157" s="15"/>
@@ -8370,23 +8370,23 @@
         <v>49</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C158" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="D158" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="D158" s="13" t="s">
+      <c r="E158" s="14" t="s">
         <v>614</v>
       </c>
-      <c r="E158" s="14" t="s">
+      <c r="F158" s="13" t="s">
         <v>615</v>
-      </c>
-      <c r="F158" s="13" t="s">
-        <v>616</v>
       </c>
       <c r="G158" s="14"/>
       <c r="H158" s="13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I158" s="14"/>
       <c r="J158" s="14"/>
@@ -8398,23 +8398,23 @@
         <v>49</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C159" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="D159" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="D159" s="13" t="s">
+      <c r="E159" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="E159" s="14" t="s">
+      <c r="F159" s="14" t="s">
         <v>620</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>621</v>
       </c>
       <c r="G159" s="14"/>
       <c r="H159" s="13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I159" s="14"/>
       <c r="J159" s="14"/>
@@ -8423,22 +8423,22 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="B160" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="B160" s="13" t="s">
+      <c r="C160" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="C160" s="13" t="s">
+      <c r="D160" s="14" t="s">
         <v>692</v>
-      </c>
-      <c r="D160" s="14" t="s">
-        <v>693</v>
       </c>
       <c r="E160" s="15"/>
       <c r="F160" s="15"/>
       <c r="G160" s="15"/>
       <c r="H160" s="14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I160" s="15"/>
       <c r="J160" s="15"/>
@@ -8450,19 +8450,19 @@
         <v>39</v>
       </c>
       <c r="B161" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="C161" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="D161" s="15" t="s">
         <v>696</v>
-      </c>
-      <c r="D161" s="15" t="s">
-        <v>697</v>
       </c>
       <c r="E161" s="15"/>
       <c r="F161" s="15"/>
       <c r="G161" s="15"/>
       <c r="H161" s="14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I161" s="15"/>
       <c r="J161" s="15"/>
@@ -8490,10 +8490,10 @@
         <v>178</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D163" s="19"/>
       <c r="E163" s="18"/>
@@ -8510,13 +8510,13 @@
         <v>312</v>
       </c>
       <c r="B164" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="C164" s="17" t="s">
         <v>700</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="D164" s="17" t="s">
         <v>701</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>702</v>
       </c>
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
@@ -8532,19 +8532,19 @@
         <v>160</v>
       </c>
       <c r="B165" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="C165" s="17" t="s">
         <v>703</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="D165" s="17" t="s">
         <v>704</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>705</v>
       </c>
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
       <c r="G165" s="15"/>
       <c r="H165" s="14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I165" s="15"/>
       <c r="J165" s="15"/>
@@ -8553,16 +8553,16 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="B166" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="C166" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="D166" s="17" t="s">
         <v>708</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>596</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>709</v>
       </c>
       <c r="E166" s="15"/>
       <c r="F166" s="15"/>
@@ -8575,16 +8575,16 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B167" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="C167" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="D167" s="17" t="s">
         <v>711</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>712</v>
       </c>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
@@ -8600,13 +8600,13 @@
         <v>312</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C168" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="D168" s="17" t="s">
         <v>647</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>648</v>
       </c>
       <c r="E168" s="15"/>
       <c r="F168" s="15"/>
@@ -8622,19 +8622,19 @@
         <v>461</v>
       </c>
       <c r="B169" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="C169" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="D169" s="17" t="s">
         <v>715</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>716</v>
       </c>
       <c r="E169" s="15"/>
       <c r="F169" s="15"/>
       <c r="G169" s="15"/>
       <c r="H169" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I169" s="15"/>
       <c r="J169" s="15"/>
@@ -8646,19 +8646,19 @@
         <v>39</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C170" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="D170" s="13" t="s">
         <v>467</v>
-      </c>
-      <c r="D170" s="13" t="s">
-        <v>468</v>
       </c>
       <c r="E170" s="15"/>
       <c r="F170" s="15"/>
       <c r="G170" s="15"/>
       <c r="H170" s="13" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I170" s="15"/>
       <c r="J170" s="15"/>
@@ -8667,16 +8667,16 @@
     </row>
     <row r="171" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B171" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="D171" s="17" t="s">
         <v>720</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>721</v>
       </c>
       <c r="E171" s="15"/>
       <c r="F171" s="15"/>
@@ -8689,22 +8689,22 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C172" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="D172" s="13" t="s">
         <v>660</v>
-      </c>
-      <c r="D172" s="13" t="s">
-        <v>661</v>
       </c>
       <c r="E172" s="14"/>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
       <c r="H172" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I172" s="14"/>
       <c r="J172" s="14"/>
@@ -8716,19 +8716,19 @@
         <v>39</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C173" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="D173" s="15" t="s">
         <v>609</v>
-      </c>
-      <c r="D173" s="15" t="s">
-        <v>610</v>
       </c>
       <c r="E173" s="15"/>
       <c r="F173" s="15"/>
       <c r="G173" s="15"/>
       <c r="H173" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
@@ -8737,16 +8737,16 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C174" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="D174" s="15" t="s">
         <v>667</v>
-      </c>
-      <c r="D174" s="15" t="s">
-        <v>668</v>
       </c>
       <c r="E174" s="14"/>
       <c r="F174" s="14"/>
@@ -8762,19 +8762,19 @@
         <v>39</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C175" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="D175" s="15" t="s">
         <v>670</v>
-      </c>
-      <c r="D175" s="15" t="s">
-        <v>671</v>
       </c>
       <c r="E175" s="14"/>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
       <c r="H175" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I175" s="15"/>
       <c r="J175" s="15"/>
@@ -8786,19 +8786,19 @@
         <v>312</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C176" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="D176" s="15" t="s">
         <v>674</v>
-      </c>
-      <c r="D176" s="15" t="s">
-        <v>675</v>
       </c>
       <c r="E176" s="14"/>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
       <c r="H176" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I176" s="15"/>
       <c r="J176" s="15"/>
@@ -8807,22 +8807,22 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C177" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="D177" s="13" t="s">
         <v>677</v>
-      </c>
-      <c r="D177" s="13" t="s">
-        <v>678</v>
       </c>
       <c r="E177" s="14"/>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
       <c r="H177" s="13" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I177" s="14"/>
       <c r="J177" s="14"/>
@@ -8834,19 +8834,19 @@
         <v>39</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C178" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="D178" s="15" t="s">
         <v>609</v>
-      </c>
-      <c r="D178" s="15" t="s">
-        <v>610</v>
       </c>
       <c r="E178" s="15"/>
       <c r="F178" s="15"/>
       <c r="G178" s="15"/>
       <c r="H178" s="13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I178" s="15"/>
       <c r="J178" s="15"/>
@@ -8855,22 +8855,22 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C179" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="D179" s="15" t="s">
         <v>683</v>
-      </c>
-      <c r="D179" s="15" t="s">
-        <v>684</v>
       </c>
       <c r="E179" s="14"/>
       <c r="F179" s="14"/>
       <c r="G179" s="14"/>
       <c r="H179" s="13" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I179" s="15"/>
       <c r="J179" s="15"/>
@@ -8882,19 +8882,19 @@
         <v>39</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E180" s="14"/>
       <c r="F180" s="14"/>
       <c r="G180" s="14"/>
       <c r="H180" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I180" s="15"/>
       <c r="J180" s="15"/>
@@ -8906,23 +8906,23 @@
         <v>49</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C181" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="D181" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="D181" s="13" t="s">
+      <c r="E181" s="14" t="s">
         <v>614</v>
       </c>
-      <c r="E181" s="14" t="s">
+      <c r="F181" s="13" t="s">
         <v>615</v>
-      </c>
-      <c r="F181" s="13" t="s">
-        <v>616</v>
       </c>
       <c r="G181" s="14"/>
       <c r="H181" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I181" s="14"/>
       <c r="J181" s="14"/>
@@ -8934,23 +8934,23 @@
         <v>49</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C182" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="D182" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="D182" s="13" t="s">
+      <c r="E182" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="E182" s="14" t="s">
+      <c r="F182" s="14" t="s">
         <v>620</v>
-      </c>
-      <c r="F182" s="14" t="s">
-        <v>621</v>
       </c>
       <c r="G182" s="14"/>
       <c r="H182" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I182" s="14"/>
       <c r="J182" s="14"/>
@@ -8959,22 +8959,22 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B183" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="C183" s="13" t="s">
         <v>739</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="D183" s="14" t="s">
         <v>740</v>
-      </c>
-      <c r="D183" s="14" t="s">
-        <v>741</v>
       </c>
       <c r="E183" s="15"/>
       <c r="F183" s="15"/>
       <c r="G183" s="15"/>
       <c r="H183" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I183" s="15"/>
       <c r="J183" s="15"/>
@@ -8986,19 +8986,19 @@
         <v>39</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C184" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="D184" s="15" t="s">
         <v>696</v>
-      </c>
-      <c r="D184" s="15" t="s">
-        <v>697</v>
       </c>
       <c r="E184" s="15"/>
       <c r="F184" s="15"/>
       <c r="G184" s="15"/>
       <c r="H184" s="14" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I184" s="15"/>
       <c r="J184" s="15"/>
@@ -9026,10 +9026,10 @@
         <v>178</v>
       </c>
       <c r="B186" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="C186" s="18" t="s">
         <v>745</v>
-      </c>
-      <c r="C186" s="18" t="s">
-        <v>746</v>
       </c>
       <c r="D186" s="18"/>
       <c r="E186" s="18"/>
@@ -9046,19 +9046,19 @@
         <v>160</v>
       </c>
       <c r="B187" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="C187" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="C187" s="14" t="s">
+      <c r="D187" s="15" t="s">
         <v>748</v>
-      </c>
-      <c r="D187" s="15" t="s">
-        <v>749</v>
       </c>
       <c r="E187" s="15"/>
       <c r="F187" s="15"/>
       <c r="G187" s="15"/>
       <c r="H187" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I187" s="15"/>
       <c r="J187" s="15"/>
@@ -9067,16 +9067,16 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C188" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="D188" s="13" t="s">
         <v>545</v>
-      </c>
-      <c r="D188" s="13" t="s">
-        <v>546</v>
       </c>
       <c r="E188" s="14"/>
       <c r="F188" s="14"/>
@@ -9092,19 +9092,19 @@
         <v>39</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C189" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="D189" s="15" t="s">
         <v>548</v>
-      </c>
-      <c r="D189" s="15" t="s">
-        <v>549</v>
       </c>
       <c r="E189" s="15"/>
       <c r="F189" s="15"/>
       <c r="G189" s="15"/>
       <c r="H189" s="14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I189" s="15"/>
       <c r="J189" s="15"/>
@@ -9116,19 +9116,19 @@
         <v>67</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C190" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="D190" s="15" t="s">
         <v>551</v>
-      </c>
-      <c r="D190" s="15" t="s">
-        <v>552</v>
       </c>
       <c r="E190" s="15"/>
       <c r="F190" s="15"/>
       <c r="G190" s="15"/>
       <c r="H190" s="14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I190" s="15"/>
       <c r="J190" s="15"/>
@@ -9140,19 +9140,19 @@
         <v>39</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C191" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="D191" s="15" t="s">
         <v>554</v>
-      </c>
-      <c r="D191" s="15" t="s">
-        <v>555</v>
       </c>
       <c r="E191" s="15"/>
       <c r="F191" s="15"/>
       <c r="G191" s="15"/>
       <c r="H191" s="14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I191" s="15"/>
       <c r="J191" s="15"/>
@@ -9161,16 +9161,16 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C192" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="D192" s="13" t="s">
         <v>558</v>
-      </c>
-      <c r="D192" s="13" t="s">
-        <v>559</v>
       </c>
       <c r="E192" s="14"/>
       <c r="F192" s="14"/>
@@ -9186,23 +9186,23 @@
         <v>49</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C193" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="D193" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="D193" s="13" t="s">
+      <c r="E193" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="E193" s="14" t="s">
+      <c r="F193" s="14" t="s">
         <v>563</v>
-      </c>
-      <c r="F193" s="14" t="s">
-        <v>564</v>
       </c>
       <c r="G193" s="14"/>
       <c r="H193" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I193" s="14"/>
       <c r="J193" s="14"/>
@@ -9211,16 +9211,16 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C194" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D194" s="13" t="s">
         <v>532</v>
-      </c>
-      <c r="D194" s="13" t="s">
-        <v>533</v>
       </c>
       <c r="E194" s="14"/>
       <c r="F194" s="14"/>
@@ -9236,19 +9236,19 @@
         <v>39</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C195" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="D195" s="13" t="s">
         <v>535</v>
-      </c>
-      <c r="D195" s="13" t="s">
-        <v>536</v>
       </c>
       <c r="E195" s="14"/>
       <c r="F195" s="14"/>
       <c r="G195" s="14"/>
       <c r="H195" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I195" s="14"/>
       <c r="J195" s="14"/>
@@ -9273,7 +9273,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B197" s="9" t="s">
         <v>52</v>
@@ -9324,7 +9324,7 @@
         <v>151</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
@@ -9335,7 +9335,7 @@
       <c r="I199" s="8"/>
       <c r="J199" s="9"/>
       <c r="K199" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L199" s="8"/>
     </row>
@@ -9369,10 +9369,10 @@
         <v>38</v>
       </c>
       <c r="C201" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="D201" s="9" t="s">
         <v>765</v>
-      </c>
-      <c r="D201" s="9" t="s">
-        <v>766</v>
       </c>
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
@@ -9390,10 +9390,10 @@
         <v>178</v>
       </c>
       <c r="B202" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="C202" s="19" t="s">
         <v>767</v>
-      </c>
-      <c r="C202" s="19" t="s">
-        <v>768</v>
       </c>
       <c r="D202" s="19"/>
       <c r="E202" s="18"/>
@@ -9407,16 +9407,16 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="16" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B203" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="C203" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="C203" s="15" t="s">
+      <c r="D203" s="17" t="s">
         <v>770</v>
-      </c>
-      <c r="D203" s="17" t="s">
-        <v>771</v>
       </c>
       <c r="E203" s="15"/>
       <c r="F203" s="15"/>
@@ -9432,13 +9432,13 @@
         <v>53</v>
       </c>
       <c r="B204" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="C204" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="C204" s="15" t="s">
+      <c r="D204" s="17" t="s">
         <v>773</v>
-      </c>
-      <c r="D204" s="17" t="s">
-        <v>774</v>
       </c>
       <c r="E204" s="15"/>
       <c r="F204" s="15"/>
@@ -9454,13 +9454,13 @@
         <v>67</v>
       </c>
       <c r="B205" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="C205" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="C205" s="15" t="s">
+      <c r="D205" s="17" t="s">
         <v>776</v>
-      </c>
-      <c r="D205" s="17" t="s">
-        <v>777</v>
       </c>
       <c r="E205" s="15"/>
       <c r="F205" s="15"/>
@@ -9473,16 +9473,16 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="B206" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="B206" s="14" t="s">
+      <c r="C206" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="C206" s="15" t="s">
+      <c r="D206" s="17" t="s">
         <v>780</v>
-      </c>
-      <c r="D206" s="17" t="s">
-        <v>781</v>
       </c>
       <c r="E206" s="15"/>
       <c r="F206" s="15"/>
@@ -9494,19 +9494,19 @@
         <v>39</v>
       </c>
       <c r="B207" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="C207" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="C207" s="14" t="s">
+      <c r="D207" s="17" t="s">
         <v>783</v>
-      </c>
-      <c r="D207" s="17" t="s">
-        <v>784</v>
       </c>
       <c r="E207" s="15"/>
       <c r="F207" s="15"/>
       <c r="G207" s="15"/>
       <c r="H207" s="13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -9968,7 +9968,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>285</v>
@@ -9982,7 +9982,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>282</v>
@@ -9996,16 +9996,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>786</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>787</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="D32" s="29" t="s">
         <v>788</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -10052,7 +10052,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>282</v>
@@ -10066,35 +10066,35 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="B37" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>791</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="D37" s="29" t="s">
         <v>792</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="30" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B38" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>794</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="D38" s="29" t="s">
         <v>795</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="30" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>245</v>
@@ -10108,105 +10108,105 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="B40" s="30" t="s">
         <v>797</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="C40" s="29" t="s">
         <v>798</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="D40" s="29" t="s">
         <v>799</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B41" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="C41" s="29" t="s">
         <v>801</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="D41" s="29" t="s">
         <v>802</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B42" s="30" t="s">
+        <v>803</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>804</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="D42" s="29" t="s">
         <v>805</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B43" s="30" t="s">
+        <v>806</v>
+      </c>
+      <c r="C43" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="D43" s="29" t="s">
         <v>808</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B44" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="C44" s="29" t="s">
         <v>810</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="D44" s="29" t="s">
         <v>811</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B45" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="C45" s="29" t="s">
         <v>813</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="D45" s="29" t="s">
         <v>814</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B46" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>816</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="D46" s="29" t="s">
         <v>817</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>245</v>
@@ -10220,49 +10220,49 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>233</v>
       </c>
       <c r="C48" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="D48" s="29" t="s">
         <v>819</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="B49" s="30" t="s">
         <v>821</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="C49" s="29" t="s">
         <v>822</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="D49" s="29" t="s">
         <v>823</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C50" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="D50" s="29" t="s">
         <v>825</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B51" s="30" t="s">
         <v>245</v>
@@ -10276,7 +10276,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B52" s="30" t="s">
         <v>282</v>
@@ -10290,35 +10290,35 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="30" t="s">
+        <v>826</v>
+      </c>
+      <c r="B53" s="30" t="s">
         <v>827</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="C53" s="29" t="s">
         <v>828</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="D53" s="29" t="s">
         <v>829</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B54" s="30" t="s">
+        <v>830</v>
+      </c>
+      <c r="C54" s="29" t="s">
         <v>831</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="D54" s="29" t="s">
         <v>832</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>245</v>
@@ -10335,13 +10335,13 @@
         <v>451</v>
       </c>
       <c r="B56" s="30" t="s">
+        <v>833</v>
+      </c>
+      <c r="C56" s="29" t="s">
         <v>834</v>
       </c>
-      <c r="C56" s="29" t="s">
-        <v>835</v>
-      </c>
       <c r="D56" s="29" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -10349,13 +10349,13 @@
         <v>451</v>
       </c>
       <c r="B57" s="30" t="s">
+        <v>835</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>836</v>
       </c>
-      <c r="C57" s="29" t="s">
-        <v>837</v>
-      </c>
       <c r="D57" s="29" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -10363,13 +10363,13 @@
         <v>451</v>
       </c>
       <c r="B58" s="30" t="s">
+        <v>837</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>838</v>
       </c>
-      <c r="C58" s="29" t="s">
-        <v>839</v>
-      </c>
       <c r="D58" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -10377,13 +10377,13 @@
         <v>451</v>
       </c>
       <c r="B59" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>840</v>
       </c>
-      <c r="C59" s="29" t="s">
-        <v>841</v>
-      </c>
       <c r="D59" s="29" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -10391,13 +10391,13 @@
         <v>451</v>
       </c>
       <c r="B60" s="30" t="s">
+        <v>841</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>842</v>
       </c>
-      <c r="C60" s="29" t="s">
-        <v>843</v>
-      </c>
       <c r="D60" s="29" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -10405,13 +10405,13 @@
         <v>451</v>
       </c>
       <c r="B61" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C61" s="29" t="s">
         <v>844</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="D61" s="29" t="s">
         <v>845</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -10419,13 +10419,13 @@
         <v>451</v>
       </c>
       <c r="B62" s="30" t="s">
+        <v>846</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>847</v>
       </c>
-      <c r="C62" s="29" t="s">
-        <v>848</v>
-      </c>
       <c r="D62" s="29" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -10444,161 +10444,161 @@
     </row>
     <row r="64" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="30" t="s">
+        <v>848</v>
+      </c>
+      <c r="B64" s="32" t="s">
         <v>849</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="C64" s="32" t="s">
         <v>850</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="D64" s="33" t="s">
         <v>851</v>
-      </c>
-      <c r="D64" s="33" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B65" s="30" t="s">
+        <v>852</v>
+      </c>
+      <c r="C65" s="29" t="s">
         <v>853</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="D65" s="29" t="s">
         <v>854</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A66" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B66" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C66" s="32" t="s">
         <v>856</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="D66" s="33" t="s">
         <v>857</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B67" s="30" t="s">
+        <v>858</v>
+      </c>
+      <c r="C67" s="29" t="s">
         <v>859</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="D67" s="29" t="s">
         <v>860</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B68" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="C68" s="29" t="s">
         <v>862</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="D68" s="29" t="s">
         <v>863</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B69" s="30" t="s">
+        <v>864</v>
+      </c>
+      <c r="C69" s="29" t="s">
         <v>865</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="D69" s="29" t="s">
         <v>866</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A70" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C70" s="32" t="s">
+        <v>867</v>
+      </c>
+      <c r="D70" s="33" t="s">
         <v>868</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B71" s="30" t="s">
+        <v>869</v>
+      </c>
+      <c r="C71" s="29" t="s">
         <v>870</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="D71" s="29" t="s">
         <v>871</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B72" s="30" t="s">
+        <v>872</v>
+      </c>
+      <c r="C72" s="29" t="s">
         <v>873</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="D72" s="29" t="s">
         <v>874</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>280</v>
       </c>
       <c r="C73" s="29" t="s">
+        <v>875</v>
+      </c>
+      <c r="D73" s="29" t="s">
         <v>876</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B74" s="30" t="s">
+        <v>877</v>
+      </c>
+      <c r="C74" s="29" t="s">
         <v>878</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="D74" s="29" t="s">
         <v>879</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B75" s="30" t="s">
         <v>245</v>
@@ -10612,7 +10612,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B76" s="30" t="s">
         <v>233</v>
@@ -10626,133 +10626,133 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="30" t="s">
+        <v>880</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="C77" s="29" t="s">
         <v>881</v>
       </c>
-      <c r="B77" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="C77" s="29" t="s">
+      <c r="D77" s="29" t="s">
         <v>882</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="30" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C78" s="29" t="s">
+        <v>883</v>
+      </c>
+      <c r="D78" s="29" t="s">
         <v>884</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="30" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B79" s="30" t="s">
+        <v>885</v>
+      </c>
+      <c r="C79" s="29" t="s">
         <v>886</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="D79" s="29" t="s">
         <v>887</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="30" t="s">
+        <v>888</v>
+      </c>
+      <c r="B80" s="30" t="s">
         <v>889</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="C80" s="29" t="s">
         <v>890</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="D80" s="29" t="s">
         <v>891</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="30" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B81" s="30" t="s">
+        <v>892</v>
+      </c>
+      <c r="C81" s="29" t="s">
         <v>893</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="D81" s="29" t="s">
         <v>894</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="30" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B82" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="C82" s="29" t="s">
         <v>896</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="D82" s="29" t="s">
         <v>897</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="30" t="s">
+        <v>898</v>
+      </c>
+      <c r="B83" s="30" t="s">
         <v>899</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="C83" s="29" t="s">
         <v>900</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="D83" s="29" t="s">
         <v>901</v>
-      </c>
-      <c r="D83" s="29" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="30" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B84" s="30" t="s">
+        <v>902</v>
+      </c>
+      <c r="C84" s="29" t="s">
         <v>903</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="D84" s="29" t="s">
         <v>904</v>
-      </c>
-      <c r="D84" s="29" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="30" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B85" s="30" t="s">
+        <v>905</v>
+      </c>
+      <c r="C85" s="29" t="s">
         <v>906</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="D85" s="29" t="s">
         <v>907</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="30" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>245</v>
@@ -10766,63 +10766,63 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B87" s="30" t="s">
+        <v>908</v>
+      </c>
+      <c r="C87" s="29" t="s">
         <v>909</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="D87" s="29" t="s">
         <v>910</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C89" s="29" t="s">
+        <v>912</v>
+      </c>
+      <c r="D89" s="29" t="s">
         <v>913</v>
-      </c>
-      <c r="D89" s="29" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B90" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="C90" s="29" t="s">
         <v>816</v>
       </c>
-      <c r="C90" s="29" t="s">
-        <v>817</v>
-      </c>
       <c r="D90" s="29" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>245</v>
@@ -10836,7 +10836,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>233</v>
@@ -10850,49 +10850,49 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B93" s="32" t="s">
+        <v>809</v>
+      </c>
+      <c r="C93" s="32" t="s">
         <v>810</v>
       </c>
-      <c r="C93" s="32" t="s">
+      <c r="D93" s="29" t="s">
         <v>811</v>
-      </c>
-      <c r="D93" s="29" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B94" s="32" t="s">
+        <v>812</v>
+      </c>
+      <c r="C94" s="32" t="s">
         <v>813</v>
       </c>
-      <c r="C94" s="32" t="s">
-        <v>814</v>
-      </c>
       <c r="D94" s="29" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B95" s="32" t="s">
+        <v>815</v>
+      </c>
+      <c r="C95" s="32" t="s">
         <v>816</v>
       </c>
-      <c r="C95" s="32" t="s">
-        <v>817</v>
-      </c>
       <c r="D95" s="29" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B96" s="32" t="s">
         <v>245</v>
@@ -10906,7 +10906,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B97" s="32" t="s">
         <v>233</v>
@@ -10951,10 +10951,10 @@
         <v>59</v>
       </c>
       <c r="B100" s="32" t="s">
+        <v>916</v>
+      </c>
+      <c r="C100" s="35" t="s">
         <v>917</v>
-      </c>
-      <c r="C100" s="35" t="s">
-        <v>918</v>
       </c>
       <c r="D100" s="30" t="s">
         <v>252</v>
@@ -10979,13 +10979,13 @@
         <v>59</v>
       </c>
       <c r="B102" s="32" t="s">
+        <v>918</v>
+      </c>
+      <c r="C102" s="35" t="s">
         <v>919</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="D102" s="30" t="s">
         <v>920</v>
-      </c>
-      <c r="D102" s="30" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -10993,13 +10993,13 @@
         <v>59</v>
       </c>
       <c r="B103" s="32" t="s">
+        <v>921</v>
+      </c>
+      <c r="C103" s="35" t="s">
         <v>922</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="D103" s="30" t="s">
         <v>923</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -11060,105 +11060,105 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="32" t="s">
+        <v>924</v>
+      </c>
+      <c r="B108" s="32" t="s">
         <v>925</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="C108" s="35" t="s">
         <v>926</v>
       </c>
-      <c r="C108" s="35" t="s">
+      <c r="D108" s="30" t="s">
         <v>927</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="32" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B109" s="32" t="s">
+        <v>928</v>
+      </c>
+      <c r="C109" s="35" t="s">
         <v>929</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="D109" s="30" t="s">
         <v>930</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="32" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B110" s="32" t="s">
+        <v>931</v>
+      </c>
+      <c r="C110" s="35" t="s">
         <v>932</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="D110" s="30" t="s">
         <v>933</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="32" t="s">
+        <v>934</v>
+      </c>
+      <c r="B111" s="32" t="s">
         <v>935</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="C111" s="32" t="s">
         <v>936</v>
       </c>
-      <c r="C111" s="32" t="s">
+      <c r="D111" s="29" t="s">
         <v>937</v>
-      </c>
-      <c r="D111" s="29" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="32" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B112" s="32" t="s">
+        <v>938</v>
+      </c>
+      <c r="C112" s="32" t="s">
         <v>939</v>
       </c>
-      <c r="C112" s="32" t="s">
+      <c r="D112" s="29" t="s">
         <v>940</v>
-      </c>
-      <c r="D112" s="29" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="32" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B113" s="32" t="s">
+        <v>941</v>
+      </c>
+      <c r="C113" s="32" t="s">
         <v>942</v>
       </c>
-      <c r="C113" s="32" t="s">
+      <c r="D113" s="29" t="s">
         <v>943</v>
-      </c>
-      <c r="D113" s="29" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="32" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B114" s="32" t="s">
+        <v>944</v>
+      </c>
+      <c r="C114" s="32" t="s">
         <v>945</v>
       </c>
-      <c r="C114" s="32" t="s">
+      <c r="D114" s="29" t="s">
         <v>946</v>
-      </c>
-      <c r="D114" s="29" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="32" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B115" s="32" t="s">
         <v>245</v>
@@ -11167,68 +11167,68 @@
         <v>28</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="32" t="s">
+        <v>948</v>
+      </c>
+      <c r="B116" s="32" t="s">
         <v>949</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="C116" s="32" t="s">
         <v>950</v>
       </c>
-      <c r="C116" s="32" t="s">
+      <c r="D116" s="29" t="s">
         <v>951</v>
-      </c>
-      <c r="D116" s="29" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="32" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B117" s="32" t="s">
+        <v>952</v>
+      </c>
+      <c r="C117" s="32" t="s">
         <v>953</v>
       </c>
-      <c r="C117" s="32" t="s">
+      <c r="D117" s="29" t="s">
         <v>954</v>
-      </c>
-      <c r="D117" s="29" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="32" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B118" s="32" t="s">
+        <v>955</v>
+      </c>
+      <c r="C118" s="32" t="s">
         <v>956</v>
       </c>
-      <c r="C118" s="32" t="s">
+      <c r="D118" s="29" t="s">
         <v>957</v>
-      </c>
-      <c r="D118" s="29" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="32" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B119" s="32" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="32" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B120" s="32" t="s">
         <v>233</v>
@@ -11242,7 +11242,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="32" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B121" s="32" t="s">
         <v>245</v>
@@ -11256,77 +11256,77 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="32" t="s">
+        <v>959</v>
+      </c>
+      <c r="B122" s="32" t="s">
         <v>960</v>
       </c>
-      <c r="B122" s="32" t="s">
+      <c r="C122" s="32" t="s">
         <v>961</v>
       </c>
-      <c r="C122" s="32" t="s">
+      <c r="D122" s="29" t="s">
         <v>962</v>
-      </c>
-      <c r="D122" s="29" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="32" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B123" s="32" t="s">
+        <v>963</v>
+      </c>
+      <c r="C123" s="32" t="s">
         <v>964</v>
       </c>
-      <c r="C123" s="32" t="s">
+      <c r="D123" s="29" t="s">
         <v>965</v>
-      </c>
-      <c r="D123" s="29" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="32" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B124" s="32" t="s">
+        <v>966</v>
+      </c>
+      <c r="C124" s="32" t="s">
         <v>967</v>
       </c>
-      <c r="C124" s="32" t="s">
+      <c r="D124" s="29" t="s">
         <v>968</v>
-      </c>
-      <c r="D124" s="29" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="32" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B125" s="32" t="s">
+        <v>969</v>
+      </c>
+      <c r="C125" s="32" t="s">
         <v>970</v>
       </c>
-      <c r="C125" s="32" t="s">
+      <c r="D125" s="32" t="s">
         <v>971</v>
-      </c>
-      <c r="D125" s="32" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="32" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B126" s="32" t="s">
+        <v>972</v>
+      </c>
+      <c r="C126" s="32" t="s">
         <v>973</v>
       </c>
-      <c r="C126" s="32" t="s">
+      <c r="D126" s="29" t="s">
         <v>974</v>
-      </c>
-      <c r="D126" s="29" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="32" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B127" s="32" t="s">
         <v>233</v>
@@ -11340,7 +11340,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="32" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B128" s="32" t="s">
         <v>245</v>
@@ -11354,21 +11354,21 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="29" t="s">
+        <v>975</v>
+      </c>
+      <c r="B129" s="32" t="s">
         <v>976</v>
       </c>
-      <c r="B129" s="32" t="s">
+      <c r="C129" s="32" t="s">
         <v>977</v>
       </c>
-      <c r="C129" s="32" t="s">
+      <c r="D129" s="32" t="s">
         <v>978</v>
-      </c>
-      <c r="D129" s="32" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="29" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B130" s="32" t="s">
         <v>257</v>
@@ -11382,7 +11382,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="32" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B131" s="32" t="s">
         <v>285</v>
@@ -11396,7 +11396,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="32" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B132" s="32" t="s">
         <v>282</v>
@@ -11410,13 +11410,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="B133" s="32" t="s">
         <v>980</v>
       </c>
-      <c r="B133" s="32" t="s">
+      <c r="C133" s="32" t="s">
         <v>981</v>
-      </c>
-      <c r="C133" s="32" t="s">
-        <v>982</v>
       </c>
       <c r="D133" s="32" t="s">
         <v>229</v>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="32" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B134" s="32" t="s">
         <v>245</v>
@@ -11438,63 +11438,63 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="32" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B135" s="29" t="s">
+        <v>908</v>
+      </c>
+      <c r="C135" s="32" t="s">
         <v>909</v>
       </c>
-      <c r="C135" s="32" t="s">
+      <c r="D135" s="32" t="s">
         <v>910</v>
-      </c>
-      <c r="D135" s="32" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="32" t="s">
+        <v>982</v>
+      </c>
+      <c r="B136" s="29" t="s">
         <v>983</v>
       </c>
-      <c r="B136" s="29" t="s">
+      <c r="C136" s="32" t="s">
         <v>984</v>
       </c>
-      <c r="C136" s="32" t="s">
+      <c r="D136" s="32" t="s">
         <v>985</v>
-      </c>
-      <c r="D136" s="32" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="32" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B137" s="29" t="s">
+        <v>986</v>
+      </c>
+      <c r="C137" s="32" t="s">
         <v>987</v>
       </c>
-      <c r="C137" s="32" t="s">
+      <c r="D137" s="32" t="s">
         <v>988</v>
-      </c>
-      <c r="D137" s="32" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="32" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B138" s="29" t="s">
+        <v>989</v>
+      </c>
+      <c r="C138" s="32" t="s">
         <v>990</v>
       </c>
-      <c r="C138" s="32" t="s">
+      <c r="D138" s="32" t="s">
         <v>991</v>
-      </c>
-      <c r="D138" s="32" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="32" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B139" s="29" t="s">
         <v>245</v>
@@ -11508,44 +11508,44 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="32" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B140" s="29" t="s">
         <v>233</v>
       </c>
       <c r="C140" s="32" t="s">
+        <v>992</v>
+      </c>
+      <c r="D140" s="32" t="s">
         <v>993</v>
-      </c>
-      <c r="D140" s="32" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="32" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B141" s="32" t="s">
         <v>75</v>
       </c>
       <c r="C141" s="32" t="s">
+        <v>995</v>
+      </c>
+      <c r="D141" s="29" t="s">
         <v>996</v>
-      </c>
-      <c r="D141" s="29" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="32" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B142" s="32" t="s">
+        <v>997</v>
+      </c>
+      <c r="C142" s="32" t="s">
         <v>998</v>
       </c>
-      <c r="C142" s="32" t="s">
+      <c r="D142" s="29" t="s">
         <v>999</v>
-      </c>
-      <c r="D142" s="29" t="s">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -11583,7 +11583,7 @@
         <v>309</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -11836,7 +11836,7 @@
         <v>199</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
@@ -11880,7 +11880,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -11895,16 +11895,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>1004</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="C13" s="40" t="s">
         <v>1005</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="D13" s="40" t="s">
         <v>1006</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>1007</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -11926,7 +11926,7 @@
         <v>191</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -12186,13 +12186,13 @@
         <v>49</v>
       </c>
       <c r="B26" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C26" s="40" t="s">
         <v>1009</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="D26" s="40" t="s">
         <v>1010</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>1011</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
@@ -12200,7 +12200,7 @@
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
       <c r="J26" s="41" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K26" s="41" t="s">
         <v>133</v>
@@ -12231,15 +12231,15 @@
         <v>150</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>1013</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>1014</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -12274,10 +12274,10 @@
         <v>67</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>77</v>
@@ -12303,7 +12303,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E31" s="40" t="s">
         <v>140</v>
@@ -12346,16 +12346,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B33" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="40" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D33" s="40" t="s">
         <v>1019</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>1020</v>
       </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
@@ -12363,22 +12363,22 @@
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
       <c r="J33" s="39" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="K33" s="39"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B34" s="40" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D34" s="40" t="s">
         <v>1022</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>1023</v>
       </c>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
@@ -12417,16 +12417,16 @@
         <v>391</v>
       </c>
       <c r="C36" s="40" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D36" s="40" t="s">
         <v>1024</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>1025</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="40" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I36" s="39"/>
       <c r="J36" s="39"/>
@@ -12437,13 +12437,13 @@
         <v>49</v>
       </c>
       <c r="B37" s="40" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C37" s="40" t="s">
         <v>1027</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="D37" s="40" t="s">
         <v>1028</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>1029</v>
       </c>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -12789,12 +12789,12 @@
         <v>310</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="49" t="s">
@@ -13336,13 +13336,13 @@
         <v>334</v>
       </c>
       <c r="B23" s="51" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C23" s="51" t="s">
         <v>1032</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="D23" s="51" t="s">
         <v>1033</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>1034</v>
       </c>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
@@ -13359,19 +13359,19 @@
         <v>39</v>
       </c>
       <c r="B24" s="51" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C24" s="51" t="s">
         <v>1035</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="D24" s="51" t="s">
         <v>1036</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>1037</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
       <c r="G24" s="57"/>
       <c r="H24" s="51" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
@@ -13423,10 +13423,10 @@
         <v>329</v>
       </c>
       <c r="C27" s="51" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D27" s="51" t="s">
         <v>1039</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>1040</v>
       </c>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
@@ -13482,7 +13482,7 @@
         <v>327</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D30" s="51" t="s">
         <v>326</v>
@@ -13546,10 +13546,10 @@
         <v>67</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>77</v>
@@ -13621,13 +13621,13 @@
         <v>53</v>
       </c>
       <c r="B36" s="57" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C36" s="57" t="s">
         <v>1042</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="D36" s="57" t="s">
         <v>1043</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>1044</v>
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="52"/>
@@ -13642,19 +13642,19 @@
         <v>312</v>
       </c>
       <c r="B37" s="57" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C37" s="57" t="s">
         <v>1045</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="D37" s="57" t="s">
         <v>1046</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>1047</v>
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="52"/>
       <c r="G37" s="57"/>
       <c r="H37" s="57" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I37" s="57"/>
       <c r="J37" s="57"/>
@@ -13665,13 +13665,13 @@
         <v>312</v>
       </c>
       <c r="B38" s="57" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C38" s="57" t="s">
         <v>1049</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="D38" s="57" t="s">
         <v>1050</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>1051</v>
       </c>
       <c r="E38" s="52"/>
       <c r="F38" s="52"/>
@@ -13686,19 +13686,19 @@
         <v>39</v>
       </c>
       <c r="B39" s="57" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C39" s="57" t="s">
         <v>1052</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="D39" s="57" t="s">
         <v>1053</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>1054</v>
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
       <c r="H39" s="57" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
@@ -13709,19 +13709,19 @@
         <v>67</v>
       </c>
       <c r="B40" s="57" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C40" s="57" t="s">
         <v>1056</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="D40" s="57" t="s">
         <v>1057</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>1058</v>
       </c>
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
       <c r="G40" s="57"/>
       <c r="H40" s="57" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I40" s="57"/>
       <c r="J40" s="57"/>
@@ -13763,16 +13763,16 @@
         <v>317</v>
       </c>
       <c r="C43" s="51" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D43" s="51" t="s">
         <v>1059</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>1060</v>
       </c>
       <c r="E43" s="52"/>
       <c r="F43" s="52"/>
       <c r="G43" s="57"/>
       <c r="H43" s="51" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I43" s="57"/>
       <c r="J43" s="57"/>
@@ -13783,13 +13783,13 @@
         <v>312</v>
       </c>
       <c r="B44" s="51" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C44" s="58" t="s">
         <v>1062</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="D44" s="58" t="s">
         <v>1063</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>1064</v>
       </c>
       <c r="E44" s="52"/>
       <c r="F44" s="52"/>
@@ -13801,22 +13801,22 @@
     </row>
     <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="51" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B45" s="51" t="s">
         <v>1065</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="C45" s="58" t="s">
         <v>1066</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="D45" s="58" t="s">
         <v>1067</v>
-      </c>
-      <c r="D45" s="58" t="s">
-        <v>1068</v>
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="52"/>
       <c r="G45" s="57"/>
       <c r="H45" s="51" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I45" s="51"/>
       <c r="J45" s="57"/>
@@ -13827,13 +13827,13 @@
         <v>312</v>
       </c>
       <c r="B46" s="51" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C46" s="58" t="s">
         <v>1070</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="D46" s="58" t="s">
         <v>1071</v>
-      </c>
-      <c r="D46" s="58" t="s">
-        <v>1072</v>
       </c>
       <c r="E46" s="52"/>
       <c r="F46" s="52"/>
@@ -13848,23 +13848,23 @@
         <v>49</v>
       </c>
       <c r="B47" s="51" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C47" s="58" t="s">
         <v>1073</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="D47" s="58" t="s">
         <v>1074</v>
       </c>
-      <c r="D47" s="58" t="s">
+      <c r="E47" s="52" t="s">
         <v>1075</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="F47" s="52" t="s">
         <v>1076</v>
-      </c>
-      <c r="F47" s="52" t="s">
-        <v>1077</v>
       </c>
       <c r="G47" s="57"/>
       <c r="H47" s="51" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I47" s="57"/>
       <c r="J47" s="57"/>
@@ -13875,23 +13875,23 @@
         <v>49</v>
       </c>
       <c r="B48" s="51" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C48" s="58" t="s">
         <v>1079</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="D48" s="58" t="s">
         <v>1080</v>
       </c>
-      <c r="D48" s="58" t="s">
-        <v>1081</v>
-      </c>
       <c r="E48" s="52" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F48" s="52" t="s">
         <v>1076</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>1077</v>
       </c>
       <c r="G48" s="57"/>
       <c r="H48" s="51" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I48" s="57"/>
       <c r="J48" s="57"/>
@@ -13902,13 +13902,13 @@
         <v>312</v>
       </c>
       <c r="B49" s="57" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C49" s="58" t="s">
         <v>1082</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="D49" s="52" t="s">
         <v>1083</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>1084</v>
       </c>
       <c r="E49" s="52"/>
       <c r="F49" s="52"/>
@@ -13921,23 +13921,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="57" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C50" s="58" t="s">
         <v>1085</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="D50" s="52" t="s">
         <v>1086</v>
       </c>
-      <c r="D50" s="52" t="s">
-        <v>1087</v>
-      </c>
       <c r="E50" s="52" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F50" s="52" t="s">
         <v>1076</v>
-      </c>
-      <c r="F50" s="52" t="s">
-        <v>1077</v>
       </c>
       <c r="G50" s="57"/>
       <c r="H50" s="51" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I50" s="57"/>
     </row>
@@ -13946,13 +13946,13 @@
         <v>312</v>
       </c>
       <c r="B51" s="57" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C51" s="58" t="s">
         <v>1089</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="D51" s="52" t="s">
         <v>1090</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>1091</v>
       </c>
       <c r="E51" s="52"/>
       <c r="F51" s="52"/>
@@ -13965,19 +13965,19 @@
         <v>49</v>
       </c>
       <c r="B52" s="57" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C52" s="58" t="s">
         <v>1092</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="D52" s="52" t="s">
         <v>1093</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>1094</v>
       </c>
       <c r="E52" s="52"/>
       <c r="F52" s="52"/>
       <c r="G52" s="57"/>
       <c r="H52" s="51" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I52" s="51"/>
     </row>
@@ -13986,19 +13986,19 @@
         <v>312</v>
       </c>
       <c r="B53" s="57" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C53" s="58" t="s">
         <v>1096</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="D53" s="52" t="s">
         <v>1097</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="E53" s="52" t="s">
         <v>1098</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="F53" s="52" t="s">
         <v>1099</v>
-      </c>
-      <c r="F53" s="52" t="s">
-        <v>1100</v>
       </c>
       <c r="G53" s="57"/>
       <c r="H53" s="51"/>
@@ -14009,19 +14009,19 @@
         <v>49</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C54" s="58" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D54" s="52" t="s">
         <v>1093</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>1094</v>
       </c>
       <c r="E54" s="52"/>
       <c r="F54" s="52"/>
       <c r="G54" s="57"/>
       <c r="H54" s="51" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I54" s="57"/>
     </row>
@@ -14030,19 +14030,19 @@
         <v>312</v>
       </c>
       <c r="B55" s="57" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C55" s="58" t="s">
         <v>1103</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="D55" s="52" t="s">
         <v>1104</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="E55" s="52" t="s">
         <v>1105</v>
       </c>
-      <c r="E55" s="52" t="s">
+      <c r="F55" s="52" t="s">
         <v>1106</v>
-      </c>
-      <c r="F55" s="52" t="s">
-        <v>1107</v>
       </c>
       <c r="G55" s="57"/>
       <c r="H55" s="51"/>
@@ -14053,19 +14053,19 @@
         <v>49</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C56" s="58" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D56" s="52" t="s">
         <v>1093</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>1094</v>
       </c>
       <c r="E56" s="52"/>
       <c r="F56" s="52"/>
       <c r="G56" s="57"/>
       <c r="H56" s="57" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I56" s="57"/>
     </row>
@@ -14074,19 +14074,19 @@
         <v>49</v>
       </c>
       <c r="B57" s="57" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C57" s="58" t="s">
         <v>1110</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="D57" s="52" t="s">
         <v>1111</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>1112</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="52"/>
       <c r="G57" s="57"/>
       <c r="H57" s="57" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I57" s="57"/>
     </row>
@@ -14095,19 +14095,19 @@
         <v>49</v>
       </c>
       <c r="B58" s="57" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C58" s="58" t="s">
         <v>1113</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="D58" s="52" t="s">
         <v>1114</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>1115</v>
       </c>
       <c r="E58" s="52"/>
       <c r="F58" s="52"/>
       <c r="G58" s="57"/>
       <c r="H58" s="57" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I58" s="57"/>
     </row>
@@ -14116,13 +14116,13 @@
         <v>312</v>
       </c>
       <c r="B59" s="57" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C59" s="58" t="s">
         <v>1116</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="D59" s="52" t="s">
         <v>1117</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>1118</v>
       </c>
       <c r="E59" s="52"/>
       <c r="F59" s="52"/>
@@ -14135,19 +14135,19 @@
         <v>49</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C60" s="58" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D60" s="52" t="s">
         <v>1093</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>1094</v>
       </c>
       <c r="E60" s="52"/>
       <c r="F60" s="52"/>
       <c r="G60" s="57"/>
       <c r="H60" s="51" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="I60" s="51"/>
     </row>
@@ -14156,19 +14156,19 @@
         <v>49</v>
       </c>
       <c r="B61" s="57" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C61" s="58" t="s">
         <v>1121</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="D61" s="52" t="s">
         <v>1122</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>1123</v>
       </c>
       <c r="E61" s="52"/>
       <c r="F61" s="52"/>
       <c r="G61" s="57"/>
       <c r="H61" s="51" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="I61" s="51"/>
     </row>
@@ -14177,19 +14177,19 @@
         <v>49</v>
       </c>
       <c r="B62" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C62" s="58" t="s">
         <v>1124</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="D62" s="52" t="s">
         <v>1125</v>
-      </c>
-      <c r="D62" s="52" t="s">
-        <v>1126</v>
       </c>
       <c r="E62" s="52"/>
       <c r="F62" s="52"/>
       <c r="G62" s="57"/>
       <c r="H62" s="51" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="I62" s="57"/>
     </row>
@@ -14198,13 +14198,13 @@
         <v>312</v>
       </c>
       <c r="B63" s="57" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C63" s="58" t="s">
         <v>1127</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="D63" s="52" t="s">
         <v>1128</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>1129</v>
       </c>
       <c r="E63" s="52"/>
       <c r="F63" s="52"/>
@@ -14218,34 +14218,34 @@
         <v>49</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C64" s="58" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D64" s="52" t="s">
         <v>1093</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>1094</v>
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="52"/>
       <c r="G64" s="57"/>
       <c r="H64" s="57" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="I64" s="57"/>
     </row>
     <row r="65" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="57" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B65" s="57" t="s">
         <v>1132</v>
       </c>
-      <c r="B65" s="57" t="s">
+      <c r="C65" s="58" t="s">
         <v>1133</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="D65" s="52" t="s">
         <v>1134</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>1135</v>
       </c>
       <c r="E65" s="52"/>
       <c r="F65" s="52"/>
@@ -14261,19 +14261,19 @@
         <v>39</v>
       </c>
       <c r="B66" s="57" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C66" s="58" t="s">
         <v>1136</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="D66" s="52" t="s">
         <v>1137</v>
-      </c>
-      <c r="D66" s="52" t="s">
-        <v>1138</v>
       </c>
       <c r="E66" s="52"/>
       <c r="F66" s="52"/>
       <c r="G66" s="57"/>
       <c r="H66" s="57" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I66" s="57"/>
       <c r="J66" s="57"/>
@@ -14285,19 +14285,19 @@
         <v>39</v>
       </c>
       <c r="B67" s="57" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C67" s="58" t="s">
         <v>1140</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="D67" s="52" t="s">
         <v>1141</v>
       </c>
-      <c r="D67" s="52" t="s">
+      <c r="E67" s="52" t="s">
         <v>1142</v>
       </c>
-      <c r="E67" s="52" t="s">
+      <c r="F67" s="52" t="s">
         <v>1143</v>
-      </c>
-      <c r="F67" s="52" t="s">
-        <v>1144</v>
       </c>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
@@ -14311,13 +14311,13 @@
         <v>312</v>
       </c>
       <c r="B68" s="57" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C68" s="58" t="s">
         <v>1145</v>
       </c>
-      <c r="C68" s="58" t="s">
+      <c r="D68" s="53" t="s">
         <v>1146</v>
-      </c>
-      <c r="D68" s="53" t="s">
-        <v>1147</v>
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38"/>
@@ -14333,19 +14333,19 @@
         <v>312</v>
       </c>
       <c r="B69" s="57" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C69" s="57" t="s">
         <v>1148</v>
       </c>
-      <c r="C69" s="57" t="s">
+      <c r="D69" s="53" t="s">
         <v>1149</v>
-      </c>
-      <c r="D69" s="53" t="s">
-        <v>1150</v>
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
       <c r="H69" s="57" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="I69" s="38"/>
       <c r="J69" s="38"/>
@@ -14357,19 +14357,19 @@
         <v>178</v>
       </c>
       <c r="B70" s="57" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C70" s="52" t="s">
         <v>1152</v>
       </c>
-      <c r="C70" s="52" t="s">
+      <c r="D70" s="53" t="s">
         <v>1153</v>
-      </c>
-      <c r="D70" s="53" t="s">
-        <v>1154</v>
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
       <c r="H70" s="57" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="I70" s="38"/>
       <c r="J70" s="38"/>
@@ -14414,16 +14414,16 @@
         <v>316</v>
       </c>
       <c r="C73" s="57" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D73" s="53" t="s">
         <v>1156</v>
-      </c>
-      <c r="D73" s="53" t="s">
-        <v>1157</v>
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
       <c r="H73" s="57" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="I73" s="38"/>
       <c r="J73" s="38"/>
@@ -14435,13 +14435,13 @@
         <v>178</v>
       </c>
       <c r="B74" s="57" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C74" s="57" t="s">
         <v>1159</v>
       </c>
-      <c r="C74" s="57" t="s">
+      <c r="D74" s="51" t="s">
         <v>1160</v>
-      </c>
-      <c r="D74" s="51" t="s">
-        <v>1161</v>
       </c>
       <c r="E74" s="38"/>
       <c r="F74" s="38"/>
@@ -14454,16 +14454,16 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="51" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B75" s="51" t="s">
         <v>1162</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="C75" s="51" t="s">
         <v>1163</v>
       </c>
-      <c r="C75" s="51" t="s">
-        <v>1164</v>
-      </c>
       <c r="D75" s="51" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E75" s="38"/>
       <c r="F75" s="38"/>
@@ -14479,19 +14479,19 @@
         <v>67</v>
       </c>
       <c r="B76" s="51" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C76" s="51" t="s">
         <v>1165</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="D76" s="51" t="s">
         <v>1166</v>
-      </c>
-      <c r="D76" s="51" t="s">
-        <v>1167</v>
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
       <c r="H76" s="57" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I76" s="38"/>
       <c r="J76" s="38"/>
@@ -14500,16 +14500,16 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B77" s="51" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C77" s="51" t="s">
         <v>1169</v>
       </c>
-      <c r="C77" s="51" t="s">
-        <v>1170</v>
-      </c>
       <c r="D77" s="51" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38"/>
@@ -14525,19 +14525,19 @@
         <v>67</v>
       </c>
       <c r="B78" s="51" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C78" s="51" t="s">
         <v>1171</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="D78" s="51" t="s">
         <v>1172</v>
-      </c>
-      <c r="D78" s="51" t="s">
-        <v>1173</v>
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
       <c r="H78" s="57" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I78" s="38"/>
       <c r="J78" s="38"/>
@@ -14546,16 +14546,16 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B79" s="51" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C79" s="51" t="s">
         <v>1175</v>
       </c>
-      <c r="C79" s="51" t="s">
-        <v>1176</v>
-      </c>
       <c r="D79" s="51" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38"/>
@@ -14571,19 +14571,19 @@
         <v>67</v>
       </c>
       <c r="B80" s="51" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C80" s="51" t="s">
         <v>1177</v>
       </c>
-      <c r="C80" s="51" t="s">
+      <c r="D80" s="57" t="s">
         <v>1178</v>
-      </c>
-      <c r="D80" s="57" t="s">
-        <v>1179</v>
       </c>
       <c r="E80" s="38"/>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
       <c r="H80" s="57" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I80" s="38"/>
       <c r="J80" s="38"/>
@@ -14592,16 +14592,16 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B81" s="51" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C81" s="51" t="s">
         <v>1181</v>
       </c>
-      <c r="C81" s="51" t="s">
-        <v>1182</v>
-      </c>
       <c r="D81" s="51" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E81" s="38"/>
       <c r="F81" s="38"/>
@@ -14613,33 +14613,33 @@
         <v>67</v>
       </c>
       <c r="B82" s="51" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C82" s="51" t="s">
         <v>1183</v>
       </c>
-      <c r="C82" s="51" t="s">
+      <c r="D82" s="51" t="s">
         <v>1184</v>
-      </c>
-      <c r="D82" s="51" t="s">
-        <v>1185</v>
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
       <c r="H82" s="57" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B83" s="51" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C83" s="51" t="s">
         <v>1187</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="D83" s="51" t="s">
         <v>1188</v>
-      </c>
-      <c r="D83" s="51" t="s">
-        <v>1189</v>
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38"/>
@@ -14651,33 +14651,33 @@
         <v>67</v>
       </c>
       <c r="B84" s="51" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C84" s="51" t="s">
         <v>1190</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="D84" s="51" t="s">
         <v>1191</v>
-      </c>
-      <c r="D84" s="51" t="s">
-        <v>1192</v>
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
       <c r="H84" s="57" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B85" s="51" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C85" s="51" t="s">
         <v>1194</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="D85" s="51" t="s">
         <v>1195</v>
-      </c>
-      <c r="D85" s="51" t="s">
-        <v>1196</v>
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38"/>
@@ -14689,33 +14689,33 @@
         <v>67</v>
       </c>
       <c r="B86" s="51" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C86" s="51" t="s">
         <v>1197</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="D86" s="51" t="s">
         <v>1198</v>
-      </c>
-      <c r="D86" s="51" t="s">
-        <v>1199</v>
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
       <c r="H86" s="57" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B87" s="51" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C87" s="51" t="s">
         <v>1201</v>
       </c>
-      <c r="C87" s="51" t="s">
+      <c r="D87" s="57" t="s">
         <v>1202</v>
-      </c>
-      <c r="D87" s="57" t="s">
-        <v>1203</v>
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38"/>
@@ -14727,33 +14727,33 @@
         <v>67</v>
       </c>
       <c r="B88" s="51" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C88" s="57" t="s">
         <v>1204</v>
       </c>
-      <c r="C88" s="57" t="s">
+      <c r="D88" s="58" t="s">
         <v>1205</v>
-      </c>
-      <c r="D88" s="58" t="s">
-        <v>1206</v>
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
       <c r="H88" s="57" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B89" s="51" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C89" s="51" t="s">
         <v>1208</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="D89" s="58" t="s">
         <v>1209</v>
-      </c>
-      <c r="D89" s="58" t="s">
-        <v>1210</v>
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38"/>
@@ -14765,33 +14765,33 @@
         <v>67</v>
       </c>
       <c r="B90" s="51" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C90" s="51" t="s">
         <v>1211</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="D90" s="51" t="s">
         <v>1212</v>
-      </c>
-      <c r="D90" s="51" t="s">
-        <v>1213</v>
       </c>
       <c r="E90" s="38"/>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
       <c r="H90" s="57" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B91" s="51" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C91" s="51" t="s">
         <v>1215</v>
       </c>
-      <c r="C91" s="51" t="s">
+      <c r="D91" s="57" t="s">
         <v>1216</v>
-      </c>
-      <c r="D91" s="57" t="s">
-        <v>1217</v>
       </c>
       <c r="E91" s="38"/>
       <c r="F91" s="38"/>
@@ -14803,33 +14803,33 @@
         <v>67</v>
       </c>
       <c r="B92" s="51" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C92" s="57" t="s">
         <v>1218</v>
       </c>
-      <c r="C92" s="57" t="s">
+      <c r="D92" s="57" t="s">
         <v>1219</v>
-      </c>
-      <c r="D92" s="57" t="s">
-        <v>1220</v>
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
       <c r="H92" s="57" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B93" s="57" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C93" s="57" t="s">
         <v>1222</v>
       </c>
-      <c r="C93" s="57" t="s">
-        <v>1223</v>
-      </c>
       <c r="D93" s="57" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38"/>
@@ -14841,33 +14841,33 @@
         <v>67</v>
       </c>
       <c r="B94" s="51" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C94" s="57" t="s">
         <v>1224</v>
       </c>
-      <c r="C94" s="57" t="s">
+      <c r="D94" s="38" t="s">
         <v>1225</v>
-      </c>
-      <c r="D94" s="38" t="s">
-        <v>1226</v>
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
       <c r="H94" s="57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B95" s="57" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C95" s="57" t="s">
         <v>1228</v>
       </c>
-      <c r="C95" s="57" t="s">
-        <v>1229</v>
-      </c>
       <c r="D95" s="38" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38"/>
@@ -14879,33 +14879,33 @@
         <v>67</v>
       </c>
       <c r="B96" s="51" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C96" s="57" t="s">
         <v>1230</v>
       </c>
-      <c r="C96" s="57" t="s">
+      <c r="D96" s="38" t="s">
         <v>1231</v>
-      </c>
-      <c r="D96" s="38" t="s">
-        <v>1232</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
       <c r="H96" s="57" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B97" s="57" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C97" s="57" t="s">
         <v>1234</v>
       </c>
-      <c r="C97" s="57" t="s">
-        <v>1235</v>
-      </c>
       <c r="D97" s="38" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38"/>
@@ -14917,33 +14917,33 @@
         <v>67</v>
       </c>
       <c r="B98" s="51" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C98" s="57" t="s">
         <v>1236</v>
       </c>
-      <c r="C98" s="57" t="s">
+      <c r="D98" s="38" t="s">
         <v>1237</v>
-      </c>
-      <c r="D98" s="38" t="s">
-        <v>1238</v>
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
       <c r="H98" s="57" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B99" s="57" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C99" s="57" t="s">
         <v>1240</v>
       </c>
-      <c r="C99" s="57" t="s">
+      <c r="D99" s="38" t="s">
         <v>1241</v>
-      </c>
-      <c r="D99" s="38" t="s">
-        <v>1242</v>
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38"/>
@@ -14955,33 +14955,33 @@
         <v>67</v>
       </c>
       <c r="B100" s="57" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C100" s="57" t="s">
         <v>1243</v>
       </c>
-      <c r="C100" s="57" t="s">
+      <c r="D100" s="38" t="s">
         <v>1244</v>
-      </c>
-      <c r="D100" s="38" t="s">
-        <v>1245</v>
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
       <c r="H100" s="57" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B101" s="57" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C101" s="57" t="s">
         <v>1247</v>
       </c>
-      <c r="C101" s="57" t="s">
-        <v>1248</v>
-      </c>
       <c r="D101" s="38" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38"/>
@@ -14993,33 +14993,33 @@
         <v>67</v>
       </c>
       <c r="B102" s="57" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C102" s="57" t="s">
         <v>1249</v>
       </c>
-      <c r="C102" s="57" t="s">
+      <c r="D102" s="38" t="s">
         <v>1250</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>1251</v>
       </c>
       <c r="E102" s="38"/>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
       <c r="H102" s="57" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B103" s="57" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C103" s="57" t="s">
         <v>1253</v>
       </c>
-      <c r="C103" s="57" t="s">
-        <v>1254</v>
-      </c>
       <c r="D103" s="38" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E103" s="38"/>
       <c r="F103" s="38"/>
@@ -15031,33 +15031,33 @@
         <v>67</v>
       </c>
       <c r="B104" s="57" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C104" s="57" t="s">
         <v>1255</v>
       </c>
-      <c r="C104" s="57" t="s">
+      <c r="D104" s="38" t="s">
         <v>1256</v>
-      </c>
-      <c r="D104" s="38" t="s">
-        <v>1257</v>
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
       <c r="H104" s="57" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B105" s="57" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C105" s="57" t="s">
         <v>1259</v>
       </c>
-      <c r="C105" s="57" t="s">
-        <v>1260</v>
-      </c>
       <c r="D105" s="38" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38"/>
@@ -15069,33 +15069,33 @@
         <v>67</v>
       </c>
       <c r="B106" s="57" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C106" s="57" t="s">
         <v>1261</v>
       </c>
-      <c r="C106" s="57" t="s">
+      <c r="D106" s="57" t="s">
         <v>1262</v>
-      </c>
-      <c r="D106" s="57" t="s">
-        <v>1263</v>
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
       <c r="H106" s="57" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B107" s="57" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C107" s="57" t="s">
         <v>1265</v>
       </c>
-      <c r="C107" s="57" t="s">
+      <c r="D107" s="38" t="s">
         <v>1266</v>
-      </c>
-      <c r="D107" s="38" t="s">
-        <v>1267</v>
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38"/>
@@ -15107,33 +15107,33 @@
         <v>67</v>
       </c>
       <c r="B108" s="57" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C108" s="57" t="s">
         <v>1268</v>
       </c>
-      <c r="C108" s="57" t="s">
+      <c r="D108" s="38" t="s">
         <v>1269</v>
-      </c>
-      <c r="D108" s="38" t="s">
-        <v>1270</v>
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
       <c r="H108" s="57" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B109" s="57" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C109" s="57" t="s">
         <v>1272</v>
       </c>
-      <c r="C109" s="57" t="s">
+      <c r="D109" s="38" t="s">
         <v>1273</v>
-      </c>
-      <c r="D109" s="38" t="s">
-        <v>1274</v>
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38"/>
@@ -15145,33 +15145,33 @@
         <v>67</v>
       </c>
       <c r="B110" s="57" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C110" s="57" t="s">
         <v>1275</v>
       </c>
-      <c r="C110" s="57" t="s">
+      <c r="D110" s="38" t="s">
         <v>1276</v>
-      </c>
-      <c r="D110" s="38" t="s">
-        <v>1277</v>
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
       <c r="H110" s="57" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B111" s="57" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C111" s="57" t="s">
         <v>1279</v>
       </c>
-      <c r="C111" s="57" t="s">
-        <v>1280</v>
-      </c>
       <c r="D111" s="38" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38"/>
@@ -15183,33 +15183,33 @@
         <v>67</v>
       </c>
       <c r="B112" s="57" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C112" s="57" t="s">
         <v>1281</v>
       </c>
-      <c r="C112" s="57" t="s">
+      <c r="D112" s="38" t="s">
         <v>1282</v>
-      </c>
-      <c r="D112" s="38" t="s">
-        <v>1283</v>
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
       <c r="H112" s="57" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B113" s="57" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C113" s="57" t="s">
         <v>1285</v>
       </c>
-      <c r="C113" s="57" t="s">
+      <c r="D113" s="38" t="s">
         <v>1286</v>
-      </c>
-      <c r="D113" s="38" t="s">
-        <v>1287</v>
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38"/>
@@ -15221,33 +15221,33 @@
         <v>67</v>
       </c>
       <c r="B114" s="57" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C114" s="57" t="s">
         <v>1288</v>
       </c>
-      <c r="C114" s="57" t="s">
+      <c r="D114" s="38" t="s">
         <v>1289</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>1290</v>
       </c>
       <c r="E114" s="38"/>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
       <c r="H114" s="57" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B115" s="57" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C115" s="57" t="s">
         <v>1292</v>
       </c>
-      <c r="C115" s="57" t="s">
+      <c r="D115" s="38" t="s">
         <v>1293</v>
-      </c>
-      <c r="D115" s="38" t="s">
-        <v>1294</v>
       </c>
       <c r="E115" s="38"/>
       <c r="F115" s="38"/>
@@ -15259,33 +15259,33 @@
         <v>67</v>
       </c>
       <c r="B116" s="57" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C116" s="57" t="s">
         <v>1295</v>
       </c>
-      <c r="C116" s="57" t="s">
+      <c r="D116" s="38" t="s">
         <v>1296</v>
-      </c>
-      <c r="D116" s="38" t="s">
-        <v>1297</v>
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
       <c r="H116" s="57" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="51" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B117" s="57" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C117" s="57" t="s">
         <v>1299</v>
       </c>
-      <c r="C117" s="57" t="s">
+      <c r="D117" s="38" t="s">
         <v>1300</v>
-      </c>
-      <c r="D117" s="38" t="s">
-        <v>1301</v>
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38"/>
@@ -15297,19 +15297,19 @@
         <v>67</v>
       </c>
       <c r="B118" s="57" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C118" s="57" t="s">
         <v>1302</v>
       </c>
-      <c r="C118" s="57" t="s">
+      <c r="D118" s="38" t="s">
         <v>1303</v>
-      </c>
-      <c r="D118" s="38" t="s">
-        <v>1304</v>
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
       <c r="H118" s="57" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -15317,13 +15317,13 @@
         <v>178</v>
       </c>
       <c r="B119" s="57" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C119" s="52" t="s">
         <v>1306</v>
       </c>
-      <c r="C119" s="52" t="s">
+      <c r="D119" s="53" t="s">
         <v>1307</v>
-      </c>
-      <c r="D119" s="53" t="s">
-        <v>1308</v>
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38"/>
@@ -15335,13 +15335,13 @@
         <v>312</v>
       </c>
       <c r="B120" s="57" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C120" s="57" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D120" s="38" t="s">
         <v>1149</v>
-      </c>
-      <c r="D120" s="38" t="s">
-        <v>1150</v>
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38"/>
@@ -15378,16 +15378,16 @@
         <v>315</v>
       </c>
       <c r="C123" s="57" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D123" s="38" t="s">
         <v>1310</v>
-      </c>
-      <c r="D123" s="38" t="s">
-        <v>1311</v>
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
       <c r="H123" s="57" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -15395,13 +15395,13 @@
         <v>178</v>
       </c>
       <c r="B124" s="57" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C124" s="57" t="s">
         <v>1313</v>
       </c>
-      <c r="C124" s="57" t="s">
+      <c r="D124" s="57" t="s">
         <v>1314</v>
-      </c>
-      <c r="D124" s="57" t="s">
-        <v>1315</v>
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="38"/>
@@ -15410,16 +15410,16 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="57" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B125" s="57" t="s">
         <v>1316</v>
       </c>
-      <c r="B125" s="57" t="s">
+      <c r="C125" s="57" t="s">
         <v>1317</v>
       </c>
-      <c r="C125" s="57" t="s">
+      <c r="D125" s="38" t="s">
         <v>1318</v>
-      </c>
-      <c r="D125" s="38" t="s">
-        <v>1319</v>
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="38"/>
@@ -15431,19 +15431,19 @@
         <v>39</v>
       </c>
       <c r="B126" s="57" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C126" s="57" t="s">
         <v>1320</v>
       </c>
-      <c r="C126" s="57" t="s">
+      <c r="D126" s="38" t="s">
         <v>1321</v>
-      </c>
-      <c r="D126" s="38" t="s">
-        <v>1322</v>
       </c>
       <c r="E126" s="38"/>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
       <c r="H126" s="57" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -15950,161 +15950,161 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="64" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C33" s="64" t="s">
         <v>1324</v>
       </c>
-      <c r="B33" s="64" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C33" s="64" t="s">
+      <c r="D33" s="61" t="s">
         <v>1325</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="64" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B34" s="64" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C34" s="64" t="s">
         <v>1327</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="D34" s="61" t="s">
         <v>1328</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="64" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B35" s="64" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C35" s="64" t="s">
         <v>1330</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="D35" s="61" t="s">
         <v>1331</v>
-      </c>
-      <c r="D35" s="61" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B36" s="64" t="s">
         <v>1333</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="C36" s="64" t="s">
         <v>1334</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="D36" s="61" t="s">
         <v>1335</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B37" s="64" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C37" s="64" t="s">
         <v>1337</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="D37" s="61" t="s">
         <v>1338</v>
-      </c>
-      <c r="D37" s="61" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="64" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B38" s="64" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C38" s="64" t="s">
         <v>1340</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="D38" s="61" t="s">
         <v>1341</v>
-      </c>
-      <c r="D38" s="61" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="64" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B39" s="64" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C39" s="64" t="s">
         <v>1343</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="D39" s="61" t="s">
         <v>1344</v>
-      </c>
-      <c r="D39" s="61" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="64" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B40" s="64" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C40" s="64" t="s">
         <v>1346</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="D40" s="61" t="s">
         <v>1347</v>
-      </c>
-      <c r="D40" s="61" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="64" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B41" s="64" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C41" s="64" t="s">
         <v>1349</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="D41" s="61" t="s">
         <v>1350</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="64" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B42" s="64" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C42" s="64" t="s">
         <v>1352</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="D42" s="64" t="s">
         <v>1353</v>
-      </c>
-      <c r="D42" s="64" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="64" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B43" s="64" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C43" s="64" t="s">
         <v>1355</v>
       </c>
-      <c r="C43" s="64" t="s">
+      <c r="D43" s="64" t="s">
         <v>1356</v>
-      </c>
-      <c r="D43" s="64" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="64" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B44" s="64" t="s">
         <v>282</v>
@@ -16118,35 +16118,35 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="64" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B45" s="64" t="s">
         <v>1358</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="C45" s="64" t="s">
         <v>1359</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="D45" s="61" t="s">
         <v>1360</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="64" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B46" s="64" t="s">
         <v>366</v>
       </c>
       <c r="C46" s="64" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D46" s="61" t="s">
         <v>1362</v>
-      </c>
-      <c r="D46" s="61" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="64" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B47" s="64" t="s">
         <v>365</v>
@@ -16160,7 +16160,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="64" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B48" s="64" t="s">
         <v>362</v>
@@ -16174,10 +16174,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="64" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C49" s="64" t="s">
         <v>30</v>
@@ -16188,10 +16188,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="64" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C50" s="64" t="s">
         <v>31</v>
@@ -16202,24 +16202,24 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="64" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C51" s="64" t="s">
         <v>358</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="64" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C52" s="64" t="s">
         <v>32</v>
@@ -16230,66 +16230,66 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="64" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B53" s="64" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C53" s="64" t="s">
         <v>1369</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="D53" s="61" t="s">
         <v>1370</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="64" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B54" s="64" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C54" s="64" t="s">
         <v>1372</v>
       </c>
-      <c r="C54" s="64" t="s">
+      <c r="D54" s="61" t="s">
         <v>1373</v>
-      </c>
-      <c r="D54" s="61" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="64" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B55" s="64" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C55" s="64" t="s">
         <v>1375</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="D55" s="61" t="s">
         <v>1376</v>
-      </c>
-      <c r="D55" s="61" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="64" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C56" s="64" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D56" s="61" t="s">
         <v>1378</v>
-      </c>
-      <c r="D56" s="61" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="64" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B57" s="64" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C57" s="64" t="s">
         <v>33</v>
@@ -16300,21 +16300,21 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="64" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B58" s="64" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C58" s="64" t="s">
         <v>1381</v>
       </c>
-      <c r="C58" s="64" t="s">
+      <c r="D58" s="61" t="s">
         <v>1382</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="64" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B59" s="64" t="s">
         <v>233</v>
@@ -16328,7 +16328,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="64" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B60" s="64" t="s">
         <v>245</v>
@@ -16381,7 +16381,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="65" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>310</v>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="1386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="1386">
   <si>
     <t>type</t>
   </si>
@@ -4787,8 +4787,8 @@
   </sheetPr>
   <dimension ref="A1:L209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8145,7 +8145,9 @@
       <c r="E148" s="14"/>
       <c r="F148" s="14"/>
       <c r="G148" s="14"/>
-      <c r="H148" s="13"/>
+      <c r="H148" s="13" t="s">
+        <v>661</v>
+      </c>
       <c r="I148" s="14"/>
       <c r="J148" s="14"/>
       <c r="K148" s="14"/>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="1386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="1386">
   <si>
     <t>type</t>
   </si>
@@ -4787,8 +4787,8 @@
   </sheetPr>
   <dimension ref="A1:L209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H153" sqref="H153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8217,7 +8217,9 @@
       <c r="E151" s="14"/>
       <c r="F151" s="14"/>
       <c r="G151" s="14"/>
-      <c r="H151" s="15"/>
+      <c r="H151" s="15" t="s">
+        <v>663</v>
+      </c>
       <c r="I151" s="15"/>
       <c r="J151" s="15"/>
       <c r="K151" s="15"/>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality" sheetId="11" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Vaccination_options" sheetId="15" r:id="rId8"/>
     <sheet name="Vaccination_settings" sheetId="16" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Vaccination!$A$1:$L$125</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -4787,7 +4790,7 @@
   </sheetPr>
   <dimension ref="A1:L209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H153" sqref="H153"/>
     </sheetView>
   </sheetViews>
@@ -12816,11 +12819,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13747,118 +13750,132 @@
       <c r="K41" s="57"/>
     </row>
     <row r="42" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="51"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
+      <c r="A42" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>1059</v>
+      </c>
       <c r="E42" s="52"/>
       <c r="F42" s="52"/>
       <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
+      <c r="H42" s="51" t="s">
+        <v>1060</v>
+      </c>
       <c r="I42" s="57"/>
       <c r="J42" s="57"/>
       <c r="K42" s="57"/>
     </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A43" s="51" t="s">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="B43" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>1059</v>
+        <v>1061</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D43" s="58" t="s">
+        <v>1063</v>
       </c>
       <c r="E43" s="52"/>
       <c r="F43" s="52"/>
       <c r="G43" s="57"/>
-      <c r="H43" s="51" t="s">
-        <v>1060</v>
-      </c>
+      <c r="H43" s="57"/>
       <c r="I43" s="57"/>
       <c r="J43" s="57"/>
       <c r="K43" s="57"/>
     </row>
-    <row r="44" spans="1:11" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="51" t="s">
-        <v>312</v>
+        <v>1064</v>
       </c>
       <c r="B44" s="51" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="D44" s="58" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="E44" s="52"/>
       <c r="F44" s="52"/>
       <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
+      <c r="H44" s="51" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I44" s="51"/>
       <c r="J44" s="57"/>
       <c r="K44" s="57"/>
     </row>
-    <row r="45" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="51" t="s">
-        <v>1064</v>
+        <v>312</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="52"/>
       <c r="G45" s="57"/>
-      <c r="H45" s="51" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="57"/>
       <c r="J45" s="57"/>
       <c r="K45" s="57"/>
     </row>
     <row r="46" spans="1:11" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="51" t="s">
-        <v>312</v>
+        <v>49</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="D46" s="58" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
+        <v>1074</v>
+      </c>
+      <c r="E46" s="52" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F46" s="52" t="s">
+        <v>1076</v>
+      </c>
       <c r="G46" s="57"/>
-      <c r="H46" s="51"/>
+      <c r="H46" s="51" t="s">
+        <v>1077</v>
+      </c>
       <c r="I46" s="57"/>
       <c r="J46" s="57"/>
       <c r="K46" s="57"/>
     </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47" s="51" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="D47" s="58" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="E47" s="52" t="s">
         <v>1075</v>
@@ -13874,196 +13891,190 @@
       <c r="J47" s="57"/>
       <c r="K47" s="57"/>
     </row>
-    <row r="48" spans="1:11" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="3" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A48" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+    </row>
+    <row r="49" spans="1:12" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="51" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E48" s="52" t="s">
+      <c r="B49" s="57" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E49" s="52" t="s">
         <v>1075</v>
       </c>
-      <c r="F48" s="52" t="s">
+      <c r="F49" s="52" t="s">
         <v>1076</v>
       </c>
-      <c r="G48" s="57"/>
-      <c r="H48" s="51" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-    </row>
-    <row r="49" spans="1:12" s="3" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
+      <c r="G49" s="57"/>
+      <c r="H49" s="51" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I49" s="57"/>
+    </row>
+    <row r="50" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="B49" s="57" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-    </row>
-    <row r="50" spans="1:12" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="51" t="s">
+      <c r="B50" s="57" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+    </row>
+    <row r="51" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="57" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E50" s="52" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F50" s="52" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G50" s="57"/>
-      <c r="H50" s="51" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I50" s="57"/>
-    </row>
-    <row r="51" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="57" t="s">
-        <v>312</v>
-      </c>
       <c r="B51" s="57" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="E51" s="52"/>
       <c r="F51" s="52"/>
       <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-    </row>
-    <row r="52" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="51" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I51" s="51"/>
+    </row>
+    <row r="52" spans="1:12" s="3" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A52" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="B52" s="57" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F52" s="52" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G52" s="57"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="57"/>
+    </row>
+    <row r="53" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="57" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C52" s="58" t="s">
+      <c r="B53" s="57" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C53" s="58" t="s">
         <v>1092</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="D53" s="52" t="s">
         <v>1093</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="51" t="s">
-        <v>1094</v>
-      </c>
-      <c r="I52" s="51"/>
-    </row>
-    <row r="53" spans="1:12" s="3" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="57" t="s">
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="51" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I53" s="57"/>
+    </row>
+    <row r="54" spans="1:12" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A54" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="B53" s="57" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C53" s="58" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E53" s="52" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F53" s="52" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G53" s="57"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="57"/>
-    </row>
-    <row r="54" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="57" t="s">
+      <c r="B54" s="57" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F54" s="52" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G54" s="57"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="57"/>
+    </row>
+    <row r="55" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="57" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C54" s="58" t="s">
+      <c r="B55" s="57" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C55" s="58" t="s">
         <v>1092</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="D55" s="52" t="s">
         <v>1093</v>
       </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="51" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I54" s="57"/>
-    </row>
-    <row r="55" spans="1:12" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A55" s="57" t="s">
-        <v>312</v>
-      </c>
-      <c r="B55" s="57" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C55" s="58" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D55" s="52" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F55" s="52" t="s">
-        <v>1106</v>
-      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
       <c r="G55" s="57"/>
-      <c r="H55" s="51"/>
+      <c r="H55" s="57" t="s">
+        <v>1108</v>
+      </c>
       <c r="I55" s="57"/>
     </row>
-    <row r="56" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="57" t="s">
         <v>49</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="C56" s="58" t="s">
-        <v>1092</v>
+        <v>1110</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>1093</v>
+        <v>1111</v>
       </c>
       <c r="E56" s="52"/>
       <c r="F56" s="52"/>
@@ -14073,18 +14084,18 @@
       </c>
       <c r="I56" s="57"/>
     </row>
-    <row r="57" spans="1:12" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="57" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="C57" s="58" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="52"/>
@@ -14094,58 +14105,58 @@
       </c>
       <c r="I57" s="57"/>
     </row>
-    <row r="58" spans="1:12" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="57" t="s">
-        <v>49</v>
+        <v>312</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="C58" s="58" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="E58" s="52"/>
       <c r="F58" s="52"/>
       <c r="G58" s="57"/>
-      <c r="H58" s="57" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I58" s="57"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
     </row>
     <row r="59" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="57" t="s">
-        <v>312</v>
+        <v>49</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="C59" s="58" t="s">
-        <v>1116</v>
+        <v>1092</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>1117</v>
+        <v>1093</v>
       </c>
       <c r="E59" s="52"/>
       <c r="F59" s="52"/>
       <c r="G59" s="57"/>
-      <c r="H59" s="51"/>
+      <c r="H59" s="51" t="s">
+        <v>1119</v>
+      </c>
       <c r="I59" s="51"/>
     </row>
-    <row r="60" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="57" t="s">
         <v>49</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="C60" s="58" t="s">
-        <v>1092</v>
+        <v>1121</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>1093</v>
+        <v>1122</v>
       </c>
       <c r="E60" s="52"/>
       <c r="F60" s="52"/>
@@ -14155,18 +14166,18 @@
       </c>
       <c r="I60" s="51"/>
     </row>
-    <row r="61" spans="1:12" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A61" s="57" t="s">
         <v>49</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="C61" s="58" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="E61" s="52"/>
       <c r="F61" s="52"/>
@@ -14174,207 +14185,202 @@
       <c r="H61" s="51" t="s">
         <v>1119</v>
       </c>
-      <c r="I61" s="51"/>
-    </row>
-    <row r="62" spans="1:12" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="I61" s="57"/>
+    </row>
+    <row r="62" spans="1:12" s="3" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="s">
-        <v>49</v>
+        <v>312</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="C62" s="58" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="E62" s="52"/>
       <c r="F62" s="52"/>
       <c r="G62" s="57"/>
-      <c r="H62" s="51" t="s">
-        <v>1119</v>
-      </c>
+      <c r="H62" s="57"/>
       <c r="I62" s="57"/>
-    </row>
-    <row r="63" spans="1:12" s="3" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="57" t="s">
-        <v>312</v>
+        <v>49</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="C63" s="58" t="s">
-        <v>1127</v>
+        <v>1092</v>
       </c>
       <c r="D63" s="52" t="s">
-        <v>1128</v>
+        <v>1093</v>
       </c>
       <c r="E63" s="52"/>
       <c r="F63" s="52"/>
       <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
+      <c r="H63" s="57" t="s">
+        <v>1130</v>
+      </c>
       <c r="I63" s="57"/>
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="57" t="s">
-        <v>49</v>
+        <v>1131</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="C64" s="58" t="s">
-        <v>1092</v>
+        <v>1133</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>1093</v>
+        <v>1134</v>
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="52"/>
       <c r="G64" s="57"/>
-      <c r="H64" s="57" t="s">
-        <v>1130</v>
-      </c>
+      <c r="H64" s="51"/>
       <c r="I64" s="57"/>
-    </row>
-    <row r="65" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="57" t="s">
-        <v>1131</v>
+        <v>39</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="C65" s="58" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="D65" s="52" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="E65" s="52"/>
       <c r="F65" s="52"/>
       <c r="G65" s="57"/>
-      <c r="H65" s="51"/>
+      <c r="H65" s="57" t="s">
+        <v>1138</v>
+      </c>
       <c r="I65" s="57"/>
       <c r="J65" s="57"/>
       <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="51"/>
+    </row>
+    <row r="66" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A66" s="57" t="s">
         <v>39</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="C66" s="58" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
+        <v>1141</v>
+      </c>
+      <c r="E66" s="52" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F66" s="52" t="s">
+        <v>1143</v>
+      </c>
       <c r="G66" s="57"/>
-      <c r="H66" s="57" t="s">
-        <v>1138</v>
-      </c>
+      <c r="H66" s="57"/>
       <c r="I66" s="57"/>
       <c r="J66" s="57"/>
       <c r="K66" s="57"/>
-      <c r="L66" s="51"/>
-    </row>
-    <row r="67" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="L66" s="57"/>
+    </row>
+    <row r="67" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="57" t="s">
-        <v>39</v>
+        <v>312</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="C67" s="58" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D67" s="52" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E67" s="52" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F67" s="52" t="s">
-        <v>1143</v>
-      </c>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
-      <c r="J67" s="57"/>
-      <c r="K67" s="57"/>
-      <c r="L67" s="57"/>
+        <v>1145</v>
+      </c>
+      <c r="D67" s="53" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
     </row>
     <row r="68" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A68" s="57" t="s">
         <v>312</v>
       </c>
       <c r="B68" s="57" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C68" s="58" t="s">
-        <v>1145</v>
+        <v>1147</v>
+      </c>
+      <c r="C68" s="57" t="s">
+        <v>1148</v>
       </c>
       <c r="D68" s="53" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
+      <c r="H68" s="57" t="s">
+        <v>1150</v>
+      </c>
       <c r="I68" s="38"/>
       <c r="J68" s="38"/>
       <c r="K68" s="38"/>
       <c r="L68" s="38"/>
     </row>
-    <row r="69" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="57" t="s">
-        <v>312</v>
+        <v>178</v>
       </c>
       <c r="B69" s="57" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C69" s="57" t="s">
-        <v>1148</v>
+        <v>1151</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>1152</v>
       </c>
       <c r="D69" s="53" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
       <c r="H69" s="57" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="I69" s="38"/>
       <c r="J69" s="38"/>
       <c r="K69" s="38"/>
       <c r="L69" s="38"/>
     </row>
-    <row r="70" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="B70" s="57" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C70" s="52" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D70" s="53" t="s">
-        <v>1153</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="53"/>
       <c r="E70" s="38"/>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
-      <c r="H70" s="57" t="s">
-        <v>1154</v>
-      </c>
+      <c r="H70" s="38"/>
       <c r="I70" s="38"/>
       <c r="J70" s="38"/>
       <c r="K70" s="38"/>
@@ -14382,25 +14388,41 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="53"/>
+        <v>160</v>
+      </c>
+      <c r="B71" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="C71" s="57" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D71" s="53" t="s">
+        <v>1156</v>
+      </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
+      <c r="H71" s="57" t="s">
+        <v>1157</v>
+      </c>
       <c r="I71" s="38"/>
       <c r="J71" s="38"/>
       <c r="K71" s="38"/>
       <c r="L71" s="38"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="53"/>
+      <c r="A72" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="57" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C72" s="57" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D72" s="51" t="s">
+        <v>1160</v>
+      </c>
       <c r="E72" s="38"/>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
@@ -14411,46 +14433,46 @@
       <c r="L72" s="38"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="B73" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="C73" s="57" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D73" s="53" t="s">
-        <v>1156</v>
+      <c r="A73" s="51" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B73" s="51" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D73" s="51" t="s">
+        <v>1163</v>
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
-      <c r="H73" s="57" t="s">
-        <v>1157</v>
-      </c>
+      <c r="H73" s="38"/>
       <c r="I73" s="38"/>
       <c r="J73" s="38"/>
       <c r="K73" s="38"/>
       <c r="L73" s="38"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="B74" s="57" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C74" s="57" t="s">
-        <v>1159</v>
+      <c r="A74" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="51" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>1165</v>
       </c>
       <c r="D74" s="51" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
       <c r="E74" s="38"/>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
+      <c r="H74" s="57" t="s">
+        <v>1167</v>
+      </c>
       <c r="I74" s="38"/>
       <c r="J74" s="38"/>
       <c r="K74" s="38"/>
@@ -14461,13 +14483,13 @@
         <v>1161</v>
       </c>
       <c r="B75" s="51" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="E75" s="38"/>
       <c r="F75" s="38"/>
@@ -14483,19 +14505,19 @@
         <v>67</v>
       </c>
       <c r="B76" s="51" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="D76" s="51" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
       <c r="H76" s="57" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="I76" s="38"/>
       <c r="J76" s="38"/>
@@ -14507,13 +14529,13 @@
         <v>1161</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="D77" s="51" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38"/>
@@ -14529,19 +14551,19 @@
         <v>67</v>
       </c>
       <c r="B78" s="51" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D78" s="51" t="s">
-        <v>1172</v>
+        <v>1177</v>
+      </c>
+      <c r="D78" s="57" t="s">
+        <v>1178</v>
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
       <c r="H78" s="57" t="s">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="I78" s="38"/>
       <c r="J78" s="38"/>
@@ -14553,59 +14575,51 @@
         <v>1161</v>
       </c>
       <c r="B79" s="51" t="s">
-        <v>1174</v>
+        <v>1180</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="D79" s="51" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38"/>
       <c r="G79" s="38"/>
       <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="38"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="51" t="s">
         <v>67</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D80" s="57" t="s">
-        <v>1178</v>
+        <v>1183</v>
+      </c>
+      <c r="D80" s="51" t="s">
+        <v>1184</v>
       </c>
       <c r="E80" s="38"/>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
       <c r="H80" s="57" t="s">
-        <v>1179</v>
-      </c>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="38"/>
+        <v>1185</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="51" t="s">
         <v>1161</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>1180</v>
+        <v>1186</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
       <c r="D81" s="51" t="s">
-        <v>1181</v>
+        <v>1188</v>
       </c>
       <c r="E81" s="38"/>
       <c r="F81" s="38"/>
@@ -14617,19 +14631,19 @@
         <v>67</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>1182</v>
+        <v>1189</v>
       </c>
       <c r="C82" s="51" t="s">
-        <v>1183</v>
+        <v>1190</v>
       </c>
       <c r="D82" s="51" t="s">
-        <v>1184</v>
+        <v>1191</v>
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
       <c r="H82" s="57" t="s">
-        <v>1185</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -14637,13 +14651,13 @@
         <v>1161</v>
       </c>
       <c r="B83" s="51" t="s">
-        <v>1186</v>
+        <v>1193</v>
       </c>
       <c r="C83" s="51" t="s">
-        <v>1187</v>
+        <v>1194</v>
       </c>
       <c r="D83" s="51" t="s">
-        <v>1188</v>
+        <v>1195</v>
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38"/>
@@ -14655,19 +14669,19 @@
         <v>67</v>
       </c>
       <c r="B84" s="51" t="s">
-        <v>1189</v>
+        <v>1196</v>
       </c>
       <c r="C84" s="51" t="s">
-        <v>1190</v>
+        <v>1197</v>
       </c>
       <c r="D84" s="51" t="s">
-        <v>1191</v>
+        <v>1198</v>
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
       <c r="H84" s="57" t="s">
-        <v>1192</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -14675,13 +14689,13 @@
         <v>1161</v>
       </c>
       <c r="B85" s="51" t="s">
-        <v>1193</v>
+        <v>1200</v>
       </c>
       <c r="C85" s="51" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D85" s="51" t="s">
-        <v>1195</v>
+        <v>1201</v>
+      </c>
+      <c r="D85" s="57" t="s">
+        <v>1202</v>
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38"/>
@@ -14693,19 +14707,19 @@
         <v>67</v>
       </c>
       <c r="B86" s="51" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C86" s="51" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D86" s="51" t="s">
-        <v>1198</v>
+        <v>1203</v>
+      </c>
+      <c r="C86" s="57" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D86" s="58" t="s">
+        <v>1205</v>
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
       <c r="H86" s="57" t="s">
-        <v>1199</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -14713,13 +14727,13 @@
         <v>1161</v>
       </c>
       <c r="B87" s="51" t="s">
-        <v>1200</v>
+        <v>1207</v>
       </c>
       <c r="C87" s="51" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D87" s="57" t="s">
-        <v>1202</v>
+        <v>1208</v>
+      </c>
+      <c r="D87" s="58" t="s">
+        <v>1209</v>
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38"/>
@@ -14731,19 +14745,19 @@
         <v>67</v>
       </c>
       <c r="B88" s="51" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C88" s="57" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D88" s="58" t="s">
-        <v>1205</v>
+        <v>1210</v>
+      </c>
+      <c r="C88" s="51" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D88" s="51" t="s">
+        <v>1212</v>
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
       <c r="H88" s="57" t="s">
-        <v>1206</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -14751,13 +14765,13 @@
         <v>1161</v>
       </c>
       <c r="B89" s="51" t="s">
-        <v>1207</v>
+        <v>1214</v>
       </c>
       <c r="C89" s="51" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D89" s="58" t="s">
-        <v>1209</v>
+        <v>1215</v>
+      </c>
+      <c r="D89" s="57" t="s">
+        <v>1216</v>
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38"/>
@@ -14769,33 +14783,33 @@
         <v>67</v>
       </c>
       <c r="B90" s="51" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C90" s="51" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D90" s="51" t="s">
-        <v>1212</v>
+        <v>1217</v>
+      </c>
+      <c r="C90" s="57" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D90" s="57" t="s">
+        <v>1219</v>
       </c>
       <c r="E90" s="38"/>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
       <c r="H90" s="57" t="s">
-        <v>1213</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="51" t="s">
         <v>1161</v>
       </c>
-      <c r="B91" s="51" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C91" s="51" t="s">
-        <v>1215</v>
+      <c r="B91" s="57" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C91" s="57" t="s">
+        <v>1222</v>
       </c>
       <c r="D91" s="57" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="E91" s="38"/>
       <c r="F91" s="38"/>
@@ -14807,19 +14821,19 @@
         <v>67</v>
       </c>
       <c r="B92" s="51" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="C92" s="57" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D92" s="57" t="s">
-        <v>1219</v>
+        <v>1224</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>1225</v>
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
       <c r="H92" s="57" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -14827,13 +14841,13 @@
         <v>1161</v>
       </c>
       <c r="B93" s="57" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="C93" s="57" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D93" s="57" t="s">
-        <v>1222</v>
+        <v>1228</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>1228</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38"/>
@@ -14845,19 +14859,19 @@
         <v>67</v>
       </c>
       <c r="B94" s="51" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="C94" s="57" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
       <c r="H94" s="57" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -14865,13 +14879,13 @@
         <v>1161</v>
       </c>
       <c r="B95" s="57" t="s">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="C95" s="57" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38"/>
@@ -14883,19 +14897,19 @@
         <v>67</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="C96" s="57" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>1231</v>
+        <v>1237</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
       <c r="H96" s="57" t="s">
-        <v>1232</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -14903,13 +14917,13 @@
         <v>1161</v>
       </c>
       <c r="B97" s="57" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="C97" s="57" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>1234</v>
+        <v>1241</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38"/>
@@ -14920,20 +14934,20 @@
       <c r="A98" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B98" s="51" t="s">
-        <v>1235</v>
+      <c r="B98" s="57" t="s">
+        <v>1242</v>
       </c>
       <c r="C98" s="57" t="s">
-        <v>1236</v>
+        <v>1243</v>
       </c>
       <c r="D98" s="38" t="s">
-        <v>1237</v>
+        <v>1244</v>
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
       <c r="H98" s="57" t="s">
-        <v>1238</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -14941,13 +14955,13 @@
         <v>1161</v>
       </c>
       <c r="B99" s="57" t="s">
-        <v>1239</v>
+        <v>1246</v>
       </c>
       <c r="C99" s="57" t="s">
-        <v>1240</v>
+        <v>1247</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38"/>
@@ -14959,19 +14973,19 @@
         <v>67</v>
       </c>
       <c r="B100" s="57" t="s">
-        <v>1242</v>
+        <v>1248</v>
       </c>
       <c r="C100" s="57" t="s">
-        <v>1243</v>
+        <v>1249</v>
       </c>
       <c r="D100" s="38" t="s">
-        <v>1244</v>
+        <v>1250</v>
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
       <c r="H100" s="57" t="s">
-        <v>1245</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -14979,13 +14993,13 @@
         <v>1161</v>
       </c>
       <c r="B101" s="57" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
       <c r="C101" s="57" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38"/>
@@ -14997,19 +15011,19 @@
         <v>67</v>
       </c>
       <c r="B102" s="57" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="C102" s="57" t="s">
-        <v>1249</v>
+        <v>1255</v>
       </c>
       <c r="D102" s="38" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="E102" s="38"/>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
       <c r="H102" s="57" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -15017,13 +15031,13 @@
         <v>1161</v>
       </c>
       <c r="B103" s="57" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="C103" s="57" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
       <c r="D103" s="38" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
       <c r="E103" s="38"/>
       <c r="F103" s="38"/>
@@ -15035,19 +15049,19 @@
         <v>67</v>
       </c>
       <c r="B104" s="57" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="C104" s="57" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D104" s="38" t="s">
-        <v>1256</v>
+        <v>1261</v>
+      </c>
+      <c r="D104" s="57" t="s">
+        <v>1262</v>
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
       <c r="H104" s="57" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -15055,13 +15069,13 @@
         <v>1161</v>
       </c>
       <c r="B105" s="57" t="s">
-        <v>1258</v>
+        <v>1264</v>
       </c>
       <c r="C105" s="57" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>1259</v>
+        <v>1266</v>
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38"/>
@@ -15073,19 +15087,19 @@
         <v>67</v>
       </c>
       <c r="B106" s="57" t="s">
-        <v>1260</v>
+        <v>1267</v>
       </c>
       <c r="C106" s="57" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D106" s="57" t="s">
-        <v>1262</v>
+        <v>1268</v>
+      </c>
+      <c r="D106" s="38" t="s">
+        <v>1269</v>
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
       <c r="H106" s="57" t="s">
-        <v>1263</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -15093,13 +15107,13 @@
         <v>1161</v>
       </c>
       <c r="B107" s="57" t="s">
-        <v>1264</v>
+        <v>1271</v>
       </c>
       <c r="C107" s="57" t="s">
-        <v>1265</v>
+        <v>1272</v>
       </c>
       <c r="D107" s="38" t="s">
-        <v>1266</v>
+        <v>1273</v>
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38"/>
@@ -15111,19 +15125,19 @@
         <v>67</v>
       </c>
       <c r="B108" s="57" t="s">
-        <v>1267</v>
+        <v>1274</v>
       </c>
       <c r="C108" s="57" t="s">
-        <v>1268</v>
+        <v>1275</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>1269</v>
+        <v>1276</v>
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
       <c r="H108" s="57" t="s">
-        <v>1270</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -15131,13 +15145,13 @@
         <v>1161</v>
       </c>
       <c r="B109" s="57" t="s">
-        <v>1271</v>
+        <v>1278</v>
       </c>
       <c r="C109" s="57" t="s">
-        <v>1272</v>
+        <v>1279</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>1273</v>
+        <v>1279</v>
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38"/>
@@ -15149,19 +15163,19 @@
         <v>67</v>
       </c>
       <c r="B110" s="57" t="s">
-        <v>1274</v>
+        <v>1280</v>
       </c>
       <c r="C110" s="57" t="s">
-        <v>1275</v>
+        <v>1281</v>
       </c>
       <c r="D110" s="38" t="s">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
       <c r="H110" s="57" t="s">
-        <v>1277</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -15169,13 +15183,13 @@
         <v>1161</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="C111" s="57" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>1279</v>
+        <v>1286</v>
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38"/>
@@ -15187,19 +15201,19 @@
         <v>67</v>
       </c>
       <c r="B112" s="57" t="s">
-        <v>1280</v>
+        <v>1287</v>
       </c>
       <c r="C112" s="57" t="s">
-        <v>1281</v>
+        <v>1288</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>1282</v>
+        <v>1289</v>
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
       <c r="H112" s="57" t="s">
-        <v>1283</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -15207,13 +15221,13 @@
         <v>1161</v>
       </c>
       <c r="B113" s="57" t="s">
-        <v>1284</v>
+        <v>1291</v>
       </c>
       <c r="C113" s="57" t="s">
-        <v>1285</v>
+        <v>1292</v>
       </c>
       <c r="D113" s="38" t="s">
-        <v>1286</v>
+        <v>1293</v>
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38"/>
@@ -15225,19 +15239,19 @@
         <v>67</v>
       </c>
       <c r="B114" s="57" t="s">
-        <v>1287</v>
+        <v>1294</v>
       </c>
       <c r="C114" s="57" t="s">
-        <v>1288</v>
+        <v>1295</v>
       </c>
       <c r="D114" s="38" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
       <c r="E114" s="38"/>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
       <c r="H114" s="57" t="s">
-        <v>1290</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -15245,13 +15259,13 @@
         <v>1161</v>
       </c>
       <c r="B115" s="57" t="s">
-        <v>1291</v>
+        <v>1298</v>
       </c>
       <c r="C115" s="57" t="s">
-        <v>1292</v>
+        <v>1299</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>1293</v>
+        <v>1300</v>
       </c>
       <c r="E115" s="38"/>
       <c r="F115" s="38"/>
@@ -15263,216 +15277,168 @@
         <v>67</v>
       </c>
       <c r="B116" s="57" t="s">
-        <v>1294</v>
+        <v>1301</v>
       </c>
       <c r="C116" s="57" t="s">
-        <v>1295</v>
+        <v>1302</v>
       </c>
       <c r="D116" s="38" t="s">
-        <v>1296</v>
+        <v>1303</v>
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
       <c r="H116" s="57" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="51" t="s">
-        <v>1161</v>
+        <v>178</v>
       </c>
       <c r="B117" s="57" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C117" s="57" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D117" s="38" t="s">
-        <v>1300</v>
+        <v>1305</v>
+      </c>
+      <c r="C117" s="52" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D117" s="53" t="s">
+        <v>1307</v>
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
-      <c r="H117" s="38"/>
+      <c r="H117" s="57"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="51" t="s">
-        <v>67</v>
+      <c r="A118" s="57" t="s">
+        <v>312</v>
       </c>
       <c r="B118" s="57" t="s">
-        <v>1301</v>
+        <v>1308</v>
       </c>
       <c r="C118" s="57" t="s">
-        <v>1302</v>
+        <v>1148</v>
       </c>
       <c r="D118" s="38" t="s">
-        <v>1303</v>
+        <v>1149</v>
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
-      <c r="H118" s="57" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="H118" s="57"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="B119" s="57" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C119" s="52" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D119" s="53" t="s">
-        <v>1307</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B119" s="38"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="38"/>
       <c r="E119" s="38"/>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
-      <c r="H119" s="57"/>
+      <c r="H119" s="38"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="57" t="s">
-        <v>312</v>
+      <c r="A120" s="51" t="s">
+        <v>160</v>
       </c>
       <c r="B120" s="57" t="s">
-        <v>1308</v>
+        <v>315</v>
       </c>
       <c r="C120" s="57" t="s">
-        <v>1148</v>
+        <v>1309</v>
       </c>
       <c r="D120" s="38" t="s">
-        <v>1149</v>
+        <v>1310</v>
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
-      <c r="H120" s="57"/>
+      <c r="H120" s="57" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B121" s="38"/>
-      <c r="C121" s="38"/>
-      <c r="D121" s="38"/>
+      <c r="A121" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="B121" s="57" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C121" s="57" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D121" s="57" t="s">
+        <v>1314</v>
+      </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
       <c r="H121" s="38"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="51"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="38"/>
-      <c r="D122" s="38"/>
+      <c r="A122" s="57" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B122" s="57" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C122" s="57" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D122" s="38" t="s">
+        <v>1318</v>
+      </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38"/>
       <c r="G122" s="38"/>
       <c r="H122" s="38"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="51" t="s">
-        <v>160</v>
+      <c r="A123" s="57" t="s">
+        <v>39</v>
       </c>
       <c r="B123" s="57" t="s">
-        <v>315</v>
+        <v>1319</v>
       </c>
       <c r="C123" s="57" t="s">
-        <v>1309</v>
+        <v>1320</v>
       </c>
       <c r="D123" s="38" t="s">
-        <v>1310</v>
+        <v>1321</v>
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
       <c r="H123" s="57" t="s">
-        <v>1311</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="B124" s="57" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C124" s="57" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D124" s="57" t="s">
-        <v>1314</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B124" s="57"/>
+      <c r="C124" s="57"/>
+      <c r="D124" s="38"/>
       <c r="E124" s="38"/>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
-      <c r="H124" s="38"/>
+      <c r="H124" s="57"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="57" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B125" s="57" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C125" s="57" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D125" s="38" t="s">
-        <v>1318</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B125" s="38"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="38"/>
       <c r="E125" s="38"/>
       <c r="F125" s="38"/>
       <c r="G125" s="38"/>
       <c r="H125" s="38"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="B126" s="57" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C126" s="57" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D126" s="38" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E126" s="38"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="38"/>
-      <c r="H126" s="57" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B127" s="57"/>
-      <c r="C127" s="57"/>
-      <c r="D127" s="38"/>
-      <c r="E127" s="38"/>
-      <c r="F127" s="38"/>
-      <c r="G127" s="38"/>
-      <c r="H127" s="57"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="B128" s="38"/>
-      <c r="C128" s="38"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="38"/>
-      <c r="F128" s="38"/>
-      <c r="G128" s="38"/>
-      <c r="H128" s="38"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -3377,9 +3377,6 @@
     <t>L'enfant a-t-il déjà reçu une injection sur la partie supérieure de la cuisse au cours des deux premières années de sa vie - il s'agit d'une vaccination quadruple ou penta pour le protéger contre des maladies comme le tétanos, la coqueluche, la diphtérie, la grippe ou l'hépatite ?</t>
   </si>
   <si>
-    <t>num_quand_penta_woc</t>
-  </si>
-  <si>
     <t>How many times?</t>
   </si>
   <si>
@@ -4271,6 +4268,9 @@
   </si>
   <si>
     <t>${care_fever} = "no" or ${care_fever} = "don’t_know"</t>
+  </si>
+  <si>
+    <t>num_quad_penta_woc</t>
   </si>
 </sst>
 </file>
@@ -5786,7 +5786,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="9" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -6263,7 +6263,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="H68" s="13" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I68" s="13"/>
     </row>
@@ -7291,7 +7291,7 @@
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
       <c r="H111" s="14" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
@@ -7315,7 +7315,7 @@
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
       <c r="H112" s="14" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
@@ -7339,7 +7339,7 @@
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
       <c r="H113" s="14" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -12822,8 +12822,8 @@
   <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13959,19 +13959,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="57" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C51" s="58" t="s">
         <v>1091</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="D51" s="52" t="s">
         <v>1092</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>1093</v>
       </c>
       <c r="E51" s="52"/>
       <c r="F51" s="52"/>
       <c r="G51" s="57"/>
       <c r="H51" s="51" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I51" s="51"/>
     </row>
@@ -13980,19 +13980,19 @@
         <v>312</v>
       </c>
       <c r="B52" s="57" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C52" s="58" t="s">
         <v>1095</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="D52" s="52" t="s">
         <v>1096</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="E52" s="52" t="s">
         <v>1097</v>
       </c>
-      <c r="E52" s="52" t="s">
+      <c r="F52" s="52" t="s">
         <v>1098</v>
-      </c>
-      <c r="F52" s="52" t="s">
-        <v>1099</v>
       </c>
       <c r="G52" s="57"/>
       <c r="H52" s="51"/>
@@ -14003,19 +14003,19 @@
         <v>49</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C53" s="58" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D53" s="52" t="s">
         <v>1092</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>1093</v>
       </c>
       <c r="E53" s="52"/>
       <c r="F53" s="52"/>
       <c r="G53" s="57"/>
       <c r="H53" s="51" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I53" s="57"/>
     </row>
@@ -14024,19 +14024,19 @@
         <v>312</v>
       </c>
       <c r="B54" s="57" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C54" s="58" t="s">
         <v>1102</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="D54" s="52" t="s">
         <v>1103</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="E54" s="52" t="s">
         <v>1104</v>
       </c>
-      <c r="E54" s="52" t="s">
+      <c r="F54" s="52" t="s">
         <v>1105</v>
-      </c>
-      <c r="F54" s="52" t="s">
-        <v>1106</v>
       </c>
       <c r="G54" s="57"/>
       <c r="H54" s="51"/>
@@ -14047,19 +14047,19 @@
         <v>49</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C55" s="58" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D55" s="52" t="s">
         <v>1092</v>
-      </c>
-      <c r="D55" s="52" t="s">
-        <v>1093</v>
       </c>
       <c r="E55" s="52"/>
       <c r="F55" s="52"/>
       <c r="G55" s="57"/>
       <c r="H55" s="57" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I55" s="57"/>
     </row>
@@ -14068,19 +14068,19 @@
         <v>49</v>
       </c>
       <c r="B56" s="57" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C56" s="58" t="s">
         <v>1109</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="D56" s="52" t="s">
         <v>1110</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>1111</v>
       </c>
       <c r="E56" s="52"/>
       <c r="F56" s="52"/>
       <c r="G56" s="57"/>
       <c r="H56" s="57" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I56" s="57"/>
     </row>
@@ -14089,19 +14089,19 @@
         <v>49</v>
       </c>
       <c r="B57" s="57" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C57" s="58" t="s">
         <v>1112</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="D57" s="52" t="s">
         <v>1113</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>1114</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="52"/>
       <c r="G57" s="57"/>
       <c r="H57" s="57" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I57" s="57"/>
     </row>
@@ -14110,13 +14110,13 @@
         <v>312</v>
       </c>
       <c r="B58" s="57" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C58" s="58" t="s">
         <v>1115</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="D58" s="52" t="s">
         <v>1116</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>1117</v>
       </c>
       <c r="E58" s="52"/>
       <c r="F58" s="52"/>
@@ -14129,19 +14129,19 @@
         <v>49</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C59" s="58" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D59" s="52" t="s">
         <v>1092</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>1093</v>
       </c>
       <c r="E59" s="52"/>
       <c r="F59" s="52"/>
       <c r="G59" s="57"/>
       <c r="H59" s="51" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I59" s="51"/>
     </row>
@@ -14150,19 +14150,19 @@
         <v>49</v>
       </c>
       <c r="B60" s="57" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C60" s="58" t="s">
         <v>1120</v>
       </c>
-      <c r="C60" s="58" t="s">
+      <c r="D60" s="52" t="s">
         <v>1121</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>1122</v>
       </c>
       <c r="E60" s="52"/>
       <c r="F60" s="52"/>
       <c r="G60" s="57"/>
       <c r="H60" s="51" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I60" s="51"/>
     </row>
@@ -14171,19 +14171,19 @@
         <v>49</v>
       </c>
       <c r="B61" s="57" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C61" s="58" t="s">
         <v>1123</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="D61" s="52" t="s">
         <v>1124</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>1125</v>
       </c>
       <c r="E61" s="52"/>
       <c r="F61" s="52"/>
       <c r="G61" s="57"/>
       <c r="H61" s="51" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I61" s="57"/>
     </row>
@@ -14192,13 +14192,13 @@
         <v>312</v>
       </c>
       <c r="B62" s="57" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C62" s="58" t="s">
         <v>1126</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="D62" s="52" t="s">
         <v>1127</v>
-      </c>
-      <c r="D62" s="52" t="s">
-        <v>1128</v>
       </c>
       <c r="E62" s="52"/>
       <c r="F62" s="52"/>
@@ -14212,34 +14212,34 @@
         <v>49</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C63" s="58" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D63" s="52" t="s">
         <v>1092</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>1093</v>
       </c>
       <c r="E63" s="52"/>
       <c r="F63" s="52"/>
       <c r="G63" s="57"/>
       <c r="H63" s="57" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I63" s="57"/>
     </row>
     <row r="64" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="57" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B64" s="57" t="s">
         <v>1131</v>
       </c>
-      <c r="B64" s="57" t="s">
+      <c r="C64" s="58" t="s">
         <v>1132</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="D64" s="52" t="s">
         <v>1133</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>1134</v>
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="52"/>
@@ -14255,19 +14255,19 @@
         <v>39</v>
       </c>
       <c r="B65" s="57" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C65" s="58" t="s">
         <v>1135</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="D65" s="52" t="s">
         <v>1136</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>1137</v>
       </c>
       <c r="E65" s="52"/>
       <c r="F65" s="52"/>
       <c r="G65" s="57"/>
       <c r="H65" s="57" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I65" s="57"/>
       <c r="J65" s="57"/>
@@ -14279,19 +14279,19 @@
         <v>39</v>
       </c>
       <c r="B66" s="57" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C66" s="58" t="s">
         <v>1139</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="D66" s="52" t="s">
         <v>1140</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="E66" s="52" t="s">
         <v>1141</v>
       </c>
-      <c r="E66" s="52" t="s">
+      <c r="F66" s="52" t="s">
         <v>1142</v>
-      </c>
-      <c r="F66" s="52" t="s">
-        <v>1143</v>
       </c>
       <c r="G66" s="57"/>
       <c r="H66" s="57"/>
@@ -14305,13 +14305,13 @@
         <v>312</v>
       </c>
       <c r="B67" s="57" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C67" s="58" t="s">
         <v>1144</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="D67" s="53" t="s">
         <v>1145</v>
-      </c>
-      <c r="D67" s="53" t="s">
-        <v>1146</v>
       </c>
       <c r="E67" s="38"/>
       <c r="F67" s="38"/>
@@ -14327,19 +14327,19 @@
         <v>312</v>
       </c>
       <c r="B68" s="57" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C68" s="57" t="s">
         <v>1147</v>
       </c>
-      <c r="C68" s="57" t="s">
+      <c r="D68" s="53" t="s">
         <v>1148</v>
-      </c>
-      <c r="D68" s="53" t="s">
-        <v>1149</v>
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
       <c r="H68" s="57" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="I68" s="38"/>
       <c r="J68" s="38"/>
@@ -14351,19 +14351,19 @@
         <v>178</v>
       </c>
       <c r="B69" s="57" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C69" s="52" t="s">
         <v>1151</v>
       </c>
-      <c r="C69" s="52" t="s">
+      <c r="D69" s="53" t="s">
         <v>1152</v>
-      </c>
-      <c r="D69" s="53" t="s">
-        <v>1153</v>
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
       <c r="H69" s="57" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="I69" s="38"/>
       <c r="J69" s="38"/>
@@ -14394,16 +14394,16 @@
         <v>316</v>
       </c>
       <c r="C71" s="57" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D71" s="53" t="s">
         <v>1155</v>
-      </c>
-      <c r="D71" s="53" t="s">
-        <v>1156</v>
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
       <c r="H71" s="57" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I71" s="38"/>
       <c r="J71" s="38"/>
@@ -14415,13 +14415,13 @@
         <v>178</v>
       </c>
       <c r="B72" s="57" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C72" s="57" t="s">
         <v>1158</v>
       </c>
-      <c r="C72" s="57" t="s">
+      <c r="D72" s="51" t="s">
         <v>1159</v>
-      </c>
-      <c r="D72" s="51" t="s">
-        <v>1160</v>
       </c>
       <c r="E72" s="38"/>
       <c r="F72" s="38"/>
@@ -14434,16 +14434,16 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="51" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B73" s="51" t="s">
         <v>1161</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="C73" s="51" t="s">
         <v>1162</v>
       </c>
-      <c r="C73" s="51" t="s">
-        <v>1163</v>
-      </c>
       <c r="D73" s="51" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38"/>
@@ -14459,19 +14459,19 @@
         <v>67</v>
       </c>
       <c r="B74" s="51" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C74" s="51" t="s">
         <v>1164</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="D74" s="51" t="s">
         <v>1165</v>
-      </c>
-      <c r="D74" s="51" t="s">
-        <v>1166</v>
       </c>
       <c r="E74" s="38"/>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
       <c r="H74" s="57" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I74" s="38"/>
       <c r="J74" s="38"/>
@@ -14480,16 +14480,16 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B75" s="51" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C75" s="51" t="s">
         <v>1168</v>
       </c>
-      <c r="C75" s="51" t="s">
-        <v>1169</v>
-      </c>
       <c r="D75" s="51" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E75" s="38"/>
       <c r="F75" s="38"/>
@@ -14505,19 +14505,19 @@
         <v>67</v>
       </c>
       <c r="B76" s="51" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C76" s="51" t="s">
         <v>1170</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="D76" s="51" t="s">
         <v>1171</v>
-      </c>
-      <c r="D76" s="51" t="s">
-        <v>1172</v>
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
       <c r="H76" s="57" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I76" s="38"/>
       <c r="J76" s="38"/>
@@ -14526,16 +14526,16 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B77" s="51" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C77" s="51" t="s">
         <v>1174</v>
       </c>
-      <c r="C77" s="51" t="s">
-        <v>1175</v>
-      </c>
       <c r="D77" s="51" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38"/>
@@ -14551,19 +14551,19 @@
         <v>67</v>
       </c>
       <c r="B78" s="51" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C78" s="51" t="s">
         <v>1176</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="D78" s="57" t="s">
         <v>1177</v>
-      </c>
-      <c r="D78" s="57" t="s">
-        <v>1178</v>
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
       <c r="H78" s="57" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I78" s="38"/>
       <c r="J78" s="38"/>
@@ -14572,16 +14572,16 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B79" s="51" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C79" s="51" t="s">
         <v>1180</v>
       </c>
-      <c r="C79" s="51" t="s">
-        <v>1181</v>
-      </c>
       <c r="D79" s="51" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38"/>
@@ -14593,33 +14593,33 @@
         <v>67</v>
       </c>
       <c r="B80" s="51" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C80" s="51" t="s">
         <v>1182</v>
       </c>
-      <c r="C80" s="51" t="s">
+      <c r="D80" s="51" t="s">
         <v>1183</v>
-      </c>
-      <c r="D80" s="51" t="s">
-        <v>1184</v>
       </c>
       <c r="E80" s="38"/>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
       <c r="H80" s="57" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B81" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C81" s="51" t="s">
         <v>1186</v>
       </c>
-      <c r="C81" s="51" t="s">
+      <c r="D81" s="51" t="s">
         <v>1187</v>
-      </c>
-      <c r="D81" s="51" t="s">
-        <v>1188</v>
       </c>
       <c r="E81" s="38"/>
       <c r="F81" s="38"/>
@@ -14631,33 +14631,33 @@
         <v>67</v>
       </c>
       <c r="B82" s="51" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C82" s="51" t="s">
         <v>1189</v>
       </c>
-      <c r="C82" s="51" t="s">
+      <c r="D82" s="51" t="s">
         <v>1190</v>
-      </c>
-      <c r="D82" s="51" t="s">
-        <v>1191</v>
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
       <c r="H82" s="57" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B83" s="51" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C83" s="51" t="s">
         <v>1193</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="D83" s="51" t="s">
         <v>1194</v>
-      </c>
-      <c r="D83" s="51" t="s">
-        <v>1195</v>
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38"/>
@@ -14669,33 +14669,33 @@
         <v>67</v>
       </c>
       <c r="B84" s="51" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C84" s="51" t="s">
         <v>1196</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="D84" s="51" t="s">
         <v>1197</v>
-      </c>
-      <c r="D84" s="51" t="s">
-        <v>1198</v>
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
       <c r="H84" s="57" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B85" s="51" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C85" s="51" t="s">
         <v>1200</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="D85" s="57" t="s">
         <v>1201</v>
-      </c>
-      <c r="D85" s="57" t="s">
-        <v>1202</v>
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38"/>
@@ -14707,33 +14707,33 @@
         <v>67</v>
       </c>
       <c r="B86" s="51" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C86" s="57" t="s">
         <v>1203</v>
       </c>
-      <c r="C86" s="57" t="s">
+      <c r="D86" s="58" t="s">
         <v>1204</v>
-      </c>
-      <c r="D86" s="58" t="s">
-        <v>1205</v>
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
       <c r="H86" s="57" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B87" s="51" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C87" s="51" t="s">
         <v>1207</v>
       </c>
-      <c r="C87" s="51" t="s">
+      <c r="D87" s="58" t="s">
         <v>1208</v>
-      </c>
-      <c r="D87" s="58" t="s">
-        <v>1209</v>
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38"/>
@@ -14745,33 +14745,33 @@
         <v>67</v>
       </c>
       <c r="B88" s="51" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C88" s="51" t="s">
         <v>1210</v>
       </c>
-      <c r="C88" s="51" t="s">
+      <c r="D88" s="51" t="s">
         <v>1211</v>
-      </c>
-      <c r="D88" s="51" t="s">
-        <v>1212</v>
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
       <c r="H88" s="57" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B89" s="51" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C89" s="51" t="s">
         <v>1214</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="D89" s="57" t="s">
         <v>1215</v>
-      </c>
-      <c r="D89" s="57" t="s">
-        <v>1216</v>
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38"/>
@@ -14783,33 +14783,33 @@
         <v>67</v>
       </c>
       <c r="B90" s="51" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C90" s="57" t="s">
         <v>1217</v>
       </c>
-      <c r="C90" s="57" t="s">
+      <c r="D90" s="57" t="s">
         <v>1218</v>
-      </c>
-      <c r="D90" s="57" t="s">
-        <v>1219</v>
       </c>
       <c r="E90" s="38"/>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
       <c r="H90" s="57" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B91" s="57" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C91" s="57" t="s">
         <v>1221</v>
       </c>
-      <c r="C91" s="57" t="s">
-        <v>1222</v>
-      </c>
       <c r="D91" s="57" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E91" s="38"/>
       <c r="F91" s="38"/>
@@ -14821,33 +14821,33 @@
         <v>67</v>
       </c>
       <c r="B92" s="51" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C92" s="57" t="s">
         <v>1223</v>
       </c>
-      <c r="C92" s="57" t="s">
+      <c r="D92" s="38" t="s">
         <v>1224</v>
-      </c>
-      <c r="D92" s="38" t="s">
-        <v>1225</v>
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
       <c r="H92" s="57" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B93" s="57" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C93" s="57" t="s">
         <v>1227</v>
       </c>
-      <c r="C93" s="57" t="s">
-        <v>1228</v>
-      </c>
       <c r="D93" s="38" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38"/>
@@ -14859,33 +14859,33 @@
         <v>67</v>
       </c>
       <c r="B94" s="51" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C94" s="57" t="s">
         <v>1229</v>
       </c>
-      <c r="C94" s="57" t="s">
+      <c r="D94" s="38" t="s">
         <v>1230</v>
-      </c>
-      <c r="D94" s="38" t="s">
-        <v>1231</v>
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
       <c r="H94" s="57" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B95" s="57" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C95" s="57" t="s">
         <v>1233</v>
       </c>
-      <c r="C95" s="57" t="s">
-        <v>1234</v>
-      </c>
       <c r="D95" s="38" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38"/>
@@ -14897,33 +14897,33 @@
         <v>67</v>
       </c>
       <c r="B96" s="51" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C96" s="57" t="s">
         <v>1235</v>
       </c>
-      <c r="C96" s="57" t="s">
+      <c r="D96" s="38" t="s">
         <v>1236</v>
-      </c>
-      <c r="D96" s="38" t="s">
-        <v>1237</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
       <c r="H96" s="57" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B97" s="57" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C97" s="57" t="s">
         <v>1239</v>
       </c>
-      <c r="C97" s="57" t="s">
+      <c r="D97" s="38" t="s">
         <v>1240</v>
-      </c>
-      <c r="D97" s="38" t="s">
-        <v>1241</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38"/>
@@ -14935,33 +14935,33 @@
         <v>67</v>
       </c>
       <c r="B98" s="57" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C98" s="57" t="s">
         <v>1242</v>
       </c>
-      <c r="C98" s="57" t="s">
+      <c r="D98" s="38" t="s">
         <v>1243</v>
-      </c>
-      <c r="D98" s="38" t="s">
-        <v>1244</v>
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
       <c r="H98" s="57" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B99" s="57" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C99" s="57" t="s">
         <v>1246</v>
       </c>
-      <c r="C99" s="57" t="s">
-        <v>1247</v>
-      </c>
       <c r="D99" s="38" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38"/>
@@ -14973,33 +14973,33 @@
         <v>67</v>
       </c>
       <c r="B100" s="57" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C100" s="57" t="s">
         <v>1248</v>
       </c>
-      <c r="C100" s="57" t="s">
+      <c r="D100" s="38" t="s">
         <v>1249</v>
-      </c>
-      <c r="D100" s="38" t="s">
-        <v>1250</v>
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
       <c r="H100" s="57" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B101" s="57" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C101" s="57" t="s">
         <v>1252</v>
       </c>
-      <c r="C101" s="57" t="s">
-        <v>1253</v>
-      </c>
       <c r="D101" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38"/>
@@ -15011,33 +15011,33 @@
         <v>67</v>
       </c>
       <c r="B102" s="57" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C102" s="57" t="s">
         <v>1254</v>
       </c>
-      <c r="C102" s="57" t="s">
+      <c r="D102" s="38" t="s">
         <v>1255</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>1256</v>
       </c>
       <c r="E102" s="38"/>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
       <c r="H102" s="57" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B103" s="57" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C103" s="57" t="s">
         <v>1258</v>
       </c>
-      <c r="C103" s="57" t="s">
-        <v>1259</v>
-      </c>
       <c r="D103" s="38" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E103" s="38"/>
       <c r="F103" s="38"/>
@@ -15049,33 +15049,33 @@
         <v>67</v>
       </c>
       <c r="B104" s="57" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C104" s="57" t="s">
         <v>1260</v>
       </c>
-      <c r="C104" s="57" t="s">
+      <c r="D104" s="57" t="s">
         <v>1261</v>
-      </c>
-      <c r="D104" s="57" t="s">
-        <v>1262</v>
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
       <c r="H104" s="57" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B105" s="57" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C105" s="57" t="s">
         <v>1264</v>
       </c>
-      <c r="C105" s="57" t="s">
+      <c r="D105" s="38" t="s">
         <v>1265</v>
-      </c>
-      <c r="D105" s="38" t="s">
-        <v>1266</v>
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38"/>
@@ -15087,33 +15087,33 @@
         <v>67</v>
       </c>
       <c r="B106" s="57" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C106" s="57" t="s">
         <v>1267</v>
       </c>
-      <c r="C106" s="57" t="s">
+      <c r="D106" s="38" t="s">
         <v>1268</v>
-      </c>
-      <c r="D106" s="38" t="s">
-        <v>1269</v>
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
       <c r="H106" s="57" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B107" s="57" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C107" s="57" t="s">
         <v>1271</v>
       </c>
-      <c r="C107" s="57" t="s">
+      <c r="D107" s="38" t="s">
         <v>1272</v>
-      </c>
-      <c r="D107" s="38" t="s">
-        <v>1273</v>
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38"/>
@@ -15125,33 +15125,33 @@
         <v>67</v>
       </c>
       <c r="B108" s="57" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C108" s="57" t="s">
         <v>1274</v>
       </c>
-      <c r="C108" s="57" t="s">
+      <c r="D108" s="38" t="s">
         <v>1275</v>
-      </c>
-      <c r="D108" s="38" t="s">
-        <v>1276</v>
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
       <c r="H108" s="57" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B109" s="57" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C109" s="57" t="s">
         <v>1278</v>
       </c>
-      <c r="C109" s="57" t="s">
-        <v>1279</v>
-      </c>
       <c r="D109" s="38" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38"/>
@@ -15163,33 +15163,33 @@
         <v>67</v>
       </c>
       <c r="B110" s="57" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C110" s="57" t="s">
         <v>1280</v>
       </c>
-      <c r="C110" s="57" t="s">
+      <c r="D110" s="38" t="s">
         <v>1281</v>
-      </c>
-      <c r="D110" s="38" t="s">
-        <v>1282</v>
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
       <c r="H110" s="57" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B111" s="57" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C111" s="57" t="s">
         <v>1284</v>
       </c>
-      <c r="C111" s="57" t="s">
+      <c r="D111" s="38" t="s">
         <v>1285</v>
-      </c>
-      <c r="D111" s="38" t="s">
-        <v>1286</v>
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38"/>
@@ -15201,33 +15201,33 @@
         <v>67</v>
       </c>
       <c r="B112" s="57" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C112" s="57" t="s">
         <v>1287</v>
       </c>
-      <c r="C112" s="57" t="s">
+      <c r="D112" s="38" t="s">
         <v>1288</v>
-      </c>
-      <c r="D112" s="38" t="s">
-        <v>1289</v>
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
       <c r="H112" s="57" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B113" s="57" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C113" s="57" t="s">
         <v>1291</v>
       </c>
-      <c r="C113" s="57" t="s">
+      <c r="D113" s="38" t="s">
         <v>1292</v>
-      </c>
-      <c r="D113" s="38" t="s">
-        <v>1293</v>
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38"/>
@@ -15239,33 +15239,33 @@
         <v>67</v>
       </c>
       <c r="B114" s="57" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C114" s="57" t="s">
         <v>1294</v>
       </c>
-      <c r="C114" s="57" t="s">
+      <c r="D114" s="38" t="s">
         <v>1295</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>1296</v>
       </c>
       <c r="E114" s="38"/>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
       <c r="H114" s="57" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="51" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B115" s="57" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C115" s="57" t="s">
         <v>1298</v>
       </c>
-      <c r="C115" s="57" t="s">
+      <c r="D115" s="38" t="s">
         <v>1299</v>
-      </c>
-      <c r="D115" s="38" t="s">
-        <v>1300</v>
       </c>
       <c r="E115" s="38"/>
       <c r="F115" s="38"/>
@@ -15277,19 +15277,19 @@
         <v>67</v>
       </c>
       <c r="B116" s="57" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C116" s="57" t="s">
         <v>1301</v>
       </c>
-      <c r="C116" s="57" t="s">
+      <c r="D116" s="38" t="s">
         <v>1302</v>
-      </c>
-      <c r="D116" s="38" t="s">
-        <v>1303</v>
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
       <c r="H116" s="57" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -15297,13 +15297,13 @@
         <v>178</v>
       </c>
       <c r="B117" s="57" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C117" s="52" t="s">
         <v>1305</v>
       </c>
-      <c r="C117" s="52" t="s">
+      <c r="D117" s="53" t="s">
         <v>1306</v>
-      </c>
-      <c r="D117" s="53" t="s">
-        <v>1307</v>
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38"/>
@@ -15315,13 +15315,13 @@
         <v>312</v>
       </c>
       <c r="B118" s="57" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C118" s="57" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D118" s="38" t="s">
         <v>1148</v>
-      </c>
-      <c r="D118" s="38" t="s">
-        <v>1149</v>
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38"/>
@@ -15348,16 +15348,16 @@
         <v>315</v>
       </c>
       <c r="C120" s="57" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D120" s="38" t="s">
         <v>1309</v>
-      </c>
-      <c r="D120" s="38" t="s">
-        <v>1310</v>
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
       <c r="H120" s="57" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -15365,13 +15365,13 @@
         <v>178</v>
       </c>
       <c r="B121" s="57" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C121" s="57" t="s">
         <v>1312</v>
       </c>
-      <c r="C121" s="57" t="s">
+      <c r="D121" s="57" t="s">
         <v>1313</v>
-      </c>
-      <c r="D121" s="57" t="s">
-        <v>1314</v>
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38"/>
@@ -15380,16 +15380,16 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="57" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B122" s="57" t="s">
         <v>1315</v>
       </c>
-      <c r="B122" s="57" t="s">
+      <c r="C122" s="57" t="s">
         <v>1316</v>
       </c>
-      <c r="C122" s="57" t="s">
+      <c r="D122" s="38" t="s">
         <v>1317</v>
-      </c>
-      <c r="D122" s="38" t="s">
-        <v>1318</v>
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38"/>
@@ -15401,19 +15401,19 @@
         <v>39</v>
       </c>
       <c r="B123" s="57" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C123" s="57" t="s">
         <v>1319</v>
       </c>
-      <c r="C123" s="57" t="s">
+      <c r="D123" s="38" t="s">
         <v>1320</v>
-      </c>
-      <c r="D123" s="38" t="s">
-        <v>1321</v>
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
       <c r="H123" s="57" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -15920,128 +15920,128 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="64" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B33" s="64" t="s">
         <v>1065</v>
       </c>
       <c r="C33" s="64" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D33" s="61" t="s">
         <v>1324</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="64" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B34" s="64" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C34" s="64" t="s">
         <v>1326</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="D34" s="61" t="s">
         <v>1327</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="64" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B35" s="64" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C35" s="64" t="s">
         <v>1329</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="D35" s="61" t="s">
         <v>1330</v>
-      </c>
-      <c r="D35" s="61" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B36" s="64" t="s">
         <v>1332</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="C36" s="64" t="s">
         <v>1333</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="D36" s="61" t="s">
         <v>1334</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B37" s="64" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C37" s="64" t="s">
         <v>1336</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="D37" s="61" t="s">
         <v>1337</v>
-      </c>
-      <c r="D37" s="61" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B38" s="64" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C38" s="64" t="s">
         <v>1339</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="D38" s="61" t="s">
         <v>1340</v>
-      </c>
-      <c r="D38" s="61" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B39" s="64" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C39" s="64" t="s">
         <v>1342</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="D39" s="61" t="s">
         <v>1343</v>
-      </c>
-      <c r="D39" s="61" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B40" s="64" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C40" s="64" t="s">
         <v>1345</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="D40" s="61" t="s">
         <v>1346</v>
-      </c>
-      <c r="D40" s="61" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="64" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B41" s="64" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C41" s="64" t="s">
         <v>1348</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="D41" s="61" t="s">
         <v>1349</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -16049,13 +16049,13 @@
         <v>1044</v>
       </c>
       <c r="B42" s="64" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C42" s="64" t="s">
         <v>1351</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="D42" s="64" t="s">
         <v>1352</v>
-      </c>
-      <c r="D42" s="64" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -16063,13 +16063,13 @@
         <v>1044</v>
       </c>
       <c r="B43" s="64" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C43" s="64" t="s">
         <v>1354</v>
       </c>
-      <c r="C43" s="64" t="s">
+      <c r="D43" s="64" t="s">
         <v>1355</v>
-      </c>
-      <c r="D43" s="64" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -16088,35 +16088,35 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="64" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B45" s="64" t="s">
         <v>1357</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="C45" s="64" t="s">
         <v>1358</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="D45" s="61" t="s">
         <v>1359</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="64" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B46" s="64" t="s">
         <v>366</v>
       </c>
       <c r="C46" s="64" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D46" s="61" t="s">
         <v>1361</v>
-      </c>
-      <c r="D46" s="61" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="64" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B47" s="64" t="s">
         <v>365</v>
@@ -16130,7 +16130,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="64" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B48" s="64" t="s">
         <v>362</v>
@@ -16144,10 +16144,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="64" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C49" s="64" t="s">
         <v>30</v>
@@ -16158,10 +16158,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="64" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C50" s="64" t="s">
         <v>31</v>
@@ -16172,24 +16172,24 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="64" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C51" s="64" t="s">
         <v>358</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="64" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C52" s="64" t="s">
         <v>32</v>
@@ -16200,66 +16200,66 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="64" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B53" s="64" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C53" s="64" t="s">
         <v>1368</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="D53" s="61" t="s">
         <v>1369</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="64" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B54" s="64" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C54" s="64" t="s">
         <v>1371</v>
       </c>
-      <c r="C54" s="64" t="s">
+      <c r="D54" s="61" t="s">
         <v>1372</v>
-      </c>
-      <c r="D54" s="61" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="64" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B55" s="64" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C55" s="64" t="s">
         <v>1374</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="D55" s="61" t="s">
         <v>1375</v>
-      </c>
-      <c r="D55" s="61" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="64" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B56" s="64" t="s">
         <v>877</v>
       </c>
       <c r="C56" s="64" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D56" s="61" t="s">
         <v>1377</v>
-      </c>
-      <c r="D56" s="61" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="64" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B57" s="64" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C57" s="64" t="s">
         <v>33</v>
@@ -16270,21 +16270,21 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="64" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B58" s="64" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C58" s="64" t="s">
         <v>1380</v>
       </c>
-      <c r="C58" s="64" t="s">
+      <c r="D58" s="61" t="s">
         <v>1381</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="64" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B59" s="64" t="s">
         <v>233</v>
@@ -16298,7 +16298,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="64" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B60" s="64" t="s">
         <v>245</v>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -3248,9 +3248,6 @@
     <t>L'enfant a-t-il déjà reçu une "goutte de vaccin dans la bouche" - c'est-à-dire un vaccin contre la polio ?</t>
   </si>
   <si>
-    <t>num_poliodrop_hf_woc</t>
-  </si>
-  <si>
     <t>How many times has the child received a polio drops vaccine at a health facility?</t>
   </si>
   <si>
@@ -3264,9 +3261,6 @@
   </si>
   <si>
     <t>${poliodrop_woc} = "yes"</t>
-  </si>
-  <si>
-    <t>num_poliodrop_camp_woc</t>
   </si>
   <si>
     <t>How many times has the child received a polio drops vaccine during a large campaign, usually involving a large group of children in the area and perhaps vaccinating at your house?</t>
@@ -4271,6 +4265,12 @@
   </si>
   <si>
     <t>num_quad_penta_woc</t>
+  </si>
+  <si>
+    <t>poliodrop_hf_woc</t>
+  </si>
+  <si>
+    <t>poliodrop_camp_woc</t>
   </si>
 </sst>
 </file>
@@ -5786,7 +5786,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="9" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -6263,7 +6263,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="H68" s="13" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="I68" s="13"/>
     </row>
@@ -7291,7 +7291,7 @@
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
       <c r="H111" s="14" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
@@ -7315,7 +7315,7 @@
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
       <c r="H112" s="14" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
@@ -7339,7 +7339,7 @@
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
       <c r="H113" s="14" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -12823,7 +12823,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13842,23 +13842,23 @@
         <v>49</v>
       </c>
       <c r="B46" s="51" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C46" s="58" t="s">
         <v>1072</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="D46" s="58" t="s">
         <v>1073</v>
       </c>
-      <c r="D46" s="58" t="s">
+      <c r="E46" s="52" t="s">
         <v>1074</v>
       </c>
-      <c r="E46" s="52" t="s">
+      <c r="F46" s="52" t="s">
         <v>1075</v>
-      </c>
-      <c r="F46" s="52" t="s">
-        <v>1076</v>
       </c>
       <c r="G46" s="57"/>
       <c r="H46" s="51" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I46" s="57"/>
       <c r="J46" s="57"/>
@@ -13869,23 +13869,23 @@
         <v>49</v>
       </c>
       <c r="B47" s="51" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D47" s="58" t="s">
         <v>1078</v>
       </c>
-      <c r="C47" s="58" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D47" s="58" t="s">
-        <v>1080</v>
-      </c>
       <c r="E47" s="52" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F47" s="52" t="s">
         <v>1075</v>
-      </c>
-      <c r="F47" s="52" t="s">
-        <v>1076</v>
       </c>
       <c r="G47" s="57"/>
       <c r="H47" s="51" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I47" s="57"/>
       <c r="J47" s="57"/>
@@ -13896,13 +13896,13 @@
         <v>312</v>
       </c>
       <c r="B48" s="57" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D48" s="52" t="s">
         <v>1081</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>1083</v>
       </c>
       <c r="E48" s="52"/>
       <c r="F48" s="52"/>
@@ -13915,23 +13915,23 @@
         <v>49</v>
       </c>
       <c r="B49" s="57" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D49" s="52" t="s">
         <v>1084</v>
       </c>
-      <c r="C49" s="58" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>1086</v>
-      </c>
       <c r="E49" s="52" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F49" s="52" t="s">
         <v>1075</v>
-      </c>
-      <c r="F49" s="52" t="s">
-        <v>1076</v>
       </c>
       <c r="G49" s="57"/>
       <c r="H49" s="51" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="I49" s="57"/>
     </row>
@@ -13940,13 +13940,13 @@
         <v>312</v>
       </c>
       <c r="B50" s="57" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D50" s="52" t="s">
         <v>1088</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>1090</v>
       </c>
       <c r="E50" s="52"/>
       <c r="F50" s="52"/>
@@ -13959,19 +13959,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E51" s="52"/>
       <c r="F51" s="52"/>
       <c r="G51" s="57"/>
       <c r="H51" s="51" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="I51" s="51"/>
     </row>
@@ -13980,19 +13980,19 @@
         <v>312</v>
       </c>
       <c r="B52" s="57" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D52" s="52" t="s">
         <v>1094</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="E52" s="52" t="s">
         <v>1095</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="F52" s="52" t="s">
         <v>1096</v>
-      </c>
-      <c r="E52" s="52" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F52" s="52" t="s">
-        <v>1098</v>
       </c>
       <c r="G52" s="57"/>
       <c r="H52" s="51"/>
@@ -14003,19 +14003,19 @@
         <v>49</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E53" s="52"/>
       <c r="F53" s="52"/>
       <c r="G53" s="57"/>
       <c r="H53" s="51" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I53" s="57"/>
     </row>
@@ -14024,19 +14024,19 @@
         <v>312</v>
       </c>
       <c r="B54" s="57" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D54" s="52" t="s">
         <v>1101</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="E54" s="52" t="s">
         <v>1102</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="F54" s="52" t="s">
         <v>1103</v>
-      </c>
-      <c r="E54" s="52" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F54" s="52" t="s">
-        <v>1105</v>
       </c>
       <c r="G54" s="57"/>
       <c r="H54" s="51"/>
@@ -14047,19 +14047,19 @@
         <v>49</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E55" s="52"/>
       <c r="F55" s="52"/>
       <c r="G55" s="57"/>
       <c r="H55" s="57" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="I55" s="57"/>
     </row>
@@ -14068,19 +14068,19 @@
         <v>49</v>
       </c>
       <c r="B56" s="57" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C56" s="58" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D56" s="52" t="s">
         <v>1108</v>
-      </c>
-      <c r="C56" s="58" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>1110</v>
       </c>
       <c r="E56" s="52"/>
       <c r="F56" s="52"/>
       <c r="G56" s="57"/>
       <c r="H56" s="57" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="I56" s="57"/>
     </row>
@@ -14089,19 +14089,19 @@
         <v>49</v>
       </c>
       <c r="B57" s="57" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C57" s="58" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D57" s="52" t="s">
         <v>1111</v>
-      </c>
-      <c r="C57" s="58" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>1113</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="52"/>
       <c r="G57" s="57"/>
       <c r="H57" s="57" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="I57" s="57"/>
     </row>
@@ -14110,13 +14110,13 @@
         <v>312</v>
       </c>
       <c r="B58" s="57" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C58" s="58" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D58" s="52" t="s">
         <v>1114</v>
-      </c>
-      <c r="C58" s="58" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>1116</v>
       </c>
       <c r="E58" s="52"/>
       <c r="F58" s="52"/>
@@ -14129,19 +14129,19 @@
         <v>49</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C59" s="58" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E59" s="52"/>
       <c r="F59" s="52"/>
       <c r="G59" s="57"/>
       <c r="H59" s="51" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="I59" s="51"/>
     </row>
@@ -14150,19 +14150,19 @@
         <v>49</v>
       </c>
       <c r="B60" s="57" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C60" s="58" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D60" s="52" t="s">
         <v>1119</v>
-      </c>
-      <c r="C60" s="58" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>1121</v>
       </c>
       <c r="E60" s="52"/>
       <c r="F60" s="52"/>
       <c r="G60" s="57"/>
       <c r="H60" s="51" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="I60" s="51"/>
     </row>
@@ -14171,19 +14171,19 @@
         <v>49</v>
       </c>
       <c r="B61" s="57" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C61" s="58" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D61" s="52" t="s">
         <v>1122</v>
-      </c>
-      <c r="C61" s="58" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>1124</v>
       </c>
       <c r="E61" s="52"/>
       <c r="F61" s="52"/>
       <c r="G61" s="57"/>
       <c r="H61" s="51" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="I61" s="57"/>
     </row>
@@ -14192,13 +14192,13 @@
         <v>312</v>
       </c>
       <c r="B62" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C62" s="58" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D62" s="52" t="s">
         <v>1125</v>
-      </c>
-      <c r="C62" s="58" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D62" s="52" t="s">
-        <v>1127</v>
       </c>
       <c r="E62" s="52"/>
       <c r="F62" s="52"/>
@@ -14212,34 +14212,34 @@
         <v>49</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C63" s="58" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D63" s="52" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E63" s="52"/>
       <c r="F63" s="52"/>
       <c r="G63" s="57"/>
       <c r="H63" s="57" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="I63" s="57"/>
     </row>
     <row r="64" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="57" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B64" s="57" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C64" s="58" t="s">
         <v>1130</v>
       </c>
-      <c r="B64" s="57" t="s">
+      <c r="D64" s="52" t="s">
         <v>1131</v>
-      </c>
-      <c r="C64" s="58" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>1133</v>
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="52"/>
@@ -14255,19 +14255,19 @@
         <v>39</v>
       </c>
       <c r="B65" s="57" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C65" s="58" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D65" s="52" t="s">
         <v>1134</v>
-      </c>
-      <c r="C65" s="58" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>1136</v>
       </c>
       <c r="E65" s="52"/>
       <c r="F65" s="52"/>
       <c r="G65" s="57"/>
       <c r="H65" s="57" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="I65" s="57"/>
       <c r="J65" s="57"/>
@@ -14279,19 +14279,19 @@
         <v>39</v>
       </c>
       <c r="B66" s="57" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C66" s="58" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D66" s="52" t="s">
         <v>1138</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="E66" s="52" t="s">
         <v>1139</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="F66" s="52" t="s">
         <v>1140</v>
-      </c>
-      <c r="E66" s="52" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F66" s="52" t="s">
-        <v>1142</v>
       </c>
       <c r="G66" s="57"/>
       <c r="H66" s="57"/>
@@ -14305,13 +14305,13 @@
         <v>312</v>
       </c>
       <c r="B67" s="57" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C67" s="58" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D67" s="53" t="s">
         <v>1143</v>
-      </c>
-      <c r="C67" s="58" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D67" s="53" t="s">
-        <v>1145</v>
       </c>
       <c r="E67" s="38"/>
       <c r="F67" s="38"/>
@@ -14327,19 +14327,19 @@
         <v>312</v>
       </c>
       <c r="B68" s="57" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C68" s="57" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D68" s="53" t="s">
         <v>1146</v>
-      </c>
-      <c r="C68" s="57" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D68" s="53" t="s">
-        <v>1148</v>
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
       <c r="H68" s="57" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="I68" s="38"/>
       <c r="J68" s="38"/>
@@ -14351,19 +14351,19 @@
         <v>178</v>
       </c>
       <c r="B69" s="57" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D69" s="53" t="s">
         <v>1150</v>
-      </c>
-      <c r="C69" s="52" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D69" s="53" t="s">
-        <v>1152</v>
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
       <c r="H69" s="57" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="I69" s="38"/>
       <c r="J69" s="38"/>
@@ -14394,16 +14394,16 @@
         <v>316</v>
       </c>
       <c r="C71" s="57" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
       <c r="H71" s="57" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="I71" s="38"/>
       <c r="J71" s="38"/>
@@ -14415,13 +14415,13 @@
         <v>178</v>
       </c>
       <c r="B72" s="57" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C72" s="57" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D72" s="51" t="s">
         <v>1157</v>
-      </c>
-      <c r="C72" s="57" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D72" s="51" t="s">
-        <v>1159</v>
       </c>
       <c r="E72" s="38"/>
       <c r="F72" s="38"/>
@@ -14434,16 +14434,16 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="51" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B73" s="51" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C73" s="51" t="s">
         <v>1160</v>
       </c>
-      <c r="B73" s="51" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C73" s="51" t="s">
-        <v>1162</v>
-      </c>
       <c r="D73" s="51" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38"/>
@@ -14459,19 +14459,19 @@
         <v>67</v>
       </c>
       <c r="B74" s="51" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D74" s="51" t="s">
         <v>1163</v>
-      </c>
-      <c r="C74" s="51" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D74" s="51" t="s">
-        <v>1165</v>
       </c>
       <c r="E74" s="38"/>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
       <c r="H74" s="57" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="I74" s="38"/>
       <c r="J74" s="38"/>
@@ -14480,16 +14480,16 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B75" s="51" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E75" s="38"/>
       <c r="F75" s="38"/>
@@ -14505,19 +14505,19 @@
         <v>67</v>
       </c>
       <c r="B76" s="51" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D76" s="51" t="s">
         <v>1169</v>
-      </c>
-      <c r="C76" s="51" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D76" s="51" t="s">
-        <v>1171</v>
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
       <c r="H76" s="57" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="I76" s="38"/>
       <c r="J76" s="38"/>
@@ -14526,16 +14526,16 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D77" s="51" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38"/>
@@ -14551,19 +14551,19 @@
         <v>67</v>
       </c>
       <c r="B78" s="51" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D78" s="57" t="s">
         <v>1175</v>
-      </c>
-      <c r="C78" s="51" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D78" s="57" t="s">
-        <v>1177</v>
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
       <c r="H78" s="57" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="I78" s="38"/>
       <c r="J78" s="38"/>
@@ -14572,16 +14572,16 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B79" s="51" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D79" s="51" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38"/>
@@ -14593,33 +14593,33 @@
         <v>67</v>
       </c>
       <c r="B80" s="51" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C80" s="51" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D80" s="51" t="s">
         <v>1181</v>
-      </c>
-      <c r="C80" s="51" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D80" s="51" t="s">
-        <v>1183</v>
       </c>
       <c r="E80" s="38"/>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
       <c r="H80" s="57" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B81" s="51" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C81" s="51" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D81" s="51" t="s">
         <v>1185</v>
-      </c>
-      <c r="C81" s="51" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D81" s="51" t="s">
-        <v>1187</v>
       </c>
       <c r="E81" s="38"/>
       <c r="F81" s="38"/>
@@ -14631,33 +14631,33 @@
         <v>67</v>
       </c>
       <c r="B82" s="51" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D82" s="51" t="s">
         <v>1188</v>
-      </c>
-      <c r="C82" s="51" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D82" s="51" t="s">
-        <v>1190</v>
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
       <c r="H82" s="57" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B83" s="51" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C83" s="51" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D83" s="51" t="s">
         <v>1192</v>
-      </c>
-      <c r="C83" s="51" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D83" s="51" t="s">
-        <v>1194</v>
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38"/>
@@ -14669,33 +14669,33 @@
         <v>67</v>
       </c>
       <c r="B84" s="51" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C84" s="51" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D84" s="51" t="s">
         <v>1195</v>
-      </c>
-      <c r="C84" s="51" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D84" s="51" t="s">
-        <v>1197</v>
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
       <c r="H84" s="57" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B85" s="51" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D85" s="57" t="s">
         <v>1199</v>
-      </c>
-      <c r="C85" s="51" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D85" s="57" t="s">
-        <v>1201</v>
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38"/>
@@ -14707,33 +14707,33 @@
         <v>67</v>
       </c>
       <c r="B86" s="51" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C86" s="57" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D86" s="58" t="s">
         <v>1202</v>
-      </c>
-      <c r="C86" s="57" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D86" s="58" t="s">
-        <v>1204</v>
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
       <c r="H86" s="57" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B87" s="51" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C87" s="51" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D87" s="58" t="s">
         <v>1206</v>
-      </c>
-      <c r="C87" s="51" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D87" s="58" t="s">
-        <v>1208</v>
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38"/>
@@ -14745,33 +14745,33 @@
         <v>67</v>
       </c>
       <c r="B88" s="51" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C88" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D88" s="51" t="s">
         <v>1209</v>
-      </c>
-      <c r="C88" s="51" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D88" s="51" t="s">
-        <v>1211</v>
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
       <c r="H88" s="57" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B89" s="51" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D89" s="57" t="s">
         <v>1213</v>
-      </c>
-      <c r="C89" s="51" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D89" s="57" t="s">
-        <v>1215</v>
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38"/>
@@ -14783,33 +14783,33 @@
         <v>67</v>
       </c>
       <c r="B90" s="51" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C90" s="57" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D90" s="57" t="s">
         <v>1216</v>
-      </c>
-      <c r="C90" s="57" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D90" s="57" t="s">
-        <v>1218</v>
       </c>
       <c r="E90" s="38"/>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
       <c r="H90" s="57" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B91" s="57" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C91" s="57" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D91" s="57" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="E91" s="38"/>
       <c r="F91" s="38"/>
@@ -14821,33 +14821,33 @@
         <v>67</v>
       </c>
       <c r="B92" s="51" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C92" s="57" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D92" s="38" t="s">
         <v>1222</v>
-      </c>
-      <c r="C92" s="57" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D92" s="38" t="s">
-        <v>1224</v>
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
       <c r="H92" s="57" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B93" s="57" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C93" s="57" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38"/>
@@ -14859,33 +14859,33 @@
         <v>67</v>
       </c>
       <c r="B94" s="51" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C94" s="57" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D94" s="38" t="s">
         <v>1228</v>
-      </c>
-      <c r="C94" s="57" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D94" s="38" t="s">
-        <v>1230</v>
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
       <c r="H94" s="57" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B95" s="57" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C95" s="57" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38"/>
@@ -14897,33 +14897,33 @@
         <v>67</v>
       </c>
       <c r="B96" s="51" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C96" s="57" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D96" s="38" t="s">
         <v>1234</v>
-      </c>
-      <c r="C96" s="57" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D96" s="38" t="s">
-        <v>1236</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
       <c r="H96" s="57" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B97" s="57" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C97" s="57" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D97" s="38" t="s">
         <v>1238</v>
-      </c>
-      <c r="C97" s="57" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D97" s="38" t="s">
-        <v>1240</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38"/>
@@ -14935,33 +14935,33 @@
         <v>67</v>
       </c>
       <c r="B98" s="57" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C98" s="57" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D98" s="38" t="s">
         <v>1241</v>
-      </c>
-      <c r="C98" s="57" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D98" s="38" t="s">
-        <v>1243</v>
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
       <c r="H98" s="57" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B99" s="57" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C99" s="57" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38"/>
@@ -14973,33 +14973,33 @@
         <v>67</v>
       </c>
       <c r="B100" s="57" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C100" s="57" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D100" s="38" t="s">
         <v>1247</v>
-      </c>
-      <c r="C100" s="57" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D100" s="38" t="s">
-        <v>1249</v>
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
       <c r="H100" s="57" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B101" s="57" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C101" s="57" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38"/>
@@ -15011,33 +15011,33 @@
         <v>67</v>
       </c>
       <c r="B102" s="57" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C102" s="57" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D102" s="38" t="s">
         <v>1253</v>
-      </c>
-      <c r="C102" s="57" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>1255</v>
       </c>
       <c r="E102" s="38"/>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
       <c r="H102" s="57" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B103" s="57" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C103" s="57" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D103" s="38" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="E103" s="38"/>
       <c r="F103" s="38"/>
@@ -15049,33 +15049,33 @@
         <v>67</v>
       </c>
       <c r="B104" s="57" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C104" s="57" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D104" s="57" t="s">
         <v>1259</v>
-      </c>
-      <c r="C104" s="57" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D104" s="57" t="s">
-        <v>1261</v>
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
       <c r="H104" s="57" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B105" s="57" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C105" s="57" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D105" s="38" t="s">
         <v>1263</v>
-      </c>
-      <c r="C105" s="57" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D105" s="38" t="s">
-        <v>1265</v>
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38"/>
@@ -15087,33 +15087,33 @@
         <v>67</v>
       </c>
       <c r="B106" s="57" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C106" s="57" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D106" s="38" t="s">
         <v>1266</v>
-      </c>
-      <c r="C106" s="57" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D106" s="38" t="s">
-        <v>1268</v>
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
       <c r="H106" s="57" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B107" s="57" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C107" s="57" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D107" s="38" t="s">
         <v>1270</v>
-      </c>
-      <c r="C107" s="57" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D107" s="38" t="s">
-        <v>1272</v>
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38"/>
@@ -15125,33 +15125,33 @@
         <v>67</v>
       </c>
       <c r="B108" s="57" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C108" s="57" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D108" s="38" t="s">
         <v>1273</v>
-      </c>
-      <c r="C108" s="57" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D108" s="38" t="s">
-        <v>1275</v>
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
       <c r="H108" s="57" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B109" s="57" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C109" s="57" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38"/>
@@ -15163,33 +15163,33 @@
         <v>67</v>
       </c>
       <c r="B110" s="57" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C110" s="57" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D110" s="38" t="s">
         <v>1279</v>
-      </c>
-      <c r="C110" s="57" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D110" s="38" t="s">
-        <v>1281</v>
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
       <c r="H110" s="57" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B111" s="57" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C111" s="57" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D111" s="38" t="s">
         <v>1283</v>
-      </c>
-      <c r="C111" s="57" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D111" s="38" t="s">
-        <v>1285</v>
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38"/>
@@ -15201,33 +15201,33 @@
         <v>67</v>
       </c>
       <c r="B112" s="57" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C112" s="57" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D112" s="38" t="s">
         <v>1286</v>
-      </c>
-      <c r="C112" s="57" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D112" s="38" t="s">
-        <v>1288</v>
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
       <c r="H112" s="57" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B113" s="57" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C113" s="57" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D113" s="38" t="s">
         <v>1290</v>
-      </c>
-      <c r="C113" s="57" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D113" s="38" t="s">
-        <v>1292</v>
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38"/>
@@ -15239,33 +15239,33 @@
         <v>67</v>
       </c>
       <c r="B114" s="57" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C114" s="57" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D114" s="38" t="s">
         <v>1293</v>
-      </c>
-      <c r="C114" s="57" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>1295</v>
       </c>
       <c r="E114" s="38"/>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
       <c r="H114" s="57" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="51" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B115" s="57" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C115" s="57" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D115" s="38" t="s">
         <v>1297</v>
-      </c>
-      <c r="C115" s="57" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D115" s="38" t="s">
-        <v>1299</v>
       </c>
       <c r="E115" s="38"/>
       <c r="F115" s="38"/>
@@ -15277,19 +15277,19 @@
         <v>67</v>
       </c>
       <c r="B116" s="57" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C116" s="57" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D116" s="38" t="s">
         <v>1300</v>
-      </c>
-      <c r="C116" s="57" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D116" s="38" t="s">
-        <v>1302</v>
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
       <c r="H116" s="57" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -15297,13 +15297,13 @@
         <v>178</v>
       </c>
       <c r="B117" s="57" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C117" s="52" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D117" s="53" t="s">
         <v>1304</v>
-      </c>
-      <c r="C117" s="52" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D117" s="53" t="s">
-        <v>1306</v>
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38"/>
@@ -15315,13 +15315,13 @@
         <v>312</v>
       </c>
       <c r="B118" s="57" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C118" s="57" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D118" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38"/>
@@ -15348,16 +15348,16 @@
         <v>315</v>
       </c>
       <c r="C120" s="57" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="D120" s="38" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
       <c r="H120" s="57" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -15365,13 +15365,13 @@
         <v>178</v>
       </c>
       <c r="B121" s="57" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C121" s="57" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D121" s="57" t="s">
         <v>1311</v>
-      </c>
-      <c r="C121" s="57" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D121" s="57" t="s">
-        <v>1313</v>
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38"/>
@@ -15380,16 +15380,16 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="57" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B122" s="57" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C122" s="57" t="s">
         <v>1314</v>
       </c>
-      <c r="B122" s="57" t="s">
+      <c r="D122" s="38" t="s">
         <v>1315</v>
-      </c>
-      <c r="C122" s="57" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D122" s="38" t="s">
-        <v>1317</v>
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38"/>
@@ -15401,19 +15401,19 @@
         <v>39</v>
       </c>
       <c r="B123" s="57" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C123" s="57" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D123" s="38" t="s">
         <v>1318</v>
-      </c>
-      <c r="C123" s="57" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D123" s="38" t="s">
-        <v>1320</v>
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
       <c r="H123" s="57" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -15920,128 +15920,128 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="64" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B33" s="64" t="s">
         <v>1065</v>
       </c>
       <c r="C33" s="64" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="64" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B34" s="64" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D34" s="61" t="s">
         <v>1325</v>
-      </c>
-      <c r="C34" s="64" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="64" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B35" s="64" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C35" s="64" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D35" s="61" t="s">
         <v>1328</v>
-      </c>
-      <c r="C35" s="64" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D35" s="61" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C36" s="64" t="s">
         <v>1331</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="D36" s="61" t="s">
         <v>1332</v>
-      </c>
-      <c r="C36" s="64" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B37" s="64" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C37" s="64" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D37" s="61" t="s">
         <v>1335</v>
-      </c>
-      <c r="C37" s="64" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D37" s="61" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="64" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B38" s="64" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C38" s="64" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D38" s="61" t="s">
         <v>1338</v>
-      </c>
-      <c r="C38" s="64" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D38" s="61" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="64" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B39" s="64" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C39" s="64" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D39" s="61" t="s">
         <v>1341</v>
-      </c>
-      <c r="C39" s="64" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D39" s="61" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="64" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B40" s="64" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D40" s="61" t="s">
         <v>1344</v>
-      </c>
-      <c r="C40" s="64" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D40" s="61" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="64" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B41" s="64" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C41" s="64" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D41" s="61" t="s">
         <v>1347</v>
-      </c>
-      <c r="C41" s="64" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -16049,13 +16049,13 @@
         <v>1044</v>
       </c>
       <c r="B42" s="64" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D42" s="64" t="s">
         <v>1350</v>
-      </c>
-      <c r="C42" s="64" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D42" s="64" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -16063,13 +16063,13 @@
         <v>1044</v>
       </c>
       <c r="B43" s="64" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D43" s="64" t="s">
         <v>1353</v>
-      </c>
-      <c r="C43" s="64" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D43" s="64" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -16088,35 +16088,35 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="64" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C45" s="64" t="s">
         <v>1356</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="D45" s="61" t="s">
         <v>1357</v>
-      </c>
-      <c r="C45" s="64" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B46" s="64" t="s">
         <v>366</v>
       </c>
       <c r="C46" s="64" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="D46" s="61" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B47" s="64" t="s">
         <v>365</v>
@@ -16130,7 +16130,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B48" s="64" t="s">
         <v>362</v>
@@ -16144,10 +16144,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C49" s="64" t="s">
         <v>30</v>
@@ -16158,10 +16158,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C50" s="64" t="s">
         <v>31</v>
@@ -16172,24 +16172,24 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C51" s="64" t="s">
         <v>358</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C52" s="64" t="s">
         <v>32</v>
@@ -16200,66 +16200,66 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B53" s="64" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C53" s="64" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D53" s="61" t="s">
         <v>1367</v>
-      </c>
-      <c r="C53" s="64" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B54" s="64" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C54" s="64" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D54" s="61" t="s">
         <v>1370</v>
-      </c>
-      <c r="C54" s="64" t="s">
-        <v>1371</v>
-      </c>
-      <c r="D54" s="61" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B55" s="64" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C55" s="64" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D55" s="61" t="s">
         <v>1373</v>
-      </c>
-      <c r="C55" s="64" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D55" s="61" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B56" s="64" t="s">
         <v>877</v>
       </c>
       <c r="C56" s="64" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B57" s="64" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C57" s="64" t="s">
         <v>33</v>
@@ -16270,21 +16270,21 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B58" s="64" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C58" s="64" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D58" s="61" t="s">
         <v>1379</v>
-      </c>
-      <c r="C58" s="64" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B59" s="64" t="s">
         <v>233</v>
@@ -16298,7 +16298,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="64" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B60" s="64" t="s">
         <v>245</v>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="1386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="1385">
   <si>
     <t>type</t>
   </si>
@@ -1017,9 +1017,6 @@
   </si>
   <si>
     <t>${children_count}</t>
-  </si>
-  <si>
-    <t>children_count</t>
   </si>
   <si>
     <t>Nombre d'enfants</t>
@@ -4963,7 +4960,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -5388,10 +5385,10 @@
         <v>178</v>
       </c>
       <c r="B26" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>377</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>378</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="18"/>
@@ -5408,13 +5405,13 @@
         <v>49</v>
       </c>
       <c r="B27" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="D27" s="15" t="s">
         <v>380</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>381</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -5550,10 +5547,10 @@
         <v>178</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>382</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>383</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="18"/>
@@ -5572,16 +5569,16 @@
         <v>327</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="15"/>
@@ -5589,22 +5586,22 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="E35" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="F35" s="14" t="s">
         <v>389</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>390</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
@@ -5617,19 +5614,19 @@
         <v>49</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="E36" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="F36" s="14" t="s">
         <v>394</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>395</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="13"/>
@@ -5645,16 +5642,16 @@
         <v>19</v>
       </c>
       <c r="C37" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="E37" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="F37" s="14" t="s">
         <v>398</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>399</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="13"/>
@@ -5670,16 +5667,16 @@
         <v>18</v>
       </c>
       <c r="C38" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="E38" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="F38" s="14" t="s">
         <v>402</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>403</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="13"/>
@@ -5786,7 +5783,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="9" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -5839,10 +5836,10 @@
         <v>178</v>
       </c>
       <c r="B46" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>404</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>405</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="18"/>
@@ -5859,31 +5856,31 @@
         <v>317</v>
       </c>
       <c r="C47" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>406</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>407</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="H47" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>411</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>412</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -5896,19 +5893,19 @@
         <v>312</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>414</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>415</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="2"/>
@@ -5931,10 +5928,10 @@
         <v>178</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="18"/>
@@ -5952,31 +5949,31 @@
         <v>316</v>
       </c>
       <c r="C52" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>418</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>419</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="H52" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C53" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>411</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>412</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
@@ -6002,10 +5999,10 @@
         <v>178</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="18"/>
@@ -6022,16 +6019,16 @@
         <v>315</v>
       </c>
       <c r="C56" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>423</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>424</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
       <c r="H56" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I56" s="13"/>
     </row>
@@ -6040,13 +6037,13 @@
         <v>312</v>
       </c>
       <c r="B57" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="D57" s="13" t="s">
         <v>426</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>427</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
@@ -6059,19 +6056,19 @@
         <v>312</v>
       </c>
       <c r="B58" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="D58" s="13" t="s">
         <v>429</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>430</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
       <c r="H58" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I58" s="13"/>
     </row>
@@ -6080,13 +6077,13 @@
         <v>312</v>
       </c>
       <c r="B59" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="D59" s="13" t="s">
         <v>432</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>433</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
@@ -6107,22 +6104,22 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
       <c r="H60" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="C61" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="D61" s="13" t="s">
         <v>437</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>438</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
@@ -6135,34 +6132,34 @@
         <v>39</v>
       </c>
       <c r="B62" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="D62" s="13" t="s">
         <v>440</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>441</v>
       </c>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I62" s="13"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="C63" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="D63" s="13" t="s">
         <v>445</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>446</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
@@ -6172,16 +6169,16 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="C64" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="D64" s="13" t="s">
         <v>449</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>450</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
@@ -6194,13 +6191,13 @@
         <v>312</v>
       </c>
       <c r="B65" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="D65" s="13" t="s">
         <v>452</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>453</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
@@ -6210,26 +6207,26 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B66" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="C66" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="D66" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="E66" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="F66" s="14" t="s">
         <v>458</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>459</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I66" s="13"/>
     </row>
@@ -6248,22 +6245,22 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="C68" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="D68" s="13" t="s">
         <v>463</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>464</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="H68" s="13" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I68" s="13"/>
     </row>
@@ -6272,19 +6269,19 @@
         <v>39</v>
       </c>
       <c r="B69" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="D69" s="13" t="s">
         <v>466</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>467</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
       <c r="H69" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I69" s="13"/>
     </row>
@@ -6306,10 +6303,10 @@
         <v>178</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="18"/>
@@ -6323,19 +6320,19 @@
         <v>160</v>
       </c>
       <c r="B72" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="C72" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="D72" s="13" t="s">
         <v>471</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>472</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
       <c r="H72" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I72" s="13"/>
       <c r="J72" s="15"/>
@@ -6347,19 +6344,19 @@
         <v>49</v>
       </c>
       <c r="B73" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="D73" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="E73" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="F73" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>477</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="13"/>
@@ -6373,25 +6370,25 @@
         <v>49</v>
       </c>
       <c r="B74" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="D74" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="E74" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="F74" s="14" t="s">
         <v>481</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>482</v>
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
       <c r="J74" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K74" s="15"/>
       <c r="L74" s="15"/>
@@ -6401,13 +6398,13 @@
         <v>53</v>
       </c>
       <c r="B75" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="C75" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="D75" s="13" t="s">
         <v>485</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>486</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
@@ -6423,13 +6420,13 @@
         <v>53</v>
       </c>
       <c r="B76" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="D76" s="13" t="s">
         <v>488</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>489</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
@@ -6442,16 +6439,16 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="C77" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="D77" s="13" t="s">
         <v>492</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>493</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
@@ -6467,19 +6464,19 @@
         <v>49</v>
       </c>
       <c r="B78" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="D78" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="E78" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="F78" s="14" t="s">
         <v>497</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>498</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="13"/>
@@ -6490,22 +6487,22 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="C79" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="B79" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="C79" s="13" t="s">
+      <c r="D79" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="E79" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="F79" s="14" t="s">
         <v>389</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>390</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
@@ -6519,19 +6516,19 @@
         <v>49</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C80" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="D80" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="E80" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="F80" s="14" t="s">
         <v>394</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>395</v>
       </c>
       <c r="G80" s="14"/>
       <c r="H80" s="13"/>
@@ -6545,19 +6542,19 @@
         <v>49</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C81" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D81" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="E81" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="F81" s="14" t="s">
         <v>398</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>399</v>
       </c>
       <c r="G81" s="14"/>
       <c r="H81" s="13"/>
@@ -6571,19 +6568,19 @@
         <v>49</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C82" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="D82" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="E82" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="F82" s="14" t="s">
         <v>402</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>403</v>
       </c>
       <c r="G82" s="14"/>
       <c r="H82" s="13"/>
@@ -6597,13 +6594,13 @@
         <v>49</v>
       </c>
       <c r="B83" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="C83" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="D83" s="13" t="s">
         <v>504</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>505</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
@@ -6687,7 +6684,7 @@
         <v>101</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>80</v>
@@ -6709,7 +6706,7 @@
         <v>67</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>99</v>
@@ -6789,7 +6786,7 @@
         <v>67</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>89</v>
@@ -6869,7 +6866,7 @@
         <v>67</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>78</v>
@@ -6949,7 +6946,7 @@
         <v>67</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>66</v>
@@ -6979,10 +6976,10 @@
         <v>178</v>
       </c>
       <c r="B98" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="C98" s="27" t="s">
         <v>511</v>
-      </c>
-      <c r="C98" s="27" t="s">
-        <v>512</v>
       </c>
       <c r="D98" s="27"/>
       <c r="E98" s="28"/>
@@ -6999,13 +6996,13 @@
         <v>53</v>
       </c>
       <c r="B99" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="C99" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="D99" s="26" t="s">
         <v>514</v>
-      </c>
-      <c r="D99" s="26" t="s">
-        <v>515</v>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="26"/>
@@ -7021,13 +7018,13 @@
         <v>53</v>
       </c>
       <c r="B100" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="C100" s="25" t="s">
         <v>516</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="D100" s="26" t="s">
         <v>517</v>
-      </c>
-      <c r="D100" s="26" t="s">
-        <v>518</v>
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="26"/>
@@ -7043,13 +7040,13 @@
         <v>53</v>
       </c>
       <c r="B101" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="C101" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="D101" s="24" t="s">
         <v>520</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>521</v>
       </c>
       <c r="E101" s="25"/>
       <c r="F101" s="25"/>
@@ -7062,22 +7059,22 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="B102" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="C102" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="C102" s="24" t="s">
+      <c r="D102" s="24" t="s">
         <v>524</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>525</v>
       </c>
       <c r="E102" s="25"/>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
       <c r="H102" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I102" s="25"/>
       <c r="J102" s="25"/>
@@ -7089,7 +7086,7 @@
         <v>67</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C103" s="24" t="s">
         <v>66</v>
@@ -7105,7 +7102,7 @@
       </c>
       <c r="G103" s="25"/>
       <c r="H103" s="24" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I103" s="25"/>
       <c r="J103" s="25"/>
@@ -7162,16 +7159,16 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="C106" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="D106" s="9" t="s">
         <v>531</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>532</v>
       </c>
       <c r="E106" s="22"/>
       <c r="F106" s="22"/>
@@ -7189,19 +7186,19 @@
         <v>39</v>
       </c>
       <c r="B107" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C107" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="D107" s="9" t="s">
         <v>534</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>535</v>
       </c>
       <c r="E107" s="22"/>
       <c r="F107" s="22"/>
       <c r="G107" s="22"/>
       <c r="H107" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I107" s="22"/>
       <c r="J107" s="22"/>
@@ -7213,10 +7210,10 @@
         <v>178</v>
       </c>
       <c r="B108" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="C108" s="19" t="s">
         <v>537</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>538</v>
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="14"/>
@@ -7233,13 +7230,13 @@
         <v>160</v>
       </c>
       <c r="B109" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="C109" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="D109" s="13" t="s">
         <v>540</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>541</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
@@ -7254,16 +7251,16 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="B110" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="C110" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="D110" s="13" t="s">
         <v>544</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>545</v>
       </c>
       <c r="E110" s="14"/>
       <c r="F110" s="14"/>
@@ -7279,19 +7276,19 @@
         <v>39</v>
       </c>
       <c r="B111" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="C111" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="D111" s="15" t="s">
         <v>547</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>548</v>
       </c>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
       <c r="H111" s="14" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
@@ -7303,19 +7300,19 @@
         <v>67</v>
       </c>
       <c r="B112" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="C112" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="D112" s="15" t="s">
         <v>550</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>551</v>
       </c>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
       <c r="H112" s="14" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
@@ -7327,19 +7324,19 @@
         <v>39</v>
       </c>
       <c r="B113" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="D113" s="15" t="s">
         <v>553</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>554</v>
       </c>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
       <c r="H113" s="14" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
@@ -7348,16 +7345,16 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="B114" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="C114" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="D114" s="13" t="s">
         <v>557</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>558</v>
       </c>
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
@@ -7373,23 +7370,23 @@
         <v>49</v>
       </c>
       <c r="B115" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="C115" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="D115" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="D115" s="13" t="s">
+      <c r="E115" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="E115" s="14" t="s">
+      <c r="F115" s="14" t="s">
         <v>562</v>
-      </c>
-      <c r="F115" s="14" t="s">
-        <v>563</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
@@ -7398,16 +7395,16 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C116" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="D116" s="13" t="s">
         <v>531</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>532</v>
       </c>
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
@@ -7423,19 +7420,19 @@
         <v>39</v>
       </c>
       <c r="B117" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="D117" s="13" t="s">
         <v>566</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>567</v>
       </c>
       <c r="E117" s="14"/>
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
       <c r="H117" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
@@ -7447,13 +7444,13 @@
         <v>312</v>
       </c>
       <c r="B118" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="C118" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="D118" s="13" t="s">
         <v>570</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>571</v>
       </c>
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
@@ -7466,22 +7463,22 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B119" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="C119" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="D119" s="13" t="s">
         <v>573</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>574</v>
       </c>
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
       <c r="H119" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I119" s="14"/>
       <c r="J119" s="14"/>
@@ -7493,19 +7490,19 @@
         <v>39</v>
       </c>
       <c r="B120" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="C120" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="D120" s="13" t="s">
         <v>577</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>578</v>
       </c>
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
       <c r="G120" s="14"/>
       <c r="H120" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I120" s="14"/>
       <c r="J120" s="14"/>
@@ -7514,22 +7511,22 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B121" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="C121" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="D121" s="13" t="s">
         <v>581</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>582</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
       <c r="H121" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
@@ -7541,19 +7538,19 @@
         <v>39</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C122" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="D122" s="13" t="s">
         <v>466</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>467</v>
       </c>
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
       <c r="G122" s="14"/>
       <c r="H122" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I122" s="14"/>
       <c r="J122" s="14"/>
@@ -7581,10 +7578,10 @@
         <v>178</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D124" s="19"/>
       <c r="E124" s="18"/>
@@ -7601,13 +7598,13 @@
         <v>312</v>
       </c>
       <c r="B125" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="C125" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="D125" s="13" t="s">
         <v>588</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>589</v>
       </c>
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
@@ -7623,19 +7620,19 @@
         <v>160</v>
       </c>
       <c r="B126" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="C126" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="D126" s="13" t="s">
         <v>591</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>592</v>
       </c>
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
       <c r="G126" s="14"/>
       <c r="H126" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I126" s="14"/>
       <c r="J126" s="14"/>
@@ -7647,13 +7644,13 @@
         <v>60</v>
       </c>
       <c r="B127" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="C127" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="D127" s="13" t="s">
         <v>595</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>596</v>
       </c>
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
@@ -7669,19 +7666,19 @@
         <v>39</v>
       </c>
       <c r="B128" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="C128" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C128" s="13" t="s">
+      <c r="D128" s="13" t="s">
         <v>598</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>599</v>
       </c>
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
       <c r="G128" s="14"/>
       <c r="H128" s="13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I128" s="14"/>
       <c r="J128" s="14"/>
@@ -7693,13 +7690,13 @@
         <v>312</v>
       </c>
       <c r="B129" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="C129" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="D129" s="13" t="s">
         <v>602</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>603</v>
       </c>
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
@@ -7712,22 +7709,22 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="B130" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="B130" s="13" t="s">
-        <v>605</v>
-      </c>
       <c r="C130" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="D130" s="13" t="s">
         <v>573</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>574</v>
       </c>
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
       <c r="H130" s="13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I130" s="14"/>
       <c r="J130" s="14"/>
@@ -7739,19 +7736,19 @@
         <v>39</v>
       </c>
       <c r="B131" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="C131" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="D131" s="15" t="s">
         <v>608</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>609</v>
       </c>
       <c r="E131" s="15"/>
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
       <c r="H131" s="13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
@@ -7763,23 +7760,23 @@
         <v>49</v>
       </c>
       <c r="B132" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="C132" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="D132" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="E132" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="F132" s="13" t="s">
         <v>614</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>615</v>
       </c>
       <c r="G132" s="14"/>
       <c r="H132" s="13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I132" s="14"/>
       <c r="J132" s="14"/>
@@ -7791,23 +7788,23 @@
         <v>49</v>
       </c>
       <c r="B133" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="C133" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="D133" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="D133" s="13" t="s">
+      <c r="E133" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="E133" s="14" t="s">
+      <c r="F133" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="G133" s="14"/>
       <c r="H133" s="13" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I133" s="14"/>
       <c r="J133" s="14"/>
@@ -7816,22 +7813,22 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C134" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="D134" s="13" t="s">
         <v>581</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>582</v>
       </c>
       <c r="E134" s="14"/>
       <c r="F134" s="14"/>
       <c r="G134" s="14"/>
       <c r="H134" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I134" s="14"/>
       <c r="J134" s="14"/>
@@ -7843,19 +7840,19 @@
         <v>39</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C135" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="D135" s="13" t="s">
         <v>466</v>
-      </c>
-      <c r="D135" s="13" t="s">
-        <v>467</v>
       </c>
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
       <c r="H135" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I135" s="14"/>
       <c r="J135" s="14"/>
@@ -7883,10 +7880,10 @@
         <v>178</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D137" s="19"/>
       <c r="E137" s="18"/>
@@ -7903,13 +7900,13 @@
         <v>312</v>
       </c>
       <c r="B138" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="C138" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="C138" s="14" t="s">
+      <c r="D138" s="13" t="s">
         <v>627</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>628</v>
       </c>
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
@@ -7925,19 +7922,19 @@
         <v>160</v>
       </c>
       <c r="B139" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="C139" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="C139" s="14" t="s">
+      <c r="D139" s="13" t="s">
         <v>630</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>631</v>
       </c>
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
       <c r="G139" s="14"/>
       <c r="H139" s="13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I139" s="14"/>
       <c r="J139" s="14"/>
@@ -7949,13 +7946,13 @@
         <v>60</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C140" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="D140" s="13" t="s">
         <v>595</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>596</v>
       </c>
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
@@ -7971,19 +7968,19 @@
         <v>39</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C141" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="D141" s="13" t="s">
         <v>598</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>599</v>
       </c>
       <c r="E141" s="14"/>
       <c r="F141" s="14"/>
       <c r="G141" s="14"/>
       <c r="H141" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I141" s="14"/>
       <c r="J141" s="14"/>
@@ -7992,16 +7989,16 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="B142" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="C142" s="14" t="s">
         <v>637</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="D142" s="13" t="s">
         <v>638</v>
-      </c>
-      <c r="D142" s="13" t="s">
-        <v>639</v>
       </c>
       <c r="E142" s="14"/>
       <c r="F142" s="14"/>
@@ -8014,16 +8011,16 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B143" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="C143" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="D143" s="13" t="s">
         <v>641</v>
-      </c>
-      <c r="D143" s="13" t="s">
-        <v>642</v>
       </c>
       <c r="E143" s="14"/>
       <c r="F143" s="14"/>
@@ -8039,23 +8036,23 @@
         <v>49</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C144" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="D144" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="D144" s="13" t="s">
+      <c r="E144" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="E144" s="14" t="s">
+      <c r="F144" s="14" t="s">
         <v>562</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>563</v>
       </c>
       <c r="G144" s="14"/>
       <c r="H144" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I144" s="14"/>
       <c r="J144" s="14"/>
@@ -8067,13 +8064,13 @@
         <v>312</v>
       </c>
       <c r="B145" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="C145" s="14" t="s">
         <v>645</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="D145" s="13" t="s">
         <v>646</v>
-      </c>
-      <c r="D145" s="13" t="s">
-        <v>647</v>
       </c>
       <c r="E145" s="14"/>
       <c r="F145" s="14"/>
@@ -8086,22 +8083,22 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B146" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="C146" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="D146" s="13" t="s">
         <v>649</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>650</v>
       </c>
       <c r="E146" s="14"/>
       <c r="F146" s="14"/>
       <c r="G146" s="14"/>
       <c r="H146" s="13" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I146" s="14"/>
       <c r="J146" s="14"/>
@@ -8113,19 +8110,19 @@
         <v>39</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C147" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="D147" s="13" t="s">
         <v>466</v>
-      </c>
-      <c r="D147" s="13" t="s">
-        <v>467</v>
       </c>
       <c r="E147" s="14"/>
       <c r="F147" s="14"/>
       <c r="G147" s="14"/>
       <c r="H147" s="13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I147" s="14"/>
       <c r="J147" s="14"/>
@@ -8134,22 +8131,22 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="B148" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="C148" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="C148" s="14" t="s">
+      <c r="D148" s="13" t="s">
         <v>656</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>657</v>
       </c>
       <c r="E148" s="14"/>
       <c r="F148" s="14"/>
       <c r="G148" s="14"/>
       <c r="H148" s="13" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I148" s="14"/>
       <c r="J148" s="14"/>
@@ -8158,22 +8155,22 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B149" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="C149" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="C149" s="13" t="s">
+      <c r="D149" s="13" t="s">
         <v>659</v>
-      </c>
-      <c r="D149" s="13" t="s">
-        <v>660</v>
       </c>
       <c r="E149" s="14"/>
       <c r="F149" s="14"/>
       <c r="G149" s="14"/>
       <c r="H149" s="13" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I149" s="14"/>
       <c r="J149" s="14"/>
@@ -8185,19 +8182,19 @@
         <v>39</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C150" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="D150" s="15" t="s">
         <v>608</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>609</v>
       </c>
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
       <c r="G150" s="15"/>
       <c r="H150" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
@@ -8206,22 +8203,22 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="B151" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="B151" s="13" t="s">
+      <c r="C151" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="D151" s="15" t="s">
         <v>666</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>667</v>
       </c>
       <c r="E151" s="14"/>
       <c r="F151" s="14"/>
       <c r="G151" s="14"/>
       <c r="H151" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I151" s="15"/>
       <c r="J151" s="15"/>
@@ -8233,19 +8230,19 @@
         <v>39</v>
       </c>
       <c r="B152" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="C152" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="D152" s="15" t="s">
         <v>669</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>670</v>
       </c>
       <c r="E152" s="14"/>
       <c r="F152" s="14"/>
       <c r="G152" s="14"/>
       <c r="H152" s="13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="15"/>
@@ -8257,19 +8254,19 @@
         <v>312</v>
       </c>
       <c r="B153" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="C153" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="C153" s="13" t="s">
+      <c r="D153" s="15" t="s">
         <v>673</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>674</v>
       </c>
       <c r="E153" s="14"/>
       <c r="F153" s="14"/>
       <c r="G153" s="14"/>
       <c r="H153" s="13" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I153" s="15"/>
       <c r="J153" s="15"/>
@@ -8278,22 +8275,22 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B154" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="C154" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="D154" s="13" t="s">
         <v>676</v>
-      </c>
-      <c r="D154" s="13" t="s">
-        <v>677</v>
       </c>
       <c r="E154" s="14"/>
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
       <c r="H154" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I154" s="14"/>
       <c r="J154" s="14"/>
@@ -8305,19 +8302,19 @@
         <v>39</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C155" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="D155" s="15" t="s">
         <v>608</v>
-      </c>
-      <c r="D155" s="15" t="s">
-        <v>609</v>
       </c>
       <c r="E155" s="15"/>
       <c r="F155" s="15"/>
       <c r="G155" s="15"/>
       <c r="H155" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I155" s="15"/>
       <c r="J155" s="15"/>
@@ -8326,22 +8323,22 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B156" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="C156" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="D156" s="15" t="s">
         <v>682</v>
-      </c>
-      <c r="D156" s="15" t="s">
-        <v>683</v>
       </c>
       <c r="E156" s="14"/>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
       <c r="H156" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I156" s="15"/>
       <c r="J156" s="15"/>
@@ -8353,19 +8350,19 @@
         <v>39</v>
       </c>
       <c r="B157" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="D157" s="15" t="s">
         <v>684</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>669</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>685</v>
       </c>
       <c r="E157" s="14"/>
       <c r="F157" s="14"/>
       <c r="G157" s="14"/>
       <c r="H157" s="13" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I157" s="15"/>
       <c r="J157" s="15"/>
@@ -8377,23 +8374,23 @@
         <v>49</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C158" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="D158" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="D158" s="13" t="s">
+      <c r="E158" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="E158" s="14" t="s">
+      <c r="F158" s="13" t="s">
         <v>614</v>
-      </c>
-      <c r="F158" s="13" t="s">
-        <v>615</v>
       </c>
       <c r="G158" s="14"/>
       <c r="H158" s="13" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I158" s="14"/>
       <c r="J158" s="14"/>
@@ -8405,23 +8402,23 @@
         <v>49</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C159" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="D159" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="D159" s="13" t="s">
+      <c r="E159" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="E159" s="14" t="s">
+      <c r="F159" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="G159" s="14"/>
       <c r="H159" s="13" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I159" s="14"/>
       <c r="J159" s="14"/>
@@ -8430,22 +8427,22 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="B160" s="13" t="s">
         <v>689</v>
       </c>
-      <c r="B160" s="13" t="s">
+      <c r="C160" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="C160" s="13" t="s">
+      <c r="D160" s="14" t="s">
         <v>691</v>
-      </c>
-      <c r="D160" s="14" t="s">
-        <v>692</v>
       </c>
       <c r="E160" s="15"/>
       <c r="F160" s="15"/>
       <c r="G160" s="15"/>
       <c r="H160" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I160" s="15"/>
       <c r="J160" s="15"/>
@@ -8457,19 +8454,19 @@
         <v>39</v>
       </c>
       <c r="B161" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="C161" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="D161" s="15" t="s">
         <v>695</v>
-      </c>
-      <c r="D161" s="15" t="s">
-        <v>696</v>
       </c>
       <c r="E161" s="15"/>
       <c r="F161" s="15"/>
       <c r="G161" s="15"/>
       <c r="H161" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I161" s="15"/>
       <c r="J161" s="15"/>
@@ -8497,10 +8494,10 @@
         <v>178</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D163" s="19"/>
       <c r="E163" s="18"/>
@@ -8517,13 +8514,13 @@
         <v>312</v>
       </c>
       <c r="B164" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="C164" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="D164" s="17" t="s">
         <v>700</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>701</v>
       </c>
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
@@ -8539,19 +8536,19 @@
         <v>160</v>
       </c>
       <c r="B165" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="C165" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="D165" s="17" t="s">
         <v>703</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>704</v>
       </c>
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
       <c r="G165" s="15"/>
       <c r="H165" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I165" s="15"/>
       <c r="J165" s="15"/>
@@ -8560,16 +8557,16 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="B166" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="C166" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="D166" s="17" t="s">
         <v>707</v>
-      </c>
-      <c r="C166" s="17" t="s">
-        <v>595</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>708</v>
       </c>
       <c r="E166" s="15"/>
       <c r="F166" s="15"/>
@@ -8582,16 +8579,16 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B167" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="C167" s="17" t="s">
         <v>709</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="D167" s="17" t="s">
         <v>710</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>711</v>
       </c>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
@@ -8607,13 +8604,13 @@
         <v>312</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C168" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="D168" s="17" t="s">
         <v>646</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>647</v>
       </c>
       <c r="E168" s="15"/>
       <c r="F168" s="15"/>
@@ -8626,22 +8623,22 @@
     </row>
     <row r="169" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B169" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="C169" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="D169" s="17" t="s">
         <v>714</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>715</v>
       </c>
       <c r="E169" s="15"/>
       <c r="F169" s="15"/>
       <c r="G169" s="15"/>
       <c r="H169" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I169" s="15"/>
       <c r="J169" s="15"/>
@@ -8653,19 +8650,19 @@
         <v>39</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C170" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="D170" s="13" t="s">
         <v>466</v>
-      </c>
-      <c r="D170" s="13" t="s">
-        <v>467</v>
       </c>
       <c r="E170" s="15"/>
       <c r="F170" s="15"/>
       <c r="G170" s="15"/>
       <c r="H170" s="13" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I170" s="15"/>
       <c r="J170" s="15"/>
@@ -8674,16 +8671,16 @@
     </row>
     <row r="171" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B171" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="D171" s="17" t="s">
         <v>719</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>720</v>
       </c>
       <c r="E171" s="15"/>
       <c r="F171" s="15"/>
@@ -8696,22 +8693,22 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C172" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D172" s="13" t="s">
         <v>659</v>
-      </c>
-      <c r="D172" s="13" t="s">
-        <v>660</v>
       </c>
       <c r="E172" s="14"/>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
       <c r="H172" s="13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I172" s="14"/>
       <c r="J172" s="14"/>
@@ -8723,19 +8720,19 @@
         <v>39</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C173" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="D173" s="15" t="s">
         <v>608</v>
-      </c>
-      <c r="D173" s="15" t="s">
-        <v>609</v>
       </c>
       <c r="E173" s="15"/>
       <c r="F173" s="15"/>
       <c r="G173" s="15"/>
       <c r="H173" s="13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
@@ -8744,16 +8741,16 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C174" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="D174" s="15" t="s">
         <v>666</v>
-      </c>
-      <c r="D174" s="15" t="s">
-        <v>667</v>
       </c>
       <c r="E174" s="14"/>
       <c r="F174" s="14"/>
@@ -8769,19 +8766,19 @@
         <v>39</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C175" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="D175" s="15" t="s">
         <v>669</v>
-      </c>
-      <c r="D175" s="15" t="s">
-        <v>670</v>
       </c>
       <c r="E175" s="14"/>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
       <c r="H175" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I175" s="15"/>
       <c r="J175" s="15"/>
@@ -8793,19 +8790,19 @@
         <v>312</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C176" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="D176" s="15" t="s">
         <v>673</v>
-      </c>
-      <c r="D176" s="15" t="s">
-        <v>674</v>
       </c>
       <c r="E176" s="14"/>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
       <c r="H176" s="13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I176" s="15"/>
       <c r="J176" s="15"/>
@@ -8814,22 +8811,22 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C177" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="D177" s="13" t="s">
         <v>676</v>
-      </c>
-      <c r="D177" s="13" t="s">
-        <v>677</v>
       </c>
       <c r="E177" s="14"/>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
       <c r="H177" s="13" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I177" s="14"/>
       <c r="J177" s="14"/>
@@ -8841,19 +8838,19 @@
         <v>39</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C178" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="D178" s="15" t="s">
         <v>608</v>
-      </c>
-      <c r="D178" s="15" t="s">
-        <v>609</v>
       </c>
       <c r="E178" s="15"/>
       <c r="F178" s="15"/>
       <c r="G178" s="15"/>
       <c r="H178" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I178" s="15"/>
       <c r="J178" s="15"/>
@@ -8862,22 +8859,22 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C179" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="D179" s="15" t="s">
         <v>682</v>
-      </c>
-      <c r="D179" s="15" t="s">
-        <v>683</v>
       </c>
       <c r="E179" s="14"/>
       <c r="F179" s="14"/>
       <c r="G179" s="14"/>
       <c r="H179" s="13" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I179" s="15"/>
       <c r="J179" s="15"/>
@@ -8889,19 +8886,19 @@
         <v>39</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E180" s="14"/>
       <c r="F180" s="14"/>
       <c r="G180" s="14"/>
       <c r="H180" s="13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I180" s="15"/>
       <c r="J180" s="15"/>
@@ -8913,23 +8910,23 @@
         <v>49</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C181" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="D181" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="D181" s="13" t="s">
+      <c r="E181" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="E181" s="14" t="s">
+      <c r="F181" s="13" t="s">
         <v>614</v>
-      </c>
-      <c r="F181" s="13" t="s">
-        <v>615</v>
       </c>
       <c r="G181" s="14"/>
       <c r="H181" s="13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I181" s="14"/>
       <c r="J181" s="14"/>
@@ -8941,23 +8938,23 @@
         <v>49</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C182" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="D182" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="D182" s="13" t="s">
+      <c r="E182" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="E182" s="14" t="s">
+      <c r="F182" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="F182" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="G182" s="14"/>
       <c r="H182" s="13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I182" s="14"/>
       <c r="J182" s="14"/>
@@ -8966,22 +8963,22 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B183" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="C183" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="D183" s="14" t="s">
         <v>739</v>
-      </c>
-      <c r="D183" s="14" t="s">
-        <v>740</v>
       </c>
       <c r="E183" s="15"/>
       <c r="F183" s="15"/>
       <c r="G183" s="15"/>
       <c r="H183" s="14" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I183" s="15"/>
       <c r="J183" s="15"/>
@@ -8993,19 +8990,19 @@
         <v>39</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C184" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="D184" s="15" t="s">
         <v>695</v>
-      </c>
-      <c r="D184" s="15" t="s">
-        <v>696</v>
       </c>
       <c r="E184" s="15"/>
       <c r="F184" s="15"/>
       <c r="G184" s="15"/>
       <c r="H184" s="14" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I184" s="15"/>
       <c r="J184" s="15"/>
@@ -9033,10 +9030,10 @@
         <v>178</v>
       </c>
       <c r="B186" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="C186" s="18" t="s">
         <v>744</v>
-      </c>
-      <c r="C186" s="18" t="s">
-        <v>745</v>
       </c>
       <c r="D186" s="18"/>
       <c r="E186" s="18"/>
@@ -9053,19 +9050,19 @@
         <v>160</v>
       </c>
       <c r="B187" s="14" t="s">
+        <v>745</v>
+      </c>
+      <c r="C187" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="C187" s="14" t="s">
+      <c r="D187" s="15" t="s">
         <v>747</v>
-      </c>
-      <c r="D187" s="15" t="s">
-        <v>748</v>
       </c>
       <c r="E187" s="15"/>
       <c r="F187" s="15"/>
       <c r="G187" s="15"/>
       <c r="H187" s="14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I187" s="15"/>
       <c r="J187" s="15"/>
@@ -9074,16 +9071,16 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C188" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="D188" s="13" t="s">
         <v>544</v>
-      </c>
-      <c r="D188" s="13" t="s">
-        <v>545</v>
       </c>
       <c r="E188" s="14"/>
       <c r="F188" s="14"/>
@@ -9099,19 +9096,19 @@
         <v>39</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C189" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="D189" s="15" t="s">
         <v>547</v>
-      </c>
-      <c r="D189" s="15" t="s">
-        <v>548</v>
       </c>
       <c r="E189" s="15"/>
       <c r="F189" s="15"/>
       <c r="G189" s="15"/>
       <c r="H189" s="14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I189" s="15"/>
       <c r="J189" s="15"/>
@@ -9123,19 +9120,19 @@
         <v>67</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C190" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="D190" s="15" t="s">
         <v>550</v>
-      </c>
-      <c r="D190" s="15" t="s">
-        <v>551</v>
       </c>
       <c r="E190" s="15"/>
       <c r="F190" s="15"/>
       <c r="G190" s="15"/>
       <c r="H190" s="14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I190" s="15"/>
       <c r="J190" s="15"/>
@@ -9147,19 +9144,19 @@
         <v>39</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C191" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="D191" s="15" t="s">
         <v>553</v>
-      </c>
-      <c r="D191" s="15" t="s">
-        <v>554</v>
       </c>
       <c r="E191" s="15"/>
       <c r="F191" s="15"/>
       <c r="G191" s="15"/>
       <c r="H191" s="14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I191" s="15"/>
       <c r="J191" s="15"/>
@@ -9168,16 +9165,16 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C192" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="D192" s="13" t="s">
         <v>557</v>
-      </c>
-      <c r="D192" s="13" t="s">
-        <v>558</v>
       </c>
       <c r="E192" s="14"/>
       <c r="F192" s="14"/>
@@ -9193,23 +9190,23 @@
         <v>49</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C193" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="D193" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="D193" s="13" t="s">
+      <c r="E193" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="E193" s="14" t="s">
+      <c r="F193" s="14" t="s">
         <v>562</v>
-      </c>
-      <c r="F193" s="14" t="s">
-        <v>563</v>
       </c>
       <c r="G193" s="14"/>
       <c r="H193" s="13" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I193" s="14"/>
       <c r="J193" s="14"/>
@@ -9218,16 +9215,16 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C194" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="D194" s="13" t="s">
         <v>531</v>
-      </c>
-      <c r="D194" s="13" t="s">
-        <v>532</v>
       </c>
       <c r="E194" s="14"/>
       <c r="F194" s="14"/>
@@ -9243,19 +9240,19 @@
         <v>39</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C195" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="D195" s="13" t="s">
         <v>534</v>
-      </c>
-      <c r="D195" s="13" t="s">
-        <v>535</v>
       </c>
       <c r="E195" s="14"/>
       <c r="F195" s="14"/>
       <c r="G195" s="14"/>
       <c r="H195" s="13" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I195" s="14"/>
       <c r="J195" s="14"/>
@@ -9280,7 +9277,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B197" s="9" t="s">
         <v>52</v>
@@ -9331,7 +9328,7 @@
         <v>151</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
@@ -9342,7 +9339,7 @@
       <c r="I199" s="8"/>
       <c r="J199" s="9"/>
       <c r="K199" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L199" s="8"/>
     </row>
@@ -9376,10 +9373,10 @@
         <v>38</v>
       </c>
       <c r="C201" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D201" s="9" t="s">
         <v>764</v>
-      </c>
-      <c r="D201" s="9" t="s">
-        <v>765</v>
       </c>
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
@@ -9397,10 +9394,10 @@
         <v>178</v>
       </c>
       <c r="B202" s="19" t="s">
+        <v>765</v>
+      </c>
+      <c r="C202" s="19" t="s">
         <v>766</v>
-      </c>
-      <c r="C202" s="19" t="s">
-        <v>767</v>
       </c>
       <c r="D202" s="19"/>
       <c r="E202" s="18"/>
@@ -9414,16 +9411,16 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="16" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B203" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="C203" s="15" t="s">
         <v>768</v>
       </c>
-      <c r="C203" s="15" t="s">
+      <c r="D203" s="17" t="s">
         <v>769</v>
-      </c>
-      <c r="D203" s="17" t="s">
-        <v>770</v>
       </c>
       <c r="E203" s="15"/>
       <c r="F203" s="15"/>
@@ -9439,13 +9436,13 @@
         <v>53</v>
       </c>
       <c r="B204" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="C204" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="C204" s="15" t="s">
+      <c r="D204" s="17" t="s">
         <v>772</v>
-      </c>
-      <c r="D204" s="17" t="s">
-        <v>773</v>
       </c>
       <c r="E204" s="15"/>
       <c r="F204" s="15"/>
@@ -9461,13 +9458,13 @@
         <v>67</v>
       </c>
       <c r="B205" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="C205" s="15" t="s">
         <v>774</v>
       </c>
-      <c r="C205" s="15" t="s">
+      <c r="D205" s="17" t="s">
         <v>775</v>
-      </c>
-      <c r="D205" s="17" t="s">
-        <v>776</v>
       </c>
       <c r="E205" s="15"/>
       <c r="F205" s="15"/>
@@ -9480,16 +9477,16 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="B206" s="14" t="s">
         <v>777</v>
       </c>
-      <c r="B206" s="14" t="s">
+      <c r="C206" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="C206" s="15" t="s">
+      <c r="D206" s="17" t="s">
         <v>779</v>
-      </c>
-      <c r="D206" s="17" t="s">
-        <v>780</v>
       </c>
       <c r="E206" s="15"/>
       <c r="F206" s="15"/>
@@ -9501,19 +9498,19 @@
         <v>39</v>
       </c>
       <c r="B207" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="C207" s="14" t="s">
         <v>781</v>
       </c>
-      <c r="C207" s="14" t="s">
+      <c r="D207" s="17" t="s">
         <v>782</v>
-      </c>
-      <c r="D207" s="17" t="s">
-        <v>783</v>
       </c>
       <c r="E207" s="15"/>
       <c r="F207" s="15"/>
       <c r="G207" s="15"/>
       <c r="H207" s="13" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -9975,7 +9972,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>285</v>
@@ -9989,7 +9986,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>282</v>
@@ -10003,21 +10000,21 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>785</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>786</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="D32" s="29" t="s">
         <v>787</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>285</v>
@@ -10031,7 +10028,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>282</v>
@@ -10045,7 +10042,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>245</v>
@@ -10059,7 +10056,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>282</v>
@@ -10073,35 +10070,35 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="B37" s="30" t="s">
         <v>789</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>790</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="D37" s="29" t="s">
         <v>791</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B38" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>793</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="D38" s="29" t="s">
         <v>794</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>245</v>
@@ -10115,105 +10112,105 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="B40" s="30" t="s">
         <v>796</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="C40" s="29" t="s">
         <v>797</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="D40" s="29" t="s">
         <v>798</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B41" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="C41" s="29" t="s">
         <v>800</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="D41" s="29" t="s">
         <v>801</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B42" s="30" t="s">
+        <v>802</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>803</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="D42" s="29" t="s">
         <v>804</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B43" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="C43" s="29" t="s">
         <v>806</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="D43" s="29" t="s">
         <v>807</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B44" s="30" t="s">
+        <v>808</v>
+      </c>
+      <c r="C44" s="29" t="s">
         <v>809</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="D44" s="29" t="s">
         <v>810</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B45" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="C45" s="29" t="s">
         <v>812</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="D45" s="29" t="s">
         <v>813</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B46" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>815</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="D46" s="29" t="s">
         <v>816</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>245</v>
@@ -10227,49 +10224,49 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>233</v>
       </c>
       <c r="C48" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="D48" s="29" t="s">
         <v>818</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="B49" s="30" t="s">
         <v>820</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="C49" s="29" t="s">
         <v>821</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="D49" s="29" t="s">
         <v>822</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C50" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="D50" s="29" t="s">
         <v>824</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B51" s="30" t="s">
         <v>245</v>
@@ -10283,7 +10280,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B52" s="30" t="s">
         <v>282</v>
@@ -10297,35 +10294,35 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="B53" s="30" t="s">
         <v>826</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="C53" s="29" t="s">
         <v>827</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="D53" s="29" t="s">
         <v>828</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B54" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="C54" s="29" t="s">
         <v>830</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="D54" s="29" t="s">
         <v>831</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>245</v>
@@ -10339,105 +10336,105 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B56" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="C56" s="29" t="s">
         <v>833</v>
       </c>
-      <c r="C56" s="29" t="s">
-        <v>834</v>
-      </c>
       <c r="D56" s="29" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B57" s="30" t="s">
+        <v>834</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>835</v>
       </c>
-      <c r="C57" s="29" t="s">
-        <v>836</v>
-      </c>
       <c r="D57" s="29" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B58" s="30" t="s">
+        <v>836</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>837</v>
       </c>
-      <c r="C58" s="29" t="s">
-        <v>838</v>
-      </c>
       <c r="D58" s="29" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B59" s="30" t="s">
+        <v>838</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>839</v>
       </c>
-      <c r="C59" s="29" t="s">
-        <v>840</v>
-      </c>
       <c r="D59" s="29" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B60" s="30" t="s">
+        <v>840</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>841</v>
       </c>
-      <c r="C60" s="29" t="s">
-        <v>842</v>
-      </c>
       <c r="D60" s="29" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B61" s="30" t="s">
+        <v>842</v>
+      </c>
+      <c r="C61" s="29" t="s">
         <v>843</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="D61" s="29" t="s">
         <v>844</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B62" s="30" t="s">
+        <v>845</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>846</v>
       </c>
-      <c r="C62" s="29" t="s">
-        <v>847</v>
-      </c>
       <c r="D62" s="29" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B63" s="30" t="s">
         <v>233</v>
@@ -10451,161 +10448,161 @@
     </row>
     <row r="64" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="30" t="s">
+        <v>847</v>
+      </c>
+      <c r="B64" s="32" t="s">
         <v>848</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="C64" s="32" t="s">
         <v>849</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="D64" s="33" t="s">
         <v>850</v>
-      </c>
-      <c r="D64" s="33" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="30" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B65" s="30" t="s">
+        <v>851</v>
+      </c>
+      <c r="C65" s="29" t="s">
         <v>852</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="D65" s="29" t="s">
         <v>853</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A66" s="30" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B66" s="32" t="s">
+        <v>854</v>
+      </c>
+      <c r="C66" s="32" t="s">
         <v>855</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="D66" s="33" t="s">
         <v>856</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="30" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B67" s="30" t="s">
+        <v>857</v>
+      </c>
+      <c r="C67" s="29" t="s">
         <v>858</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="D67" s="29" t="s">
         <v>859</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="30" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B68" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C68" s="29" t="s">
         <v>861</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="D68" s="29" t="s">
         <v>862</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="30" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B69" s="30" t="s">
+        <v>863</v>
+      </c>
+      <c r="C69" s="29" t="s">
         <v>864</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="D69" s="29" t="s">
         <v>865</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A70" s="30" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C70" s="32" t="s">
+        <v>866</v>
+      </c>
+      <c r="D70" s="33" t="s">
         <v>867</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="30" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B71" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="C71" s="29" t="s">
         <v>869</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="D71" s="29" t="s">
         <v>870</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="30" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B72" s="30" t="s">
+        <v>871</v>
+      </c>
+      <c r="C72" s="29" t="s">
         <v>872</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="D72" s="29" t="s">
         <v>873</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="30" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B73" s="30" t="s">
         <v>280</v>
       </c>
       <c r="C73" s="29" t="s">
+        <v>874</v>
+      </c>
+      <c r="D73" s="29" t="s">
         <v>875</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="30" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B74" s="30" t="s">
+        <v>876</v>
+      </c>
+      <c r="C74" s="29" t="s">
         <v>877</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="D74" s="29" t="s">
         <v>878</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="30" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B75" s="30" t="s">
         <v>245</v>
@@ -10619,7 +10616,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="30" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B76" s="30" t="s">
         <v>233</v>
@@ -10633,133 +10630,133 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="30" t="s">
+        <v>879</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>826</v>
+      </c>
+      <c r="C77" s="29" t="s">
         <v>880</v>
       </c>
-      <c r="B77" s="30" t="s">
-        <v>827</v>
-      </c>
-      <c r="C77" s="29" t="s">
+      <c r="D77" s="29" t="s">
         <v>881</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="30" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C78" s="29" t="s">
+        <v>882</v>
+      </c>
+      <c r="D78" s="29" t="s">
         <v>883</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="30" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B79" s="30" t="s">
+        <v>884</v>
+      </c>
+      <c r="C79" s="29" t="s">
         <v>885</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="D79" s="29" t="s">
         <v>886</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="30" t="s">
+        <v>887</v>
+      </c>
+      <c r="B80" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="C80" s="29" t="s">
         <v>889</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="D80" s="29" t="s">
         <v>890</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="30" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B81" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="C81" s="29" t="s">
         <v>892</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="D81" s="29" t="s">
         <v>893</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="30" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B82" s="30" t="s">
+        <v>894</v>
+      </c>
+      <c r="C82" s="29" t="s">
         <v>895</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="D82" s="29" t="s">
         <v>896</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="30" t="s">
+        <v>897</v>
+      </c>
+      <c r="B83" s="30" t="s">
         <v>898</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="C83" s="29" t="s">
         <v>899</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="D83" s="29" t="s">
         <v>900</v>
-      </c>
-      <c r="D83" s="29" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="30" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B84" s="30" t="s">
+        <v>901</v>
+      </c>
+      <c r="C84" s="29" t="s">
         <v>902</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="D84" s="29" t="s">
         <v>903</v>
-      </c>
-      <c r="D84" s="29" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="30" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B85" s="30" t="s">
+        <v>904</v>
+      </c>
+      <c r="C85" s="29" t="s">
         <v>905</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="D85" s="29" t="s">
         <v>906</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="30" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>245</v>
@@ -10773,63 +10770,63 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B87" s="30" t="s">
+        <v>907</v>
+      </c>
+      <c r="C87" s="29" t="s">
         <v>908</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="D87" s="29" t="s">
         <v>909</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C89" s="29" t="s">
+        <v>911</v>
+      </c>
+      <c r="D89" s="29" t="s">
         <v>912</v>
-      </c>
-      <c r="D89" s="29" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B90" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="C90" s="29" t="s">
         <v>815</v>
       </c>
-      <c r="C90" s="29" t="s">
-        <v>816</v>
-      </c>
       <c r="D90" s="29" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>245</v>
@@ -10843,7 +10840,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>233</v>
@@ -10857,49 +10854,49 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="32" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B93" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="C93" s="32" t="s">
         <v>809</v>
       </c>
-      <c r="C93" s="32" t="s">
+      <c r="D93" s="29" t="s">
         <v>810</v>
-      </c>
-      <c r="D93" s="29" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="32" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B94" s="32" t="s">
+        <v>811</v>
+      </c>
+      <c r="C94" s="32" t="s">
         <v>812</v>
       </c>
-      <c r="C94" s="32" t="s">
-        <v>813</v>
-      </c>
       <c r="D94" s="29" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="32" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B95" s="32" t="s">
+        <v>814</v>
+      </c>
+      <c r="C95" s="32" t="s">
         <v>815</v>
       </c>
-      <c r="C95" s="32" t="s">
-        <v>816</v>
-      </c>
       <c r="D95" s="29" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="32" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B96" s="32" t="s">
         <v>245</v>
@@ -10913,7 +10910,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="32" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B97" s="32" t="s">
         <v>233</v>
@@ -10958,10 +10955,10 @@
         <v>59</v>
       </c>
       <c r="B100" s="32" t="s">
+        <v>915</v>
+      </c>
+      <c r="C100" s="35" t="s">
         <v>916</v>
-      </c>
-      <c r="C100" s="35" t="s">
-        <v>917</v>
       </c>
       <c r="D100" s="30" t="s">
         <v>252</v>
@@ -10986,13 +10983,13 @@
         <v>59</v>
       </c>
       <c r="B102" s="32" t="s">
+        <v>917</v>
+      </c>
+      <c r="C102" s="35" t="s">
         <v>918</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="D102" s="30" t="s">
         <v>919</v>
-      </c>
-      <c r="D102" s="30" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -11000,13 +10997,13 @@
         <v>59</v>
       </c>
       <c r="B103" s="32" t="s">
+        <v>920</v>
+      </c>
+      <c r="C103" s="35" t="s">
         <v>921</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="D103" s="30" t="s">
         <v>922</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -11067,105 +11064,105 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="32" t="s">
+        <v>923</v>
+      </c>
+      <c r="B108" s="32" t="s">
         <v>924</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="C108" s="35" t="s">
         <v>925</v>
       </c>
-      <c r="C108" s="35" t="s">
+      <c r="D108" s="30" t="s">
         <v>926</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="32" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B109" s="32" t="s">
+        <v>927</v>
+      </c>
+      <c r="C109" s="35" t="s">
         <v>928</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="D109" s="30" t="s">
         <v>929</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="32" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B110" s="32" t="s">
+        <v>930</v>
+      </c>
+      <c r="C110" s="35" t="s">
         <v>931</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="D110" s="30" t="s">
         <v>932</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="32" t="s">
+        <v>933</v>
+      </c>
+      <c r="B111" s="32" t="s">
         <v>934</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="C111" s="32" t="s">
         <v>935</v>
       </c>
-      <c r="C111" s="32" t="s">
+      <c r="D111" s="29" t="s">
         <v>936</v>
-      </c>
-      <c r="D111" s="29" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="32" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B112" s="32" t="s">
+        <v>937</v>
+      </c>
+      <c r="C112" s="32" t="s">
         <v>938</v>
       </c>
-      <c r="C112" s="32" t="s">
+      <c r="D112" s="29" t="s">
         <v>939</v>
-      </c>
-      <c r="D112" s="29" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="32" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B113" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="C113" s="32" t="s">
         <v>941</v>
       </c>
-      <c r="C113" s="32" t="s">
+      <c r="D113" s="29" t="s">
         <v>942</v>
-      </c>
-      <c r="D113" s="29" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="32" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B114" s="32" t="s">
+        <v>943</v>
+      </c>
+      <c r="C114" s="32" t="s">
         <v>944</v>
       </c>
-      <c r="C114" s="32" t="s">
+      <c r="D114" s="29" t="s">
         <v>945</v>
-      </c>
-      <c r="D114" s="29" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="32" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B115" s="32" t="s">
         <v>245</v>
@@ -11174,68 +11171,68 @@
         <v>28</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="32" t="s">
+        <v>947</v>
+      </c>
+      <c r="B116" s="32" t="s">
         <v>948</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="C116" s="32" t="s">
         <v>949</v>
       </c>
-      <c r="C116" s="32" t="s">
+      <c r="D116" s="29" t="s">
         <v>950</v>
-      </c>
-      <c r="D116" s="29" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="32" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B117" s="32" t="s">
+        <v>951</v>
+      </c>
+      <c r="C117" s="32" t="s">
         <v>952</v>
       </c>
-      <c r="C117" s="32" t="s">
+      <c r="D117" s="29" t="s">
         <v>953</v>
-      </c>
-      <c r="D117" s="29" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="32" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B118" s="32" t="s">
+        <v>954</v>
+      </c>
+      <c r="C118" s="32" t="s">
         <v>955</v>
       </c>
-      <c r="C118" s="32" t="s">
+      <c r="D118" s="29" t="s">
         <v>956</v>
-      </c>
-      <c r="D118" s="29" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="32" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B119" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C119" s="32" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="32" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B120" s="32" t="s">
         <v>233</v>
@@ -11249,7 +11246,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="32" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B121" s="32" t="s">
         <v>245</v>
@@ -11263,77 +11260,77 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="32" t="s">
+        <v>958</v>
+      </c>
+      <c r="B122" s="32" t="s">
         <v>959</v>
       </c>
-      <c r="B122" s="32" t="s">
+      <c r="C122" s="32" t="s">
         <v>960</v>
       </c>
-      <c r="C122" s="32" t="s">
+      <c r="D122" s="29" t="s">
         <v>961</v>
-      </c>
-      <c r="D122" s="29" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="32" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B123" s="32" t="s">
+        <v>962</v>
+      </c>
+      <c r="C123" s="32" t="s">
         <v>963</v>
       </c>
-      <c r="C123" s="32" t="s">
+      <c r="D123" s="29" t="s">
         <v>964</v>
-      </c>
-      <c r="D123" s="29" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="32" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B124" s="32" t="s">
+        <v>965</v>
+      </c>
+      <c r="C124" s="32" t="s">
         <v>966</v>
       </c>
-      <c r="C124" s="32" t="s">
+      <c r="D124" s="29" t="s">
         <v>967</v>
-      </c>
-      <c r="D124" s="29" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="32" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B125" s="32" t="s">
+        <v>968</v>
+      </c>
+      <c r="C125" s="32" t="s">
         <v>969</v>
       </c>
-      <c r="C125" s="32" t="s">
+      <c r="D125" s="32" t="s">
         <v>970</v>
-      </c>
-      <c r="D125" s="32" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="32" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B126" s="32" t="s">
+        <v>971</v>
+      </c>
+      <c r="C126" s="32" t="s">
         <v>972</v>
       </c>
-      <c r="C126" s="32" t="s">
+      <c r="D126" s="29" t="s">
         <v>973</v>
-      </c>
-      <c r="D126" s="29" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="32" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B127" s="32" t="s">
         <v>233</v>
@@ -11347,7 +11344,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="32" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B128" s="32" t="s">
         <v>245</v>
@@ -11361,21 +11358,21 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="29" t="s">
+        <v>974</v>
+      </c>
+      <c r="B129" s="32" t="s">
         <v>975</v>
       </c>
-      <c r="B129" s="32" t="s">
+      <c r="C129" s="32" t="s">
         <v>976</v>
       </c>
-      <c r="C129" s="32" t="s">
+      <c r="D129" s="32" t="s">
         <v>977</v>
-      </c>
-      <c r="D129" s="32" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="29" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B130" s="32" t="s">
         <v>257</v>
@@ -11389,7 +11386,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="32" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B131" s="32" t="s">
         <v>285</v>
@@ -11403,7 +11400,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="32" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B132" s="32" t="s">
         <v>282</v>
@@ -11417,13 +11414,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="32" t="s">
+        <v>978</v>
+      </c>
+      <c r="B133" s="32" t="s">
         <v>979</v>
       </c>
-      <c r="B133" s="32" t="s">
+      <c r="C133" s="32" t="s">
         <v>980</v>
-      </c>
-      <c r="C133" s="32" t="s">
-        <v>981</v>
       </c>
       <c r="D133" s="32" t="s">
         <v>229</v>
@@ -11431,7 +11428,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="32" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B134" s="32" t="s">
         <v>245</v>
@@ -11445,63 +11442,63 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="32" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B135" s="29" t="s">
+        <v>907</v>
+      </c>
+      <c r="C135" s="32" t="s">
         <v>908</v>
       </c>
-      <c r="C135" s="32" t="s">
+      <c r="D135" s="32" t="s">
         <v>909</v>
-      </c>
-      <c r="D135" s="32" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="32" t="s">
+        <v>981</v>
+      </c>
+      <c r="B136" s="29" t="s">
         <v>982</v>
       </c>
-      <c r="B136" s="29" t="s">
+      <c r="C136" s="32" t="s">
         <v>983</v>
       </c>
-      <c r="C136" s="32" t="s">
+      <c r="D136" s="32" t="s">
         <v>984</v>
-      </c>
-      <c r="D136" s="32" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="32" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B137" s="29" t="s">
+        <v>985</v>
+      </c>
+      <c r="C137" s="32" t="s">
         <v>986</v>
       </c>
-      <c r="C137" s="32" t="s">
+      <c r="D137" s="32" t="s">
         <v>987</v>
-      </c>
-      <c r="D137" s="32" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="32" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B138" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="C138" s="32" t="s">
         <v>989</v>
       </c>
-      <c r="C138" s="32" t="s">
+      <c r="D138" s="32" t="s">
         <v>990</v>
-      </c>
-      <c r="D138" s="32" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="32" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B139" s="29" t="s">
         <v>245</v>
@@ -11515,44 +11512,44 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="32" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B140" s="29" t="s">
         <v>233</v>
       </c>
       <c r="C140" s="32" t="s">
+        <v>991</v>
+      </c>
+      <c r="D140" s="32" t="s">
         <v>992</v>
-      </c>
-      <c r="D140" s="32" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="32" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B141" s="32" t="s">
         <v>75</v>
       </c>
       <c r="C141" s="32" t="s">
+        <v>994</v>
+      </c>
+      <c r="D141" s="29" t="s">
         <v>995</v>
-      </c>
-      <c r="D141" s="29" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="32" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B142" s="32" t="s">
+        <v>996</v>
+      </c>
+      <c r="C142" s="32" t="s">
         <v>997</v>
       </c>
-      <c r="C142" s="32" t="s">
+      <c r="D142" s="29" t="s">
         <v>998</v>
-      </c>
-      <c r="D142" s="29" t="s">
-        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -11590,7 +11587,7 @@
         <v>309</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -11617,8 +11614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11843,7 +11840,7 @@
         <v>199</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
@@ -11887,7 +11884,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -11902,16 +11899,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>1003</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="C13" s="40" t="s">
         <v>1004</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="D13" s="40" t="s">
         <v>1005</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>1006</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -11933,7 +11930,7 @@
         <v>191</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -12174,10 +12171,10 @@
         <v>159</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
@@ -12193,13 +12190,13 @@
         <v>49</v>
       </c>
       <c r="B26" s="40" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C26" s="40" t="s">
         <v>1008</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="D26" s="40" t="s">
         <v>1009</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>1010</v>
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
@@ -12207,7 +12204,7 @@
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
       <c r="J26" s="41" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="K26" s="41" t="s">
         <v>133</v>
@@ -12238,15 +12235,15 @@
         <v>150</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>1012</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>1013</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -12281,10 +12278,10 @@
         <v>67</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>77</v>
@@ -12310,7 +12307,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E31" s="40" t="s">
         <v>140</v>
@@ -12353,16 +12350,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B33" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="40" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D33" s="40" t="s">
         <v>1018</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>1019</v>
       </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
@@ -12370,22 +12367,22 @@
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
       <c r="J33" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="K33" s="39"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B34" s="40" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D34" s="40" t="s">
         <v>1021</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>1022</v>
       </c>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
@@ -12403,10 +12400,10 @@
         <v>17</v>
       </c>
       <c r="C35" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="D35" s="40" t="s">
         <v>387</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>388</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
@@ -12421,19 +12418,19 @@
         <v>49</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C36" s="40" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D36" s="40" t="s">
         <v>1023</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>1024</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="40" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I36" s="39"/>
       <c r="J36" s="39"/>
@@ -12444,13 +12441,13 @@
         <v>49</v>
       </c>
       <c r="B37" s="40" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C37" s="40" t="s">
         <v>1026</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="D37" s="40" t="s">
         <v>1027</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>1028</v>
       </c>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -12796,12 +12793,12 @@
         <v>310</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="49" t="s">
@@ -12822,8 +12819,8 @@
   <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13000,7 +12997,7 @@
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
       <c r="G7" s="51" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
@@ -13019,7 +13016,7 @@
         <v>203</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
@@ -13101,7 +13098,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
@@ -13173,13 +13170,13 @@
         <v>185</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>183</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G15" s="59"/>
       <c r="H15" s="60"/>
@@ -13303,7 +13300,7 @@
         <v>165</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
@@ -13340,16 +13337,16 @@
     </row>
     <row r="23" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B23" s="51" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C23" s="51" t="s">
         <v>1031</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="D23" s="51" t="s">
         <v>1032</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>1033</v>
       </c>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
@@ -13366,19 +13363,19 @@
         <v>39</v>
       </c>
       <c r="B24" s="51" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C24" s="51" t="s">
         <v>1034</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="D24" s="51" t="s">
         <v>1035</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>1036</v>
       </c>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
       <c r="G24" s="57"/>
       <c r="H24" s="51" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
@@ -13407,10 +13404,10 @@
         <v>159</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E26" s="52"/>
       <c r="F26" s="52"/>
@@ -13426,14 +13423,14 @@
       <c r="A27" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="51" t="s">
-        <v>329</v>
+      <c r="B27" s="65" t="s">
+        <v>1007</v>
       </c>
       <c r="C27" s="51" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D27" s="51" t="s">
         <v>1038</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>1039</v>
       </c>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
@@ -13489,7 +13486,7 @@
         <v>327</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D30" s="51" t="s">
         <v>326</v>
@@ -13553,10 +13550,10 @@
         <v>67</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>77</v>
@@ -13628,13 +13625,13 @@
         <v>53</v>
       </c>
       <c r="B36" s="57" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C36" s="57" t="s">
         <v>1041</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="D36" s="57" t="s">
         <v>1042</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>1043</v>
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="52"/>
@@ -13649,19 +13646,19 @@
         <v>312</v>
       </c>
       <c r="B37" s="57" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C37" s="57" t="s">
         <v>1044</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="D37" s="57" t="s">
         <v>1045</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>1046</v>
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="52"/>
       <c r="G37" s="57"/>
       <c r="H37" s="57" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I37" s="57"/>
       <c r="J37" s="57"/>
@@ -13672,13 +13669,13 @@
         <v>312</v>
       </c>
       <c r="B38" s="57" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C38" s="57" t="s">
         <v>1048</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="D38" s="57" t="s">
         <v>1049</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>1050</v>
       </c>
       <c r="E38" s="52"/>
       <c r="F38" s="52"/>
@@ -13693,19 +13690,19 @@
         <v>39</v>
       </c>
       <c r="B39" s="57" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C39" s="57" t="s">
         <v>1051</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="D39" s="57" t="s">
         <v>1052</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>1053</v>
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
       <c r="H39" s="57" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
@@ -13716,19 +13713,19 @@
         <v>67</v>
       </c>
       <c r="B40" s="57" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C40" s="57" t="s">
         <v>1055</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="D40" s="57" t="s">
         <v>1056</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>1057</v>
       </c>
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
       <c r="G40" s="57"/>
       <c r="H40" s="57" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I40" s="57"/>
       <c r="J40" s="57"/>
@@ -13757,16 +13754,16 @@
         <v>317</v>
       </c>
       <c r="C42" s="51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D42" s="51" t="s">
         <v>1058</v>
-      </c>
-      <c r="D42" s="51" t="s">
-        <v>1059</v>
       </c>
       <c r="E42" s="52"/>
       <c r="F42" s="52"/>
       <c r="G42" s="57"/>
       <c r="H42" s="51" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I42" s="57"/>
       <c r="J42" s="57"/>
@@ -13777,13 +13774,13 @@
         <v>312</v>
       </c>
       <c r="B43" s="51" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C43" s="58" t="s">
         <v>1061</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="D43" s="58" t="s">
         <v>1062</v>
-      </c>
-      <c r="D43" s="58" t="s">
-        <v>1063</v>
       </c>
       <c r="E43" s="52"/>
       <c r="F43" s="52"/>
@@ -13795,22 +13792,22 @@
     </row>
     <row r="44" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="51" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B44" s="51" t="s">
         <v>1064</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="C44" s="58" t="s">
         <v>1065</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="D44" s="58" t="s">
         <v>1066</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>1067</v>
       </c>
       <c r="E44" s="52"/>
       <c r="F44" s="52"/>
       <c r="G44" s="57"/>
       <c r="H44" s="51" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I44" s="51"/>
       <c r="J44" s="57"/>
@@ -13821,13 +13818,13 @@
         <v>312</v>
       </c>
       <c r="B45" s="51" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C45" s="58" t="s">
         <v>1069</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="D45" s="58" t="s">
         <v>1070</v>
-      </c>
-      <c r="D45" s="58" t="s">
-        <v>1071</v>
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="52"/>
@@ -13842,23 +13839,23 @@
         <v>49</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C46" s="58" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D46" s="58" t="s">
         <v>1072</v>
       </c>
-      <c r="D46" s="58" t="s">
+      <c r="E46" s="52" t="s">
         <v>1073</v>
       </c>
-      <c r="E46" s="52" t="s">
+      <c r="F46" s="52" t="s">
         <v>1074</v>
-      </c>
-      <c r="F46" s="52" t="s">
-        <v>1075</v>
       </c>
       <c r="G46" s="57"/>
       <c r="H46" s="51" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I46" s="57"/>
       <c r="J46" s="57"/>
@@ -13869,23 +13866,23 @@
         <v>49</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C47" s="58" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D47" s="58" t="s">
         <v>1077</v>
       </c>
-      <c r="D47" s="58" t="s">
-        <v>1078</v>
-      </c>
       <c r="E47" s="52" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F47" s="52" t="s">
         <v>1074</v>
-      </c>
-      <c r="F47" s="52" t="s">
-        <v>1075</v>
       </c>
       <c r="G47" s="57"/>
       <c r="H47" s="51" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I47" s="57"/>
       <c r="J47" s="57"/>
@@ -13896,13 +13893,13 @@
         <v>312</v>
       </c>
       <c r="B48" s="57" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C48" s="58" t="s">
         <v>1079</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="D48" s="52" t="s">
         <v>1080</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>1081</v>
       </c>
       <c r="E48" s="52"/>
       <c r="F48" s="52"/>
@@ -13915,23 +13912,23 @@
         <v>49</v>
       </c>
       <c r="B49" s="57" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C49" s="58" t="s">
         <v>1082</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="D49" s="52" t="s">
         <v>1083</v>
       </c>
-      <c r="D49" s="52" t="s">
-        <v>1084</v>
-      </c>
       <c r="E49" s="52" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F49" s="52" t="s">
         <v>1074</v>
-      </c>
-      <c r="F49" s="52" t="s">
-        <v>1075</v>
       </c>
       <c r="G49" s="57"/>
       <c r="H49" s="51" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I49" s="57"/>
     </row>
@@ -13940,13 +13937,13 @@
         <v>312</v>
       </c>
       <c r="B50" s="57" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C50" s="58" t="s">
         <v>1086</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="D50" s="52" t="s">
         <v>1087</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>1088</v>
       </c>
       <c r="E50" s="52"/>
       <c r="F50" s="52"/>
@@ -13959,19 +13956,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C51" s="58" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D51" s="52" t="s">
         <v>1089</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>1090</v>
       </c>
       <c r="E51" s="52"/>
       <c r="F51" s="52"/>
       <c r="G51" s="57"/>
       <c r="H51" s="51" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I51" s="51"/>
     </row>
@@ -13980,19 +13977,19 @@
         <v>312</v>
       </c>
       <c r="B52" s="57" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C52" s="58" t="s">
         <v>1092</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="D52" s="52" t="s">
         <v>1093</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="E52" s="52" t="s">
         <v>1094</v>
       </c>
-      <c r="E52" s="52" t="s">
+      <c r="F52" s="52" t="s">
         <v>1095</v>
-      </c>
-      <c r="F52" s="52" t="s">
-        <v>1096</v>
       </c>
       <c r="G52" s="57"/>
       <c r="H52" s="51"/>
@@ -14003,19 +14000,19 @@
         <v>49</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C53" s="58" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D53" s="52" t="s">
         <v>1089</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>1090</v>
       </c>
       <c r="E53" s="52"/>
       <c r="F53" s="52"/>
       <c r="G53" s="57"/>
       <c r="H53" s="51" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I53" s="57"/>
     </row>
@@ -14024,19 +14021,19 @@
         <v>312</v>
       </c>
       <c r="B54" s="57" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C54" s="58" t="s">
         <v>1099</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="D54" s="52" t="s">
         <v>1100</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="E54" s="52" t="s">
         <v>1101</v>
       </c>
-      <c r="E54" s="52" t="s">
+      <c r="F54" s="52" t="s">
         <v>1102</v>
-      </c>
-      <c r="F54" s="52" t="s">
-        <v>1103</v>
       </c>
       <c r="G54" s="57"/>
       <c r="H54" s="51"/>
@@ -14047,19 +14044,19 @@
         <v>49</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C55" s="58" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D55" s="52" t="s">
         <v>1089</v>
-      </c>
-      <c r="D55" s="52" t="s">
-        <v>1090</v>
       </c>
       <c r="E55" s="52"/>
       <c r="F55" s="52"/>
       <c r="G55" s="57"/>
       <c r="H55" s="57" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I55" s="57"/>
     </row>
@@ -14068,19 +14065,19 @@
         <v>49</v>
       </c>
       <c r="B56" s="57" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C56" s="58" t="s">
         <v>1106</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="D56" s="52" t="s">
         <v>1107</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>1108</v>
       </c>
       <c r="E56" s="52"/>
       <c r="F56" s="52"/>
       <c r="G56" s="57"/>
       <c r="H56" s="57" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I56" s="57"/>
     </row>
@@ -14089,19 +14086,19 @@
         <v>49</v>
       </c>
       <c r="B57" s="57" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C57" s="58" t="s">
         <v>1109</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="D57" s="52" t="s">
         <v>1110</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>1111</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="52"/>
       <c r="G57" s="57"/>
       <c r="H57" s="57" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I57" s="57"/>
     </row>
@@ -14110,13 +14107,13 @@
         <v>312</v>
       </c>
       <c r="B58" s="57" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C58" s="58" t="s">
         <v>1112</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="D58" s="52" t="s">
         <v>1113</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>1114</v>
       </c>
       <c r="E58" s="52"/>
       <c r="F58" s="52"/>
@@ -14129,19 +14126,19 @@
         <v>49</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C59" s="58" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D59" s="52" t="s">
         <v>1089</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>1090</v>
       </c>
       <c r="E59" s="52"/>
       <c r="F59" s="52"/>
       <c r="G59" s="57"/>
       <c r="H59" s="51" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I59" s="51"/>
     </row>
@@ -14150,19 +14147,19 @@
         <v>49</v>
       </c>
       <c r="B60" s="57" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C60" s="58" t="s">
         <v>1117</v>
       </c>
-      <c r="C60" s="58" t="s">
+      <c r="D60" s="52" t="s">
         <v>1118</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>1119</v>
       </c>
       <c r="E60" s="52"/>
       <c r="F60" s="52"/>
       <c r="G60" s="57"/>
       <c r="H60" s="51" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I60" s="51"/>
     </row>
@@ -14171,19 +14168,19 @@
         <v>49</v>
       </c>
       <c r="B61" s="57" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C61" s="58" t="s">
         <v>1120</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="D61" s="52" t="s">
         <v>1121</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>1122</v>
       </c>
       <c r="E61" s="52"/>
       <c r="F61" s="52"/>
       <c r="G61" s="57"/>
       <c r="H61" s="51" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I61" s="57"/>
     </row>
@@ -14192,13 +14189,13 @@
         <v>312</v>
       </c>
       <c r="B62" s="57" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C62" s="58" t="s">
         <v>1123</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="D62" s="52" t="s">
         <v>1124</v>
-      </c>
-      <c r="D62" s="52" t="s">
-        <v>1125</v>
       </c>
       <c r="E62" s="52"/>
       <c r="F62" s="52"/>
@@ -14212,34 +14209,34 @@
         <v>49</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C63" s="58" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D63" s="52" t="s">
         <v>1089</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>1090</v>
       </c>
       <c r="E63" s="52"/>
       <c r="F63" s="52"/>
       <c r="G63" s="57"/>
       <c r="H63" s="57" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I63" s="57"/>
     </row>
     <row r="64" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="57" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B64" s="57" t="s">
         <v>1128</v>
       </c>
-      <c r="B64" s="57" t="s">
+      <c r="C64" s="58" t="s">
         <v>1129</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="D64" s="52" t="s">
         <v>1130</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>1131</v>
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="52"/>
@@ -14255,19 +14252,19 @@
         <v>39</v>
       </c>
       <c r="B65" s="57" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C65" s="58" t="s">
         <v>1132</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="D65" s="52" t="s">
         <v>1133</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>1134</v>
       </c>
       <c r="E65" s="52"/>
       <c r="F65" s="52"/>
       <c r="G65" s="57"/>
       <c r="H65" s="57" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I65" s="57"/>
       <c r="J65" s="57"/>
@@ -14279,19 +14276,19 @@
         <v>39</v>
       </c>
       <c r="B66" s="57" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C66" s="58" t="s">
         <v>1136</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="D66" s="52" t="s">
         <v>1137</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="E66" s="52" t="s">
         <v>1138</v>
       </c>
-      <c r="E66" s="52" t="s">
+      <c r="F66" s="52" t="s">
         <v>1139</v>
-      </c>
-      <c r="F66" s="52" t="s">
-        <v>1140</v>
       </c>
       <c r="G66" s="57"/>
       <c r="H66" s="57"/>
@@ -14305,13 +14302,13 @@
         <v>312</v>
       </c>
       <c r="B67" s="57" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C67" s="58" t="s">
         <v>1141</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="D67" s="53" t="s">
         <v>1142</v>
-      </c>
-      <c r="D67" s="53" t="s">
-        <v>1143</v>
       </c>
       <c r="E67" s="38"/>
       <c r="F67" s="38"/>
@@ -14327,19 +14324,19 @@
         <v>312</v>
       </c>
       <c r="B68" s="57" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C68" s="57" t="s">
         <v>1144</v>
       </c>
-      <c r="C68" s="57" t="s">
+      <c r="D68" s="53" t="s">
         <v>1145</v>
-      </c>
-      <c r="D68" s="53" t="s">
-        <v>1146</v>
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
       <c r="H68" s="57" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="I68" s="38"/>
       <c r="J68" s="38"/>
@@ -14351,19 +14348,19 @@
         <v>178</v>
       </c>
       <c r="B69" s="57" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C69" s="52" t="s">
         <v>1148</v>
       </c>
-      <c r="C69" s="52" t="s">
+      <c r="D69" s="53" t="s">
         <v>1149</v>
-      </c>
-      <c r="D69" s="53" t="s">
-        <v>1150</v>
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
       <c r="H69" s="57" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="I69" s="38"/>
       <c r="J69" s="38"/>
@@ -14394,16 +14391,16 @@
         <v>316</v>
       </c>
       <c r="C71" s="57" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D71" s="53" t="s">
         <v>1152</v>
-      </c>
-      <c r="D71" s="53" t="s">
-        <v>1153</v>
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
       <c r="H71" s="57" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="I71" s="38"/>
       <c r="J71" s="38"/>
@@ -14415,13 +14412,13 @@
         <v>178</v>
       </c>
       <c r="B72" s="57" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C72" s="57" t="s">
         <v>1155</v>
       </c>
-      <c r="C72" s="57" t="s">
+      <c r="D72" s="51" t="s">
         <v>1156</v>
-      </c>
-      <c r="D72" s="51" t="s">
-        <v>1157</v>
       </c>
       <c r="E72" s="38"/>
       <c r="F72" s="38"/>
@@ -14434,16 +14431,16 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="51" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B73" s="51" t="s">
         <v>1158</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="C73" s="51" t="s">
         <v>1159</v>
       </c>
-      <c r="C73" s="51" t="s">
-        <v>1160</v>
-      </c>
       <c r="D73" s="51" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38"/>
@@ -14459,19 +14456,19 @@
         <v>67</v>
       </c>
       <c r="B74" s="51" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C74" s="51" t="s">
         <v>1161</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="D74" s="51" t="s">
         <v>1162</v>
-      </c>
-      <c r="D74" s="51" t="s">
-        <v>1163</v>
       </c>
       <c r="E74" s="38"/>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
       <c r="H74" s="57" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I74" s="38"/>
       <c r="J74" s="38"/>
@@ -14480,16 +14477,16 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B75" s="51" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C75" s="51" t="s">
         <v>1165</v>
       </c>
-      <c r="C75" s="51" t="s">
-        <v>1166</v>
-      </c>
       <c r="D75" s="51" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E75" s="38"/>
       <c r="F75" s="38"/>
@@ -14505,19 +14502,19 @@
         <v>67</v>
       </c>
       <c r="B76" s="51" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C76" s="51" t="s">
         <v>1167</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="D76" s="51" t="s">
         <v>1168</v>
-      </c>
-      <c r="D76" s="51" t="s">
-        <v>1169</v>
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
       <c r="H76" s="57" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="I76" s="38"/>
       <c r="J76" s="38"/>
@@ -14526,16 +14523,16 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B77" s="51" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C77" s="51" t="s">
         <v>1171</v>
       </c>
-      <c r="C77" s="51" t="s">
-        <v>1172</v>
-      </c>
       <c r="D77" s="51" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38"/>
@@ -14551,19 +14548,19 @@
         <v>67</v>
       </c>
       <c r="B78" s="51" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C78" s="51" t="s">
         <v>1173</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="D78" s="57" t="s">
         <v>1174</v>
-      </c>
-      <c r="D78" s="57" t="s">
-        <v>1175</v>
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
       <c r="H78" s="57" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I78" s="38"/>
       <c r="J78" s="38"/>
@@ -14572,16 +14569,16 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B79" s="51" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C79" s="51" t="s">
         <v>1177</v>
       </c>
-      <c r="C79" s="51" t="s">
-        <v>1178</v>
-      </c>
       <c r="D79" s="51" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38"/>
@@ -14593,33 +14590,33 @@
         <v>67</v>
       </c>
       <c r="B80" s="51" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C80" s="51" t="s">
         <v>1179</v>
       </c>
-      <c r="C80" s="51" t="s">
+      <c r="D80" s="51" t="s">
         <v>1180</v>
-      </c>
-      <c r="D80" s="51" t="s">
-        <v>1181</v>
       </c>
       <c r="E80" s="38"/>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
       <c r="H80" s="57" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B81" s="51" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C81" s="51" t="s">
         <v>1183</v>
       </c>
-      <c r="C81" s="51" t="s">
+      <c r="D81" s="51" t="s">
         <v>1184</v>
-      </c>
-      <c r="D81" s="51" t="s">
-        <v>1185</v>
       </c>
       <c r="E81" s="38"/>
       <c r="F81" s="38"/>
@@ -14631,33 +14628,33 @@
         <v>67</v>
       </c>
       <c r="B82" s="51" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C82" s="51" t="s">
         <v>1186</v>
       </c>
-      <c r="C82" s="51" t="s">
+      <c r="D82" s="51" t="s">
         <v>1187</v>
-      </c>
-      <c r="D82" s="51" t="s">
-        <v>1188</v>
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
       <c r="H82" s="57" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B83" s="51" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C83" s="51" t="s">
         <v>1190</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="D83" s="51" t="s">
         <v>1191</v>
-      </c>
-      <c r="D83" s="51" t="s">
-        <v>1192</v>
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38"/>
@@ -14669,33 +14666,33 @@
         <v>67</v>
       </c>
       <c r="B84" s="51" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C84" s="51" t="s">
         <v>1193</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="D84" s="51" t="s">
         <v>1194</v>
-      </c>
-      <c r="D84" s="51" t="s">
-        <v>1195</v>
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
       <c r="H84" s="57" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B85" s="51" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C85" s="51" t="s">
         <v>1197</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="D85" s="57" t="s">
         <v>1198</v>
-      </c>
-      <c r="D85" s="57" t="s">
-        <v>1199</v>
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38"/>
@@ -14707,33 +14704,33 @@
         <v>67</v>
       </c>
       <c r="B86" s="51" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C86" s="57" t="s">
         <v>1200</v>
       </c>
-      <c r="C86" s="57" t="s">
+      <c r="D86" s="58" t="s">
         <v>1201</v>
-      </c>
-      <c r="D86" s="58" t="s">
-        <v>1202</v>
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
       <c r="H86" s="57" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B87" s="51" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C87" s="51" t="s">
         <v>1204</v>
       </c>
-      <c r="C87" s="51" t="s">
+      <c r="D87" s="58" t="s">
         <v>1205</v>
-      </c>
-      <c r="D87" s="58" t="s">
-        <v>1206</v>
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38"/>
@@ -14745,33 +14742,33 @@
         <v>67</v>
       </c>
       <c r="B88" s="51" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C88" s="51" t="s">
         <v>1207</v>
       </c>
-      <c r="C88" s="51" t="s">
+      <c r="D88" s="51" t="s">
         <v>1208</v>
-      </c>
-      <c r="D88" s="51" t="s">
-        <v>1209</v>
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
       <c r="H88" s="57" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B89" s="51" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C89" s="51" t="s">
         <v>1211</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="D89" s="57" t="s">
         <v>1212</v>
-      </c>
-      <c r="D89" s="57" t="s">
-        <v>1213</v>
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38"/>
@@ -14783,33 +14780,33 @@
         <v>67</v>
       </c>
       <c r="B90" s="51" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C90" s="57" t="s">
         <v>1214</v>
       </c>
-      <c r="C90" s="57" t="s">
+      <c r="D90" s="57" t="s">
         <v>1215</v>
-      </c>
-      <c r="D90" s="57" t="s">
-        <v>1216</v>
       </c>
       <c r="E90" s="38"/>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
       <c r="H90" s="57" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B91" s="57" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C91" s="57" t="s">
         <v>1218</v>
       </c>
-      <c r="C91" s="57" t="s">
-        <v>1219</v>
-      </c>
       <c r="D91" s="57" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E91" s="38"/>
       <c r="F91" s="38"/>
@@ -14821,33 +14818,33 @@
         <v>67</v>
       </c>
       <c r="B92" s="51" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C92" s="57" t="s">
         <v>1220</v>
       </c>
-      <c r="C92" s="57" t="s">
+      <c r="D92" s="38" t="s">
         <v>1221</v>
-      </c>
-      <c r="D92" s="38" t="s">
-        <v>1222</v>
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
       <c r="H92" s="57" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B93" s="57" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C93" s="57" t="s">
         <v>1224</v>
       </c>
-      <c r="C93" s="57" t="s">
-        <v>1225</v>
-      </c>
       <c r="D93" s="38" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38"/>
@@ -14859,33 +14856,33 @@
         <v>67</v>
       </c>
       <c r="B94" s="51" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C94" s="57" t="s">
         <v>1226</v>
       </c>
-      <c r="C94" s="57" t="s">
+      <c r="D94" s="38" t="s">
         <v>1227</v>
-      </c>
-      <c r="D94" s="38" t="s">
-        <v>1228</v>
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
       <c r="H94" s="57" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B95" s="57" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C95" s="57" t="s">
         <v>1230</v>
       </c>
-      <c r="C95" s="57" t="s">
-        <v>1231</v>
-      </c>
       <c r="D95" s="38" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38"/>
@@ -14897,33 +14894,33 @@
         <v>67</v>
       </c>
       <c r="B96" s="51" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C96" s="57" t="s">
         <v>1232</v>
       </c>
-      <c r="C96" s="57" t="s">
+      <c r="D96" s="38" t="s">
         <v>1233</v>
-      </c>
-      <c r="D96" s="38" t="s">
-        <v>1234</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
       <c r="H96" s="57" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B97" s="57" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C97" s="57" t="s">
         <v>1236</v>
       </c>
-      <c r="C97" s="57" t="s">
+      <c r="D97" s="38" t="s">
         <v>1237</v>
-      </c>
-      <c r="D97" s="38" t="s">
-        <v>1238</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38"/>
@@ -14935,33 +14932,33 @@
         <v>67</v>
       </c>
       <c r="B98" s="57" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C98" s="57" t="s">
         <v>1239</v>
       </c>
-      <c r="C98" s="57" t="s">
+      <c r="D98" s="38" t="s">
         <v>1240</v>
-      </c>
-      <c r="D98" s="38" t="s">
-        <v>1241</v>
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
       <c r="H98" s="57" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B99" s="57" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C99" s="57" t="s">
         <v>1243</v>
       </c>
-      <c r="C99" s="57" t="s">
-        <v>1244</v>
-      </c>
       <c r="D99" s="38" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38"/>
@@ -14973,33 +14970,33 @@
         <v>67</v>
       </c>
       <c r="B100" s="57" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C100" s="57" t="s">
         <v>1245</v>
       </c>
-      <c r="C100" s="57" t="s">
+      <c r="D100" s="38" t="s">
         <v>1246</v>
-      </c>
-      <c r="D100" s="38" t="s">
-        <v>1247</v>
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
       <c r="H100" s="57" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B101" s="57" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C101" s="57" t="s">
         <v>1249</v>
       </c>
-      <c r="C101" s="57" t="s">
-        <v>1250</v>
-      </c>
       <c r="D101" s="38" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38"/>
@@ -15011,33 +15008,33 @@
         <v>67</v>
       </c>
       <c r="B102" s="57" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C102" s="57" t="s">
         <v>1251</v>
       </c>
-      <c r="C102" s="57" t="s">
+      <c r="D102" s="38" t="s">
         <v>1252</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>1253</v>
       </c>
       <c r="E102" s="38"/>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
       <c r="H102" s="57" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B103" s="57" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C103" s="57" t="s">
         <v>1255</v>
       </c>
-      <c r="C103" s="57" t="s">
-        <v>1256</v>
-      </c>
       <c r="D103" s="38" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E103" s="38"/>
       <c r="F103" s="38"/>
@@ -15049,33 +15046,33 @@
         <v>67</v>
       </c>
       <c r="B104" s="57" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C104" s="57" t="s">
         <v>1257</v>
       </c>
-      <c r="C104" s="57" t="s">
+      <c r="D104" s="57" t="s">
         <v>1258</v>
-      </c>
-      <c r="D104" s="57" t="s">
-        <v>1259</v>
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
       <c r="H104" s="57" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B105" s="57" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C105" s="57" t="s">
         <v>1261</v>
       </c>
-      <c r="C105" s="57" t="s">
+      <c r="D105" s="38" t="s">
         <v>1262</v>
-      </c>
-      <c r="D105" s="38" t="s">
-        <v>1263</v>
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38"/>
@@ -15087,33 +15084,33 @@
         <v>67</v>
       </c>
       <c r="B106" s="57" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C106" s="57" t="s">
         <v>1264</v>
       </c>
-      <c r="C106" s="57" t="s">
+      <c r="D106" s="38" t="s">
         <v>1265</v>
-      </c>
-      <c r="D106" s="38" t="s">
-        <v>1266</v>
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
       <c r="H106" s="57" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B107" s="57" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C107" s="57" t="s">
         <v>1268</v>
       </c>
-      <c r="C107" s="57" t="s">
+      <c r="D107" s="38" t="s">
         <v>1269</v>
-      </c>
-      <c r="D107" s="38" t="s">
-        <v>1270</v>
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38"/>
@@ -15125,33 +15122,33 @@
         <v>67</v>
       </c>
       <c r="B108" s="57" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C108" s="57" t="s">
         <v>1271</v>
       </c>
-      <c r="C108" s="57" t="s">
+      <c r="D108" s="38" t="s">
         <v>1272</v>
-      </c>
-      <c r="D108" s="38" t="s">
-        <v>1273</v>
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
       <c r="H108" s="57" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B109" s="57" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C109" s="57" t="s">
         <v>1275</v>
       </c>
-      <c r="C109" s="57" t="s">
-        <v>1276</v>
-      </c>
       <c r="D109" s="38" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38"/>
@@ -15163,33 +15160,33 @@
         <v>67</v>
       </c>
       <c r="B110" s="57" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C110" s="57" t="s">
         <v>1277</v>
       </c>
-      <c r="C110" s="57" t="s">
+      <c r="D110" s="38" t="s">
         <v>1278</v>
-      </c>
-      <c r="D110" s="38" t="s">
-        <v>1279</v>
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
       <c r="H110" s="57" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B111" s="57" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C111" s="57" t="s">
         <v>1281</v>
       </c>
-      <c r="C111" s="57" t="s">
+      <c r="D111" s="38" t="s">
         <v>1282</v>
-      </c>
-      <c r="D111" s="38" t="s">
-        <v>1283</v>
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38"/>
@@ -15201,33 +15198,33 @@
         <v>67</v>
       </c>
       <c r="B112" s="57" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C112" s="57" t="s">
         <v>1284</v>
       </c>
-      <c r="C112" s="57" t="s">
+      <c r="D112" s="38" t="s">
         <v>1285</v>
-      </c>
-      <c r="D112" s="38" t="s">
-        <v>1286</v>
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
       <c r="H112" s="57" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B113" s="57" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C113" s="57" t="s">
         <v>1288</v>
       </c>
-      <c r="C113" s="57" t="s">
+      <c r="D113" s="38" t="s">
         <v>1289</v>
-      </c>
-      <c r="D113" s="38" t="s">
-        <v>1290</v>
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38"/>
@@ -15239,33 +15236,33 @@
         <v>67</v>
       </c>
       <c r="B114" s="57" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C114" s="57" t="s">
         <v>1291</v>
       </c>
-      <c r="C114" s="57" t="s">
+      <c r="D114" s="38" t="s">
         <v>1292</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>1293</v>
       </c>
       <c r="E114" s="38"/>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
       <c r="H114" s="57" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B115" s="57" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C115" s="57" t="s">
         <v>1295</v>
       </c>
-      <c r="C115" s="57" t="s">
+      <c r="D115" s="38" t="s">
         <v>1296</v>
-      </c>
-      <c r="D115" s="38" t="s">
-        <v>1297</v>
       </c>
       <c r="E115" s="38"/>
       <c r="F115" s="38"/>
@@ -15277,19 +15274,19 @@
         <v>67</v>
       </c>
       <c r="B116" s="57" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C116" s="57" t="s">
         <v>1298</v>
       </c>
-      <c r="C116" s="57" t="s">
+      <c r="D116" s="38" t="s">
         <v>1299</v>
-      </c>
-      <c r="D116" s="38" t="s">
-        <v>1300</v>
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
       <c r="H116" s="57" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -15297,13 +15294,13 @@
         <v>178</v>
       </c>
       <c r="B117" s="57" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C117" s="52" t="s">
         <v>1302</v>
       </c>
-      <c r="C117" s="52" t="s">
+      <c r="D117" s="53" t="s">
         <v>1303</v>
-      </c>
-      <c r="D117" s="53" t="s">
-        <v>1304</v>
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38"/>
@@ -15315,13 +15312,13 @@
         <v>312</v>
       </c>
       <c r="B118" s="57" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C118" s="57" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D118" s="38" t="s">
         <v>1145</v>
-      </c>
-      <c r="D118" s="38" t="s">
-        <v>1146</v>
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38"/>
@@ -15348,16 +15345,16 @@
         <v>315</v>
       </c>
       <c r="C120" s="57" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D120" s="38" t="s">
         <v>1306</v>
-      </c>
-      <c r="D120" s="38" t="s">
-        <v>1307</v>
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
       <c r="H120" s="57" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -15365,13 +15362,13 @@
         <v>178</v>
       </c>
       <c r="B121" s="57" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C121" s="57" t="s">
         <v>1309</v>
       </c>
-      <c r="C121" s="57" t="s">
+      <c r="D121" s="57" t="s">
         <v>1310</v>
-      </c>
-      <c r="D121" s="57" t="s">
-        <v>1311</v>
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38"/>
@@ -15380,16 +15377,16 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="57" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B122" s="57" t="s">
         <v>1312</v>
       </c>
-      <c r="B122" s="57" t="s">
+      <c r="C122" s="57" t="s">
         <v>1313</v>
       </c>
-      <c r="C122" s="57" t="s">
+      <c r="D122" s="38" t="s">
         <v>1314</v>
-      </c>
-      <c r="D122" s="38" t="s">
-        <v>1315</v>
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38"/>
@@ -15401,19 +15398,19 @@
         <v>39</v>
       </c>
       <c r="B123" s="57" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C123" s="57" t="s">
         <v>1316</v>
       </c>
-      <c r="C123" s="57" t="s">
+      <c r="D123" s="38" t="s">
         <v>1317</v>
-      </c>
-      <c r="D123" s="38" t="s">
-        <v>1318</v>
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
       <c r="H123" s="57" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -15635,7 +15632,7 @@
         <v>233</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -15677,7 +15674,7 @@
         <v>279</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -15691,7 +15688,7 @@
         <v>276</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -15705,7 +15702,7 @@
         <v>273</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -15733,7 +15730,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -15747,12 +15744,12 @@
         <v>6</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B21" s="62" t="s">
         <v>282</v>
@@ -15766,7 +15763,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B22" s="62" t="s">
         <v>285</v>
@@ -15780,7 +15777,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B23" s="62" t="s">
         <v>245</v>
@@ -15794,119 +15791,119 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C24" s="63" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C25" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C26" s="63" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="63" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C27" s="63" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C28" s="63" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C29" s="63" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C30" s="63" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="63" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C31" s="63" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B32" s="63" t="s">
         <v>233</v>
@@ -15920,161 +15917,161 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="64" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C33" s="64" t="s">
         <v>1320</v>
       </c>
-      <c r="B33" s="64" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C33" s="64" t="s">
+      <c r="D33" s="61" t="s">
         <v>1321</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="64" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B34" s="64" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C34" s="64" t="s">
         <v>1323</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="D34" s="61" t="s">
         <v>1324</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="64" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B35" s="64" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C35" s="64" t="s">
         <v>1326</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="D35" s="61" t="s">
         <v>1327</v>
-      </c>
-      <c r="D35" s="61" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B36" s="64" t="s">
         <v>1329</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="C36" s="64" t="s">
         <v>1330</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="D36" s="61" t="s">
         <v>1331</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B37" s="64" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C37" s="64" t="s">
         <v>1333</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="D37" s="61" t="s">
         <v>1334</v>
-      </c>
-      <c r="D37" s="61" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="64" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B38" s="64" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C38" s="64" t="s">
         <v>1336</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="D38" s="61" t="s">
         <v>1337</v>
-      </c>
-      <c r="D38" s="61" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="64" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B39" s="64" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C39" s="64" t="s">
         <v>1339</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="D39" s="61" t="s">
         <v>1340</v>
-      </c>
-      <c r="D39" s="61" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="64" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B40" s="64" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C40" s="64" t="s">
         <v>1342</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="D40" s="61" t="s">
         <v>1343</v>
-      </c>
-      <c r="D40" s="61" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="64" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B41" s="64" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C41" s="64" t="s">
         <v>1345</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="D41" s="61" t="s">
         <v>1346</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="64" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B42" s="64" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C42" s="64" t="s">
         <v>1348</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="D42" s="64" t="s">
         <v>1349</v>
-      </c>
-      <c r="D42" s="64" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="64" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B43" s="64" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C43" s="64" t="s">
         <v>1351</v>
       </c>
-      <c r="C43" s="64" t="s">
+      <c r="D43" s="64" t="s">
         <v>1352</v>
-      </c>
-      <c r="D43" s="64" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="64" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B44" s="64" t="s">
         <v>282</v>
@@ -16088,203 +16085,203 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="64" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B45" s="64" t="s">
         <v>1354</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="C45" s="64" t="s">
         <v>1355</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="D45" s="61" t="s">
         <v>1356</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="64" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C46" s="64" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D46" s="61" t="s">
         <v>1358</v>
-      </c>
-      <c r="D46" s="61" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="64" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C47" s="64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="64" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C48" s="64" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="64" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C49" s="64" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="61" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="64" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C50" s="64" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="61" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="64" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B51" s="64" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C51" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="D51" s="61" t="s">
         <v>1362</v>
-      </c>
-      <c r="C51" s="64" t="s">
-        <v>358</v>
-      </c>
-      <c r="D51" s="61" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="64" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B52" s="64" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C52" s="64" t="s">
         <v>32</v>
       </c>
       <c r="D52" s="61" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="64" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B53" s="64" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C53" s="64" t="s">
         <v>1365</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="D53" s="61" t="s">
         <v>1366</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="64" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B54" s="64" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C54" s="64" t="s">
         <v>1368</v>
       </c>
-      <c r="C54" s="64" t="s">
+      <c r="D54" s="61" t="s">
         <v>1369</v>
-      </c>
-      <c r="D54" s="61" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="64" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B55" s="64" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C55" s="64" t="s">
         <v>1371</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="D55" s="61" t="s">
         <v>1372</v>
-      </c>
-      <c r="D55" s="61" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="64" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C56" s="64" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D56" s="61" t="s">
         <v>1374</v>
-      </c>
-      <c r="D56" s="61" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="64" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B57" s="64" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C57" s="64" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="64" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B58" s="64" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C58" s="64" t="s">
         <v>1377</v>
       </c>
-      <c r="C58" s="64" t="s">
+      <c r="D58" s="61" t="s">
         <v>1378</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="64" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B59" s="64" t="s">
         <v>233</v>
@@ -16298,7 +16295,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="64" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B60" s="64" t="s">
         <v>245</v>
@@ -16351,7 +16348,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="65" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>310</v>
@@ -16362,13 +16359,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality" sheetId="11" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Nutrition" sheetId="8" r:id="rId4"/>
     <sheet name="Nutrition_options" sheetId="17" r:id="rId5"/>
     <sheet name="Nutrition_settings" sheetId="18" r:id="rId6"/>
-    <sheet name="Vaccination" sheetId="14" r:id="rId7"/>
-    <sheet name="Vaccination_options" sheetId="15" r:id="rId8"/>
-    <sheet name="Vaccination_settings" sheetId="16" r:id="rId9"/>
+    <sheet name="Vaccination_long" sheetId="14" r:id="rId7"/>
+    <sheet name="Vaccination_long_options" sheetId="15" r:id="rId8"/>
+    <sheet name="Vaccination_long_settings" sheetId="16" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Vaccination!$A$1:$L$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Vaccination_long!$A$1:$L$125</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -4787,8 +4787,8 @@
   </sheetPr>
   <dimension ref="A1:L209"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H153" sqref="H153"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12818,7 +12818,7 @@
   </sheetPr>
   <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
@@ -16338,7 +16338,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality" sheetId="11" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="Vaccination_long" sheetId="14" r:id="rId7"/>
     <sheet name="Vaccination_long_options" sheetId="15" r:id="rId8"/>
     <sheet name="Vaccination_long_settings" sheetId="16" r:id="rId9"/>
+    <sheet name="Vaccination_short" sheetId="20" r:id="rId10"/>
+    <sheet name="Vaccination_short_options" sheetId="21" r:id="rId11"/>
+    <sheet name="Vaccination_short_settings" sheetId="22" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Vaccination_long!$A$1:$L$125</definedName>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="1556">
   <si>
     <t>type</t>
   </si>
@@ -4268,6 +4271,520 @@
   </si>
   <si>
     <t>poliodrop_camp_woc</t>
+  </si>
+  <si>
+    <t>hxl</t>
+  </si>
+  <si>
+    <t>#date +collected</t>
+  </si>
+  <si>
+    <t>#loc +name</t>
+  </si>
+  <si>
+    <t>#loc +name +other</t>
+  </si>
+  <si>
+    <t>#population +children</t>
+  </si>
+  <si>
+    <t>How many children between 6 months and 9 years are in the household?</t>
+  </si>
+  <si>
+    <t>Combien d'enfants âgés de 6 mois à 9 ans se trouvent dans le ménage ?</t>
+  </si>
+  <si>
+    <t>Child Demographics</t>
+  </si>
+  <si>
+    <t>Routine vaccination</t>
+  </si>
+  <si>
+    <t>Vaccination de routine</t>
+  </si>
+  <si>
+    <t>${consent}='yes' and ${child_number} &gt;0</t>
+  </si>
+  <si>
+    <t>select_one vaccination</t>
+  </si>
+  <si>
+    <t>routine_vacc</t>
+  </si>
+  <si>
+    <t>Routine Vaccination - 9 months vaccine</t>
+  </si>
+  <si>
+    <t>Vaccination de routine - Vaccin de 9 mois</t>
+  </si>
+  <si>
+    <t>#x_routine_vaccinated</t>
+  </si>
+  <si>
+    <t>age_routine_vacc</t>
+  </si>
+  <si>
+    <t>Age of child at the time of vaccination (months)</t>
+  </si>
+  <si>
+    <t>Âge de l'enfant au moment de la vaccination (en mois)</t>
+  </si>
+  <si>
+    <t>${routine_vacc} = 'verbal' or ${routine_vacc} = 'card'</t>
+  </si>
+  <si>
+    <t>select_one place_routine</t>
+  </si>
+  <si>
+    <t>place_routine_vacc</t>
+  </si>
+  <si>
+    <t>Place of routine vaccination</t>
+  </si>
+  <si>
+    <t>Endroit de la vaccination de routine</t>
+  </si>
+  <si>
+    <t>#x_place_routine_vaccinated</t>
+  </si>
+  <si>
+    <t>select_one reason_routine</t>
+  </si>
+  <si>
+    <t>reason_route_vacc</t>
+  </si>
+  <si>
+    <t>Reason for non routine vaccination</t>
+  </si>
+  <si>
+    <t>Raison pour ne pas avoir pris la vaccination de routine</t>
+  </si>
+  <si>
+    <t>${routine_vacc} = 'no'</t>
+  </si>
+  <si>
+    <t>reason_route_other</t>
+  </si>
+  <si>
+    <t>Specify other reason</t>
+  </si>
+  <si>
+    <t>${reason_route_vacc}='other'</t>
+  </si>
+  <si>
+    <t>MSF vaccination</t>
+  </si>
+  <si>
+    <t>Vaccination de MSF</t>
+  </si>
+  <si>
+    <t>msf_vacc</t>
+  </si>
+  <si>
+    <t>MSF Vaccination Campaign - 6 months to 9 years</t>
+  </si>
+  <si>
+    <t>Campagne de vaccination de MSF - 6 mois à 9 ans</t>
+  </si>
+  <si>
+    <t>#x_campaign_vaccinated</t>
+  </si>
+  <si>
+    <t>age_msf_vacc</t>
+  </si>
+  <si>
+    <t>${msf_vacc} = 'verbal' or ${msf_vacc} = 'card'</t>
+  </si>
+  <si>
+    <t>select_one place_msf</t>
+  </si>
+  <si>
+    <t>place_msf_vacc</t>
+  </si>
+  <si>
+    <t>Place of MSF vaccination</t>
+  </si>
+  <si>
+    <t>Endroit de la vaccination de MSF</t>
+  </si>
+  <si>
+    <t>#x_place_campaign_vaccinated</t>
+  </si>
+  <si>
+    <t>select_one reason_msf</t>
+  </si>
+  <si>
+    <t>reason_msf_vacc</t>
+  </si>
+  <si>
+    <t>Reason for non MSF vaccination</t>
+  </si>
+  <si>
+    <t>Raison pour ne pas avoir pris la vaccination de MSF</t>
+  </si>
+  <si>
+    <t>${msf_vacc} = 'no'</t>
+  </si>
+  <si>
+    <t>reason_msf_other</t>
+  </si>
+  <si>
+    <t>${reason_msf_vacc}='other'</t>
+  </si>
+  <si>
+    <t>Immunisation SIA/NID</t>
+  </si>
+  <si>
+    <t>Activités de vaccination supplémentaire</t>
+  </si>
+  <si>
+    <t>sia_vacc</t>
+  </si>
+  <si>
+    <t>Immunisation SIA/NID - 6 months to 9 years</t>
+  </si>
+  <si>
+    <t>AVS - 6 mois à 9 ans</t>
+  </si>
+  <si>
+    <t>#x_supplementary_vaccinated</t>
+  </si>
+  <si>
+    <t>age_sia_vacc</t>
+  </si>
+  <si>
+    <t>${sia_vacc} = 'verbal' or ${sia_vacc} = 'card'</t>
+  </si>
+  <si>
+    <t>place_sia_vacc</t>
+  </si>
+  <si>
+    <t>Place of SIA vaccination</t>
+  </si>
+  <si>
+    <t>Endroit de l'activité de vaccination supplémentaire</t>
+  </si>
+  <si>
+    <t>#x_place_supplementary_vaccinated</t>
+  </si>
+  <si>
+    <t>reason_sia_vacc</t>
+  </si>
+  <si>
+    <t>Reason for non SIA vaccination</t>
+  </si>
+  <si>
+    <t>Raison pour ne pas avoir pris la vaccination d'avs</t>
+  </si>
+  <si>
+    <t>${sia_vacc} = 'no'</t>
+  </si>
+  <si>
+    <t>reason_sia_other</t>
+  </si>
+  <si>
+    <t>${reason_sia_vacc}='other'</t>
+  </si>
+  <si>
+    <t>Previous diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Antécédents de rougeole</t>
+  </si>
+  <si>
+    <t>diagnosis_disease</t>
+  </si>
+  <si>
+    <t>Did the child previously have measles?</t>
+  </si>
+  <si>
+    <t>L'enfant a-t-il déjà eu la rougeole?</t>
+  </si>
+  <si>
+    <t>#x_illness_measles</t>
+  </si>
+  <si>
+    <t>age_diagnosis</t>
+  </si>
+  <si>
+    <t>Age of child when they had measles (months)</t>
+  </si>
+  <si>
+    <t>Age de l'enfant lorsqu'il a eu la rougeole (en mois)</t>
+  </si>
+  <si>
+    <t>${diagnosis_disease}='yes'</t>
+  </si>
+  <si>
+    <t>vaccination</t>
+  </si>
+  <si>
+    <t>verbal</t>
+  </si>
+  <si>
+    <t>Yes, verbal</t>
+  </si>
+  <si>
+    <t>Oui, verbal</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>Yes, card</t>
+  </si>
+  <si>
+    <t>Oui, avec carte</t>
+  </si>
+  <si>
+    <t>no_answer</t>
+  </si>
+  <si>
+    <t>No answer</t>
+  </si>
+  <si>
+    <t>Pas de réponse</t>
+  </si>
+  <si>
+    <t>reason_routine</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>Vaccines dangerous for the child</t>
+  </si>
+  <si>
+    <t>Les vaccins sont dangereux pour les enfants</t>
+  </si>
+  <si>
+    <t>Previous bad experience with vaccination</t>
+  </si>
+  <si>
+    <t>Mauvaise expérience antérieure en matière de vaccination</t>
+  </si>
+  <si>
+    <t>father_refused</t>
+  </si>
+  <si>
+    <t>religious_beliefs</t>
+  </si>
+  <si>
+    <t>child_young</t>
+  </si>
+  <si>
+    <t>Child was too young</t>
+  </si>
+  <si>
+    <t>L'enfant était trop jeune</t>
+  </si>
+  <si>
+    <t>child_old</t>
+  </si>
+  <si>
+    <t>Child was too old</t>
+  </si>
+  <si>
+    <t>L'enfant était trop vieux</t>
+  </si>
+  <si>
+    <t>already_vaccinated</t>
+  </si>
+  <si>
+    <t>Child was already vaccinated</t>
+  </si>
+  <si>
+    <t>L'enfant a déjà été vacciné</t>
+  </si>
+  <si>
+    <t>other_routine</t>
+  </si>
+  <si>
+    <t>Other reason</t>
+  </si>
+  <si>
+    <t>Autre raison</t>
+  </si>
+  <si>
+    <t>reason_msf</t>
+  </si>
+  <si>
+    <t>unaware_eligible</t>
+  </si>
+  <si>
+    <t>Ne savait pas qu'il pouvait vacciner l'enfant</t>
+  </si>
+  <si>
+    <t>unaware_campaign</t>
+  </si>
+  <si>
+    <t>Did not know about vaccination campaign</t>
+  </si>
+  <si>
+    <t>N'était pas au courant de la campagne de vaccination</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>S/he was working during the campaign</t>
+  </si>
+  <si>
+    <t>Il/elle travaillait pendant la campagne</t>
+  </si>
+  <si>
+    <t>timing</t>
+  </si>
+  <si>
+    <t>Campaign took place on Sunday</t>
+  </si>
+  <si>
+    <t>La campagne a eu lieu dimanche</t>
+  </si>
+  <si>
+    <t>family_away</t>
+  </si>
+  <si>
+    <t>Family was outside village during campaign</t>
+  </si>
+  <si>
+    <t>La famille était à l'extérieur du village pendant la campagne</t>
+  </si>
+  <si>
+    <t>child_sick</t>
+  </si>
+  <si>
+    <t>Child was sick during vaccination campaign</t>
+  </si>
+  <si>
+    <t>Un enfant a été malade lors d'une campagne de vaccination</t>
+  </si>
+  <si>
+    <t>vaccinator_refused</t>
+  </si>
+  <si>
+    <t>Vaccinator decided not to vaccinate the child</t>
+  </si>
+  <si>
+    <t>Le vaccinateur a décidé de ne pas vacciner l'enfant</t>
+  </si>
+  <si>
+    <t>no_vaccine</t>
+  </si>
+  <si>
+    <t>other_msf</t>
+  </si>
+  <si>
+    <t>place_msf</t>
+  </si>
+  <si>
+    <t>place_msf1</t>
+  </si>
+  <si>
+    <t>Place MSF1</t>
+  </si>
+  <si>
+    <t>place_msf2</t>
+  </si>
+  <si>
+    <t>Place MSF2</t>
+  </si>
+  <si>
+    <t>place_msf3</t>
+  </si>
+  <si>
+    <t>Place MSF3</t>
+  </si>
+  <si>
+    <t>place_msf4</t>
+  </si>
+  <si>
+    <t>Place MSF4</t>
+  </si>
+  <si>
+    <t>place_msf5</t>
+  </si>
+  <si>
+    <t>Place MSF5</t>
+  </si>
+  <si>
+    <t>place_msf6</t>
+  </si>
+  <si>
+    <t>Place MSF6</t>
+  </si>
+  <si>
+    <t>place_msf7</t>
+  </si>
+  <si>
+    <t>Place MSF7</t>
+  </si>
+  <si>
+    <t>place_msf8</t>
+  </si>
+  <si>
+    <t>Place MSF8</t>
+  </si>
+  <si>
+    <t>place_msf9</t>
+  </si>
+  <si>
+    <t>Place MSF9</t>
+  </si>
+  <si>
+    <t>place_routine</t>
+  </si>
+  <si>
+    <t>place_routine1</t>
+  </si>
+  <si>
+    <t>Place routine1</t>
+  </si>
+  <si>
+    <t>place_routine2</t>
+  </si>
+  <si>
+    <t>Place routine2</t>
+  </si>
+  <si>
+    <t>place_routine3</t>
+  </si>
+  <si>
+    <t>Place routine3</t>
+  </si>
+  <si>
+    <t>place_routine4</t>
+  </si>
+  <si>
+    <t>Place routine4</t>
+  </si>
+  <si>
+    <t>place_routine5</t>
+  </si>
+  <si>
+    <t>Place routine5</t>
+  </si>
+  <si>
+    <t>place_routine6</t>
+  </si>
+  <si>
+    <t>Place routine6</t>
+  </si>
+  <si>
+    <t>place_routine7</t>
+  </si>
+  <si>
+    <t>Place routine7</t>
+  </si>
+  <si>
+    <t>place_routine8</t>
+  </si>
+  <si>
+    <t>Place routine8</t>
   </si>
 </sst>
 </file>
@@ -4787,7 +5304,7 @@
   </sheetPr>
   <dimension ref="A1:L209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
@@ -9541,6 +10058,3147 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;P</oddHeader>
+    <oddFooter>&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:M60"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" style="61" customWidth="1"/>
+    <col min="5" max="6" width="28.85546875" style="53" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="61"/>
+    <col min="9" max="9" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="256" width="9.140625" style="61"/>
+    <col min="257" max="257" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="64.42578125" style="61" customWidth="1"/>
+    <col min="261" max="262" width="28.85546875" style="61" customWidth="1"/>
+    <col min="263" max="264" width="9.140625" style="61"/>
+    <col min="265" max="265" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="270" max="512" width="9.140625" style="61"/>
+    <col min="513" max="513" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="64.42578125" style="61" customWidth="1"/>
+    <col min="517" max="518" width="28.85546875" style="61" customWidth="1"/>
+    <col min="519" max="520" width="9.140625" style="61"/>
+    <col min="521" max="521" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="526" max="768" width="9.140625" style="61"/>
+    <col min="769" max="769" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="64.42578125" style="61" customWidth="1"/>
+    <col min="773" max="774" width="28.85546875" style="61" customWidth="1"/>
+    <col min="775" max="776" width="9.140625" style="61"/>
+    <col min="777" max="777" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="781" max="781" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="782" max="1024" width="9.140625" style="61"/>
+    <col min="1025" max="1025" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="64.42578125" style="61" customWidth="1"/>
+    <col min="1029" max="1030" width="28.85546875" style="61" customWidth="1"/>
+    <col min="1031" max="1032" width="9.140625" style="61"/>
+    <col min="1033" max="1033" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1037" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1038" max="1280" width="9.140625" style="61"/>
+    <col min="1281" max="1281" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="64.42578125" style="61" customWidth="1"/>
+    <col min="1285" max="1286" width="28.85546875" style="61" customWidth="1"/>
+    <col min="1287" max="1288" width="9.140625" style="61"/>
+    <col min="1289" max="1289" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1293" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1294" max="1536" width="9.140625" style="61"/>
+    <col min="1537" max="1537" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="64.42578125" style="61" customWidth="1"/>
+    <col min="1541" max="1542" width="28.85546875" style="61" customWidth="1"/>
+    <col min="1543" max="1544" width="9.140625" style="61"/>
+    <col min="1545" max="1545" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1549" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1550" max="1792" width="9.140625" style="61"/>
+    <col min="1793" max="1793" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="64.42578125" style="61" customWidth="1"/>
+    <col min="1797" max="1798" width="28.85546875" style="61" customWidth="1"/>
+    <col min="1799" max="1800" width="9.140625" style="61"/>
+    <col min="1801" max="1801" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1805" max="1805" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1806" max="2048" width="9.140625" style="61"/>
+    <col min="2049" max="2049" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="64.42578125" style="61" customWidth="1"/>
+    <col min="2053" max="2054" width="28.85546875" style="61" customWidth="1"/>
+    <col min="2055" max="2056" width="9.140625" style="61"/>
+    <col min="2057" max="2057" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2061" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2062" max="2304" width="9.140625" style="61"/>
+    <col min="2305" max="2305" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="64.42578125" style="61" customWidth="1"/>
+    <col min="2309" max="2310" width="28.85546875" style="61" customWidth="1"/>
+    <col min="2311" max="2312" width="9.140625" style="61"/>
+    <col min="2313" max="2313" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2317" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2318" max="2560" width="9.140625" style="61"/>
+    <col min="2561" max="2561" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="64.42578125" style="61" customWidth="1"/>
+    <col min="2565" max="2566" width="28.85546875" style="61" customWidth="1"/>
+    <col min="2567" max="2568" width="9.140625" style="61"/>
+    <col min="2569" max="2569" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2573" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2574" max="2816" width="9.140625" style="61"/>
+    <col min="2817" max="2817" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="64.42578125" style="61" customWidth="1"/>
+    <col min="2821" max="2822" width="28.85546875" style="61" customWidth="1"/>
+    <col min="2823" max="2824" width="9.140625" style="61"/>
+    <col min="2825" max="2825" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2829" max="2829" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2830" max="3072" width="9.140625" style="61"/>
+    <col min="3073" max="3073" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="64.42578125" style="61" customWidth="1"/>
+    <col min="3077" max="3078" width="28.85546875" style="61" customWidth="1"/>
+    <col min="3079" max="3080" width="9.140625" style="61"/>
+    <col min="3081" max="3081" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3085" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3086" max="3328" width="9.140625" style="61"/>
+    <col min="3329" max="3329" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="64.42578125" style="61" customWidth="1"/>
+    <col min="3333" max="3334" width="28.85546875" style="61" customWidth="1"/>
+    <col min="3335" max="3336" width="9.140625" style="61"/>
+    <col min="3337" max="3337" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3341" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3342" max="3584" width="9.140625" style="61"/>
+    <col min="3585" max="3585" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="64.42578125" style="61" customWidth="1"/>
+    <col min="3589" max="3590" width="28.85546875" style="61" customWidth="1"/>
+    <col min="3591" max="3592" width="9.140625" style="61"/>
+    <col min="3593" max="3593" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3597" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3598" max="3840" width="9.140625" style="61"/>
+    <col min="3841" max="3841" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="64.42578125" style="61" customWidth="1"/>
+    <col min="3845" max="3846" width="28.85546875" style="61" customWidth="1"/>
+    <col min="3847" max="3848" width="9.140625" style="61"/>
+    <col min="3849" max="3849" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3853" max="3853" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3854" max="4096" width="9.140625" style="61"/>
+    <col min="4097" max="4097" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="64.42578125" style="61" customWidth="1"/>
+    <col min="4101" max="4102" width="28.85546875" style="61" customWidth="1"/>
+    <col min="4103" max="4104" width="9.140625" style="61"/>
+    <col min="4105" max="4105" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4109" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4110" max="4352" width="9.140625" style="61"/>
+    <col min="4353" max="4353" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="64.42578125" style="61" customWidth="1"/>
+    <col min="4357" max="4358" width="28.85546875" style="61" customWidth="1"/>
+    <col min="4359" max="4360" width="9.140625" style="61"/>
+    <col min="4361" max="4361" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4365" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4366" max="4608" width="9.140625" style="61"/>
+    <col min="4609" max="4609" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="64.42578125" style="61" customWidth="1"/>
+    <col min="4613" max="4614" width="28.85546875" style="61" customWidth="1"/>
+    <col min="4615" max="4616" width="9.140625" style="61"/>
+    <col min="4617" max="4617" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4621" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4622" max="4864" width="9.140625" style="61"/>
+    <col min="4865" max="4865" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="64.42578125" style="61" customWidth="1"/>
+    <col min="4869" max="4870" width="28.85546875" style="61" customWidth="1"/>
+    <col min="4871" max="4872" width="9.140625" style="61"/>
+    <col min="4873" max="4873" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4877" max="4877" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4878" max="5120" width="9.140625" style="61"/>
+    <col min="5121" max="5121" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="64.42578125" style="61" customWidth="1"/>
+    <col min="5125" max="5126" width="28.85546875" style="61" customWidth="1"/>
+    <col min="5127" max="5128" width="9.140625" style="61"/>
+    <col min="5129" max="5129" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5133" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5134" max="5376" width="9.140625" style="61"/>
+    <col min="5377" max="5377" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="64.42578125" style="61" customWidth="1"/>
+    <col min="5381" max="5382" width="28.85546875" style="61" customWidth="1"/>
+    <col min="5383" max="5384" width="9.140625" style="61"/>
+    <col min="5385" max="5385" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5389" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5390" max="5632" width="9.140625" style="61"/>
+    <col min="5633" max="5633" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="64.42578125" style="61" customWidth="1"/>
+    <col min="5637" max="5638" width="28.85546875" style="61" customWidth="1"/>
+    <col min="5639" max="5640" width="9.140625" style="61"/>
+    <col min="5641" max="5641" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5645" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5646" max="5888" width="9.140625" style="61"/>
+    <col min="5889" max="5889" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="64.42578125" style="61" customWidth="1"/>
+    <col min="5893" max="5894" width="28.85546875" style="61" customWidth="1"/>
+    <col min="5895" max="5896" width="9.140625" style="61"/>
+    <col min="5897" max="5897" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5901" max="5901" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5902" max="6144" width="9.140625" style="61"/>
+    <col min="6145" max="6145" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="64.42578125" style="61" customWidth="1"/>
+    <col min="6149" max="6150" width="28.85546875" style="61" customWidth="1"/>
+    <col min="6151" max="6152" width="9.140625" style="61"/>
+    <col min="6153" max="6153" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6157" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6158" max="6400" width="9.140625" style="61"/>
+    <col min="6401" max="6401" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="64.42578125" style="61" customWidth="1"/>
+    <col min="6405" max="6406" width="28.85546875" style="61" customWidth="1"/>
+    <col min="6407" max="6408" width="9.140625" style="61"/>
+    <col min="6409" max="6409" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6413" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6414" max="6656" width="9.140625" style="61"/>
+    <col min="6657" max="6657" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="64.42578125" style="61" customWidth="1"/>
+    <col min="6661" max="6662" width="28.85546875" style="61" customWidth="1"/>
+    <col min="6663" max="6664" width="9.140625" style="61"/>
+    <col min="6665" max="6665" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6669" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6670" max="6912" width="9.140625" style="61"/>
+    <col min="6913" max="6913" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="64.42578125" style="61" customWidth="1"/>
+    <col min="6917" max="6918" width="28.85546875" style="61" customWidth="1"/>
+    <col min="6919" max="6920" width="9.140625" style="61"/>
+    <col min="6921" max="6921" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6925" max="6925" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6926" max="7168" width="9.140625" style="61"/>
+    <col min="7169" max="7169" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="64.42578125" style="61" customWidth="1"/>
+    <col min="7173" max="7174" width="28.85546875" style="61" customWidth="1"/>
+    <col min="7175" max="7176" width="9.140625" style="61"/>
+    <col min="7177" max="7177" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7181" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7182" max="7424" width="9.140625" style="61"/>
+    <col min="7425" max="7425" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="64.42578125" style="61" customWidth="1"/>
+    <col min="7429" max="7430" width="28.85546875" style="61" customWidth="1"/>
+    <col min="7431" max="7432" width="9.140625" style="61"/>
+    <col min="7433" max="7433" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7437" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7438" max="7680" width="9.140625" style="61"/>
+    <col min="7681" max="7681" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="64.42578125" style="61" customWidth="1"/>
+    <col min="7685" max="7686" width="28.85546875" style="61" customWidth="1"/>
+    <col min="7687" max="7688" width="9.140625" style="61"/>
+    <col min="7689" max="7689" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7693" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7694" max="7936" width="9.140625" style="61"/>
+    <col min="7937" max="7937" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="64.42578125" style="61" customWidth="1"/>
+    <col min="7941" max="7942" width="28.85546875" style="61" customWidth="1"/>
+    <col min="7943" max="7944" width="9.140625" style="61"/>
+    <col min="7945" max="7945" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7949" max="7949" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7950" max="8192" width="9.140625" style="61"/>
+    <col min="8193" max="8193" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="64.42578125" style="61" customWidth="1"/>
+    <col min="8197" max="8198" width="28.85546875" style="61" customWidth="1"/>
+    <col min="8199" max="8200" width="9.140625" style="61"/>
+    <col min="8201" max="8201" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8205" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8206" max="8448" width="9.140625" style="61"/>
+    <col min="8449" max="8449" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="64.42578125" style="61" customWidth="1"/>
+    <col min="8453" max="8454" width="28.85546875" style="61" customWidth="1"/>
+    <col min="8455" max="8456" width="9.140625" style="61"/>
+    <col min="8457" max="8457" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8461" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8462" max="8704" width="9.140625" style="61"/>
+    <col min="8705" max="8705" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="64.42578125" style="61" customWidth="1"/>
+    <col min="8709" max="8710" width="28.85546875" style="61" customWidth="1"/>
+    <col min="8711" max="8712" width="9.140625" style="61"/>
+    <col min="8713" max="8713" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8717" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8718" max="8960" width="9.140625" style="61"/>
+    <col min="8961" max="8961" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="64.42578125" style="61" customWidth="1"/>
+    <col min="8965" max="8966" width="28.85546875" style="61" customWidth="1"/>
+    <col min="8967" max="8968" width="9.140625" style="61"/>
+    <col min="8969" max="8969" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8973" max="8973" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8974" max="9216" width="9.140625" style="61"/>
+    <col min="9217" max="9217" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="64.42578125" style="61" customWidth="1"/>
+    <col min="9221" max="9222" width="28.85546875" style="61" customWidth="1"/>
+    <col min="9223" max="9224" width="9.140625" style="61"/>
+    <col min="9225" max="9225" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9229" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9230" max="9472" width="9.140625" style="61"/>
+    <col min="9473" max="9473" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="64.42578125" style="61" customWidth="1"/>
+    <col min="9477" max="9478" width="28.85546875" style="61" customWidth="1"/>
+    <col min="9479" max="9480" width="9.140625" style="61"/>
+    <col min="9481" max="9481" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9485" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9486" max="9728" width="9.140625" style="61"/>
+    <col min="9729" max="9729" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="64.42578125" style="61" customWidth="1"/>
+    <col min="9733" max="9734" width="28.85546875" style="61" customWidth="1"/>
+    <col min="9735" max="9736" width="9.140625" style="61"/>
+    <col min="9737" max="9737" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9741" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9742" max="9984" width="9.140625" style="61"/>
+    <col min="9985" max="9985" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="64.42578125" style="61" customWidth="1"/>
+    <col min="9989" max="9990" width="28.85546875" style="61" customWidth="1"/>
+    <col min="9991" max="9992" width="9.140625" style="61"/>
+    <col min="9993" max="9993" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9997" max="9997" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9998" max="10240" width="9.140625" style="61"/>
+    <col min="10241" max="10241" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="64.42578125" style="61" customWidth="1"/>
+    <col min="10245" max="10246" width="28.85546875" style="61" customWidth="1"/>
+    <col min="10247" max="10248" width="9.140625" style="61"/>
+    <col min="10249" max="10249" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10253" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10254" max="10496" width="9.140625" style="61"/>
+    <col min="10497" max="10497" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="64.42578125" style="61" customWidth="1"/>
+    <col min="10501" max="10502" width="28.85546875" style="61" customWidth="1"/>
+    <col min="10503" max="10504" width="9.140625" style="61"/>
+    <col min="10505" max="10505" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10509" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10510" max="10752" width="9.140625" style="61"/>
+    <col min="10753" max="10753" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="64.42578125" style="61" customWidth="1"/>
+    <col min="10757" max="10758" width="28.85546875" style="61" customWidth="1"/>
+    <col min="10759" max="10760" width="9.140625" style="61"/>
+    <col min="10761" max="10761" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10765" max="10765" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10766" max="11008" width="9.140625" style="61"/>
+    <col min="11009" max="11009" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="64.42578125" style="61" customWidth="1"/>
+    <col min="11013" max="11014" width="28.85546875" style="61" customWidth="1"/>
+    <col min="11015" max="11016" width="9.140625" style="61"/>
+    <col min="11017" max="11017" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11021" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11022" max="11264" width="9.140625" style="61"/>
+    <col min="11265" max="11265" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="64.42578125" style="61" customWidth="1"/>
+    <col min="11269" max="11270" width="28.85546875" style="61" customWidth="1"/>
+    <col min="11271" max="11272" width="9.140625" style="61"/>
+    <col min="11273" max="11273" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11277" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11278" max="11520" width="9.140625" style="61"/>
+    <col min="11521" max="11521" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="64.42578125" style="61" customWidth="1"/>
+    <col min="11525" max="11526" width="28.85546875" style="61" customWidth="1"/>
+    <col min="11527" max="11528" width="9.140625" style="61"/>
+    <col min="11529" max="11529" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11533" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11534" max="11776" width="9.140625" style="61"/>
+    <col min="11777" max="11777" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="64.42578125" style="61" customWidth="1"/>
+    <col min="11781" max="11782" width="28.85546875" style="61" customWidth="1"/>
+    <col min="11783" max="11784" width="9.140625" style="61"/>
+    <col min="11785" max="11785" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11789" max="11789" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11790" max="12032" width="9.140625" style="61"/>
+    <col min="12033" max="12033" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="64.42578125" style="61" customWidth="1"/>
+    <col min="12037" max="12038" width="28.85546875" style="61" customWidth="1"/>
+    <col min="12039" max="12040" width="9.140625" style="61"/>
+    <col min="12041" max="12041" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12045" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12046" max="12288" width="9.140625" style="61"/>
+    <col min="12289" max="12289" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="64.42578125" style="61" customWidth="1"/>
+    <col min="12293" max="12294" width="28.85546875" style="61" customWidth="1"/>
+    <col min="12295" max="12296" width="9.140625" style="61"/>
+    <col min="12297" max="12297" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12301" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12302" max="12544" width="9.140625" style="61"/>
+    <col min="12545" max="12545" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="64.42578125" style="61" customWidth="1"/>
+    <col min="12549" max="12550" width="28.85546875" style="61" customWidth="1"/>
+    <col min="12551" max="12552" width="9.140625" style="61"/>
+    <col min="12553" max="12553" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12557" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12558" max="12800" width="9.140625" style="61"/>
+    <col min="12801" max="12801" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="64.42578125" style="61" customWidth="1"/>
+    <col min="12805" max="12806" width="28.85546875" style="61" customWidth="1"/>
+    <col min="12807" max="12808" width="9.140625" style="61"/>
+    <col min="12809" max="12809" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12813" max="12813" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12814" max="13056" width="9.140625" style="61"/>
+    <col min="13057" max="13057" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="64.42578125" style="61" customWidth="1"/>
+    <col min="13061" max="13062" width="28.85546875" style="61" customWidth="1"/>
+    <col min="13063" max="13064" width="9.140625" style="61"/>
+    <col min="13065" max="13065" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13069" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13070" max="13312" width="9.140625" style="61"/>
+    <col min="13313" max="13313" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="64.42578125" style="61" customWidth="1"/>
+    <col min="13317" max="13318" width="28.85546875" style="61" customWidth="1"/>
+    <col min="13319" max="13320" width="9.140625" style="61"/>
+    <col min="13321" max="13321" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13325" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13326" max="13568" width="9.140625" style="61"/>
+    <col min="13569" max="13569" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="64.42578125" style="61" customWidth="1"/>
+    <col min="13573" max="13574" width="28.85546875" style="61" customWidth="1"/>
+    <col min="13575" max="13576" width="9.140625" style="61"/>
+    <col min="13577" max="13577" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13581" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13582" max="13824" width="9.140625" style="61"/>
+    <col min="13825" max="13825" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="64.42578125" style="61" customWidth="1"/>
+    <col min="13829" max="13830" width="28.85546875" style="61" customWidth="1"/>
+    <col min="13831" max="13832" width="9.140625" style="61"/>
+    <col min="13833" max="13833" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13837" max="13837" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13838" max="14080" width="9.140625" style="61"/>
+    <col min="14081" max="14081" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="64.42578125" style="61" customWidth="1"/>
+    <col min="14085" max="14086" width="28.85546875" style="61" customWidth="1"/>
+    <col min="14087" max="14088" width="9.140625" style="61"/>
+    <col min="14089" max="14089" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14093" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14094" max="14336" width="9.140625" style="61"/>
+    <col min="14337" max="14337" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="64.42578125" style="61" customWidth="1"/>
+    <col min="14341" max="14342" width="28.85546875" style="61" customWidth="1"/>
+    <col min="14343" max="14344" width="9.140625" style="61"/>
+    <col min="14345" max="14345" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14349" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14350" max="14592" width="9.140625" style="61"/>
+    <col min="14593" max="14593" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="64.42578125" style="61" customWidth="1"/>
+    <col min="14597" max="14598" width="28.85546875" style="61" customWidth="1"/>
+    <col min="14599" max="14600" width="9.140625" style="61"/>
+    <col min="14601" max="14601" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14605" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14606" max="14848" width="9.140625" style="61"/>
+    <col min="14849" max="14849" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="64.42578125" style="61" customWidth="1"/>
+    <col min="14853" max="14854" width="28.85546875" style="61" customWidth="1"/>
+    <col min="14855" max="14856" width="9.140625" style="61"/>
+    <col min="14857" max="14857" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14861" max="14861" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14862" max="15104" width="9.140625" style="61"/>
+    <col min="15105" max="15105" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="64.42578125" style="61" customWidth="1"/>
+    <col min="15109" max="15110" width="28.85546875" style="61" customWidth="1"/>
+    <col min="15111" max="15112" width="9.140625" style="61"/>
+    <col min="15113" max="15113" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15117" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15118" max="15360" width="9.140625" style="61"/>
+    <col min="15361" max="15361" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="64.42578125" style="61" customWidth="1"/>
+    <col min="15365" max="15366" width="28.85546875" style="61" customWidth="1"/>
+    <col min="15367" max="15368" width="9.140625" style="61"/>
+    <col min="15369" max="15369" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15373" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15374" max="15616" width="9.140625" style="61"/>
+    <col min="15617" max="15617" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="64.42578125" style="61" customWidth="1"/>
+    <col min="15621" max="15622" width="28.85546875" style="61" customWidth="1"/>
+    <col min="15623" max="15624" width="9.140625" style="61"/>
+    <col min="15625" max="15625" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15629" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15630" max="15872" width="9.140625" style="61"/>
+    <col min="15873" max="15873" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="64.42578125" style="61" customWidth="1"/>
+    <col min="15877" max="15878" width="28.85546875" style="61" customWidth="1"/>
+    <col min="15879" max="15880" width="9.140625" style="61"/>
+    <col min="15881" max="15881" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15885" max="15885" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15886" max="16128" width="9.140625" style="61"/>
+    <col min="16129" max="16129" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="64.42578125" style="61" customWidth="1"/>
+    <col min="16133" max="16134" width="28.85546875" style="61" customWidth="1"/>
+    <col min="16135" max="16136" width="9.140625" style="61"/>
+    <col min="16137" max="16137" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16141" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
+    <col min="16142" max="16384" width="9.140625" style="61"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" s="61" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="65" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="M11" s="61" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="M12" s="61" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="52" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="52" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="52" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="L16" s="52" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="52" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+    </row>
+    <row r="19" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="H21" s="65" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="H22" s="65" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>329</v>
+      </c>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="H24" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="M24" s="64" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="I25" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25" s="64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="J27" s="65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>327</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="H28" s="65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="K29" s="65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+    </row>
+    <row r="31" spans="1:13" s="64" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>321</v>
+      </c>
+      <c r="K31" s="65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="H32" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="I32" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="K32" s="65" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="H34" s="65" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="65" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="M35" s="64" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D36" s="65" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="H36" s="65" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I36" s="65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="65" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="H37" s="65" t="s">
+        <v>1404</v>
+      </c>
+      <c r="M37" s="64" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="65" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="H38" s="65" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="H39" s="65" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+    </row>
+    <row r="41" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="H41" s="65" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="65" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B42" s="65" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="M42" s="64" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="65" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="H43" s="65" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I43" s="65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="65" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B44" s="65" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D44" s="65" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="H44" s="65" t="s">
+        <v>1425</v>
+      </c>
+      <c r="M44" s="64" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="65" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B45" s="65" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="H45" s="65" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="65" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="H46" s="65" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+    </row>
+    <row r="48" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D48" s="65" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="H48" s="65" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="65" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B49" s="65" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="M49" s="64" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="65" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D50" s="65" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="H50" s="65" t="s">
+        <v>1445</v>
+      </c>
+      <c r="I50" s="65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C51" s="65" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D51" s="65" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="H51" s="65" t="s">
+        <v>1445</v>
+      </c>
+      <c r="M51" s="64" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="65" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B52" s="65" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C52" s="65" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D52" s="65" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="H52" s="65" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="65" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C53" s="65" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D53" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="H53" s="65" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:13" s="64" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D55" s="58" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="H55" s="65" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="B56" s="65" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D56" s="58" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="M56" s="64" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="65" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C57" s="65" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D57" s="65" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="H57" s="65" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+    </row>
+    <row r="59" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="1:13" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="65"/>
+      <c r="B60" s="65"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="L60" s="65"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;P</oddHeader>
+    <oddFooter>&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="256" width="9.140625" style="61"/>
+    <col min="257" max="257" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="260" max="512" width="9.140625" style="61"/>
+    <col min="513" max="513" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="516" max="768" width="9.140625" style="61"/>
+    <col min="769" max="769" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="772" max="1024" width="9.140625" style="61"/>
+    <col min="1025" max="1025" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1280" width="9.140625" style="61"/>
+    <col min="1281" max="1281" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1536" width="9.140625" style="61"/>
+    <col min="1537" max="1537" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1792" width="9.140625" style="61"/>
+    <col min="1793" max="1793" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="1796" max="2048" width="9.140625" style="61"/>
+    <col min="2049" max="2049" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2304" width="9.140625" style="61"/>
+    <col min="2305" max="2305" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2560" width="9.140625" style="61"/>
+    <col min="2561" max="2561" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2816" width="9.140625" style="61"/>
+    <col min="2817" max="2817" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="2820" max="3072" width="9.140625" style="61"/>
+    <col min="3073" max="3073" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3328" width="9.140625" style="61"/>
+    <col min="3329" max="3329" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3584" width="9.140625" style="61"/>
+    <col min="3585" max="3585" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3840" width="9.140625" style="61"/>
+    <col min="3841" max="3841" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="3844" max="4096" width="9.140625" style="61"/>
+    <col min="4097" max="4097" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4352" width="9.140625" style="61"/>
+    <col min="4353" max="4353" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4608" width="9.140625" style="61"/>
+    <col min="4609" max="4609" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4864" width="9.140625" style="61"/>
+    <col min="4865" max="4865" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="4868" max="5120" width="9.140625" style="61"/>
+    <col min="5121" max="5121" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5376" width="9.140625" style="61"/>
+    <col min="5377" max="5377" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5632" width="9.140625" style="61"/>
+    <col min="5633" max="5633" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5888" width="9.140625" style="61"/>
+    <col min="5889" max="5889" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="5892" max="6144" width="9.140625" style="61"/>
+    <col min="6145" max="6145" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6400" width="9.140625" style="61"/>
+    <col min="6401" max="6401" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6656" width="9.140625" style="61"/>
+    <col min="6657" max="6657" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6912" width="9.140625" style="61"/>
+    <col min="6913" max="6913" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="6916" max="7168" width="9.140625" style="61"/>
+    <col min="7169" max="7169" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7424" width="9.140625" style="61"/>
+    <col min="7425" max="7425" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7680" width="9.140625" style="61"/>
+    <col min="7681" max="7681" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7936" width="9.140625" style="61"/>
+    <col min="7937" max="7937" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="7940" max="8192" width="9.140625" style="61"/>
+    <col min="8193" max="8193" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8448" width="9.140625" style="61"/>
+    <col min="8449" max="8449" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8704" width="9.140625" style="61"/>
+    <col min="8705" max="8705" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8960" width="9.140625" style="61"/>
+    <col min="8961" max="8961" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="8964" max="9216" width="9.140625" style="61"/>
+    <col min="9217" max="9217" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9472" width="9.140625" style="61"/>
+    <col min="9473" max="9473" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9728" width="9.140625" style="61"/>
+    <col min="9729" max="9729" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9984" width="9.140625" style="61"/>
+    <col min="9985" max="9985" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="9988" max="10240" width="9.140625" style="61"/>
+    <col min="10241" max="10241" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10496" width="9.140625" style="61"/>
+    <col min="10497" max="10497" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10752" width="9.140625" style="61"/>
+    <col min="10753" max="10753" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="10756" max="11008" width="9.140625" style="61"/>
+    <col min="11009" max="11009" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11264" width="9.140625" style="61"/>
+    <col min="11265" max="11265" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11520" width="9.140625" style="61"/>
+    <col min="11521" max="11521" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11776" width="9.140625" style="61"/>
+    <col min="11777" max="11777" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="11780" max="12032" width="9.140625" style="61"/>
+    <col min="12033" max="12033" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12288" width="9.140625" style="61"/>
+    <col min="12289" max="12289" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12544" width="9.140625" style="61"/>
+    <col min="12545" max="12545" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12800" width="9.140625" style="61"/>
+    <col min="12801" max="12801" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="12804" max="13056" width="9.140625" style="61"/>
+    <col min="13057" max="13057" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13312" width="9.140625" style="61"/>
+    <col min="13313" max="13313" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13568" width="9.140625" style="61"/>
+    <col min="13569" max="13569" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13824" width="9.140625" style="61"/>
+    <col min="13825" max="13825" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="13828" max="14080" width="9.140625" style="61"/>
+    <col min="14081" max="14081" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14336" width="9.140625" style="61"/>
+    <col min="14337" max="14337" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14592" width="9.140625" style="61"/>
+    <col min="14593" max="14593" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14848" width="9.140625" style="61"/>
+    <col min="14849" max="14849" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="14852" max="15104" width="9.140625" style="61"/>
+    <col min="15105" max="15105" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15360" width="9.140625" style="61"/>
+    <col min="15361" max="15361" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15616" width="9.140625" style="61"/>
+    <col min="15617" max="15617" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15872" width="9.140625" style="61"/>
+    <col min="15873" max="15873" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="15876" max="16128" width="9.140625" style="61"/>
+    <col min="16129" max="16129" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="47" style="61" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16384" width="9.140625" style="61"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="64"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="64"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="64"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="64"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="65" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="65" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="65" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="65" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="65" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="64"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="65" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="65" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>365</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="65" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>364</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>363</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="65" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="61" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="65" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="65" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="65" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D37" s="61" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="65" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="65" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D39" s="61" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="65" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="64"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="65" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B42" s="65" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="D42" s="61" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="65" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B43" s="65" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="65" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B44" s="65" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="61" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="65" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B45" s="65" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="65" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B46" s="65" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D46" s="61" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="65" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B47" s="65" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D47" s="61" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="65" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B48" s="65" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="65" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B49" s="65" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D49" s="61" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="65" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B50" s="65" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="61" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="65" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B51" s="65" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C51" s="65" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="64"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="B53" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="64" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="B54" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="C54" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="64" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="B55" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="64" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="B56" s="65" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D56" s="64" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="65"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="64"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="64"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="64" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B59" s="64" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C59" s="64" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E59" s="64"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="64" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B60" s="64" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C60" s="64" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D60" s="64" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E60" s="64"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="64" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C61" s="64" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D61" s="64" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E61" s="64"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="64" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B62" s="64" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C62" s="64" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D62" s="64" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E62" s="64"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="64" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B63" s="64" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C63" s="64" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D63" s="64" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E63" s="64"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="64" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B64" s="64" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C64" s="64" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D64" s="64" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E64" s="64"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="64" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B65" s="64" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C65" s="64" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D65" s="64" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E65" s="64"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="64" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B66" s="64" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C66" s="64" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D66" s="64" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E66" s="64"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="64" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B67" s="64" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C67" s="64" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D67" s="64" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E67" s="64"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="64"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="64" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B69" s="64" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C69" s="64" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D69" s="64" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E69" s="64"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="64" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B70" s="64" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C70" s="64" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D70" s="64" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E70" s="64"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="64" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B71" s="64" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C71" s="64" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D71" s="64" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E71" s="64"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="64" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B72" s="64" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C72" s="64" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D72" s="64" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E72" s="64"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="64" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B73" s="64" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C73" s="64" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D73" s="64" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E73" s="64"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="64" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B74" s="64" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C74" s="64" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D74" s="64" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E74" s="64"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="64" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C75" s="64" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D75" s="64" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E75" s="64"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="64" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B76" s="64" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C76" s="64" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D76" s="64" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E76" s="64"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;P</oddHeader>
+    <oddFooter>&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="61"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
+        <v>999</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;P</oddHeader>
     <oddFooter>&amp;F</oddFooter>
@@ -16338,7 +19996,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkeating\epidict\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4666BD-5EBA-41F5-BDDC-E5B61542D17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7538ED1-7850-4885-BB96-2EB54D301DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="1855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="1844">
   <si>
     <t>type</t>
   </si>
@@ -4951,18 +4951,6 @@
     <t>Ce signal doit-il être vérifié ?</t>
   </si>
   <si>
-    <t>discarded_note</t>
-  </si>
-  <si>
-    <t>You have triaged this signal and said it does not pose a public health threat and so no further action is required. Please explain this to the CHW</t>
-  </si>
-  <si>
-    <t>Vous avez trié ce signal et déclaré qu'il ne constitue pas une menace pour la santé publique et qu'aucune autre action n'est requise. Veuillez expliquer cela à l'ASC</t>
-  </si>
-  <si>
-    <t>${need_verif} = "0"</t>
-  </si>
-  <si>
     <t>Verificaton</t>
   </si>
   <si>
@@ -5026,18 +5014,6 @@
     <t>concat(${initials},"_", ${location_signal}, "_",${signal_type}, "_", ${date_signal})</t>
   </si>
   <si>
-    <t>event_id_show</t>
-  </si>
-  <si>
-    <t>Event ID is ${event_id}</t>
-  </si>
-  <si>
-    <t>ID de l'événement  ${event_id}</t>
-  </si>
-  <si>
-    <t>${event_status} = "1"</t>
-  </si>
-  <si>
     <t>date_assessment</t>
   </si>
   <si>
@@ -5099,15 +5075,6 @@
   </si>
   <si>
     <t>Événement en cours</t>
-  </si>
-  <si>
-    <t>case_finding</t>
-  </si>
-  <si>
-    <t>Visit around 10 households close to where the signal was identified to see if there are others affected by the same issue</t>
-  </si>
-  <si>
-    <t>Visitez une dizaine de foyers à proximité de l'endroit où le signal a été identifié pour voir s'il y a d'autres personnes touchées par le même problème</t>
   </si>
   <si>
     <t>acf_total</t>
@@ -14157,10 +14124,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF65934-6CFC-49E1-962F-A216D40F8DA6}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14445,325 +14412,344 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D20" s="67" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1612</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
+        <v>160</v>
+      </c>
+      <c r="B21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1611</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C22" s="67"/>
+      <c r="A22" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1615</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>1616</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
-      </c>
-      <c r="C23" s="67" t="s">
-        <v>1613</v>
+        <v>1617</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1618</v>
       </c>
       <c r="D23" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1616</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="C24" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="D24" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>1620</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1622</v>
+        <v>1623</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>1624</v>
       </c>
       <c r="D25" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="C26" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="D26" t="s">
-        <v>1626</v>
+        <v>1628</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C27" s="67" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1629</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
         <v>1630</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="67" t="s">
         <v>1631</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="67" t="s">
         <v>1632</v>
       </c>
-      <c r="F28" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C29" s="67" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D29" s="67" t="s">
         <v>1634</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1636</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>1635</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>1641</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>67</v>
       </c>
-      <c r="B32" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C32" s="67" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
       <c r="B33" t="s">
-        <v>1630</v>
+        <v>1645</v>
       </c>
       <c r="C33" s="67" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="D33" s="67" t="s">
-        <v>1642</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>1643</v>
+        <v>1596</v>
       </c>
       <c r="B34" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="C35" s="67" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="D35" s="67" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="C36" s="67" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="D36" s="67" t="s">
-        <v>1652</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>1656</v>
       </c>
       <c r="B37" t="s">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="C37" s="67" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="D37" s="67" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>1596</v>
       </c>
-      <c r="B38" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C38" s="67" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D38" s="67" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>178</v>
-      </c>
       <c r="B39" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="C39" s="67" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="D39" s="67" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>1596</v>
       </c>
       <c r="B40" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>1663</v>
+        <v>1667</v>
       </c>
       <c r="D40" s="67" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>1596</v>
       </c>
       <c r="B41" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
       <c r="C41" s="67" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="D41" s="67" t="s">
-        <v>1591</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>1667</v>
+        <v>1596</v>
       </c>
       <c r="B42" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="C42" s="67" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="D42" s="67" t="s">
-        <v>1670</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>1596</v>
       </c>
       <c r="B43" t="s">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>1672</v>
+        <v>1676</v>
       </c>
       <c r="D43" s="67" t="s">
-        <v>1673</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>1596</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
       <c r="C44" s="67" t="s">
-        <v>1675</v>
+        <v>1679</v>
       </c>
       <c r="D44" s="67" t="s">
-        <v>1676</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
@@ -14771,212 +14757,142 @@
         <v>1596</v>
       </c>
       <c r="B45" t="s">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="C45" s="67" t="s">
-        <v>1678</v>
+        <v>1682</v>
       </c>
       <c r="D45" s="67" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1596</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>1680</v>
+        <v>1684</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="D46" s="67" t="s">
-        <v>1682</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1596</v>
+        <v>1687</v>
       </c>
       <c r="B47" t="s">
-        <v>1683</v>
+        <v>1688</v>
       </c>
       <c r="C47" s="67" t="s">
-        <v>1684</v>
+        <v>1689</v>
       </c>
       <c r="D47" s="67" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>1596</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C48" s="67" t="s">
-        <v>1687</v>
+        <v>1626</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1691</v>
       </c>
       <c r="D48" s="67" t="s">
-        <v>1688</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>1596</v>
       </c>
       <c r="B49" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C49" s="67" t="s">
-        <v>1690</v>
+        <v>1693</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1694</v>
       </c>
       <c r="D49" s="67" t="s">
-        <v>1691</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>1596</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="C50" s="67" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="D50" s="67" t="s">
-        <v>1694</v>
+        <v>1698</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C51" s="67" t="s">
-        <v>1696</v>
+        <v>1700</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1701</v>
       </c>
       <c r="D51" s="67" t="s">
-        <v>1697</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>1698</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C52" s="67" t="s">
-        <v>1700</v>
+        <v>1703</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1704</v>
       </c>
       <c r="D52" s="67" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D53" s="67" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>1630</v>
+        <v>1603</v>
       </c>
       <c r="C54" t="s">
-        <v>1702</v>
+        <v>1709</v>
       </c>
       <c r="D54" s="67" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D55" s="67" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C56" s="67" t="s">
-        <v>1708</v>
-      </c>
-      <c r="D56" s="67" t="s">
-        <v>1709</v>
-      </c>
-      <c r="E56" t="s">
         <v>1710</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D57" s="67" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D58" s="67" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1718</v>
-      </c>
-      <c r="D59" s="67" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D60" s="67" t="s">
-        <v>1721</v>
       </c>
     </row>
   </sheetData>
@@ -15018,13 +14934,13 @@
         <v>887</v>
       </c>
       <c r="B2" t="s">
-        <v>1722</v>
+        <v>1711</v>
       </c>
       <c r="C2" t="s">
-        <v>1723</v>
+        <v>1712</v>
       </c>
       <c r="D2" t="s">
-        <v>1724</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -15071,10 +14987,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1725</v>
+        <v>1714</v>
       </c>
       <c r="B6" t="s">
-        <v>1726</v>
+        <v>1715</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -15085,10 +15001,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1725</v>
+        <v>1714</v>
       </c>
       <c r="B7" t="s">
-        <v>1727</v>
+        <v>1716</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -15099,13 +15015,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1725</v>
+        <v>1714</v>
       </c>
       <c r="B8" t="s">
-        <v>1728</v>
+        <v>1717</v>
       </c>
       <c r="C8" t="s">
-        <v>1729</v>
+        <v>1718</v>
       </c>
       <c r="D8" t="s">
         <v>243</v>
@@ -15116,13 +15032,13 @@
         <v>954</v>
       </c>
       <c r="B9" t="s">
-        <v>1730</v>
+        <v>1719</v>
       </c>
       <c r="C9" t="s">
-        <v>1731</v>
+        <v>1720</v>
       </c>
       <c r="D9" t="s">
-        <v>1732</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -15130,13 +15046,13 @@
         <v>954</v>
       </c>
       <c r="B10" t="s">
-        <v>1733</v>
+        <v>1722</v>
       </c>
       <c r="C10" t="s">
-        <v>1734</v>
+        <v>1723</v>
       </c>
       <c r="D10" t="s">
-        <v>1735</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -15144,13 +15060,13 @@
         <v>954</v>
       </c>
       <c r="B11" t="s">
-        <v>1736</v>
+        <v>1725</v>
       </c>
       <c r="C11" t="s">
-        <v>1737</v>
+        <v>1726</v>
       </c>
       <c r="D11" t="s">
-        <v>1738</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -15158,13 +15074,13 @@
         <v>954</v>
       </c>
       <c r="B12" t="s">
-        <v>1739</v>
+        <v>1728</v>
       </c>
       <c r="C12" t="s">
-        <v>1740</v>
+        <v>1729</v>
       </c>
       <c r="D12" t="s">
-        <v>1741</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -15172,13 +15088,13 @@
         <v>954</v>
       </c>
       <c r="B13" t="s">
-        <v>1742</v>
+        <v>1731</v>
       </c>
       <c r="C13" t="s">
-        <v>1743</v>
+        <v>1732</v>
       </c>
       <c r="D13" t="s">
-        <v>1744</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -15186,97 +15102,97 @@
         <v>954</v>
       </c>
       <c r="B14" t="s">
-        <v>1745</v>
+        <v>1734</v>
       </c>
       <c r="C14" t="s">
-        <v>1746</v>
+        <v>1735</v>
       </c>
       <c r="D14" t="s">
-        <v>1747</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>1748</v>
+        <v>1737</v>
       </c>
       <c r="B15" t="s">
-        <v>1749</v>
+        <v>1738</v>
       </c>
       <c r="C15" t="s">
-        <v>1750</v>
+        <v>1739</v>
       </c>
       <c r="D15" t="s">
-        <v>1750</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1748</v>
+        <v>1737</v>
       </c>
       <c r="B16" t="s">
-        <v>1751</v>
+        <v>1740</v>
       </c>
       <c r="C16" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
       <c r="D16" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>1748</v>
+        <v>1737</v>
       </c>
       <c r="B17" t="s">
-        <v>1753</v>
+        <v>1742</v>
       </c>
       <c r="C17" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
       <c r="D17" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1748</v>
+        <v>1737</v>
       </c>
       <c r="B18" t="s">
-        <v>1755</v>
+        <v>1744</v>
       </c>
       <c r="C18" t="s">
-        <v>1756</v>
+        <v>1745</v>
       </c>
       <c r="D18" t="s">
-        <v>1756</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1748</v>
+        <v>1737</v>
       </c>
       <c r="B19" t="s">
-        <v>1757</v>
+        <v>1746</v>
       </c>
       <c r="C19" t="s">
-        <v>1758</v>
+        <v>1747</v>
       </c>
       <c r="D19" t="s">
-        <v>1758</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B20" t="s">
         <v>1748</v>
       </c>
-      <c r="B20" t="s">
-        <v>1759</v>
-      </c>
       <c r="C20" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="D20" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -15284,13 +15200,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>1761</v>
+        <v>1750</v>
       </c>
       <c r="C21" t="s">
-        <v>1762</v>
+        <v>1751</v>
       </c>
       <c r="D21" t="s">
-        <v>1762</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -15298,13 +15214,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>1763</v>
+        <v>1752</v>
       </c>
       <c r="C22" t="s">
-        <v>1764</v>
+        <v>1753</v>
       </c>
       <c r="D22" t="s">
-        <v>1764</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -15312,13 +15228,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>1765</v>
+        <v>1754</v>
       </c>
       <c r="C23" t="s">
-        <v>1766</v>
+        <v>1755</v>
       </c>
       <c r="D23" t="s">
-        <v>1766</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -15326,13 +15242,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>1767</v>
+        <v>1756</v>
       </c>
       <c r="C24" t="s">
-        <v>1768</v>
+        <v>1757</v>
       </c>
       <c r="D24" t="s">
-        <v>1768</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -15340,13 +15256,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>1769</v>
+        <v>1758</v>
       </c>
       <c r="C25" t="s">
-        <v>1770</v>
+        <v>1759</v>
       </c>
       <c r="D25" t="s">
-        <v>1770</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -15354,66 +15270,66 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>1771</v>
+        <v>1760</v>
       </c>
       <c r="C26" t="s">
-        <v>1772</v>
+        <v>1761</v>
       </c>
       <c r="D26" t="s">
-        <v>1772</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>1773</v>
+        <v>1762</v>
       </c>
       <c r="B27" t="s">
-        <v>1774</v>
+        <v>1763</v>
       </c>
       <c r="C27" t="s">
-        <v>1775</v>
+        <v>1764</v>
       </c>
       <c r="D27" t="s">
-        <v>1776</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>1773</v>
+        <v>1762</v>
       </c>
       <c r="B28" t="s">
-        <v>1777</v>
+        <v>1766</v>
       </c>
       <c r="C28" t="s">
-        <v>1778</v>
+        <v>1767</v>
       </c>
       <c r="D28" t="s">
-        <v>1779</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>1773</v>
+        <v>1762</v>
       </c>
       <c r="B29" t="s">
-        <v>1780</v>
+        <v>1769</v>
       </c>
       <c r="C29" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
       <c r="D29" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>1773</v>
+        <v>1762</v>
       </c>
       <c r="B30" t="s">
         <v>233</v>
       </c>
       <c r="C30" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
       <c r="D30" t="s">
         <v>232</v>
@@ -15421,338 +15337,338 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
       <c r="B31" t="s">
-        <v>1785</v>
+        <v>1774</v>
       </c>
       <c r="C31" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
       <c r="D31" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
       <c r="B32" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
       <c r="C32" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
       <c r="D32" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
       <c r="B33" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
       <c r="C33" t="s">
-        <v>1792</v>
+        <v>1781</v>
       </c>
       <c r="D33" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C34" t="s">
         <v>1784</v>
       </c>
-      <c r="B34" t="s">
-        <v>1794</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1795</v>
-      </c>
       <c r="D34" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
       <c r="B35" t="s">
-        <v>1797</v>
+        <v>1786</v>
       </c>
       <c r="C35" t="s">
-        <v>1798</v>
+        <v>1787</v>
       </c>
       <c r="D35" t="s">
-        <v>1799</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
       <c r="B36" t="s">
-        <v>1800</v>
+        <v>1789</v>
       </c>
       <c r="C36" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
       <c r="D36" t="s">
-        <v>1802</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>1803</v>
+        <v>1792</v>
       </c>
       <c r="B37" t="s">
-        <v>1804</v>
+        <v>1793</v>
       </c>
       <c r="C37" t="s">
-        <v>1805</v>
+        <v>1794</v>
       </c>
       <c r="D37" t="s">
-        <v>1805</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>1803</v>
+        <v>1792</v>
       </c>
       <c r="B38" t="s">
-        <v>1806</v>
+        <v>1795</v>
       </c>
       <c r="C38" t="s">
-        <v>1807</v>
+        <v>1796</v>
       </c>
       <c r="D38" t="s">
-        <v>1807</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>1803</v>
+        <v>1792</v>
       </c>
       <c r="B39" t="s">
-        <v>1808</v>
+        <v>1797</v>
       </c>
       <c r="C39" t="s">
-        <v>1809</v>
+        <v>1798</v>
       </c>
       <c r="D39" t="s">
-        <v>1809</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>1803</v>
+        <v>1792</v>
       </c>
       <c r="B40" t="s">
-        <v>1810</v>
+        <v>1799</v>
       </c>
       <c r="C40" t="s">
-        <v>1811</v>
+        <v>1800</v>
       </c>
       <c r="D40" t="s">
-        <v>1811</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1803</v>
+        <v>1792</v>
       </c>
       <c r="B41" t="s">
-        <v>1812</v>
+        <v>1801</v>
       </c>
       <c r="C41" t="s">
-        <v>1813</v>
+        <v>1802</v>
       </c>
       <c r="D41" t="s">
-        <v>1813</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B42" t="s">
         <v>1803</v>
       </c>
-      <c r="B42" t="s">
-        <v>1814</v>
-      </c>
       <c r="C42" t="s">
-        <v>1815</v>
+        <v>1804</v>
       </c>
       <c r="D42" t="s">
-        <v>1815</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>1816</v>
+        <v>1805</v>
       </c>
       <c r="B43" t="s">
-        <v>1817</v>
+        <v>1806</v>
       </c>
       <c r="C43" t="s">
-        <v>1818</v>
+        <v>1807</v>
       </c>
       <c r="D43" t="s">
-        <v>1819</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>1816</v>
+        <v>1805</v>
       </c>
       <c r="B44" t="s">
-        <v>1820</v>
+        <v>1809</v>
       </c>
       <c r="C44" t="s">
-        <v>1821</v>
+        <v>1810</v>
       </c>
       <c r="D44" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1816</v>
+        <v>1805</v>
       </c>
       <c r="B45" t="s">
-        <v>1823</v>
+        <v>1812</v>
       </c>
       <c r="C45" t="s">
-        <v>1824</v>
+        <v>1813</v>
       </c>
       <c r="D45" t="s">
-        <v>1825</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C46" t="s">
         <v>1816</v>
       </c>
-      <c r="B46" t="s">
-        <v>1826</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1827</v>
-      </c>
       <c r="D46" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1816</v>
+        <v>1805</v>
       </c>
       <c r="B47" t="s">
-        <v>1829</v>
+        <v>1818</v>
       </c>
       <c r="C47" t="s">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="D47" t="s">
-        <v>1831</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>1816</v>
+        <v>1805</v>
       </c>
       <c r="B48" t="s">
-        <v>1832</v>
+        <v>1821</v>
       </c>
       <c r="C48" t="s">
-        <v>1833</v>
+        <v>1822</v>
       </c>
       <c r="D48" t="s">
-        <v>1834</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>1835</v>
+        <v>1824</v>
       </c>
       <c r="B49" t="s">
-        <v>1836</v>
+        <v>1825</v>
       </c>
       <c r="C49" t="s">
-        <v>1837</v>
+        <v>1826</v>
       </c>
       <c r="D49" t="s">
-        <v>1838</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>1835</v>
+        <v>1824</v>
       </c>
       <c r="B50" t="s">
-        <v>1839</v>
+        <v>1828</v>
       </c>
       <c r="C50" t="s">
-        <v>1840</v>
+        <v>1829</v>
       </c>
       <c r="D50" t="s">
-        <v>1841</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>1835</v>
+        <v>1824</v>
       </c>
       <c r="B51" t="s">
-        <v>1842</v>
+        <v>1831</v>
       </c>
       <c r="C51" t="s">
-        <v>1843</v>
+        <v>1832</v>
       </c>
       <c r="D51" t="s">
-        <v>1844</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C52" t="s">
         <v>1835</v>
       </c>
-      <c r="B52" t="s">
-        <v>1845</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1846</v>
-      </c>
       <c r="D52" t="s">
-        <v>1847</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>1835</v>
+        <v>1824</v>
       </c>
       <c r="B53" t="s">
-        <v>1848</v>
+        <v>1837</v>
       </c>
       <c r="C53" t="s">
-        <v>1849</v>
+        <v>1838</v>
       </c>
       <c r="D53" t="s">
-        <v>1850</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>1835</v>
+        <v>1824</v>
       </c>
       <c r="B54" t="s">
-        <v>1851</v>
+        <v>1840</v>
       </c>
       <c r="C54" t="s">
-        <v>1852</v>
+        <v>1841</v>
       </c>
       <c r="D54" t="s">
-        <v>1853</v>
+        <v>1842</v>
       </c>
     </row>
   </sheetData>
@@ -15764,7 +15680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD90C4A9-D4E0-4E63-9235-92D70EC4C6A5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -15777,7 +15693,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="68" t="s">
-        <v>1854</v>
+        <v>1843</v>
       </c>
     </row>
   </sheetData>
@@ -20169,7 +20085,7 @@
       </c>
       <c r="I49" s="57"/>
     </row>
-    <row r="50" spans="1:12" s="3" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" s="3" customFormat="1" ht="51.75" x14ac:dyDescent="0.45">
       <c r="A50" s="57" t="s">
         <v>312</v>
       </c>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkeating\epidict\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7538ED1-7850-4885-BB96-2EB54D301DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B69E0A-7D3F-41CD-A8ED-3F01DB708865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="1844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="1846">
   <si>
     <t>type</t>
   </si>
@@ -4933,9 +4933,6 @@
     <t>Signal signalé précédemment</t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
     <t>Any additional information?</t>
   </si>
   <si>
@@ -5654,6 +5651,15 @@
   </si>
   <si>
     <t>ewar</t>
+  </si>
+  <si>
+    <t>comments_signal</t>
+  </si>
+  <si>
+    <t>comments_response</t>
+  </si>
+  <si>
+    <t>event_id_res</t>
   </si>
 </sst>
 </file>
@@ -14126,8 +14132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF65934-6CFC-49E1-962F-A216D40F8DA6}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14389,13 +14395,13 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C18" t="s">
         <v>1603</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>1604</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -14403,13 +14409,13 @@
         <v>53</v>
       </c>
       <c r="B19" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C19" s="67" t="s">
         <v>1606</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="D19" t="s">
         <v>1607</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -14427,41 +14433,41 @@
         <v>200</v>
       </c>
       <c r="C21" s="67" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D21" t="s">
         <v>1609</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>1610</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1611</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B22" t="s">
         <v>1612</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>1613</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>1614</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B23" t="s">
         <v>1616</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>1617</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>1618</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -14469,13 +14475,13 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C24" t="s">
         <v>1620</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>1621</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -14483,13 +14489,13 @@
         <v>53</v>
       </c>
       <c r="B25" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C25" s="67" t="s">
         <v>1623</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="D25" t="s">
         <v>1624</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -14497,16 +14503,16 @@
         <v>138</v>
       </c>
       <c r="B26" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C26" t="s">
         <v>1626</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>1627</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>1628</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -14519,13 +14525,13 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C28" s="67" t="s">
         <v>1630</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="D28" s="67" t="s">
         <v>1631</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
@@ -14533,27 +14539,27 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C29" s="67" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D29" s="67" t="s">
         <v>1633</v>
-      </c>
-      <c r="D29" s="67" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B30" t="s">
         <v>1635</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="67" t="s">
         <v>1636</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="D30" s="67" t="s">
         <v>1637</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -14561,13 +14567,13 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C31" s="67" t="s">
         <v>1639</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="D31" s="67" t="s">
         <v>1640</v>
-      </c>
-      <c r="D31" s="67" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -14575,13 +14581,13 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C32" s="67" t="s">
         <v>1642</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="D32" s="67" t="s">
         <v>1643</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -14589,13 +14595,13 @@
         <v>67</v>
       </c>
       <c r="B33" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C33" s="67" t="s">
         <v>1645</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="D33" s="67" t="s">
         <v>1646</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
@@ -14603,13 +14609,13 @@
         <v>1596</v>
       </c>
       <c r="B34" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C34" s="67" t="s">
         <v>1648</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="D34" s="67" t="s">
         <v>1649</v>
-      </c>
-      <c r="D34" s="67" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -14617,13 +14623,13 @@
         <v>49</v>
       </c>
       <c r="B35" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C35" s="67" t="s">
         <v>1651</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="D35" s="67" t="s">
         <v>1652</v>
-      </c>
-      <c r="D35" s="67" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -14631,10 +14637,10 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C36" s="67" t="s">
         <v>1654</v>
-      </c>
-      <c r="C36" s="67" t="s">
-        <v>1655</v>
       </c>
       <c r="D36" s="67" t="s">
         <v>1591</v>
@@ -14642,16 +14648,16 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B37" t="s">
         <v>1656</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="67" t="s">
         <v>1657</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="D37" s="67" t="s">
         <v>1658</v>
-      </c>
-      <c r="D37" s="67" t="s">
-        <v>1659</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -14659,13 +14665,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C38" s="67" t="s">
         <v>1660</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="D38" s="67" t="s">
         <v>1661</v>
-      </c>
-      <c r="D38" s="67" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
@@ -14673,13 +14679,13 @@
         <v>1596</v>
       </c>
       <c r="B39" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C39" s="67" t="s">
         <v>1663</v>
       </c>
-      <c r="C39" s="67" t="s">
+      <c r="D39" s="67" t="s">
         <v>1664</v>
-      </c>
-      <c r="D39" s="67" t="s">
-        <v>1665</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
@@ -14687,13 +14693,13 @@
         <v>1596</v>
       </c>
       <c r="B40" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C40" s="67" t="s">
         <v>1666</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="D40" s="67" t="s">
         <v>1667</v>
-      </c>
-      <c r="D40" s="67" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
@@ -14701,13 +14707,13 @@
         <v>1596</v>
       </c>
       <c r="B41" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C41" s="67" t="s">
         <v>1669</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="D41" s="67" t="s">
         <v>1670</v>
-      </c>
-      <c r="D41" s="67" t="s">
-        <v>1671</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
@@ -14715,13 +14721,13 @@
         <v>1596</v>
       </c>
       <c r="B42" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C42" s="67" t="s">
         <v>1672</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="D42" s="67" t="s">
         <v>1673</v>
-      </c>
-      <c r="D42" s="67" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -14729,13 +14735,13 @@
         <v>1596</v>
       </c>
       <c r="B43" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C43" s="67" t="s">
         <v>1675</v>
       </c>
-      <c r="C43" s="67" t="s">
+      <c r="D43" s="67" t="s">
         <v>1676</v>
-      </c>
-      <c r="D43" s="67" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -14743,13 +14749,13 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C44" s="67" t="s">
         <v>1678</v>
       </c>
-      <c r="C44" s="67" t="s">
+      <c r="D44" s="67" t="s">
         <v>1679</v>
-      </c>
-      <c r="D44" s="67" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
@@ -14757,13 +14763,13 @@
         <v>1596</v>
       </c>
       <c r="B45" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C45" s="67" t="s">
         <v>1681</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="D45" s="67" t="s">
         <v>1682</v>
-      </c>
-      <c r="D45" s="67" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
@@ -14771,27 +14777,27 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C46" s="67" t="s">
         <v>1684</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="D46" s="67" t="s">
         <v>1685</v>
-      </c>
-      <c r="D46" s="67" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B47" t="s">
         <v>1687</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="67" t="s">
         <v>1688</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="D47" s="67" t="s">
         <v>1689</v>
-      </c>
-      <c r="D47" s="67" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
@@ -14799,13 +14805,13 @@
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>1626</v>
+        <v>1845</v>
       </c>
       <c r="C48" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D48" s="67" t="s">
         <v>1691</v>
-      </c>
-      <c r="D48" s="67" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
@@ -14813,13 +14819,13 @@
         <v>1596</v>
       </c>
       <c r="B49" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C49" t="s">
         <v>1693</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" s="67" t="s">
         <v>1694</v>
-      </c>
-      <c r="D49" s="67" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
@@ -14827,16 +14833,16 @@
         <v>39</v>
       </c>
       <c r="B50" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C50" s="67" t="s">
         <v>1696</v>
       </c>
-      <c r="C50" s="67" t="s">
+      <c r="D50" s="67" t="s">
         <v>1697</v>
       </c>
-      <c r="D50" s="67" t="s">
+      <c r="E50" t="s">
         <v>1698</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
@@ -14844,13 +14850,13 @@
         <v>39</v>
       </c>
       <c r="B51" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C51" t="s">
         <v>1700</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" s="67" t="s">
         <v>1701</v>
-      </c>
-      <c r="D51" s="67" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
@@ -14858,13 +14864,13 @@
         <v>67</v>
       </c>
       <c r="B52" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C52" t="s">
         <v>1703</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" s="67" t="s">
         <v>1704</v>
-      </c>
-      <c r="D52" s="67" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
@@ -14872,13 +14878,13 @@
         <v>67</v>
       </c>
       <c r="B53" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C53" t="s">
         <v>1706</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" s="67" t="s">
         <v>1707</v>
-      </c>
-      <c r="D53" s="67" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
@@ -14886,13 +14892,13 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>1603</v>
+        <v>1844</v>
       </c>
       <c r="C54" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D54" s="67" t="s">
         <v>1709</v>
-      </c>
-      <c r="D54" s="67" t="s">
-        <v>1710</v>
       </c>
     </row>
   </sheetData>
@@ -14934,13 +14940,13 @@
         <v>887</v>
       </c>
       <c r="B2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C2" t="s">
         <v>1711</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1712</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1713</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -14987,10 +14993,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B6" t="s">
         <v>1714</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1715</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -15001,10 +15007,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B7" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -15015,13 +15021,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B8" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C8" t="s">
         <v>1717</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1718</v>
       </c>
       <c r="D8" t="s">
         <v>243</v>
@@ -15032,13 +15038,13 @@
         <v>954</v>
       </c>
       <c r="B9" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C9" t="s">
         <v>1719</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1720</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -15046,13 +15052,13 @@
         <v>954</v>
       </c>
       <c r="B10" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C10" t="s">
         <v>1722</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>1723</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -15060,13 +15066,13 @@
         <v>954</v>
       </c>
       <c r="B11" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C11" t="s">
         <v>1725</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>1726</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -15074,13 +15080,13 @@
         <v>954</v>
       </c>
       <c r="B12" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C12" t="s">
         <v>1728</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>1729</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -15088,13 +15094,13 @@
         <v>954</v>
       </c>
       <c r="B13" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C13" t="s">
         <v>1731</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>1732</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -15102,97 +15108,97 @@
         <v>954</v>
       </c>
       <c r="B14" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C14" t="s">
         <v>1734</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>1735</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B15" t="s">
         <v>1737</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>1738</v>
       </c>
-      <c r="C15" t="s">
-        <v>1739</v>
-      </c>
       <c r="D15" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B16" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C16" t="s">
         <v>1740</v>
       </c>
-      <c r="C16" t="s">
-        <v>1741</v>
-      </c>
       <c r="D16" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B17" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C17" t="s">
         <v>1742</v>
       </c>
-      <c r="C17" t="s">
-        <v>1743</v>
-      </c>
       <c r="D17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B18" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C18" t="s">
         <v>1744</v>
       </c>
-      <c r="C18" t="s">
-        <v>1745</v>
-      </c>
       <c r="D18" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B19" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C19" t="s">
         <v>1746</v>
       </c>
-      <c r="C19" t="s">
-        <v>1747</v>
-      </c>
       <c r="D19" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B20" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C20" t="s">
         <v>1748</v>
       </c>
-      <c r="C20" t="s">
-        <v>1749</v>
-      </c>
       <c r="D20" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -15200,13 +15206,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C21" t="s">
         <v>1750</v>
       </c>
-      <c r="C21" t="s">
-        <v>1751</v>
-      </c>
       <c r="D21" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -15214,13 +15220,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C22" t="s">
         <v>1752</v>
       </c>
-      <c r="C22" t="s">
-        <v>1753</v>
-      </c>
       <c r="D22" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -15228,13 +15234,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C23" t="s">
         <v>1754</v>
       </c>
-      <c r="C23" t="s">
-        <v>1755</v>
-      </c>
       <c r="D23" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -15242,13 +15248,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C24" t="s">
         <v>1756</v>
       </c>
-      <c r="C24" t="s">
-        <v>1757</v>
-      </c>
       <c r="D24" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -15256,13 +15262,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C25" t="s">
         <v>1758</v>
       </c>
-      <c r="C25" t="s">
-        <v>1759</v>
-      </c>
       <c r="D25" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -15270,66 +15276,66 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C26" t="s">
         <v>1760</v>
       </c>
-      <c r="C26" t="s">
-        <v>1761</v>
-      </c>
       <c r="D26" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B27" t="s">
         <v>1762</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>1763</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>1764</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B28" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C28" t="s">
         <v>1766</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>1767</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B29" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C29" t="s">
         <v>1769</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>1770</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B30" t="s">
         <v>233</v>
       </c>
       <c r="C30" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D30" t="s">
         <v>232</v>
@@ -15337,338 +15343,338 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B31" t="s">
         <v>1773</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>1774</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>1775</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B32" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C32" t="s">
         <v>1777</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>1778</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B33" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C33" t="s">
         <v>1780</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>1781</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B34" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C34" t="s">
         <v>1783</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>1784</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B35" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C35" t="s">
         <v>1786</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>1787</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B36" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C36" t="s">
         <v>1789</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>1790</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B37" t="s">
         <v>1792</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>1793</v>
       </c>
-      <c r="C37" t="s">
-        <v>1794</v>
-      </c>
       <c r="D37" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B38" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C38" t="s">
         <v>1795</v>
       </c>
-      <c r="C38" t="s">
-        <v>1796</v>
-      </c>
       <c r="D38" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B39" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C39" t="s">
         <v>1797</v>
       </c>
-      <c r="C39" t="s">
-        <v>1798</v>
-      </c>
       <c r="D39" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B40" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C40" t="s">
         <v>1799</v>
       </c>
-      <c r="C40" t="s">
-        <v>1800</v>
-      </c>
       <c r="D40" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B41" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C41" t="s">
         <v>1801</v>
       </c>
-      <c r="C41" t="s">
-        <v>1802</v>
-      </c>
       <c r="D41" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B42" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C42" t="s">
         <v>1803</v>
       </c>
-      <c r="C42" t="s">
-        <v>1804</v>
-      </c>
       <c r="D42" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B43" t="s">
         <v>1805</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>1806</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>1807</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B44" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C44" t="s">
         <v>1809</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>1810</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B45" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C45" t="s">
         <v>1812</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>1813</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B46" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C46" t="s">
         <v>1815</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>1816</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1817</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B47" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C47" t="s">
         <v>1818</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>1819</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B48" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C48" t="s">
         <v>1821</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>1822</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B49" t="s">
         <v>1824</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>1825</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>1826</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B50" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C50" t="s">
         <v>1828</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>1829</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B51" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C51" t="s">
         <v>1831</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>1832</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B52" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C52" t="s">
         <v>1834</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>1835</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B53" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C53" t="s">
         <v>1837</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>1838</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B54" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C54" t="s">
         <v>1840</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>1841</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1842</v>
       </c>
     </row>
   </sheetData>
@@ -15693,7 +15699,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="68" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkeating\epidict\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B69E0A-7D3F-41CD-A8ED-3F01DB708865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C613B50-CC2E-47D0-9A3E-1B4310AA7F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="1846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="1847">
   <si>
     <t>type</t>
   </si>
@@ -4999,9 +4999,6 @@
     <t>Statut de l'événement</t>
   </si>
   <si>
-    <t>event_id</t>
-  </si>
-  <si>
     <t>Event ID</t>
   </si>
   <si>
@@ -5660,6 +5657,12 @@
   </si>
   <si>
     <t>event_id_res</t>
+  </si>
+  <si>
+    <t>event_id_sig</t>
+  </si>
+  <si>
+    <t>event_id_assess</t>
   </si>
 </sst>
 </file>
@@ -14132,8 +14135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF65934-6CFC-49E1-962F-A216D40F8DA6}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14395,7 +14398,7 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C18" t="s">
         <v>1603</v>
@@ -14503,16 +14506,16 @@
         <v>138</v>
       </c>
       <c r="B26" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C26" t="s">
         <v>1625</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>1626</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>1627</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -14525,13 +14528,13 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C28" s="67" t="s">
         <v>1629</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="D28" s="67" t="s">
         <v>1630</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>1631</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
@@ -14539,27 +14542,27 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>1625</v>
+        <v>1846</v>
       </c>
       <c r="C29" s="67" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D29" s="67" t="s">
         <v>1632</v>
-      </c>
-      <c r="D29" s="67" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B30" t="s">
         <v>1634</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="67" t="s">
         <v>1635</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="D30" s="67" t="s">
         <v>1636</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -14567,13 +14570,13 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C31" s="67" t="s">
         <v>1638</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="D31" s="67" t="s">
         <v>1639</v>
-      </c>
-      <c r="D31" s="67" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -14581,13 +14584,13 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C32" s="67" t="s">
         <v>1641</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="D32" s="67" t="s">
         <v>1642</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -14595,13 +14598,13 @@
         <v>67</v>
       </c>
       <c r="B33" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C33" s="67" t="s">
         <v>1644</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="D33" s="67" t="s">
         <v>1645</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
@@ -14609,13 +14612,13 @@
         <v>1596</v>
       </c>
       <c r="B34" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C34" s="67" t="s">
         <v>1647</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="D34" s="67" t="s">
         <v>1648</v>
-      </c>
-      <c r="D34" s="67" t="s">
-        <v>1649</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -14623,13 +14626,13 @@
         <v>49</v>
       </c>
       <c r="B35" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C35" s="67" t="s">
         <v>1650</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="D35" s="67" t="s">
         <v>1651</v>
-      </c>
-      <c r="D35" s="67" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -14637,10 +14640,10 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C36" s="67" t="s">
         <v>1653</v>
-      </c>
-      <c r="C36" s="67" t="s">
-        <v>1654</v>
       </c>
       <c r="D36" s="67" t="s">
         <v>1591</v>
@@ -14648,16 +14651,16 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B37" t="s">
         <v>1655</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="67" t="s">
         <v>1656</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="D37" s="67" t="s">
         <v>1657</v>
-      </c>
-      <c r="D37" s="67" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -14665,13 +14668,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C38" s="67" t="s">
         <v>1659</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="D38" s="67" t="s">
         <v>1660</v>
-      </c>
-      <c r="D38" s="67" t="s">
-        <v>1661</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
@@ -14679,13 +14682,13 @@
         <v>1596</v>
       </c>
       <c r="B39" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C39" s="67" t="s">
         <v>1662</v>
       </c>
-      <c r="C39" s="67" t="s">
+      <c r="D39" s="67" t="s">
         <v>1663</v>
-      </c>
-      <c r="D39" s="67" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
@@ -14693,13 +14696,13 @@
         <v>1596</v>
       </c>
       <c r="B40" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C40" s="67" t="s">
         <v>1665</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="D40" s="67" t="s">
         <v>1666</v>
-      </c>
-      <c r="D40" s="67" t="s">
-        <v>1667</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
@@ -14707,13 +14710,13 @@
         <v>1596</v>
       </c>
       <c r="B41" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C41" s="67" t="s">
         <v>1668</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="D41" s="67" t="s">
         <v>1669</v>
-      </c>
-      <c r="D41" s="67" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
@@ -14721,13 +14724,13 @@
         <v>1596</v>
       </c>
       <c r="B42" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C42" s="67" t="s">
         <v>1671</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="D42" s="67" t="s">
         <v>1672</v>
-      </c>
-      <c r="D42" s="67" t="s">
-        <v>1673</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -14735,13 +14738,13 @@
         <v>1596</v>
       </c>
       <c r="B43" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C43" s="67" t="s">
         <v>1674</v>
       </c>
-      <c r="C43" s="67" t="s">
+      <c r="D43" s="67" t="s">
         <v>1675</v>
-      </c>
-      <c r="D43" s="67" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -14749,13 +14752,13 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C44" s="67" t="s">
         <v>1677</v>
       </c>
-      <c r="C44" s="67" t="s">
+      <c r="D44" s="67" t="s">
         <v>1678</v>
-      </c>
-      <c r="D44" s="67" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
@@ -14763,13 +14766,13 @@
         <v>1596</v>
       </c>
       <c r="B45" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C45" s="67" t="s">
         <v>1680</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="D45" s="67" t="s">
         <v>1681</v>
-      </c>
-      <c r="D45" s="67" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
@@ -14777,27 +14780,27 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C46" s="67" t="s">
         <v>1683</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="D46" s="67" t="s">
         <v>1684</v>
-      </c>
-      <c r="D46" s="67" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B47" t="s">
         <v>1686</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="67" t="s">
         <v>1687</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="D47" s="67" t="s">
         <v>1688</v>
-      </c>
-      <c r="D47" s="67" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
@@ -14805,13 +14808,13 @@
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="C48" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D48" s="67" t="s">
         <v>1690</v>
-      </c>
-      <c r="D48" s="67" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
@@ -14819,13 +14822,13 @@
         <v>1596</v>
       </c>
       <c r="B49" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C49" t="s">
         <v>1692</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" s="67" t="s">
         <v>1693</v>
-      </c>
-      <c r="D49" s="67" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
@@ -14833,16 +14836,16 @@
         <v>39</v>
       </c>
       <c r="B50" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C50" s="67" t="s">
         <v>1695</v>
       </c>
-      <c r="C50" s="67" t="s">
+      <c r="D50" s="67" t="s">
         <v>1696</v>
       </c>
-      <c r="D50" s="67" t="s">
+      <c r="E50" t="s">
         <v>1697</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
@@ -14850,13 +14853,13 @@
         <v>39</v>
       </c>
       <c r="B51" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C51" t="s">
         <v>1699</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" s="67" t="s">
         <v>1700</v>
-      </c>
-      <c r="D51" s="67" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
@@ -14864,13 +14867,13 @@
         <v>67</v>
       </c>
       <c r="B52" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C52" t="s">
         <v>1702</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" s="67" t="s">
         <v>1703</v>
-      </c>
-      <c r="D52" s="67" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
@@ -14878,13 +14881,13 @@
         <v>67</v>
       </c>
       <c r="B53" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C53" t="s">
         <v>1705</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" s="67" t="s">
         <v>1706</v>
-      </c>
-      <c r="D53" s="67" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
@@ -14892,13 +14895,13 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C54" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D54" s="67" t="s">
         <v>1708</v>
-      </c>
-      <c r="D54" s="67" t="s">
-        <v>1709</v>
       </c>
     </row>
   </sheetData>
@@ -14940,13 +14943,13 @@
         <v>887</v>
       </c>
       <c r="B2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C2" t="s">
         <v>1710</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1711</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -14993,10 +14996,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B6" t="s">
         <v>1713</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1714</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -15007,10 +15010,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B7" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -15021,13 +15024,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B8" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C8" t="s">
         <v>1716</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1717</v>
       </c>
       <c r="D8" t="s">
         <v>243</v>
@@ -15038,13 +15041,13 @@
         <v>954</v>
       </c>
       <c r="B9" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C9" t="s">
         <v>1718</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1719</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -15052,13 +15055,13 @@
         <v>954</v>
       </c>
       <c r="B10" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C10" t="s">
         <v>1721</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>1722</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -15066,13 +15069,13 @@
         <v>954</v>
       </c>
       <c r="B11" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C11" t="s">
         <v>1724</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>1725</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -15080,13 +15083,13 @@
         <v>954</v>
       </c>
       <c r="B12" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C12" t="s">
         <v>1727</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>1728</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1729</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -15094,13 +15097,13 @@
         <v>954</v>
       </c>
       <c r="B13" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C13" t="s">
         <v>1730</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>1731</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -15108,97 +15111,97 @@
         <v>954</v>
       </c>
       <c r="B14" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C14" t="s">
         <v>1733</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>1734</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B15" t="s">
         <v>1736</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>1737</v>
       </c>
-      <c r="C15" t="s">
-        <v>1738</v>
-      </c>
       <c r="D15" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B16" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C16" t="s">
         <v>1739</v>
       </c>
-      <c r="C16" t="s">
-        <v>1740</v>
-      </c>
       <c r="D16" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B17" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C17" t="s">
         <v>1741</v>
       </c>
-      <c r="C17" t="s">
-        <v>1742</v>
-      </c>
       <c r="D17" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B18" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C18" t="s">
         <v>1743</v>
       </c>
-      <c r="C18" t="s">
-        <v>1744</v>
-      </c>
       <c r="D18" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B19" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C19" t="s">
         <v>1745</v>
       </c>
-      <c r="C19" t="s">
-        <v>1746</v>
-      </c>
       <c r="D19" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B20" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C20" t="s">
         <v>1747</v>
       </c>
-      <c r="C20" t="s">
-        <v>1748</v>
-      </c>
       <c r="D20" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -15206,13 +15209,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C21" t="s">
         <v>1749</v>
       </c>
-      <c r="C21" t="s">
-        <v>1750</v>
-      </c>
       <c r="D21" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -15220,13 +15223,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C22" t="s">
         <v>1751</v>
       </c>
-      <c r="C22" t="s">
-        <v>1752</v>
-      </c>
       <c r="D22" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -15234,13 +15237,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C23" t="s">
         <v>1753</v>
       </c>
-      <c r="C23" t="s">
-        <v>1754</v>
-      </c>
       <c r="D23" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -15248,13 +15251,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C24" t="s">
         <v>1755</v>
       </c>
-      <c r="C24" t="s">
-        <v>1756</v>
-      </c>
       <c r="D24" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -15262,13 +15265,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C25" t="s">
         <v>1757</v>
       </c>
-      <c r="C25" t="s">
-        <v>1758</v>
-      </c>
       <c r="D25" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -15276,66 +15279,66 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C26" t="s">
         <v>1759</v>
       </c>
-      <c r="C26" t="s">
-        <v>1760</v>
-      </c>
       <c r="D26" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B27" t="s">
         <v>1761</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>1762</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>1763</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B28" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C28" t="s">
         <v>1765</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>1766</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B29" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C29" t="s">
         <v>1768</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>1769</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B30" t="s">
         <v>233</v>
       </c>
       <c r="C30" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D30" t="s">
         <v>232</v>
@@ -15343,338 +15346,338 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B31" t="s">
         <v>1772</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>1773</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>1774</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B32" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C32" t="s">
         <v>1776</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>1777</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B33" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C33" t="s">
         <v>1779</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>1780</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B34" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C34" t="s">
         <v>1782</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>1783</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B35" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C35" t="s">
         <v>1785</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>1786</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B36" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C36" t="s">
         <v>1788</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>1789</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B37" t="s">
         <v>1791</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>1792</v>
       </c>
-      <c r="C37" t="s">
-        <v>1793</v>
-      </c>
       <c r="D37" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B38" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C38" t="s">
         <v>1794</v>
       </c>
-      <c r="C38" t="s">
-        <v>1795</v>
-      </c>
       <c r="D38" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B39" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C39" t="s">
         <v>1796</v>
       </c>
-      <c r="C39" t="s">
-        <v>1797</v>
-      </c>
       <c r="D39" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B40" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C40" t="s">
         <v>1798</v>
       </c>
-      <c r="C40" t="s">
-        <v>1799</v>
-      </c>
       <c r="D40" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B41" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C41" t="s">
         <v>1800</v>
       </c>
-      <c r="C41" t="s">
-        <v>1801</v>
-      </c>
       <c r="D41" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B42" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C42" t="s">
         <v>1802</v>
       </c>
-      <c r="C42" t="s">
-        <v>1803</v>
-      </c>
       <c r="D42" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B43" t="s">
         <v>1804</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>1805</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>1806</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B44" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C44" t="s">
         <v>1808</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>1809</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B45" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C45" t="s">
         <v>1811</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>1812</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B46" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C46" t="s">
         <v>1814</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>1815</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B47" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C47" t="s">
         <v>1817</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>1818</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B48" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C48" t="s">
         <v>1820</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>1821</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B49" t="s">
         <v>1823</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>1824</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>1825</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B50" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C50" t="s">
         <v>1827</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>1828</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1829</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B51" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C51" t="s">
         <v>1830</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>1831</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1832</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B52" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C52" t="s">
         <v>1833</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>1834</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B53" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C53" t="s">
         <v>1836</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>1837</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B54" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C54" t="s">
         <v>1839</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>1840</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1841</v>
       </c>
     </row>
   </sheetData>
@@ -15699,7 +15702,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="68" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality" sheetId="11" r:id="rId1"/>
@@ -11192,7 +11192,7 @@
   </sheetPr>
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
@@ -17484,8 +17484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17652,7 +17652,7 @@
         <v>233</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>233</v>
+        <v>3</v>
       </c>
       <c r="D12" s="48" t="s">
         <v>232</v>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkeating\epidict\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C613B50-CC2E-47D0-9A3E-1B4310AA7F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D30502D-E414-49BB-AB3A-22FA8820FE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="15391" windowHeight="9443" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="1847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3590" uniqueCount="1873">
   <si>
     <t>type</t>
   </si>
@@ -5663,6 +5663,84 @@
   </si>
   <si>
     <t>event_id_assess</t>
+  </si>
+  <si>
+    <t>select_one hml</t>
+  </si>
+  <si>
+    <t>maximum_size</t>
+  </si>
+  <si>
+    <t>Likely maximum size of an outbreak linked with this event</t>
+  </si>
+  <si>
+    <t>Taille maximale probable d'une épidémie liée à cet événement</t>
+  </si>
+  <si>
+    <t>maximum_impact</t>
+  </si>
+  <si>
+    <t>Likely maximum impact of an outbreak linked with this event</t>
+  </si>
+  <si>
+    <t>Impact maximal probable d'une épidémie liée à cet événement</t>
+  </si>
+  <si>
+    <t>duration_outbreak</t>
+  </si>
+  <si>
+    <t>Likely duration of an outbreak linked with this event</t>
+  </si>
+  <si>
+    <t>Durée probable d'une épidémie liée à cet événement</t>
+  </si>
+  <si>
+    <t>eprep</t>
+  </si>
+  <si>
+    <t>Event included among EPREP scenarios</t>
+  </si>
+  <si>
+    <t>Événement inclus dans les scénarios EPREP</t>
+  </si>
+  <si>
+    <t>hml</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Haut</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <t>Bas</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Années</t>
   </si>
 </sst>
 </file>
@@ -14133,10 +14211,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF65934-6CFC-49E1-962F-A216D40F8DA6}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14733,88 +14811,88 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>1596</v>
+        <v>1847</v>
       </c>
       <c r="B43" t="s">
-        <v>1673</v>
+        <v>1848</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>1674</v>
+        <v>1849</v>
       </c>
       <c r="D43" s="67" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>1847</v>
       </c>
       <c r="B44" t="s">
-        <v>1676</v>
+        <v>1851</v>
       </c>
       <c r="C44" s="67" t="s">
-        <v>1677</v>
+        <v>1852</v>
       </c>
       <c r="D44" s="67" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1596</v>
+        <v>653</v>
       </c>
       <c r="B45" t="s">
-        <v>1679</v>
+        <v>1854</v>
       </c>
       <c r="C45" s="67" t="s">
-        <v>1680</v>
+        <v>1855</v>
       </c>
       <c r="D45" s="67" t="s">
-        <v>1681</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>1596</v>
       </c>
       <c r="B46" t="s">
-        <v>1682</v>
+        <v>1857</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>1683</v>
+        <v>1858</v>
       </c>
       <c r="D46" s="67" t="s">
-        <v>1684</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1685</v>
+        <v>1596</v>
       </c>
       <c r="B47" t="s">
-        <v>1686</v>
+        <v>1673</v>
       </c>
       <c r="C47" s="67" t="s">
-        <v>1687</v>
+        <v>1674</v>
       </c>
       <c r="D47" s="67" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1689</v>
+        <v>1676</v>
+      </c>
+      <c r="C48" s="67" t="s">
+        <v>1677</v>
       </c>
       <c r="D48" s="67" t="s">
-        <v>1690</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
@@ -14822,72 +14900,69 @@
         <v>1596</v>
       </c>
       <c r="B49" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1692</v>
+        <v>1679</v>
+      </c>
+      <c r="C49" s="67" t="s">
+        <v>1680</v>
       </c>
       <c r="D49" s="67" t="s">
-        <v>1693</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>1694</v>
+        <v>1682</v>
       </c>
       <c r="C50" s="67" t="s">
-        <v>1695</v>
+        <v>1683</v>
       </c>
       <c r="D50" s="67" t="s">
-        <v>1696</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1697</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C51" s="67" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
         <v>39</v>
       </c>
-      <c r="B51" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D51" s="67" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>67</v>
-      </c>
       <c r="B52" t="s">
-        <v>1701</v>
+        <v>1844</v>
       </c>
       <c r="C52" t="s">
-        <v>1702</v>
+        <v>1689</v>
       </c>
       <c r="D52" s="67" t="s">
-        <v>1703</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>1596</v>
       </c>
       <c r="B53" t="s">
-        <v>1704</v>
+        <v>1691</v>
       </c>
       <c r="C53" t="s">
-        <v>1705</v>
+        <v>1692</v>
       </c>
       <c r="D53" s="67" t="s">
-        <v>1706</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
@@ -14895,12 +14970,71 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C54" s="67" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D54" s="67" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D55" s="67" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D56" s="67" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D57" s="67" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
         <v>1843</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C58" t="s">
         <v>1707</v>
       </c>
-      <c r="D54" s="67" t="s">
+      <c r="D58" s="67" t="s">
         <v>1708</v>
       </c>
     </row>
@@ -14911,10 +15045,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04301A27-7367-4AE0-8969-ABBCAA198EF2}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15678,6 +15812,90 @@
       </c>
       <c r="D54" t="s">
         <v>1840</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>933</v>
+      </c>
+      <c r="B58" t="s">
+        <v>901</v>
+      </c>
+      <c r="C58" t="s">
+        <v>902</v>
+      </c>
+      <c r="D58" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>933</v>
+      </c>
+      <c r="B59" t="s">
+        <v>904</v>
+      </c>
+      <c r="C59" t="s">
+        <v>905</v>
+      </c>
+      <c r="D59" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>933</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1872</v>
       </c>
     </row>
   </sheetData>
@@ -20459,7 +20677,7 @@
       <c r="K66" s="57"/>
       <c r="L66" s="57"/>
     </row>
-    <row r="67" spans="1:12" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="57" t="s">
         <v>312</v>
       </c>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spina\Desktop\epidict\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\epidict\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5D76BE-860B-4602-B773-722F75EE1E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality" sheetId="11" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="1726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="1727">
   <si>
     <t>type</t>
   </si>
@@ -5296,11 +5297,14 @@
   <si>
     <t>Age previously had measles</t>
   </si>
+  <si>
+    <t>IPV3 card</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5523,9 +5527,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="3"/>
-    <cellStyle name="Normal 2 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5616,6 +5620,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5651,6 +5672,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5826,7 +5864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5836,21 +5874,21 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="53.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="27.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.81640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.1796875" style="1"/>
+    <col min="9" max="9" width="53.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="1"/>
+    <col min="11" max="11" width="46.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5891,7 +5929,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>217</v>
       </c>
@@ -5914,7 +5952,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>215</v>
       </c>
@@ -5937,7 +5975,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>213</v>
       </c>
@@ -5960,7 +5998,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>211</v>
       </c>
@@ -5983,7 +6021,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>160</v>
       </c>
@@ -6008,7 +6046,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>67</v>
       </c>
@@ -6037,7 +6075,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
@@ -6066,7 +6104,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>152</v>
       </c>
@@ -6082,7 +6120,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>160</v>
       </c>
@@ -6107,7 +6145,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>197</v>
       </c>
@@ -6132,7 +6170,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -6159,7 +6197,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>49</v>
       </c>
@@ -6188,7 +6226,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>49</v>
       </c>
@@ -6217,7 +6255,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="125" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
@@ -6248,7 +6286,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="3" customFormat="1" ht="50" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>138</v>
       </c>
@@ -6273,7 +6311,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>178</v>
       </c>
@@ -6300,7 +6338,7 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>152</v>
       </c>
@@ -6316,7 +6354,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>160</v>
       </c>
@@ -6341,7 +6379,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>53</v>
       </c>
@@ -6366,7 +6404,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>167</v>
       </c>
@@ -6393,7 +6431,7 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>39</v>
       </c>
@@ -6420,7 +6458,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>152</v>
       </c>
@@ -6437,7 +6475,7 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>160</v>
       </c>
@@ -6464,7 +6502,7 @@
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>49</v>
       </c>
@@ -6493,7 +6531,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>178</v>
       </c>
@@ -6516,7 +6554,7 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>49</v>
       </c>
@@ -6543,7 +6581,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>152</v>
       </c>
@@ -6560,7 +6598,7 @@
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>151</v>
       </c>
@@ -6588,7 +6626,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>145</v>
       </c>
@@ -6612,7 +6650,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>49</v>
       </c>
@@ -6644,7 +6682,7 @@
       </c>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>49</v>
       </c>
@@ -6674,7 +6712,7 @@
       </c>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>178</v>
       </c>
@@ -6696,7 +6734,7 @@
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>160</v>
       </c>
@@ -6722,7 +6760,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>385</v>
       </c>
@@ -6750,7 +6788,7 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
     </row>
-    <row r="36" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>49</v>
       </c>
@@ -6778,7 +6816,7 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
     </row>
-    <row r="37" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>49</v>
       </c>
@@ -6806,7 +6844,7 @@
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
     </row>
-    <row r="38" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>49</v>
       </c>
@@ -6834,7 +6872,7 @@
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
     </row>
-    <row r="39" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>152</v>
       </c>
@@ -6850,7 +6888,7 @@
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
     </row>
-    <row r="40" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>53</v>
       </c>
@@ -6874,7 +6912,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>53</v>
       </c>
@@ -6900,7 +6938,7 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>124</v>
       </c>
@@ -6926,7 +6964,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>53</v>
       </c>
@@ -6952,7 +6990,7 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>53</v>
       </c>
@@ -6976,7 +7014,7 @@
       </c>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>53</v>
       </c>
@@ -7000,7 +7038,7 @@
       </c>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>178</v>
       </c>
@@ -7020,7 +7058,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
     </row>
-    <row r="47" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>160</v>
       </c>
@@ -7044,7 +7082,7 @@
       </c>
       <c r="J47" s="13"/>
     </row>
-    <row r="48" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>408</v>
       </c>
@@ -7066,7 +7104,7 @@
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>312</v>
       </c>
@@ -7091,7 +7129,7 @@
       <c r="J49" s="13"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>152</v>
       </c>
@@ -7105,7 +7143,7 @@
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>178</v>
       </c>
@@ -7126,7 +7164,7 @@
       <c r="J51" s="19"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>160</v>
       </c>
@@ -7150,7 +7188,7 @@
       </c>
       <c r="J52" s="13"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>408</v>
       </c>
@@ -7172,7 +7210,7 @@
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>152</v>
       </c>
@@ -7186,7 +7224,7 @@
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
         <v>178</v>
       </c>
@@ -7206,7 +7244,7 @@
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>160</v>
       </c>
@@ -7230,7 +7268,7 @@
       </c>
       <c r="J56" s="13"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>312</v>
       </c>
@@ -7252,7 +7290,7 @@
       <c r="I57" s="15"/>
       <c r="J57" s="13"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>312</v>
       </c>
@@ -7276,7 +7314,7 @@
       </c>
       <c r="J58" s="13"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>312</v>
       </c>
@@ -7298,7 +7336,7 @@
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>160</v>
       </c>
@@ -7318,7 +7356,7 @@
       </c>
       <c r="J60" s="13"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>434</v>
       </c>
@@ -7340,7 +7378,7 @@
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>39</v>
       </c>
@@ -7364,7 +7402,7 @@
       </c>
       <c r="J62" s="13"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>442</v>
       </c>
@@ -7386,7 +7424,7 @@
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>446</v>
       </c>
@@ -7408,7 +7446,7 @@
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>312</v>
       </c>
@@ -7430,7 +7468,7 @@
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>453</v>
       </c>
@@ -7458,7 +7496,7 @@
       </c>
       <c r="J66" s="13"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>152</v>
       </c>
@@ -7472,7 +7510,7 @@
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>460</v>
       </c>
@@ -7496,7 +7534,7 @@
       </c>
       <c r="J68" s="13"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>39</v>
       </c>
@@ -7520,7 +7558,7 @@
       </c>
       <c r="J69" s="13"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
         <v>152</v>
       </c>
@@ -7534,7 +7572,7 @@
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
         <v>178</v>
       </c>
@@ -7554,7 +7592,7 @@
       <c r="I71" s="19"/>
       <c r="J71" s="19"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>160</v>
       </c>
@@ -7581,7 +7619,7 @@
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>49</v>
       </c>
@@ -7610,7 +7648,7 @@
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>49</v>
       </c>
@@ -7641,7 +7679,7 @@
       <c r="L74" s="15"/>
       <c r="M74" s="15"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>53</v>
       </c>
@@ -7666,7 +7704,7 @@
       <c r="L75" s="15"/>
       <c r="M75" s="15"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>53</v>
       </c>
@@ -7691,7 +7729,7 @@
       <c r="L76" s="15"/>
       <c r="M76" s="15"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>489</v>
       </c>
@@ -7716,7 +7754,7 @@
       <c r="L77" s="15"/>
       <c r="M77" s="15"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>49</v>
       </c>
@@ -7745,7 +7783,7 @@
       <c r="L78" s="15"/>
       <c r="M78" s="15"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>385</v>
       </c>
@@ -7774,7 +7812,7 @@
       <c r="L79" s="15"/>
       <c r="M79" s="15"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>49</v>
       </c>
@@ -7803,7 +7841,7 @@
       <c r="L80" s="15"/>
       <c r="M80" s="15"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>49</v>
       </c>
@@ -7832,7 +7870,7 @@
       <c r="L81" s="15"/>
       <c r="M81" s="15"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>49</v>
       </c>
@@ -7861,7 +7899,7 @@
       <c r="L82" s="15"/>
       <c r="M82" s="15"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>49</v>
       </c>
@@ -7886,7 +7924,7 @@
       <c r="L83" s="15"/>
       <c r="M83" s="15"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>152</v>
       </c>
@@ -7903,7 +7941,7 @@
       <c r="L84" s="15"/>
       <c r="M84" s="15"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>53</v>
       </c>
@@ -7930,7 +7968,7 @@
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>53</v>
       </c>
@@ -7955,7 +7993,7 @@
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>53</v>
       </c>
@@ -7986,7 +8024,7 @@
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>67</v>
       </c>
@@ -8019,7 +8057,7 @@
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>53</v>
       </c>
@@ -8044,7 +8082,7 @@
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>53</v>
       </c>
@@ -8075,7 +8113,7 @@
       <c r="L90" s="11"/>
       <c r="M90" s="11"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>67</v>
       </c>
@@ -8108,7 +8146,7 @@
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>53</v>
       </c>
@@ -8133,7 +8171,7 @@
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>53</v>
       </c>
@@ -8164,7 +8202,7 @@
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>67</v>
       </c>
@@ -8197,7 +8235,7 @@
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>53</v>
       </c>
@@ -8222,7 +8260,7 @@
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>53</v>
       </c>
@@ -8253,7 +8291,7 @@
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>67</v>
       </c>
@@ -8286,7 +8324,7 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A98" s="27" t="s">
         <v>178</v>
       </c>
@@ -8309,7 +8347,7 @@
       <c r="L98" s="28"/>
       <c r="M98" s="28"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
         <v>53</v>
       </c>
@@ -8334,7 +8372,7 @@
       <c r="L99" s="26"/>
       <c r="M99" s="26"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
         <v>53</v>
       </c>
@@ -8359,7 +8397,7 @@
       <c r="L100" s="26"/>
       <c r="M100" s="26"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
         <v>53</v>
       </c>
@@ -8384,7 +8422,7 @@
       <c r="L101" s="25"/>
       <c r="M101" s="25"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
         <v>521</v>
       </c>
@@ -8411,7 +8449,7 @@
       <c r="L102" s="25"/>
       <c r="M102" s="25"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
         <v>67</v>
       </c>
@@ -8442,7 +8480,7 @@
       <c r="L103" s="25"/>
       <c r="M103" s="25"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>60</v>
       </c>
@@ -8469,7 +8507,7 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>39</v>
       </c>
@@ -8496,7 +8534,7 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>528</v>
       </c>
@@ -8523,7 +8561,7 @@
       <c r="L106" s="22"/>
       <c r="M106" s="22"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>39</v>
       </c>
@@ -8550,7 +8588,7 @@
       <c r="L107" s="22"/>
       <c r="M107" s="22"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A108" s="18" t="s">
         <v>178</v>
       </c>
@@ -8573,7 +8611,7 @@
       <c r="L108" s="14"/>
       <c r="M108" s="14"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="20" t="s">
         <v>160</v>
       </c>
@@ -8600,7 +8638,7 @@
       <c r="L109" s="14"/>
       <c r="M109" s="14"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>541</v>
       </c>
@@ -8625,7 +8663,7 @@
       <c r="L110" s="14"/>
       <c r="M110" s="14"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>39</v>
       </c>
@@ -8652,7 +8690,7 @@
       <c r="L111" s="15"/>
       <c r="M111" s="15"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
         <v>67</v>
       </c>
@@ -8679,7 +8717,7 @@
       <c r="L112" s="15"/>
       <c r="M112" s="15"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>39</v>
       </c>
@@ -8706,7 +8744,7 @@
       <c r="L113" s="15"/>
       <c r="M113" s="15"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>554</v>
       </c>
@@ -8731,7 +8769,7 @@
       <c r="L114" s="14"/>
       <c r="M114" s="14"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>49</v>
       </c>
@@ -8762,7 +8800,7 @@
       <c r="L115" s="14"/>
       <c r="M115" s="14"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>528</v>
       </c>
@@ -8787,7 +8825,7 @@
       <c r="L116" s="14"/>
       <c r="M116" s="14"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>39</v>
       </c>
@@ -8814,7 +8852,7 @@
       <c r="L117" s="14"/>
       <c r="M117" s="14"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>312</v>
       </c>
@@ -8839,7 +8877,7 @@
       <c r="L118" s="14"/>
       <c r="M118" s="14"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>528</v>
       </c>
@@ -8866,7 +8904,7 @@
       <c r="L119" s="14"/>
       <c r="M119" s="14"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>39</v>
       </c>
@@ -8893,7 +8931,7 @@
       <c r="L120" s="14"/>
       <c r="M120" s="14"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>460</v>
       </c>
@@ -8920,7 +8958,7 @@
       <c r="L121" s="14"/>
       <c r="M121" s="14"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>39</v>
       </c>
@@ -8947,7 +8985,7 @@
       <c r="L122" s="14"/>
       <c r="M122" s="14"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="20" t="s">
         <v>152</v>
       </c>
@@ -8964,7 +9002,7 @@
       <c r="L123" s="14"/>
       <c r="M123" s="14"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A124" s="18" t="s">
         <v>178</v>
       </c>
@@ -8987,7 +9025,7 @@
       <c r="L124" s="18"/>
       <c r="M124" s="18"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>312</v>
       </c>
@@ -9012,7 +9050,7 @@
       <c r="L125" s="14"/>
       <c r="M125" s="14"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="20" t="s">
         <v>160</v>
       </c>
@@ -9039,7 +9077,7 @@
       <c r="L126" s="14"/>
       <c r="M126" s="14"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>60</v>
       </c>
@@ -9064,7 +9102,7 @@
       <c r="L127" s="14"/>
       <c r="M127" s="14"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>39</v>
       </c>
@@ -9091,7 +9129,7 @@
       <c r="L128" s="14"/>
       <c r="M128" s="14"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>312</v>
       </c>
@@ -9116,7 +9154,7 @@
       <c r="L129" s="14"/>
       <c r="M129" s="14"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>603</v>
       </c>
@@ -9143,7 +9181,7 @@
       <c r="L130" s="14"/>
       <c r="M130" s="14"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>39</v>
       </c>
@@ -9170,7 +9208,7 @@
       <c r="L131" s="8"/>
       <c r="M131" s="8"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>49</v>
       </c>
@@ -9201,7 +9239,7 @@
       <c r="L132" s="14"/>
       <c r="M132" s="14"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>49</v>
       </c>
@@ -9232,7 +9270,7 @@
       <c r="L133" s="14"/>
       <c r="M133" s="14"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>460</v>
       </c>
@@ -9259,7 +9297,7 @@
       <c r="L134" s="14"/>
       <c r="M134" s="14"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>39</v>
       </c>
@@ -9286,7 +9324,7 @@
       <c r="L135" s="14"/>
       <c r="M135" s="14"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="20" t="s">
         <v>152</v>
       </c>
@@ -9303,7 +9341,7 @@
       <c r="L136" s="14"/>
       <c r="M136" s="14"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A137" s="18" t="s">
         <v>178</v>
       </c>
@@ -9326,7 +9364,7 @@
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>312</v>
       </c>
@@ -9351,7 +9389,7 @@
       <c r="L138" s="14"/>
       <c r="M138" s="14"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="20" t="s">
         <v>160</v>
       </c>
@@ -9378,7 +9416,7 @@
       <c r="L139" s="14"/>
       <c r="M139" s="14"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>60</v>
       </c>
@@ -9403,7 +9441,7 @@
       <c r="L140" s="14"/>
       <c r="M140" s="14"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>39</v>
       </c>
@@ -9430,7 +9468,7 @@
       <c r="L141" s="14"/>
       <c r="M141" s="14"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>635</v>
       </c>
@@ -9455,7 +9493,7 @@
       <c r="L142" s="14"/>
       <c r="M142" s="14"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>554</v>
       </c>
@@ -9480,7 +9518,7 @@
       <c r="L143" s="14"/>
       <c r="M143" s="14"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>49</v>
       </c>
@@ -9511,7 +9549,7 @@
       <c r="L144" s="14"/>
       <c r="M144" s="14"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>312</v>
       </c>
@@ -9536,7 +9574,7 @@
       <c r="L145" s="14"/>
       <c r="M145" s="14"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>460</v>
       </c>
@@ -9563,7 +9601,7 @@
       <c r="L146" s="14"/>
       <c r="M146" s="14"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>39</v>
       </c>
@@ -9590,7 +9628,7 @@
       <c r="L147" s="14"/>
       <c r="M147" s="14"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>653</v>
       </c>
@@ -9617,7 +9655,7 @@
       <c r="L148" s="14"/>
       <c r="M148" s="14"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>603</v>
       </c>
@@ -9644,7 +9682,7 @@
       <c r="L149" s="14"/>
       <c r="M149" s="14"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>39</v>
       </c>
@@ -9671,7 +9709,7 @@
       <c r="L150" s="8"/>
       <c r="M150" s="8"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>663</v>
       </c>
@@ -9698,7 +9736,7 @@
       <c r="L151" s="15"/>
       <c r="M151" s="15"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>39</v>
       </c>
@@ -9725,7 +9763,7 @@
       <c r="L152" s="15"/>
       <c r="M152" s="15"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>312</v>
       </c>
@@ -9752,7 +9790,7 @@
       <c r="L153" s="15"/>
       <c r="M153" s="15"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
         <v>603</v>
       </c>
@@ -9779,7 +9817,7 @@
       <c r="L154" s="14"/>
       <c r="M154" s="14"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
         <v>39</v>
       </c>
@@ -9806,7 +9844,7 @@
       <c r="L155" s="15"/>
       <c r="M155" s="15"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
         <v>663</v>
       </c>
@@ -9833,7 +9871,7 @@
       <c r="L156" s="15"/>
       <c r="M156" s="15"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
         <v>39</v>
       </c>
@@ -9860,7 +9898,7 @@
       <c r="L157" s="15"/>
       <c r="M157" s="15"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>49</v>
       </c>
@@ -9891,7 +9929,7 @@
       <c r="L158" s="14"/>
       <c r="M158" s="14"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>49</v>
       </c>
@@ -9922,7 +9960,7 @@
       <c r="L159" s="14"/>
       <c r="M159" s="14"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
         <v>688</v>
       </c>
@@ -9949,7 +9987,7 @@
       <c r="L160" s="15"/>
       <c r="M160" s="15"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>39</v>
       </c>
@@ -9976,7 +10014,7 @@
       <c r="L161" s="15"/>
       <c r="M161" s="15"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="20" t="s">
         <v>152</v>
       </c>
@@ -9993,7 +10031,7 @@
       <c r="L162" s="15"/>
       <c r="M162" s="15"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A163" s="18" t="s">
         <v>178</v>
       </c>
@@ -10016,7 +10054,7 @@
       <c r="L163" s="18"/>
       <c r="M163" s="18"/>
     </row>
-    <row r="164" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="25" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
         <v>312</v>
       </c>
@@ -10041,7 +10079,7 @@
       <c r="L164" s="15"/>
       <c r="M164" s="15"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="23" t="s">
         <v>160</v>
       </c>
@@ -10068,7 +10106,7 @@
       <c r="L165" s="15"/>
       <c r="M165" s="15"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
         <v>705</v>
       </c>
@@ -10093,7 +10131,7 @@
       <c r="L166" s="15"/>
       <c r="M166" s="15"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
         <v>635</v>
       </c>
@@ -10118,7 +10156,7 @@
       <c r="L167" s="15"/>
       <c r="M167" s="15"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
         <v>312</v>
       </c>
@@ -10143,7 +10181,7 @@
       <c r="L168" s="15"/>
       <c r="M168" s="15"/>
     </row>
-    <row r="169" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="25" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>460</v>
       </c>
@@ -10170,7 +10208,7 @@
       <c r="L169" s="15"/>
       <c r="M169" s="15"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
         <v>39</v>
       </c>
@@ -10197,7 +10235,7 @@
       <c r="L170" s="15"/>
       <c r="M170" s="15"/>
     </row>
-    <row r="171" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="25" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
         <v>653</v>
       </c>
@@ -10222,7 +10260,7 @@
       <c r="L171" s="15"/>
       <c r="M171" s="15"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>603</v>
       </c>
@@ -10249,7 +10287,7 @@
       <c r="L172" s="14"/>
       <c r="M172" s="14"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
         <v>39</v>
       </c>
@@ -10276,7 +10314,7 @@
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
         <v>663</v>
       </c>
@@ -10301,7 +10339,7 @@
       <c r="L174" s="15"/>
       <c r="M174" s="15"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
         <v>39</v>
       </c>
@@ -10328,7 +10366,7 @@
       <c r="L175" s="15"/>
       <c r="M175" s="15"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
         <v>312</v>
       </c>
@@ -10355,7 +10393,7 @@
       <c r="L176" s="15"/>
       <c r="M176" s="15"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
         <v>603</v>
       </c>
@@ -10382,7 +10420,7 @@
       <c r="L177" s="14"/>
       <c r="M177" s="14"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>39</v>
       </c>
@@ -10409,7 +10447,7 @@
       <c r="L178" s="15"/>
       <c r="M178" s="15"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
         <v>663</v>
       </c>
@@ -10436,7 +10474,7 @@
       <c r="L179" s="15"/>
       <c r="M179" s="15"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
         <v>39</v>
       </c>
@@ -10463,7 +10501,7 @@
       <c r="L180" s="15"/>
       <c r="M180" s="15"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>49</v>
       </c>
@@ -10494,7 +10532,7 @@
       <c r="L181" s="14"/>
       <c r="M181" s="14"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
         <v>49</v>
       </c>
@@ -10525,7 +10563,7 @@
       <c r="L182" s="14"/>
       <c r="M182" s="14"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
         <v>688</v>
       </c>
@@ -10552,7 +10590,7 @@
       <c r="L183" s="15"/>
       <c r="M183" s="15"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
         <v>39</v>
       </c>
@@ -10579,7 +10617,7 @@
       <c r="L184" s="15"/>
       <c r="M184" s="15"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="20" t="s">
         <v>152</v>
       </c>
@@ -10596,7 +10634,7 @@
       <c r="L185" s="15"/>
       <c r="M185" s="15"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A186" s="18" t="s">
         <v>178</v>
       </c>
@@ -10619,7 +10657,7 @@
       <c r="L186" s="18"/>
       <c r="M186" s="18"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="23" t="s">
         <v>160</v>
       </c>
@@ -10646,7 +10684,7 @@
       <c r="L187" s="15"/>
       <c r="M187" s="15"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
         <v>541</v>
       </c>
@@ -10671,7 +10709,7 @@
       <c r="L188" s="14"/>
       <c r="M188" s="14"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
         <v>39</v>
       </c>
@@ -10698,7 +10736,7 @@
       <c r="L189" s="15"/>
       <c r="M189" s="15"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
         <v>67</v>
       </c>
@@ -10725,7 +10763,7 @@
       <c r="L190" s="15"/>
       <c r="M190" s="15"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
         <v>39</v>
       </c>
@@ -10752,7 +10790,7 @@
       <c r="L191" s="15"/>
       <c r="M191" s="15"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
         <v>554</v>
       </c>
@@ -10777,7 +10815,7 @@
       <c r="L192" s="14"/>
       <c r="M192" s="14"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
         <v>49</v>
       </c>
@@ -10808,7 +10846,7 @@
       <c r="L193" s="14"/>
       <c r="M193" s="14"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
         <v>528</v>
       </c>
@@ -10833,7 +10871,7 @@
       <c r="L194" s="14"/>
       <c r="M194" s="14"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
         <v>39</v>
       </c>
@@ -10860,7 +10898,7 @@
       <c r="L195" s="14"/>
       <c r="M195" s="14"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="23" t="s">
         <v>152</v>
       </c>
@@ -10877,7 +10915,7 @@
       <c r="L196" s="15"/>
       <c r="M196" s="15"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>760</v>
       </c>
@@ -10902,7 +10940,7 @@
       <c r="L197" s="8"/>
       <c r="M197" s="8"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>49</v>
       </c>
@@ -10931,7 +10969,7 @@
       <c r="L198" s="8"/>
       <c r="M198" s="8"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>151</v>
       </c>
@@ -10954,7 +10992,7 @@
       </c>
       <c r="M199" s="8"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>45</v>
       </c>
@@ -10979,7 +11017,7 @@
       <c r="L200" s="8"/>
       <c r="M200" s="8"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>39</v>
       </c>
@@ -11006,7 +11044,7 @@
       <c r="L201" s="8"/>
       <c r="M201" s="8"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A202" s="19" t="s">
         <v>178</v>
       </c>
@@ -11029,7 +11067,7 @@
       <c r="L202" s="18"/>
       <c r="M202" s="18"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="s">
         <v>760</v>
       </c>
@@ -11054,7 +11092,7 @@
       <c r="L203" s="15"/>
       <c r="M203" s="15"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="16" t="s">
         <v>53</v>
       </c>
@@ -11079,7 +11117,7 @@
       <c r="L204" s="15"/>
       <c r="M204" s="15"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="16" t="s">
         <v>67</v>
       </c>
@@ -11104,7 +11142,7 @@
       <c r="L205" s="15"/>
       <c r="M205" s="15"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="16" t="s">
         <v>776</v>
       </c>
@@ -11125,7 +11163,7 @@
       <c r="H206" s="15"/>
       <c r="I206" s="15"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
         <v>39</v>
       </c>
@@ -11148,7 +11186,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>34</v>
       </c>
@@ -11161,7 +11199,7 @@
       <c r="H208" s="8"/>
       <c r="I208" s="9"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>34</v>
       </c>
@@ -11186,7 +11224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -11197,780 +11235,780 @@
       <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" style="67" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.42578125" style="61" customWidth="1"/>
-    <col min="6" max="7" width="28.85546875" style="53" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="61"/>
-    <col min="10" max="10" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15" max="257" width="9.140625" style="61"/>
-    <col min="258" max="258" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="64.42578125" style="61" customWidth="1"/>
-    <col min="262" max="263" width="28.85546875" style="61" customWidth="1"/>
-    <col min="264" max="265" width="9.140625" style="61"/>
-    <col min="266" max="266" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="271" max="513" width="9.140625" style="61"/>
-    <col min="514" max="514" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="64.42578125" style="61" customWidth="1"/>
-    <col min="518" max="519" width="28.85546875" style="61" customWidth="1"/>
-    <col min="520" max="521" width="9.140625" style="61"/>
-    <col min="522" max="522" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="525" max="525" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="526" max="526" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="527" max="769" width="9.140625" style="61"/>
-    <col min="770" max="770" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="64.42578125" style="61" customWidth="1"/>
-    <col min="774" max="775" width="28.85546875" style="61" customWidth="1"/>
-    <col min="776" max="777" width="9.140625" style="61"/>
-    <col min="778" max="778" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="781" max="781" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="782" max="782" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="783" max="1025" width="9.140625" style="61"/>
-    <col min="1026" max="1026" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="64.42578125" style="61" customWidth="1"/>
-    <col min="1030" max="1031" width="28.85546875" style="61" customWidth="1"/>
-    <col min="1032" max="1033" width="9.140625" style="61"/>
-    <col min="1034" max="1034" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1035" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1036" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1037" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1038" max="1038" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="1039" max="1281" width="9.140625" style="61"/>
-    <col min="1282" max="1282" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="64.42578125" style="61" customWidth="1"/>
-    <col min="1286" max="1287" width="28.85546875" style="61" customWidth="1"/>
-    <col min="1288" max="1289" width="9.140625" style="61"/>
-    <col min="1290" max="1290" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1291" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1292" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1293" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1294" max="1294" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="1295" max="1537" width="9.140625" style="61"/>
-    <col min="1538" max="1538" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="64.42578125" style="61" customWidth="1"/>
-    <col min="1542" max="1543" width="28.85546875" style="61" customWidth="1"/>
-    <col min="1544" max="1545" width="9.140625" style="61"/>
-    <col min="1546" max="1546" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1547" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1548" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1549" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1550" max="1550" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="1551" max="1793" width="9.140625" style="61"/>
-    <col min="1794" max="1794" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="64.42578125" style="61" customWidth="1"/>
-    <col min="1798" max="1799" width="28.85546875" style="61" customWidth="1"/>
-    <col min="1800" max="1801" width="9.140625" style="61"/>
-    <col min="1802" max="1802" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1803" max="1803" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1804" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="1805" max="1805" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="1806" max="1806" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="1807" max="2049" width="9.140625" style="61"/>
-    <col min="2050" max="2050" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="64.42578125" style="61" customWidth="1"/>
-    <col min="2054" max="2055" width="28.85546875" style="61" customWidth="1"/>
-    <col min="2056" max="2057" width="9.140625" style="61"/>
-    <col min="2058" max="2058" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2059" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2060" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2061" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2062" max="2062" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2063" max="2305" width="9.140625" style="61"/>
-    <col min="2306" max="2306" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="64.42578125" style="61" customWidth="1"/>
-    <col min="2310" max="2311" width="28.85546875" style="61" customWidth="1"/>
-    <col min="2312" max="2313" width="9.140625" style="61"/>
-    <col min="2314" max="2314" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2315" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2316" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2317" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2318" max="2318" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2319" max="2561" width="9.140625" style="61"/>
-    <col min="2562" max="2562" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="64.42578125" style="61" customWidth="1"/>
-    <col min="2566" max="2567" width="28.85546875" style="61" customWidth="1"/>
-    <col min="2568" max="2569" width="9.140625" style="61"/>
-    <col min="2570" max="2570" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2571" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2572" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2573" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2574" max="2574" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2575" max="2817" width="9.140625" style="61"/>
-    <col min="2818" max="2818" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="64.42578125" style="61" customWidth="1"/>
-    <col min="2822" max="2823" width="28.85546875" style="61" customWidth="1"/>
-    <col min="2824" max="2825" width="9.140625" style="61"/>
-    <col min="2826" max="2826" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2827" max="2827" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2828" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="2829" max="2829" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2830" max="2830" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2831" max="3073" width="9.140625" style="61"/>
-    <col min="3074" max="3074" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="64.42578125" style="61" customWidth="1"/>
-    <col min="3078" max="3079" width="28.85546875" style="61" customWidth="1"/>
-    <col min="3080" max="3081" width="9.140625" style="61"/>
-    <col min="3082" max="3082" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3083" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3084" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3085" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3086" max="3086" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3087" max="3329" width="9.140625" style="61"/>
-    <col min="3330" max="3330" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="64.42578125" style="61" customWidth="1"/>
-    <col min="3334" max="3335" width="28.85546875" style="61" customWidth="1"/>
-    <col min="3336" max="3337" width="9.140625" style="61"/>
-    <col min="3338" max="3338" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3339" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3340" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3341" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3342" max="3342" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3343" max="3585" width="9.140625" style="61"/>
-    <col min="3586" max="3586" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="64.42578125" style="61" customWidth="1"/>
-    <col min="3590" max="3591" width="28.85546875" style="61" customWidth="1"/>
-    <col min="3592" max="3593" width="9.140625" style="61"/>
-    <col min="3594" max="3594" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3595" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3596" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3597" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3598" max="3598" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3599" max="3841" width="9.140625" style="61"/>
-    <col min="3842" max="3842" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="64.42578125" style="61" customWidth="1"/>
-    <col min="3846" max="3847" width="28.85546875" style="61" customWidth="1"/>
-    <col min="3848" max="3849" width="9.140625" style="61"/>
-    <col min="3850" max="3850" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3851" max="3851" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3852" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="3853" max="3853" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3854" max="3854" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3855" max="4097" width="9.140625" style="61"/>
-    <col min="4098" max="4098" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="64.42578125" style="61" customWidth="1"/>
-    <col min="4102" max="4103" width="28.85546875" style="61" customWidth="1"/>
-    <col min="4104" max="4105" width="9.140625" style="61"/>
-    <col min="4106" max="4106" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4107" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4108" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4109" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4110" max="4110" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4111" max="4353" width="9.140625" style="61"/>
-    <col min="4354" max="4354" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="64.42578125" style="61" customWidth="1"/>
-    <col min="4358" max="4359" width="28.85546875" style="61" customWidth="1"/>
-    <col min="4360" max="4361" width="9.140625" style="61"/>
-    <col min="4362" max="4362" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4363" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4364" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4365" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4366" max="4366" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4367" max="4609" width="9.140625" style="61"/>
-    <col min="4610" max="4610" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="64.42578125" style="61" customWidth="1"/>
-    <col min="4614" max="4615" width="28.85546875" style="61" customWidth="1"/>
-    <col min="4616" max="4617" width="9.140625" style="61"/>
-    <col min="4618" max="4618" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4619" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4620" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4621" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4622" max="4622" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4623" max="4865" width="9.140625" style="61"/>
-    <col min="4866" max="4866" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="64.42578125" style="61" customWidth="1"/>
-    <col min="4870" max="4871" width="28.85546875" style="61" customWidth="1"/>
-    <col min="4872" max="4873" width="9.140625" style="61"/>
-    <col min="4874" max="4874" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4875" max="4875" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4876" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="4877" max="4877" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4878" max="4878" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4879" max="5121" width="9.140625" style="61"/>
-    <col min="5122" max="5122" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="64.42578125" style="61" customWidth="1"/>
-    <col min="5126" max="5127" width="28.85546875" style="61" customWidth="1"/>
-    <col min="5128" max="5129" width="9.140625" style="61"/>
-    <col min="5130" max="5130" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5131" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5132" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5133" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5134" max="5134" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5135" max="5377" width="9.140625" style="61"/>
-    <col min="5378" max="5378" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="64.42578125" style="61" customWidth="1"/>
-    <col min="5382" max="5383" width="28.85546875" style="61" customWidth="1"/>
-    <col min="5384" max="5385" width="9.140625" style="61"/>
-    <col min="5386" max="5386" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5387" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5388" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5389" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5390" max="5390" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5391" max="5633" width="9.140625" style="61"/>
-    <col min="5634" max="5634" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="64.42578125" style="61" customWidth="1"/>
-    <col min="5638" max="5639" width="28.85546875" style="61" customWidth="1"/>
-    <col min="5640" max="5641" width="9.140625" style="61"/>
-    <col min="5642" max="5642" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5643" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5644" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5645" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5646" max="5646" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5647" max="5889" width="9.140625" style="61"/>
-    <col min="5890" max="5890" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="64.42578125" style="61" customWidth="1"/>
-    <col min="5894" max="5895" width="28.85546875" style="61" customWidth="1"/>
-    <col min="5896" max="5897" width="9.140625" style="61"/>
-    <col min="5898" max="5898" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5899" max="5899" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5900" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="5901" max="5901" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5902" max="5902" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="5903" max="6145" width="9.140625" style="61"/>
-    <col min="6146" max="6146" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="64.42578125" style="61" customWidth="1"/>
-    <col min="6150" max="6151" width="28.85546875" style="61" customWidth="1"/>
-    <col min="6152" max="6153" width="9.140625" style="61"/>
-    <col min="6154" max="6154" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6155" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6156" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6157" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6158" max="6158" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6159" max="6401" width="9.140625" style="61"/>
-    <col min="6402" max="6402" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="64.42578125" style="61" customWidth="1"/>
-    <col min="6406" max="6407" width="28.85546875" style="61" customWidth="1"/>
-    <col min="6408" max="6409" width="9.140625" style="61"/>
-    <col min="6410" max="6410" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6411" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6412" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6413" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6414" max="6414" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6415" max="6657" width="9.140625" style="61"/>
-    <col min="6658" max="6658" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="64.42578125" style="61" customWidth="1"/>
-    <col min="6662" max="6663" width="28.85546875" style="61" customWidth="1"/>
-    <col min="6664" max="6665" width="9.140625" style="61"/>
-    <col min="6666" max="6666" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6667" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6668" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6669" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6670" max="6670" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6671" max="6913" width="9.140625" style="61"/>
-    <col min="6914" max="6914" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="64.42578125" style="61" customWidth="1"/>
-    <col min="6918" max="6919" width="28.85546875" style="61" customWidth="1"/>
-    <col min="6920" max="6921" width="9.140625" style="61"/>
-    <col min="6922" max="6922" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6923" max="6923" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6924" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="6925" max="6925" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="6926" max="6926" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="6927" max="7169" width="9.140625" style="61"/>
-    <col min="7170" max="7170" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="64.42578125" style="61" customWidth="1"/>
-    <col min="7174" max="7175" width="28.85546875" style="61" customWidth="1"/>
-    <col min="7176" max="7177" width="9.140625" style="61"/>
-    <col min="7178" max="7178" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7179" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7180" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7181" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7182" max="7182" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7183" max="7425" width="9.140625" style="61"/>
-    <col min="7426" max="7426" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="64.42578125" style="61" customWidth="1"/>
-    <col min="7430" max="7431" width="28.85546875" style="61" customWidth="1"/>
-    <col min="7432" max="7433" width="9.140625" style="61"/>
-    <col min="7434" max="7434" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7435" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7436" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7437" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7438" max="7438" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7439" max="7681" width="9.140625" style="61"/>
-    <col min="7682" max="7682" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="64.42578125" style="61" customWidth="1"/>
-    <col min="7686" max="7687" width="28.85546875" style="61" customWidth="1"/>
-    <col min="7688" max="7689" width="9.140625" style="61"/>
-    <col min="7690" max="7690" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7691" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7692" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7693" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7694" max="7694" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7695" max="7937" width="9.140625" style="61"/>
-    <col min="7938" max="7938" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="64.42578125" style="61" customWidth="1"/>
-    <col min="7942" max="7943" width="28.85546875" style="61" customWidth="1"/>
-    <col min="7944" max="7945" width="9.140625" style="61"/>
-    <col min="7946" max="7946" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7947" max="7947" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7948" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="7949" max="7949" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7950" max="7950" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7951" max="8193" width="9.140625" style="61"/>
-    <col min="8194" max="8194" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="64.42578125" style="61" customWidth="1"/>
-    <col min="8198" max="8199" width="28.85546875" style="61" customWidth="1"/>
-    <col min="8200" max="8201" width="9.140625" style="61"/>
-    <col min="8202" max="8202" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8203" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8204" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8205" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8206" max="8206" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8207" max="8449" width="9.140625" style="61"/>
-    <col min="8450" max="8450" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="64.42578125" style="61" customWidth="1"/>
-    <col min="8454" max="8455" width="28.85546875" style="61" customWidth="1"/>
-    <col min="8456" max="8457" width="9.140625" style="61"/>
-    <col min="8458" max="8458" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8459" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8460" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8461" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8462" max="8462" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8463" max="8705" width="9.140625" style="61"/>
-    <col min="8706" max="8706" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="64.42578125" style="61" customWidth="1"/>
-    <col min="8710" max="8711" width="28.85546875" style="61" customWidth="1"/>
-    <col min="8712" max="8713" width="9.140625" style="61"/>
-    <col min="8714" max="8714" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8715" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8716" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8717" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8718" max="8718" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8719" max="8961" width="9.140625" style="61"/>
-    <col min="8962" max="8962" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="64.42578125" style="61" customWidth="1"/>
-    <col min="8966" max="8967" width="28.85546875" style="61" customWidth="1"/>
-    <col min="8968" max="8969" width="9.140625" style="61"/>
-    <col min="8970" max="8970" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8971" max="8971" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8972" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="8973" max="8973" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="8974" max="8974" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8975" max="9217" width="9.140625" style="61"/>
-    <col min="9218" max="9218" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="64.42578125" style="61" customWidth="1"/>
-    <col min="9222" max="9223" width="28.85546875" style="61" customWidth="1"/>
-    <col min="9224" max="9225" width="9.140625" style="61"/>
-    <col min="9226" max="9226" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9227" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9228" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9229" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9230" max="9230" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9231" max="9473" width="9.140625" style="61"/>
-    <col min="9474" max="9474" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="64.42578125" style="61" customWidth="1"/>
-    <col min="9478" max="9479" width="28.85546875" style="61" customWidth="1"/>
-    <col min="9480" max="9481" width="9.140625" style="61"/>
-    <col min="9482" max="9482" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9483" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9484" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9485" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9486" max="9486" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9487" max="9729" width="9.140625" style="61"/>
-    <col min="9730" max="9730" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="64.42578125" style="61" customWidth="1"/>
-    <col min="9734" max="9735" width="28.85546875" style="61" customWidth="1"/>
-    <col min="9736" max="9737" width="9.140625" style="61"/>
-    <col min="9738" max="9738" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9739" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9740" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9741" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9742" max="9742" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9743" max="9985" width="9.140625" style="61"/>
-    <col min="9986" max="9986" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="64.42578125" style="61" customWidth="1"/>
-    <col min="9990" max="9991" width="28.85546875" style="61" customWidth="1"/>
-    <col min="9992" max="9993" width="9.140625" style="61"/>
-    <col min="9994" max="9994" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9995" max="9995" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9996" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="9997" max="9997" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9998" max="9998" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="9999" max="10241" width="9.140625" style="61"/>
-    <col min="10242" max="10242" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="64.42578125" style="61" customWidth="1"/>
-    <col min="10246" max="10247" width="28.85546875" style="61" customWidth="1"/>
-    <col min="10248" max="10249" width="9.140625" style="61"/>
-    <col min="10250" max="10250" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10251" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10252" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10253" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10254" max="10254" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="10255" max="10497" width="9.140625" style="61"/>
-    <col min="10498" max="10498" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="64.42578125" style="61" customWidth="1"/>
-    <col min="10502" max="10503" width="28.85546875" style="61" customWidth="1"/>
-    <col min="10504" max="10505" width="9.140625" style="61"/>
-    <col min="10506" max="10506" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10507" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10508" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10509" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10510" max="10510" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="10511" max="10753" width="9.140625" style="61"/>
-    <col min="10754" max="10754" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="64.42578125" style="61" customWidth="1"/>
-    <col min="10758" max="10759" width="28.85546875" style="61" customWidth="1"/>
-    <col min="10760" max="10761" width="9.140625" style="61"/>
-    <col min="10762" max="10762" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10763" max="10763" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10764" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="10765" max="10765" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10766" max="10766" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="10767" max="11009" width="9.140625" style="61"/>
-    <col min="11010" max="11010" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="64.42578125" style="61" customWidth="1"/>
-    <col min="11014" max="11015" width="28.85546875" style="61" customWidth="1"/>
-    <col min="11016" max="11017" width="9.140625" style="61"/>
-    <col min="11018" max="11018" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11019" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11020" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11021" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11022" max="11022" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11023" max="11265" width="9.140625" style="61"/>
-    <col min="11266" max="11266" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="64.42578125" style="61" customWidth="1"/>
-    <col min="11270" max="11271" width="28.85546875" style="61" customWidth="1"/>
-    <col min="11272" max="11273" width="9.140625" style="61"/>
-    <col min="11274" max="11274" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11275" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11276" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11277" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11278" max="11278" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11279" max="11521" width="9.140625" style="61"/>
-    <col min="11522" max="11522" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="64.42578125" style="61" customWidth="1"/>
-    <col min="11526" max="11527" width="28.85546875" style="61" customWidth="1"/>
-    <col min="11528" max="11529" width="9.140625" style="61"/>
-    <col min="11530" max="11530" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11531" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11532" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11533" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11534" max="11534" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11535" max="11777" width="9.140625" style="61"/>
-    <col min="11778" max="11778" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="64.42578125" style="61" customWidth="1"/>
-    <col min="11782" max="11783" width="28.85546875" style="61" customWidth="1"/>
-    <col min="11784" max="11785" width="9.140625" style="61"/>
-    <col min="11786" max="11786" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11787" max="11787" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11788" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="11789" max="11789" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11790" max="11790" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="11791" max="12033" width="9.140625" style="61"/>
-    <col min="12034" max="12034" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="64.42578125" style="61" customWidth="1"/>
-    <col min="12038" max="12039" width="28.85546875" style="61" customWidth="1"/>
-    <col min="12040" max="12041" width="9.140625" style="61"/>
-    <col min="12042" max="12042" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12043" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12044" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12045" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12046" max="12046" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12047" max="12289" width="9.140625" style="61"/>
-    <col min="12290" max="12290" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="64.42578125" style="61" customWidth="1"/>
-    <col min="12294" max="12295" width="28.85546875" style="61" customWidth="1"/>
-    <col min="12296" max="12297" width="9.140625" style="61"/>
-    <col min="12298" max="12298" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12299" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12300" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12301" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12302" max="12302" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12303" max="12545" width="9.140625" style="61"/>
-    <col min="12546" max="12546" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="64.42578125" style="61" customWidth="1"/>
-    <col min="12550" max="12551" width="28.85546875" style="61" customWidth="1"/>
-    <col min="12552" max="12553" width="9.140625" style="61"/>
-    <col min="12554" max="12554" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12555" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12556" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12557" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12558" max="12558" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12559" max="12801" width="9.140625" style="61"/>
-    <col min="12802" max="12802" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="64.42578125" style="61" customWidth="1"/>
-    <col min="12806" max="12807" width="28.85546875" style="61" customWidth="1"/>
-    <col min="12808" max="12809" width="9.140625" style="61"/>
-    <col min="12810" max="12810" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12811" max="12811" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12812" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="12813" max="12813" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="12814" max="12814" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="12815" max="13057" width="9.140625" style="61"/>
-    <col min="13058" max="13058" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="64.42578125" style="61" customWidth="1"/>
-    <col min="13062" max="13063" width="28.85546875" style="61" customWidth="1"/>
-    <col min="13064" max="13065" width="9.140625" style="61"/>
-    <col min="13066" max="13066" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13067" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13068" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13069" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13070" max="13070" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13071" max="13313" width="9.140625" style="61"/>
-    <col min="13314" max="13314" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="64.42578125" style="61" customWidth="1"/>
-    <col min="13318" max="13319" width="28.85546875" style="61" customWidth="1"/>
-    <col min="13320" max="13321" width="9.140625" style="61"/>
-    <col min="13322" max="13322" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13323" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13324" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13325" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13326" max="13326" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13327" max="13569" width="9.140625" style="61"/>
-    <col min="13570" max="13570" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="64.42578125" style="61" customWidth="1"/>
-    <col min="13574" max="13575" width="28.85546875" style="61" customWidth="1"/>
-    <col min="13576" max="13577" width="9.140625" style="61"/>
-    <col min="13578" max="13578" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13579" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13580" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13581" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13582" max="13582" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13583" max="13825" width="9.140625" style="61"/>
-    <col min="13826" max="13826" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="64.42578125" style="61" customWidth="1"/>
-    <col min="13830" max="13831" width="28.85546875" style="61" customWidth="1"/>
-    <col min="13832" max="13833" width="9.140625" style="61"/>
-    <col min="13834" max="13834" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13835" max="13835" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13836" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="13837" max="13837" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13838" max="13838" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="13839" max="14081" width="9.140625" style="61"/>
-    <col min="14082" max="14082" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="64.42578125" style="61" customWidth="1"/>
-    <col min="14086" max="14087" width="28.85546875" style="61" customWidth="1"/>
-    <col min="14088" max="14089" width="9.140625" style="61"/>
-    <col min="14090" max="14090" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14091" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14092" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14093" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14094" max="14094" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14095" max="14337" width="9.140625" style="61"/>
-    <col min="14338" max="14338" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="64.42578125" style="61" customWidth="1"/>
-    <col min="14342" max="14343" width="28.85546875" style="61" customWidth="1"/>
-    <col min="14344" max="14345" width="9.140625" style="61"/>
-    <col min="14346" max="14346" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14347" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14348" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14349" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14350" max="14350" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14351" max="14593" width="9.140625" style="61"/>
-    <col min="14594" max="14594" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="64.42578125" style="61" customWidth="1"/>
-    <col min="14598" max="14599" width="28.85546875" style="61" customWidth="1"/>
-    <col min="14600" max="14601" width="9.140625" style="61"/>
-    <col min="14602" max="14602" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14603" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14604" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14605" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14606" max="14606" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14607" max="14849" width="9.140625" style="61"/>
-    <col min="14850" max="14850" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="64.42578125" style="61" customWidth="1"/>
-    <col min="14854" max="14855" width="28.85546875" style="61" customWidth="1"/>
-    <col min="14856" max="14857" width="9.140625" style="61"/>
-    <col min="14858" max="14858" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14859" max="14859" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14860" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="14861" max="14861" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="14862" max="14862" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14863" max="15105" width="9.140625" style="61"/>
-    <col min="15106" max="15106" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="64.42578125" style="61" customWidth="1"/>
-    <col min="15110" max="15111" width="28.85546875" style="61" customWidth="1"/>
-    <col min="15112" max="15113" width="9.140625" style="61"/>
-    <col min="15114" max="15114" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15115" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15116" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15117" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15118" max="15118" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15119" max="15361" width="9.140625" style="61"/>
-    <col min="15362" max="15362" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="64.42578125" style="61" customWidth="1"/>
-    <col min="15366" max="15367" width="28.85546875" style="61" customWidth="1"/>
-    <col min="15368" max="15369" width="9.140625" style="61"/>
-    <col min="15370" max="15370" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15371" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15372" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15373" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15374" max="15374" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15375" max="15617" width="9.140625" style="61"/>
-    <col min="15618" max="15618" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="64.42578125" style="61" customWidth="1"/>
-    <col min="15622" max="15623" width="28.85546875" style="61" customWidth="1"/>
-    <col min="15624" max="15625" width="9.140625" style="61"/>
-    <col min="15626" max="15626" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15627" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15628" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15629" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15630" max="15630" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15631" max="15873" width="9.140625" style="61"/>
-    <col min="15874" max="15874" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="64.42578125" style="61" customWidth="1"/>
-    <col min="15878" max="15879" width="28.85546875" style="61" customWidth="1"/>
-    <col min="15880" max="15881" width="9.140625" style="61"/>
-    <col min="15882" max="15882" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15883" max="15883" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15884" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="15885" max="15885" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="15886" max="15886" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15887" max="16129" width="9.140625" style="61"/>
-    <col min="16130" max="16130" width="22.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="16.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="64.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="64.42578125" style="61" customWidth="1"/>
-    <col min="16134" max="16135" width="28.85546875" style="61" customWidth="1"/>
-    <col min="16136" max="16137" width="9.140625" style="61"/>
-    <col min="16138" max="16138" width="11.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16139" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16140" width="9.7109375" style="61" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16141" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="16142" max="16142" width="34.28515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="16143" max="16384" width="9.140625" style="61"/>
+    <col min="1" max="1" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.81640625" style="67" customWidth="1"/>
+    <col min="4" max="4" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.453125" style="61" customWidth="1"/>
+    <col min="6" max="7" width="28.81640625" style="53" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" style="61"/>
+    <col min="10" max="10" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15" max="257" width="9.1796875" style="61"/>
+    <col min="258" max="258" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="64.453125" style="61" customWidth="1"/>
+    <col min="262" max="263" width="28.81640625" style="61" customWidth="1"/>
+    <col min="264" max="265" width="9.1796875" style="61"/>
+    <col min="266" max="266" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="271" max="513" width="9.1796875" style="61"/>
+    <col min="514" max="514" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="64.453125" style="61" customWidth="1"/>
+    <col min="518" max="519" width="28.81640625" style="61" customWidth="1"/>
+    <col min="520" max="521" width="9.1796875" style="61"/>
+    <col min="522" max="522" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="526" max="526" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="527" max="769" width="9.1796875" style="61"/>
+    <col min="770" max="770" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="64.453125" style="61" customWidth="1"/>
+    <col min="774" max="775" width="28.81640625" style="61" customWidth="1"/>
+    <col min="776" max="777" width="9.1796875" style="61"/>
+    <col min="778" max="778" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="781" max="781" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="782" max="782" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="783" max="1025" width="9.1796875" style="61"/>
+    <col min="1026" max="1026" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="64.453125" style="61" customWidth="1"/>
+    <col min="1030" max="1031" width="28.81640625" style="61" customWidth="1"/>
+    <col min="1032" max="1033" width="9.1796875" style="61"/>
+    <col min="1034" max="1034" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1037" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1038" max="1038" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1281" width="9.1796875" style="61"/>
+    <col min="1282" max="1282" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="64.453125" style="61" customWidth="1"/>
+    <col min="1286" max="1287" width="28.81640625" style="61" customWidth="1"/>
+    <col min="1288" max="1289" width="9.1796875" style="61"/>
+    <col min="1290" max="1290" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1293" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1294" max="1294" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1537" width="9.1796875" style="61"/>
+    <col min="1538" max="1538" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="64.453125" style="61" customWidth="1"/>
+    <col min="1542" max="1543" width="28.81640625" style="61" customWidth="1"/>
+    <col min="1544" max="1545" width="9.1796875" style="61"/>
+    <col min="1546" max="1546" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1549" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1550" max="1550" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1793" width="9.1796875" style="61"/>
+    <col min="1794" max="1794" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="64.453125" style="61" customWidth="1"/>
+    <col min="1798" max="1799" width="28.81640625" style="61" customWidth="1"/>
+    <col min="1800" max="1801" width="9.1796875" style="61"/>
+    <col min="1802" max="1802" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1805" max="1805" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1806" max="1806" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1807" max="2049" width="9.1796875" style="61"/>
+    <col min="2050" max="2050" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="64.453125" style="61" customWidth="1"/>
+    <col min="2054" max="2055" width="28.81640625" style="61" customWidth="1"/>
+    <col min="2056" max="2057" width="9.1796875" style="61"/>
+    <col min="2058" max="2058" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2061" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2062" max="2062" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2305" width="9.1796875" style="61"/>
+    <col min="2306" max="2306" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="64.453125" style="61" customWidth="1"/>
+    <col min="2310" max="2311" width="28.81640625" style="61" customWidth="1"/>
+    <col min="2312" max="2313" width="9.1796875" style="61"/>
+    <col min="2314" max="2314" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2317" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2318" max="2318" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2561" width="9.1796875" style="61"/>
+    <col min="2562" max="2562" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="64.453125" style="61" customWidth="1"/>
+    <col min="2566" max="2567" width="28.81640625" style="61" customWidth="1"/>
+    <col min="2568" max="2569" width="9.1796875" style="61"/>
+    <col min="2570" max="2570" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2573" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2574" max="2574" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2817" width="9.1796875" style="61"/>
+    <col min="2818" max="2818" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="64.453125" style="61" customWidth="1"/>
+    <col min="2822" max="2823" width="28.81640625" style="61" customWidth="1"/>
+    <col min="2824" max="2825" width="9.1796875" style="61"/>
+    <col min="2826" max="2826" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2829" max="2829" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2830" max="2830" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2831" max="3073" width="9.1796875" style="61"/>
+    <col min="3074" max="3074" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="64.453125" style="61" customWidth="1"/>
+    <col min="3078" max="3079" width="28.81640625" style="61" customWidth="1"/>
+    <col min="3080" max="3081" width="9.1796875" style="61"/>
+    <col min="3082" max="3082" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3085" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3086" max="3086" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3329" width="9.1796875" style="61"/>
+    <col min="3330" max="3330" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="64.453125" style="61" customWidth="1"/>
+    <col min="3334" max="3335" width="28.81640625" style="61" customWidth="1"/>
+    <col min="3336" max="3337" width="9.1796875" style="61"/>
+    <col min="3338" max="3338" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3341" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3342" max="3342" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3585" width="9.1796875" style="61"/>
+    <col min="3586" max="3586" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="64.453125" style="61" customWidth="1"/>
+    <col min="3590" max="3591" width="28.81640625" style="61" customWidth="1"/>
+    <col min="3592" max="3593" width="9.1796875" style="61"/>
+    <col min="3594" max="3594" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3597" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3598" max="3598" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3841" width="9.1796875" style="61"/>
+    <col min="3842" max="3842" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="64.453125" style="61" customWidth="1"/>
+    <col min="3846" max="3847" width="28.81640625" style="61" customWidth="1"/>
+    <col min="3848" max="3849" width="9.1796875" style="61"/>
+    <col min="3850" max="3850" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3853" max="3853" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3854" max="3854" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3855" max="4097" width="9.1796875" style="61"/>
+    <col min="4098" max="4098" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="64.453125" style="61" customWidth="1"/>
+    <col min="4102" max="4103" width="28.81640625" style="61" customWidth="1"/>
+    <col min="4104" max="4105" width="9.1796875" style="61"/>
+    <col min="4106" max="4106" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4109" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4110" max="4110" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4353" width="9.1796875" style="61"/>
+    <col min="4354" max="4354" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="64.453125" style="61" customWidth="1"/>
+    <col min="4358" max="4359" width="28.81640625" style="61" customWidth="1"/>
+    <col min="4360" max="4361" width="9.1796875" style="61"/>
+    <col min="4362" max="4362" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4365" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4366" max="4366" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4609" width="9.1796875" style="61"/>
+    <col min="4610" max="4610" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="64.453125" style="61" customWidth="1"/>
+    <col min="4614" max="4615" width="28.81640625" style="61" customWidth="1"/>
+    <col min="4616" max="4617" width="9.1796875" style="61"/>
+    <col min="4618" max="4618" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4621" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4622" max="4622" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4865" width="9.1796875" style="61"/>
+    <col min="4866" max="4866" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="64.453125" style="61" customWidth="1"/>
+    <col min="4870" max="4871" width="28.81640625" style="61" customWidth="1"/>
+    <col min="4872" max="4873" width="9.1796875" style="61"/>
+    <col min="4874" max="4874" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4877" max="4877" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4878" max="4878" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4879" max="5121" width="9.1796875" style="61"/>
+    <col min="5122" max="5122" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="64.453125" style="61" customWidth="1"/>
+    <col min="5126" max="5127" width="28.81640625" style="61" customWidth="1"/>
+    <col min="5128" max="5129" width="9.1796875" style="61"/>
+    <col min="5130" max="5130" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5133" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5134" max="5134" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5377" width="9.1796875" style="61"/>
+    <col min="5378" max="5378" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="64.453125" style="61" customWidth="1"/>
+    <col min="5382" max="5383" width="28.81640625" style="61" customWidth="1"/>
+    <col min="5384" max="5385" width="9.1796875" style="61"/>
+    <col min="5386" max="5386" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5389" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5390" max="5390" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5633" width="9.1796875" style="61"/>
+    <col min="5634" max="5634" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="64.453125" style="61" customWidth="1"/>
+    <col min="5638" max="5639" width="28.81640625" style="61" customWidth="1"/>
+    <col min="5640" max="5641" width="9.1796875" style="61"/>
+    <col min="5642" max="5642" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5645" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5646" max="5646" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5889" width="9.1796875" style="61"/>
+    <col min="5890" max="5890" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="64.453125" style="61" customWidth="1"/>
+    <col min="5894" max="5895" width="28.81640625" style="61" customWidth="1"/>
+    <col min="5896" max="5897" width="9.1796875" style="61"/>
+    <col min="5898" max="5898" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5901" max="5901" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5902" max="5902" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5903" max="6145" width="9.1796875" style="61"/>
+    <col min="6146" max="6146" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="64.453125" style="61" customWidth="1"/>
+    <col min="6150" max="6151" width="28.81640625" style="61" customWidth="1"/>
+    <col min="6152" max="6153" width="9.1796875" style="61"/>
+    <col min="6154" max="6154" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6157" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6158" max="6158" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6401" width="9.1796875" style="61"/>
+    <col min="6402" max="6402" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="64.453125" style="61" customWidth="1"/>
+    <col min="6406" max="6407" width="28.81640625" style="61" customWidth="1"/>
+    <col min="6408" max="6409" width="9.1796875" style="61"/>
+    <col min="6410" max="6410" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6413" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6414" max="6414" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6657" width="9.1796875" style="61"/>
+    <col min="6658" max="6658" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="64.453125" style="61" customWidth="1"/>
+    <col min="6662" max="6663" width="28.81640625" style="61" customWidth="1"/>
+    <col min="6664" max="6665" width="9.1796875" style="61"/>
+    <col min="6666" max="6666" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6669" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6670" max="6670" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6913" width="9.1796875" style="61"/>
+    <col min="6914" max="6914" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="64.453125" style="61" customWidth="1"/>
+    <col min="6918" max="6919" width="28.81640625" style="61" customWidth="1"/>
+    <col min="6920" max="6921" width="9.1796875" style="61"/>
+    <col min="6922" max="6922" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6925" max="6925" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6926" max="6926" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6927" max="7169" width="9.1796875" style="61"/>
+    <col min="7170" max="7170" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="64.453125" style="61" customWidth="1"/>
+    <col min="7174" max="7175" width="28.81640625" style="61" customWidth="1"/>
+    <col min="7176" max="7177" width="9.1796875" style="61"/>
+    <col min="7178" max="7178" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7181" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7182" max="7182" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7425" width="9.1796875" style="61"/>
+    <col min="7426" max="7426" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="64.453125" style="61" customWidth="1"/>
+    <col min="7430" max="7431" width="28.81640625" style="61" customWidth="1"/>
+    <col min="7432" max="7433" width="9.1796875" style="61"/>
+    <col min="7434" max="7434" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7437" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7438" max="7438" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7681" width="9.1796875" style="61"/>
+    <col min="7682" max="7682" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="64.453125" style="61" customWidth="1"/>
+    <col min="7686" max="7687" width="28.81640625" style="61" customWidth="1"/>
+    <col min="7688" max="7689" width="9.1796875" style="61"/>
+    <col min="7690" max="7690" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7693" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7694" max="7694" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7937" width="9.1796875" style="61"/>
+    <col min="7938" max="7938" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="64.453125" style="61" customWidth="1"/>
+    <col min="7942" max="7943" width="28.81640625" style="61" customWidth="1"/>
+    <col min="7944" max="7945" width="9.1796875" style="61"/>
+    <col min="7946" max="7946" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7949" max="7949" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7950" max="7950" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7951" max="8193" width="9.1796875" style="61"/>
+    <col min="8194" max="8194" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="64.453125" style="61" customWidth="1"/>
+    <col min="8198" max="8199" width="28.81640625" style="61" customWidth="1"/>
+    <col min="8200" max="8201" width="9.1796875" style="61"/>
+    <col min="8202" max="8202" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8205" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8206" max="8206" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8449" width="9.1796875" style="61"/>
+    <col min="8450" max="8450" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="64.453125" style="61" customWidth="1"/>
+    <col min="8454" max="8455" width="28.81640625" style="61" customWidth="1"/>
+    <col min="8456" max="8457" width="9.1796875" style="61"/>
+    <col min="8458" max="8458" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8461" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8462" max="8462" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8705" width="9.1796875" style="61"/>
+    <col min="8706" max="8706" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="64.453125" style="61" customWidth="1"/>
+    <col min="8710" max="8711" width="28.81640625" style="61" customWidth="1"/>
+    <col min="8712" max="8713" width="9.1796875" style="61"/>
+    <col min="8714" max="8714" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8717" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8718" max="8718" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8961" width="9.1796875" style="61"/>
+    <col min="8962" max="8962" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="64.453125" style="61" customWidth="1"/>
+    <col min="8966" max="8967" width="28.81640625" style="61" customWidth="1"/>
+    <col min="8968" max="8969" width="9.1796875" style="61"/>
+    <col min="8970" max="8970" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8973" max="8973" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8974" max="8974" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8975" max="9217" width="9.1796875" style="61"/>
+    <col min="9218" max="9218" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="64.453125" style="61" customWidth="1"/>
+    <col min="9222" max="9223" width="28.81640625" style="61" customWidth="1"/>
+    <col min="9224" max="9225" width="9.1796875" style="61"/>
+    <col min="9226" max="9226" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9229" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9230" max="9230" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9473" width="9.1796875" style="61"/>
+    <col min="9474" max="9474" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="64.453125" style="61" customWidth="1"/>
+    <col min="9478" max="9479" width="28.81640625" style="61" customWidth="1"/>
+    <col min="9480" max="9481" width="9.1796875" style="61"/>
+    <col min="9482" max="9482" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9485" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9486" max="9486" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9729" width="9.1796875" style="61"/>
+    <col min="9730" max="9730" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="64.453125" style="61" customWidth="1"/>
+    <col min="9734" max="9735" width="28.81640625" style="61" customWidth="1"/>
+    <col min="9736" max="9737" width="9.1796875" style="61"/>
+    <col min="9738" max="9738" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9741" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9742" max="9742" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9985" width="9.1796875" style="61"/>
+    <col min="9986" max="9986" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="64.453125" style="61" customWidth="1"/>
+    <col min="9990" max="9991" width="28.81640625" style="61" customWidth="1"/>
+    <col min="9992" max="9993" width="9.1796875" style="61"/>
+    <col min="9994" max="9994" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9997" max="9997" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9998" max="9998" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9999" max="10241" width="9.1796875" style="61"/>
+    <col min="10242" max="10242" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="64.453125" style="61" customWidth="1"/>
+    <col min="10246" max="10247" width="28.81640625" style="61" customWidth="1"/>
+    <col min="10248" max="10249" width="9.1796875" style="61"/>
+    <col min="10250" max="10250" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10253" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10254" max="10254" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10497" width="9.1796875" style="61"/>
+    <col min="10498" max="10498" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="64.453125" style="61" customWidth="1"/>
+    <col min="10502" max="10503" width="28.81640625" style="61" customWidth="1"/>
+    <col min="10504" max="10505" width="9.1796875" style="61"/>
+    <col min="10506" max="10506" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10509" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10510" max="10510" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10753" width="9.1796875" style="61"/>
+    <col min="10754" max="10754" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="64.453125" style="61" customWidth="1"/>
+    <col min="10758" max="10759" width="28.81640625" style="61" customWidth="1"/>
+    <col min="10760" max="10761" width="9.1796875" style="61"/>
+    <col min="10762" max="10762" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10765" max="10765" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10766" max="10766" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10767" max="11009" width="9.1796875" style="61"/>
+    <col min="11010" max="11010" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="64.453125" style="61" customWidth="1"/>
+    <col min="11014" max="11015" width="28.81640625" style="61" customWidth="1"/>
+    <col min="11016" max="11017" width="9.1796875" style="61"/>
+    <col min="11018" max="11018" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11021" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11022" max="11022" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11265" width="9.1796875" style="61"/>
+    <col min="11266" max="11266" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="64.453125" style="61" customWidth="1"/>
+    <col min="11270" max="11271" width="28.81640625" style="61" customWidth="1"/>
+    <col min="11272" max="11273" width="9.1796875" style="61"/>
+    <col min="11274" max="11274" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11277" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11278" max="11278" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11521" width="9.1796875" style="61"/>
+    <col min="11522" max="11522" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="64.453125" style="61" customWidth="1"/>
+    <col min="11526" max="11527" width="28.81640625" style="61" customWidth="1"/>
+    <col min="11528" max="11529" width="9.1796875" style="61"/>
+    <col min="11530" max="11530" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11533" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11534" max="11534" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11777" width="9.1796875" style="61"/>
+    <col min="11778" max="11778" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="64.453125" style="61" customWidth="1"/>
+    <col min="11782" max="11783" width="28.81640625" style="61" customWidth="1"/>
+    <col min="11784" max="11785" width="9.1796875" style="61"/>
+    <col min="11786" max="11786" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11789" max="11789" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11790" max="11790" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11791" max="12033" width="9.1796875" style="61"/>
+    <col min="12034" max="12034" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="64.453125" style="61" customWidth="1"/>
+    <col min="12038" max="12039" width="28.81640625" style="61" customWidth="1"/>
+    <col min="12040" max="12041" width="9.1796875" style="61"/>
+    <col min="12042" max="12042" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12045" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12046" max="12046" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12289" width="9.1796875" style="61"/>
+    <col min="12290" max="12290" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="64.453125" style="61" customWidth="1"/>
+    <col min="12294" max="12295" width="28.81640625" style="61" customWidth="1"/>
+    <col min="12296" max="12297" width="9.1796875" style="61"/>
+    <col min="12298" max="12298" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12301" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12302" max="12302" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12545" width="9.1796875" style="61"/>
+    <col min="12546" max="12546" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="64.453125" style="61" customWidth="1"/>
+    <col min="12550" max="12551" width="28.81640625" style="61" customWidth="1"/>
+    <col min="12552" max="12553" width="9.1796875" style="61"/>
+    <col min="12554" max="12554" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12557" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12558" max="12558" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12801" width="9.1796875" style="61"/>
+    <col min="12802" max="12802" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="64.453125" style="61" customWidth="1"/>
+    <col min="12806" max="12807" width="28.81640625" style="61" customWidth="1"/>
+    <col min="12808" max="12809" width="9.1796875" style="61"/>
+    <col min="12810" max="12810" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12813" max="12813" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12814" max="12814" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12815" max="13057" width="9.1796875" style="61"/>
+    <col min="13058" max="13058" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="64.453125" style="61" customWidth="1"/>
+    <col min="13062" max="13063" width="28.81640625" style="61" customWidth="1"/>
+    <col min="13064" max="13065" width="9.1796875" style="61"/>
+    <col min="13066" max="13066" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13069" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13070" max="13070" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13313" width="9.1796875" style="61"/>
+    <col min="13314" max="13314" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="64.453125" style="61" customWidth="1"/>
+    <col min="13318" max="13319" width="28.81640625" style="61" customWidth="1"/>
+    <col min="13320" max="13321" width="9.1796875" style="61"/>
+    <col min="13322" max="13322" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13325" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13326" max="13326" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13569" width="9.1796875" style="61"/>
+    <col min="13570" max="13570" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="64.453125" style="61" customWidth="1"/>
+    <col min="13574" max="13575" width="28.81640625" style="61" customWidth="1"/>
+    <col min="13576" max="13577" width="9.1796875" style="61"/>
+    <col min="13578" max="13578" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13581" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13582" max="13582" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13825" width="9.1796875" style="61"/>
+    <col min="13826" max="13826" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="64.453125" style="61" customWidth="1"/>
+    <col min="13830" max="13831" width="28.81640625" style="61" customWidth="1"/>
+    <col min="13832" max="13833" width="9.1796875" style="61"/>
+    <col min="13834" max="13834" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13837" max="13837" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13838" max="13838" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13839" max="14081" width="9.1796875" style="61"/>
+    <col min="14082" max="14082" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="64.453125" style="61" customWidth="1"/>
+    <col min="14086" max="14087" width="28.81640625" style="61" customWidth="1"/>
+    <col min="14088" max="14089" width="9.1796875" style="61"/>
+    <col min="14090" max="14090" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14093" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14094" max="14094" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14337" width="9.1796875" style="61"/>
+    <col min="14338" max="14338" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="64.453125" style="61" customWidth="1"/>
+    <col min="14342" max="14343" width="28.81640625" style="61" customWidth="1"/>
+    <col min="14344" max="14345" width="9.1796875" style="61"/>
+    <col min="14346" max="14346" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14349" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14350" max="14350" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14593" width="9.1796875" style="61"/>
+    <col min="14594" max="14594" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="64.453125" style="61" customWidth="1"/>
+    <col min="14598" max="14599" width="28.81640625" style="61" customWidth="1"/>
+    <col min="14600" max="14601" width="9.1796875" style="61"/>
+    <col min="14602" max="14602" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14605" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14606" max="14606" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14849" width="9.1796875" style="61"/>
+    <col min="14850" max="14850" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="64.453125" style="61" customWidth="1"/>
+    <col min="14854" max="14855" width="28.81640625" style="61" customWidth="1"/>
+    <col min="14856" max="14857" width="9.1796875" style="61"/>
+    <col min="14858" max="14858" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14861" max="14861" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14862" max="14862" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14863" max="15105" width="9.1796875" style="61"/>
+    <col min="15106" max="15106" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="64.453125" style="61" customWidth="1"/>
+    <col min="15110" max="15111" width="28.81640625" style="61" customWidth="1"/>
+    <col min="15112" max="15113" width="9.1796875" style="61"/>
+    <col min="15114" max="15114" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15117" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15118" max="15118" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15361" width="9.1796875" style="61"/>
+    <col min="15362" max="15362" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="64.453125" style="61" customWidth="1"/>
+    <col min="15366" max="15367" width="28.81640625" style="61" customWidth="1"/>
+    <col min="15368" max="15369" width="9.1796875" style="61"/>
+    <col min="15370" max="15370" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15373" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15374" max="15374" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15617" width="9.1796875" style="61"/>
+    <col min="15618" max="15618" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="64.453125" style="61" customWidth="1"/>
+    <col min="15622" max="15623" width="28.81640625" style="61" customWidth="1"/>
+    <col min="15624" max="15625" width="9.1796875" style="61"/>
+    <col min="15626" max="15626" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15629" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15630" max="15630" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15873" width="9.1796875" style="61"/>
+    <col min="15874" max="15874" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="64.453125" style="61" customWidth="1"/>
+    <col min="15878" max="15879" width="28.81640625" style="61" customWidth="1"/>
+    <col min="15880" max="15881" width="9.1796875" style="61"/>
+    <col min="15882" max="15882" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15885" max="15885" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15886" max="15886" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15887" max="16129" width="9.1796875" style="61"/>
+    <col min="16130" max="16130" width="22.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="16.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="64.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="64.453125" style="61" customWidth="1"/>
+    <col min="16134" max="16135" width="28.81640625" style="61" customWidth="1"/>
+    <col min="16136" max="16137" width="9.1796875" style="61"/>
+    <col min="16138" max="16138" width="11.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="16.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="9.7265625" style="61" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16141" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="16142" max="16142" width="34.26953125" style="61" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16384" width="9.1796875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
@@ -12014,7 +12052,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>217</v>
       </c>
@@ -12029,7 +12067,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>215</v>
       </c>
@@ -12044,7 +12082,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
         <v>213</v>
       </c>
@@ -12059,7 +12097,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
         <v>211</v>
       </c>
@@ -12074,7 +12112,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>160</v>
       </c>
@@ -12091,7 +12129,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
         <v>67</v>
       </c>
@@ -12114,7 +12152,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
         <v>49</v>
       </c>
@@ -12131,12 +12169,12 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>160</v>
       </c>
@@ -12153,7 +12191,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
         <v>197</v>
       </c>
@@ -12173,7 +12211,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
         <v>39</v>
       </c>
@@ -12196,7 +12234,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
         <v>49</v>
       </c>
@@ -12219,7 +12257,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
         <v>49</v>
       </c>
@@ -12236,7 +12274,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="52" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="52" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
         <v>49</v>
       </c>
@@ -12266,7 +12304,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="52" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="52" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>138</v>
       </c>
@@ -12283,7 +12321,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="52" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="52" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>178</v>
       </c>
@@ -12303,7 +12341,7 @@
       <c r="J17" s="59"/>
       <c r="K17" s="59"/>
     </row>
-    <row r="18" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="s">
         <v>152</v>
       </c>
@@ -12311,7 +12349,7 @@
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
     </row>
-    <row r="19" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
         <v>160</v>
       </c>
@@ -12330,7 +12368,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
     </row>
-    <row r="20" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>53</v>
       </c>
@@ -12349,7 +12387,7 @@
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
     </row>
-    <row r="21" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="s">
         <v>167</v>
       </c>
@@ -12371,7 +12409,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
         <v>39</v>
       </c>
@@ -12393,7 +12431,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="65" t="s">
         <v>152</v>
       </c>
@@ -12401,7 +12439,7 @@
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
     </row>
-    <row r="24" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
         <v>160</v>
       </c>
@@ -12424,7 +12462,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="65" t="s">
         <v>49</v>
       </c>
@@ -12449,7 +12487,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65" t="s">
         <v>152</v>
       </c>
@@ -12457,7 +12495,7 @@
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
     </row>
-    <row r="27" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="65" t="s">
         <v>151</v>
       </c>
@@ -12471,7 +12509,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="65" t="s">
         <v>160</v>
       </c>
@@ -12493,7 +12531,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="65" t="s">
         <v>49</v>
       </c>
@@ -12515,7 +12553,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="65" t="s">
         <v>145</v>
       </c>
@@ -12534,7 +12572,7 @@
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
     </row>
-    <row r="31" spans="1:14" s="64" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" s="64" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="65" t="s">
         <v>49</v>
       </c>
@@ -12560,7 +12598,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
         <v>49</v>
       </c>
@@ -12588,7 +12626,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
         <v>152</v>
       </c>
@@ -12596,7 +12634,7 @@
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
     </row>
-    <row r="34" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="65" t="s">
         <v>160</v>
       </c>
@@ -12618,7 +12656,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
         <v>1396</v>
       </c>
@@ -12640,7 +12678,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="65" t="s">
         <v>49</v>
       </c>
@@ -12665,7 +12703,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="65" t="s">
         <v>1405</v>
       </c>
@@ -12690,7 +12728,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="65" t="s">
         <v>1410</v>
       </c>
@@ -12712,7 +12750,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="s">
         <v>39</v>
       </c>
@@ -12734,7 +12772,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="65" t="s">
         <v>152</v>
       </c>
@@ -12742,7 +12780,7 @@
       <c r="F40" s="52"/>
       <c r="G40" s="52"/>
     </row>
-    <row r="41" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="65" t="s">
         <v>160</v>
       </c>
@@ -12762,7 +12800,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="65" t="s">
         <v>1396</v>
       </c>
@@ -12784,7 +12822,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="65" t="s">
         <v>49</v>
       </c>
@@ -12809,7 +12847,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="65" t="s">
         <v>1426</v>
       </c>
@@ -12834,7 +12872,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="65" t="s">
         <v>1431</v>
       </c>
@@ -12856,7 +12894,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="65" t="s">
         <v>39</v>
       </c>
@@ -12878,7 +12916,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="65" t="s">
         <v>152</v>
       </c>
@@ -12886,7 +12924,7 @@
       <c r="F47" s="52"/>
       <c r="G47" s="52"/>
     </row>
-    <row r="48" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="65" t="s">
         <v>160</v>
       </c>
@@ -12906,7 +12944,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="65" t="s">
         <v>1396</v>
       </c>
@@ -12928,7 +12966,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="65" t="s">
         <v>49</v>
       </c>
@@ -12953,7 +12991,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="65" t="s">
         <v>39</v>
       </c>
@@ -12978,7 +13016,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="65" t="s">
         <v>1431</v>
       </c>
@@ -13000,7 +13038,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="65" t="s">
         <v>39</v>
       </c>
@@ -13022,7 +13060,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
         <v>152</v>
       </c>
@@ -13030,7 +13068,7 @@
       <c r="F54" s="52"/>
       <c r="G54" s="52"/>
     </row>
-    <row r="55" spans="1:14" s="64" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" s="64" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A55" s="65" t="s">
         <v>160</v>
       </c>
@@ -13050,7 +13088,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="65" t="s">
         <v>312</v>
       </c>
@@ -13072,7 +13110,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="65" t="s">
         <v>49</v>
       </c>
@@ -13094,7 +13132,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="65" t="s">
         <v>152</v>
       </c>
@@ -13102,7 +13140,7 @@
       <c r="F58" s="52"/>
       <c r="G58" s="52"/>
     </row>
-    <row r="59" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="65" t="s">
         <v>34</v>
       </c>
@@ -13110,7 +13148,7 @@
       <c r="F59" s="52"/>
       <c r="G59" s="52"/>
     </row>
-    <row r="60" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="65"/>
       <c r="B60" s="65"/>
       <c r="C60" s="66"/>
@@ -13130,7 +13168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -13140,267 +13178,267 @@
       <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="256" width="9.140625" style="61"/>
-    <col min="257" max="257" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="256" width="9.1796875" style="61"/>
+    <col min="257" max="257" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="260" max="512" width="9.140625" style="61"/>
-    <col min="513" max="513" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="260" max="512" width="9.1796875" style="61"/>
+    <col min="513" max="513" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="515" max="515" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="516" max="768" width="9.140625" style="61"/>
-    <col min="769" max="769" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="516" max="768" width="9.1796875" style="61"/>
+    <col min="769" max="769" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="771" max="771" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="772" max="1024" width="9.140625" style="61"/>
-    <col min="1025" max="1025" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="772" max="1024" width="9.1796875" style="61"/>
+    <col min="1025" max="1025" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="1027" max="1027" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1280" width="9.140625" style="61"/>
-    <col min="1281" max="1281" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1280" width="9.1796875" style="61"/>
+    <col min="1281" max="1281" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="1283" max="1283" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1536" width="9.140625" style="61"/>
-    <col min="1537" max="1537" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1536" width="9.1796875" style="61"/>
+    <col min="1537" max="1537" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="1539" max="1539" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1792" width="9.140625" style="61"/>
-    <col min="1793" max="1793" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1792" width="9.1796875" style="61"/>
+    <col min="1793" max="1793" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="1795" max="1795" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="1796" max="2048" width="9.140625" style="61"/>
-    <col min="2049" max="2049" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1796" max="2048" width="9.1796875" style="61"/>
+    <col min="2049" max="2049" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="2051" max="2051" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2304" width="9.140625" style="61"/>
-    <col min="2305" max="2305" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2304" width="9.1796875" style="61"/>
+    <col min="2305" max="2305" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="2307" max="2307" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2560" width="9.140625" style="61"/>
-    <col min="2561" max="2561" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2560" width="9.1796875" style="61"/>
+    <col min="2561" max="2561" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="2563" max="2563" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2816" width="9.140625" style="61"/>
-    <col min="2817" max="2817" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2816" width="9.1796875" style="61"/>
+    <col min="2817" max="2817" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="2819" max="2819" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="2820" max="3072" width="9.140625" style="61"/>
-    <col min="3073" max="3073" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2820" max="3072" width="9.1796875" style="61"/>
+    <col min="3073" max="3073" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="3075" max="3075" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3328" width="9.140625" style="61"/>
-    <col min="3329" max="3329" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3328" width="9.1796875" style="61"/>
+    <col min="3329" max="3329" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="3331" max="3331" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3584" width="9.140625" style="61"/>
-    <col min="3585" max="3585" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3584" width="9.1796875" style="61"/>
+    <col min="3585" max="3585" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="3587" max="3587" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3840" width="9.140625" style="61"/>
-    <col min="3841" max="3841" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3840" width="9.1796875" style="61"/>
+    <col min="3841" max="3841" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="3843" max="3843" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="3844" max="4096" width="9.140625" style="61"/>
-    <col min="4097" max="4097" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3844" max="4096" width="9.1796875" style="61"/>
+    <col min="4097" max="4097" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="4099" max="4099" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4352" width="9.140625" style="61"/>
-    <col min="4353" max="4353" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4352" width="9.1796875" style="61"/>
+    <col min="4353" max="4353" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="4355" max="4355" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4608" width="9.140625" style="61"/>
-    <col min="4609" max="4609" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4608" width="9.1796875" style="61"/>
+    <col min="4609" max="4609" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="4611" max="4611" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4864" width="9.140625" style="61"/>
-    <col min="4865" max="4865" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4864" width="9.1796875" style="61"/>
+    <col min="4865" max="4865" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="4867" max="4867" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="4868" max="5120" width="9.140625" style="61"/>
-    <col min="5121" max="5121" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4868" max="5120" width="9.1796875" style="61"/>
+    <col min="5121" max="5121" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="5123" max="5123" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5376" width="9.140625" style="61"/>
-    <col min="5377" max="5377" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5376" width="9.1796875" style="61"/>
+    <col min="5377" max="5377" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="5379" max="5379" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5632" width="9.140625" style="61"/>
-    <col min="5633" max="5633" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5632" width="9.1796875" style="61"/>
+    <col min="5633" max="5633" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="5635" max="5635" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5888" width="9.140625" style="61"/>
-    <col min="5889" max="5889" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5888" width="9.1796875" style="61"/>
+    <col min="5889" max="5889" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="5891" max="5891" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="5892" max="6144" width="9.140625" style="61"/>
-    <col min="6145" max="6145" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5892" max="6144" width="9.1796875" style="61"/>
+    <col min="6145" max="6145" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="6147" max="6147" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6400" width="9.140625" style="61"/>
-    <col min="6401" max="6401" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6400" width="9.1796875" style="61"/>
+    <col min="6401" max="6401" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="6403" max="6403" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6656" width="9.140625" style="61"/>
-    <col min="6657" max="6657" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6656" width="9.1796875" style="61"/>
+    <col min="6657" max="6657" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="6659" max="6659" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6912" width="9.140625" style="61"/>
-    <col min="6913" max="6913" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6912" width="9.1796875" style="61"/>
+    <col min="6913" max="6913" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="6915" max="6915" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="6916" max="7168" width="9.140625" style="61"/>
-    <col min="7169" max="7169" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6916" max="7168" width="9.1796875" style="61"/>
+    <col min="7169" max="7169" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="7171" max="7171" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7424" width="9.140625" style="61"/>
-    <col min="7425" max="7425" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7424" width="9.1796875" style="61"/>
+    <col min="7425" max="7425" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="7427" max="7427" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7680" width="9.140625" style="61"/>
-    <col min="7681" max="7681" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7680" width="9.1796875" style="61"/>
+    <col min="7681" max="7681" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="7683" max="7683" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7936" width="9.140625" style="61"/>
-    <col min="7937" max="7937" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7936" width="9.1796875" style="61"/>
+    <col min="7937" max="7937" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="7939" max="7939" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="7940" max="8192" width="9.140625" style="61"/>
-    <col min="8193" max="8193" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7940" max="8192" width="9.1796875" style="61"/>
+    <col min="8193" max="8193" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="8195" max="8195" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8448" width="9.140625" style="61"/>
-    <col min="8449" max="8449" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8448" width="9.1796875" style="61"/>
+    <col min="8449" max="8449" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="8451" max="8451" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8704" width="9.140625" style="61"/>
-    <col min="8705" max="8705" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8704" width="9.1796875" style="61"/>
+    <col min="8705" max="8705" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="8707" max="8707" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8960" width="9.140625" style="61"/>
-    <col min="8961" max="8961" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8960" width="9.1796875" style="61"/>
+    <col min="8961" max="8961" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="8963" max="8963" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="8964" max="9216" width="9.140625" style="61"/>
-    <col min="9217" max="9217" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="8964" max="9216" width="9.1796875" style="61"/>
+    <col min="9217" max="9217" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="9219" max="9219" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9472" width="9.140625" style="61"/>
-    <col min="9473" max="9473" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9472" width="9.1796875" style="61"/>
+    <col min="9473" max="9473" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="9475" max="9475" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9728" width="9.140625" style="61"/>
-    <col min="9729" max="9729" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9728" width="9.1796875" style="61"/>
+    <col min="9729" max="9729" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="9731" max="9731" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9984" width="9.140625" style="61"/>
-    <col min="9985" max="9985" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9984" width="9.1796875" style="61"/>
+    <col min="9985" max="9985" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="9987" max="9987" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="9988" max="10240" width="9.140625" style="61"/>
-    <col min="10241" max="10241" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="9988" max="10240" width="9.1796875" style="61"/>
+    <col min="10241" max="10241" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="10243" max="10243" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10496" width="9.140625" style="61"/>
-    <col min="10497" max="10497" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10496" width="9.1796875" style="61"/>
+    <col min="10497" max="10497" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="10499" max="10499" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10752" width="9.140625" style="61"/>
-    <col min="10753" max="10753" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10752" width="9.1796875" style="61"/>
+    <col min="10753" max="10753" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="10755" max="10755" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="10756" max="11008" width="9.140625" style="61"/>
-    <col min="11009" max="11009" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="10756" max="11008" width="9.1796875" style="61"/>
+    <col min="11009" max="11009" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="11011" max="11011" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11264" width="9.140625" style="61"/>
-    <col min="11265" max="11265" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11264" width="9.1796875" style="61"/>
+    <col min="11265" max="11265" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="11267" max="11267" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11520" width="9.140625" style="61"/>
-    <col min="11521" max="11521" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11520" width="9.1796875" style="61"/>
+    <col min="11521" max="11521" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="11523" max="11523" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11776" width="9.140625" style="61"/>
-    <col min="11777" max="11777" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11776" width="9.1796875" style="61"/>
+    <col min="11777" max="11777" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="11779" max="11779" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="11780" max="12032" width="9.140625" style="61"/>
-    <col min="12033" max="12033" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11780" max="12032" width="9.1796875" style="61"/>
+    <col min="12033" max="12033" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="12035" max="12035" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12288" width="9.140625" style="61"/>
-    <col min="12289" max="12289" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12288" width="9.1796875" style="61"/>
+    <col min="12289" max="12289" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="12291" max="12291" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12544" width="9.140625" style="61"/>
-    <col min="12545" max="12545" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12544" width="9.1796875" style="61"/>
+    <col min="12545" max="12545" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="12547" max="12547" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12800" width="9.140625" style="61"/>
-    <col min="12801" max="12801" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12800" width="9.1796875" style="61"/>
+    <col min="12801" max="12801" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="12803" max="12803" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="12804" max="13056" width="9.140625" style="61"/>
-    <col min="13057" max="13057" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12804" max="13056" width="9.1796875" style="61"/>
+    <col min="13057" max="13057" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="13059" max="13059" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13312" width="9.140625" style="61"/>
-    <col min="13313" max="13313" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13312" width="9.1796875" style="61"/>
+    <col min="13313" max="13313" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="13315" max="13315" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13568" width="9.140625" style="61"/>
-    <col min="13569" max="13569" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13568" width="9.1796875" style="61"/>
+    <col min="13569" max="13569" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="13571" max="13571" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13824" width="9.140625" style="61"/>
-    <col min="13825" max="13825" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13824" width="9.1796875" style="61"/>
+    <col min="13825" max="13825" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="13827" max="13827" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="13828" max="14080" width="9.140625" style="61"/>
-    <col min="14081" max="14081" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13828" max="14080" width="9.1796875" style="61"/>
+    <col min="14081" max="14081" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="14083" max="14083" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14336" width="9.140625" style="61"/>
-    <col min="14337" max="14337" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14336" width="9.1796875" style="61"/>
+    <col min="14337" max="14337" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="14339" max="14339" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14592" width="9.140625" style="61"/>
-    <col min="14593" max="14593" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14592" width="9.1796875" style="61"/>
+    <col min="14593" max="14593" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="14595" max="14595" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14848" width="9.140625" style="61"/>
-    <col min="14849" max="14849" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14848" width="9.1796875" style="61"/>
+    <col min="14849" max="14849" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="14851" max="14851" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="14852" max="15104" width="9.140625" style="61"/>
-    <col min="15105" max="15105" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14852" max="15104" width="9.1796875" style="61"/>
+    <col min="15105" max="15105" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="15107" max="15107" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15360" width="9.140625" style="61"/>
-    <col min="15361" max="15361" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15360" width="9.1796875" style="61"/>
+    <col min="15361" max="15361" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="15363" max="15363" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15616" width="9.140625" style="61"/>
-    <col min="15617" max="15617" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15616" width="9.1796875" style="61"/>
+    <col min="15617" max="15617" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="15619" max="15619" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15872" width="9.140625" style="61"/>
-    <col min="15873" max="15873" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15872" width="9.1796875" style="61"/>
+    <col min="15873" max="15873" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="15875" max="15875" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="15876" max="16128" width="9.140625" style="61"/>
-    <col min="16129" max="16129" width="12.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="16.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="15876" max="16128" width="9.1796875" style="61"/>
+    <col min="16129" max="16129" width="12.81640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="16.453125" style="61" bestFit="1" customWidth="1"/>
     <col min="16131" max="16131" width="47" style="61" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16384" width="9.140625" style="61"/>
+    <col min="16132" max="16384" width="9.1796875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
         <v>306</v>
       </c>
@@ -13414,7 +13452,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>14</v>
       </c>
@@ -13428,7 +13466,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>14</v>
       </c>
@@ -13442,7 +13480,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
         <v>14</v>
       </c>
@@ -13456,7 +13494,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
         <v>14</v>
       </c>
@@ -13470,7 +13508,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>14</v>
       </c>
@@ -13484,7 +13522,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
         <v>14</v>
       </c>
@@ -13498,7 +13536,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
         <v>14</v>
       </c>
@@ -13512,7 +13550,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
         <v>14</v>
       </c>
@@ -13526,7 +13564,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>14</v>
       </c>
@@ -13540,7 +13578,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
         <v>14</v>
       </c>
@@ -13554,7 +13592,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
         <v>14</v>
       </c>
@@ -13568,13 +13606,13 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
       <c r="B13" s="65"/>
       <c r="C13" s="65"/>
       <c r="D13" s="64"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
         <v>283</v>
       </c>
@@ -13588,7 +13626,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>283</v>
       </c>
@@ -13602,13 +13640,13 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="65"/>
       <c r="B16" s="65"/>
       <c r="C16" s="65"/>
       <c r="D16" s="64"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="s">
         <v>271</v>
       </c>
@@ -13622,7 +13660,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="s">
         <v>271</v>
       </c>
@@ -13636,7 +13674,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="s">
         <v>271</v>
       </c>
@@ -13650,7 +13688,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="s">
         <v>271</v>
       </c>
@@ -13664,13 +13702,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="65"/>
       <c r="B21" s="65"/>
       <c r="C21" s="65"/>
       <c r="D21" s="64"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
         <v>16</v>
       </c>
@@ -13684,7 +13722,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="65" t="s">
         <v>16</v>
       </c>
@@ -13698,13 +13736,13 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="65"/>
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
       <c r="D24" s="64"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="65" t="s">
         <v>1466</v>
       </c>
@@ -13718,7 +13756,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="65" t="s">
         <v>1466</v>
       </c>
@@ -13732,7 +13770,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="65" t="s">
         <v>1466</v>
       </c>
@@ -13746,7 +13784,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="65" t="s">
         <v>1466</v>
       </c>
@@ -13760,7 +13798,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="65" t="s">
         <v>1466</v>
       </c>
@@ -13774,13 +13812,13 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="65"/>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
       <c r="D30" s="64"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="65" t="s">
         <v>1476</v>
       </c>
@@ -13794,7 +13832,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
         <v>1476</v>
       </c>
@@ -13808,7 +13846,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
         <v>1476</v>
       </c>
@@ -13822,7 +13860,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="65" t="s">
         <v>1476</v>
       </c>
@@ -13836,7 +13874,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
         <v>1476</v>
       </c>
@@ -13850,7 +13888,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="65" t="s">
         <v>1476</v>
       </c>
@@ -13864,7 +13902,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="65" t="s">
         <v>1476</v>
       </c>
@@ -13878,7 +13916,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="65" t="s">
         <v>1476</v>
       </c>
@@ -13892,7 +13930,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="s">
         <v>1476</v>
       </c>
@@ -13906,7 +13944,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="65" t="s">
         <v>1476</v>
       </c>
@@ -13920,13 +13958,13 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="65"/>
       <c r="B41" s="65"/>
       <c r="C41" s="65"/>
       <c r="D41" s="64"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="65" t="s">
         <v>1496</v>
       </c>
@@ -13940,7 +13978,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="65" t="s">
         <v>1496</v>
       </c>
@@ -13954,7 +13992,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="65" t="s">
         <v>1496</v>
       </c>
@@ -13968,7 +14006,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="65" t="s">
         <v>1496</v>
       </c>
@@ -13982,7 +14020,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="65" t="s">
         <v>1496</v>
       </c>
@@ -13996,7 +14034,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="65" t="s">
         <v>1496</v>
       </c>
@@ -14010,7 +14048,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="65" t="s">
         <v>1496</v>
       </c>
@@ -14024,7 +14062,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="65" t="s">
         <v>1496</v>
       </c>
@@ -14038,7 +14076,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="65" t="s">
         <v>1496</v>
       </c>
@@ -14052,7 +14090,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="65" t="s">
         <v>1496</v>
       </c>
@@ -14066,13 +14104,13 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="65"/>
       <c r="B52" s="65"/>
       <c r="C52" s="65"/>
       <c r="D52" s="64"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="65" t="s">
         <v>354</v>
       </c>
@@ -14086,7 +14124,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
         <v>354</v>
       </c>
@@ -14100,7 +14138,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="65" t="s">
         <v>354</v>
       </c>
@@ -14114,7 +14152,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="65" t="s">
         <v>354</v>
       </c>
@@ -14128,19 +14166,19 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="65"/>
       <c r="B57" s="65"/>
       <c r="C57" s="65"/>
       <c r="D57" s="64"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="64"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="64" t="s">
         <v>1520</v>
       </c>
@@ -14155,7 +14193,7 @@
       </c>
       <c r="E59" s="64"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="64" t="s">
         <v>1520</v>
       </c>
@@ -14170,7 +14208,7 @@
       </c>
       <c r="E60" s="64"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="64" t="s">
         <v>1520</v>
       </c>
@@ -14185,7 +14223,7 @@
       </c>
       <c r="E61" s="64"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="64" t="s">
         <v>1520</v>
       </c>
@@ -14200,7 +14238,7 @@
       </c>
       <c r="E62" s="64"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="64" t="s">
         <v>1520</v>
       </c>
@@ -14215,7 +14253,7 @@
       </c>
       <c r="E63" s="64"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="64" t="s">
         <v>1520</v>
       </c>
@@ -14230,7 +14268,7 @@
       </c>
       <c r="E64" s="64"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="64" t="s">
         <v>1520</v>
       </c>
@@ -14245,7 +14283,7 @@
       </c>
       <c r="E65" s="64"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="64" t="s">
         <v>1520</v>
       </c>
@@ -14260,7 +14298,7 @@
       </c>
       <c r="E66" s="64"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="64" t="s">
         <v>1520</v>
       </c>
@@ -14275,14 +14313,14 @@
       </c>
       <c r="E67" s="64"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="64"/>
       <c r="B68" s="64"/>
       <c r="C68" s="64"/>
       <c r="D68" s="64"/>
       <c r="E68" s="64"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="64" t="s">
         <v>1539</v>
       </c>
@@ -14297,7 +14335,7 @@
       </c>
       <c r="E69" s="64"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="64" t="s">
         <v>1539</v>
       </c>
@@ -14312,7 +14350,7 @@
       </c>
       <c r="E70" s="64"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="64" t="s">
         <v>1539</v>
       </c>
@@ -14327,7 +14365,7 @@
       </c>
       <c r="E71" s="64"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="64" t="s">
         <v>1539</v>
       </c>
@@ -14342,7 +14380,7 @@
       </c>
       <c r="E72" s="64"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="64" t="s">
         <v>1539</v>
       </c>
@@ -14357,7 +14395,7 @@
       </c>
       <c r="E73" s="64"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="64" t="s">
         <v>1539</v>
       </c>
@@ -14372,7 +14410,7 @@
       </c>
       <c r="E74" s="64"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="64" t="s">
         <v>1539</v>
       </c>
@@ -14387,7 +14425,7 @@
       </c>
       <c r="E75" s="64"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="64" t="s">
         <v>1539</v>
       </c>
@@ -14414,7 +14452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -14424,12 +14462,12 @@
       <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="61"/>
+    <col min="1" max="16384" width="9.1796875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
         <v>999</v>
       </c>
@@ -14440,7 +14478,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>374</v>
       </c>
@@ -14463,7 +14501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -14473,12 +14511,12 @@
       <selection activeCell="J144" sqref="J144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>306</v>
       </c>
@@ -14492,7 +14530,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
@@ -14506,7 +14544,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
@@ -14520,7 +14558,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>14</v>
       </c>
@@ -14534,7 +14572,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
@@ -14548,7 +14586,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
@@ -14562,7 +14600,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>14</v>
       </c>
@@ -14576,7 +14614,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>14</v>
       </c>
@@ -14590,7 +14628,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
@@ -14604,7 +14642,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>14</v>
       </c>
@@ -14618,7 +14656,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>14</v>
       </c>
@@ -14632,7 +14670,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>14</v>
       </c>
@@ -14646,7 +14684,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>283</v>
       </c>
@@ -14660,7 +14698,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>283</v>
       </c>
@@ -14674,7 +14712,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>271</v>
       </c>
@@ -14688,7 +14726,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>271</v>
       </c>
@@ -14702,7 +14740,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>271</v>
       </c>
@@ -14716,7 +14754,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>271</v>
       </c>
@@ -14730,7 +14768,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>16</v>
       </c>
@@ -14744,7 +14782,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>16</v>
       </c>
@@ -14758,7 +14796,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>123</v>
       </c>
@@ -14772,7 +14810,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>123</v>
       </c>
@@ -14786,7 +14824,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>123</v>
       </c>
@@ -14800,7 +14838,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>44</v>
       </c>
@@ -14814,7 +14852,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>44</v>
       </c>
@@ -14828,7 +14866,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>44</v>
       </c>
@@ -14842,7 +14880,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>44</v>
       </c>
@@ -14856,7 +14894,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>44</v>
       </c>
@@ -14870,7 +14908,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>44</v>
       </c>
@@ -14884,7 +14922,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>784</v>
       </c>
@@ -14898,7 +14936,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>784</v>
       </c>
@@ -14912,7 +14950,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>784</v>
       </c>
@@ -14926,7 +14964,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>354</v>
       </c>
@@ -14940,7 +14978,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>354</v>
       </c>
@@ -14954,7 +14992,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
         <v>354</v>
       </c>
@@ -14968,7 +15006,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>788</v>
       </c>
@@ -14982,7 +15020,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>788</v>
       </c>
@@ -14996,7 +15034,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>788</v>
       </c>
@@ -15010,7 +15048,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>788</v>
       </c>
@@ -15024,7 +15062,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>795</v>
       </c>
@@ -15038,7 +15076,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>795</v>
       </c>
@@ -15052,7 +15090,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>795</v>
       </c>
@@ -15066,7 +15104,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>795</v>
       </c>
@@ -15080,7 +15118,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>795</v>
       </c>
@@ -15094,7 +15132,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>795</v>
       </c>
@@ -15108,7 +15146,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>795</v>
       </c>
@@ -15122,7 +15160,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>795</v>
       </c>
@@ -15136,7 +15174,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>795</v>
       </c>
@@ -15150,7 +15188,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>819</v>
       </c>
@@ -15164,7 +15202,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>819</v>
       </c>
@@ -15178,7 +15216,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>819</v>
       </c>
@@ -15192,7 +15230,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>825</v>
       </c>
@@ -15206,7 +15244,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>825</v>
       </c>
@@ -15220,7 +15258,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>825</v>
       </c>
@@ -15234,7 +15272,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>825</v>
       </c>
@@ -15248,7 +15286,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>450</v>
       </c>
@@ -15262,7 +15300,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>450</v>
       </c>
@@ -15276,7 +15314,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>450</v>
       </c>
@@ -15290,7 +15328,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>450</v>
       </c>
@@ -15304,7 +15342,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>450</v>
       </c>
@@ -15318,7 +15356,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
         <v>450</v>
       </c>
@@ -15332,7 +15370,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>450</v>
       </c>
@@ -15346,7 +15384,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>450</v>
       </c>
@@ -15360,7 +15398,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
         <v>847</v>
       </c>
@@ -15374,7 +15412,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
         <v>847</v>
       </c>
@@ -15388,7 +15426,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>847</v>
       </c>
@@ -15402,7 +15440,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>847</v>
       </c>
@@ -15416,7 +15454,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>847</v>
       </c>
@@ -15430,7 +15468,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>847</v>
       </c>
@@ -15444,7 +15482,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
         <v>847</v>
       </c>
@@ -15458,7 +15496,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>847</v>
       </c>
@@ -15472,7 +15510,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>847</v>
       </c>
@@ -15486,7 +15524,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>847</v>
       </c>
@@ -15500,7 +15538,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>847</v>
       </c>
@@ -15514,7 +15552,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
         <v>847</v>
       </c>
@@ -15528,7 +15566,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
         <v>847</v>
       </c>
@@ -15542,7 +15580,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
         <v>879</v>
       </c>
@@ -15556,7 +15594,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>879</v>
       </c>
@@ -15570,7 +15608,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
         <v>879</v>
       </c>
@@ -15584,7 +15622,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
         <v>887</v>
       </c>
@@ -15598,7 +15636,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
         <v>887</v>
       </c>
@@ -15612,7 +15650,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
         <v>887</v>
       </c>
@@ -15626,7 +15664,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
         <v>897</v>
       </c>
@@ -15640,7 +15678,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
         <v>897</v>
       </c>
@@ -15654,7 +15692,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
         <v>897</v>
       </c>
@@ -15668,7 +15706,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>897</v>
       </c>
@@ -15682,7 +15720,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>529</v>
       </c>
@@ -15696,7 +15734,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
         <v>529</v>
       </c>
@@ -15710,7 +15748,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
         <v>529</v>
       </c>
@@ -15724,7 +15762,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
         <v>529</v>
       </c>
@@ -15738,7 +15776,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
         <v>529</v>
       </c>
@@ -15752,7 +15790,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
         <v>529</v>
       </c>
@@ -15766,7 +15804,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
         <v>914</v>
       </c>
@@ -15780,7 +15818,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
         <v>914</v>
       </c>
@@ -15794,7 +15832,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
         <v>914</v>
       </c>
@@ -15808,7 +15846,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
         <v>914</v>
       </c>
@@ -15822,7 +15860,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
         <v>914</v>
       </c>
@@ -15836,7 +15874,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
         <v>59</v>
       </c>
@@ -15850,7 +15888,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
         <v>59</v>
       </c>
@@ -15864,7 +15902,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
         <v>59</v>
       </c>
@@ -15878,7 +15916,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
         <v>59</v>
       </c>
@@ -15892,7 +15930,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
         <v>59</v>
       </c>
@@ -15906,7 +15944,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
         <v>59</v>
       </c>
@@ -15920,7 +15958,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
         <v>59</v>
       </c>
@@ -15934,7 +15972,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="32" t="s">
         <v>59</v>
       </c>
@@ -15948,7 +15986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
         <v>59</v>
       </c>
@@ -15962,7 +16000,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
         <v>59</v>
       </c>
@@ -15976,7 +16014,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="32" t="s">
         <v>923</v>
       </c>
@@ -15990,7 +16028,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
         <v>923</v>
       </c>
@@ -16004,7 +16042,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="32" t="s">
         <v>923</v>
       </c>
@@ -16018,7 +16056,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="32" t="s">
         <v>933</v>
       </c>
@@ -16032,7 +16070,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="32" t="s">
         <v>933</v>
       </c>
@@ -16046,7 +16084,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="32" t="s">
         <v>933</v>
       </c>
@@ -16060,7 +16098,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="32" t="s">
         <v>933</v>
       </c>
@@ -16074,7 +16112,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="32" t="s">
         <v>933</v>
       </c>
@@ -16088,7 +16126,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
         <v>947</v>
       </c>
@@ -16102,7 +16140,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
         <v>947</v>
       </c>
@@ -16116,7 +16154,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>947</v>
       </c>
@@ -16130,7 +16168,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
         <v>947</v>
       </c>
@@ -16144,7 +16182,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="32" t="s">
         <v>947</v>
       </c>
@@ -16158,7 +16196,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="32" t="s">
         <v>947</v>
       </c>
@@ -16172,7 +16210,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
         <v>958</v>
       </c>
@@ -16186,7 +16224,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="32" t="s">
         <v>958</v>
       </c>
@@ -16200,7 +16238,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="32" t="s">
         <v>958</v>
       </c>
@@ -16214,7 +16252,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
         <v>958</v>
       </c>
@@ -16228,7 +16266,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>958</v>
       </c>
@@ -16242,7 +16280,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>958</v>
       </c>
@@ -16256,7 +16294,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
         <v>958</v>
       </c>
@@ -16270,7 +16308,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="29" t="s">
         <v>974</v>
       </c>
@@ -16284,7 +16322,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="29" t="s">
         <v>974</v>
       </c>
@@ -16298,7 +16336,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="32" t="s">
         <v>978</v>
       </c>
@@ -16312,7 +16350,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="32" t="s">
         <v>978</v>
       </c>
@@ -16326,7 +16364,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="32" t="s">
         <v>978</v>
       </c>
@@ -16340,7 +16378,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="32" t="s">
         <v>978</v>
       </c>
@@ -16354,7 +16392,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="32" t="s">
         <v>981</v>
       </c>
@@ -16368,7 +16406,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="32" t="s">
         <v>981</v>
       </c>
@@ -16382,7 +16420,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="32" t="s">
         <v>981</v>
       </c>
@@ -16396,7 +16434,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="32" t="s">
         <v>981</v>
       </c>
@@ -16410,7 +16448,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="32" t="s">
         <v>981</v>
       </c>
@@ -16424,7 +16462,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="32" t="s">
         <v>981</v>
       </c>
@@ -16438,7 +16476,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="32" t="s">
         <v>993</v>
       </c>
@@ -16452,7 +16490,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="32" t="s">
         <v>993</v>
       </c>
@@ -16478,7 +16516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -16488,12 +16526,12 @@
       <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>310</v>
       </c>
@@ -16504,7 +16542,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>307</v>
       </c>
@@ -16525,30 +16563,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="44.453125" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" customWidth="1"/>
+    <col min="6" max="6" width="32.453125" customWidth="1"/>
+    <col min="7" max="7" width="36.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -16589,7 +16627,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>217</v>
       </c>
@@ -16610,7 +16648,7 @@
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>215</v>
       </c>
@@ -16631,7 +16669,7 @@
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>213</v>
       </c>
@@ -16652,7 +16690,7 @@
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>211</v>
       </c>
@@ -16673,7 +16711,7 @@
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>160</v>
       </c>
@@ -16694,7 +16732,7 @@
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>67</v>
       </c>
@@ -16719,7 +16757,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>49</v>
       </c>
@@ -16742,7 +16780,7 @@
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
         <v>152</v>
       </c>
@@ -16759,7 +16797,7 @@
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="40" t="s">
         <v>160</v>
       </c>
@@ -16782,7 +16820,7 @@
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
         <v>197</v>
       </c>
@@ -16807,7 +16845,7 @@
       <c r="L11" s="39"/>
       <c r="M11" s="39"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
         <v>39</v>
       </c>
@@ -16834,7 +16872,7 @@
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
         <v>1002</v>
       </c>
@@ -16859,7 +16897,7 @@
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="40" t="s">
         <v>49</v>
       </c>
@@ -16886,7 +16924,7 @@
       </c>
       <c r="M14" s="39"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
         <v>49</v>
       </c>
@@ -16911,7 +16949,7 @@
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
     </row>
-    <row r="16" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A16" s="47" t="s">
         <v>49</v>
       </c>
@@ -16942,7 +16980,7 @@
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
     </row>
-    <row r="17" spans="1:13" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A17" s="47" t="s">
         <v>138</v>
       </c>
@@ -16965,7 +17003,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="26" x14ac:dyDescent="0.35">
       <c r="A18" s="47" t="s">
         <v>178</v>
       </c>
@@ -16990,7 +17028,7 @@
       <c r="L18" s="41"/>
       <c r="M18" s="41"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
         <v>152</v>
       </c>
@@ -17007,7 +17045,7 @@
       <c r="L19" s="39"/>
       <c r="M19" s="39"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
         <v>160</v>
       </c>
@@ -17032,7 +17070,7 @@
       <c r="L20" s="39"/>
       <c r="M20" s="39"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
         <v>53</v>
       </c>
@@ -17057,7 +17095,7 @@
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="40" t="s">
         <v>167</v>
       </c>
@@ -17084,7 +17122,7 @@
       <c r="L22" s="39"/>
       <c r="M22" s="39"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="40" t="s">
         <v>39</v>
       </c>
@@ -17111,7 +17149,7 @@
       <c r="L23" s="39"/>
       <c r="M23" s="39"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
         <v>152</v>
       </c>
@@ -17128,7 +17166,7 @@
       <c r="L24" s="39"/>
       <c r="M24" s="39"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="40" t="s">
         <v>160</v>
       </c>
@@ -17153,7 +17191,7 @@
       <c r="L25" s="39"/>
       <c r="M25" s="39"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="40" t="s">
         <v>49</v>
       </c>
@@ -17182,7 +17220,7 @@
       </c>
       <c r="M26" s="39"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="40" t="s">
         <v>152</v>
       </c>
@@ -17199,7 +17237,7 @@
       <c r="L27" s="39"/>
       <c r="M27" s="39"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="40" t="s">
         <v>151</v>
       </c>
@@ -17226,7 +17264,7 @@
       <c r="L28" s="39"/>
       <c r="M28" s="39"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="40" t="s">
         <v>145</v>
       </c>
@@ -17251,7 +17289,7 @@
       <c r="L29" s="39"/>
       <c r="M29" s="39"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="40" t="s">
         <v>67</v>
       </c>
@@ -17277,7 +17315,7 @@
       </c>
       <c r="L30" s="39"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="40" t="s">
         <v>49</v>
       </c>
@@ -17305,7 +17343,7 @@
       <c r="K31" s="39"/>
       <c r="L31" s="39"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="40" t="s">
         <v>49</v>
       </c>
@@ -17335,7 +17373,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="40" t="s">
         <v>1016</v>
       </c>
@@ -17361,7 +17399,7 @@
       </c>
       <c r="L33" s="39"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="40" t="s">
         <v>1016</v>
       </c>
@@ -17385,7 +17423,7 @@
       <c r="K34" s="39"/>
       <c r="L34" s="39"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="40" t="s">
         <v>53</v>
       </c>
@@ -17409,7 +17447,7 @@
       <c r="K35" s="39"/>
       <c r="L35" s="39"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="40" t="s">
         <v>49</v>
       </c>
@@ -17435,7 +17473,7 @@
       <c r="K36" s="39"/>
       <c r="L36" s="39"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="40" t="s">
         <v>49</v>
       </c>
@@ -17459,7 +17497,7 @@
       <c r="K37" s="39"/>
       <c r="L37" s="39"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="40" t="s">
         <v>34</v>
       </c>
@@ -17481,16 +17519,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="48" t="s">
         <v>306</v>
       </c>
@@ -17504,7 +17542,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>14</v>
       </c>
@@ -17518,7 +17556,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="48" t="s">
         <v>14</v>
       </c>
@@ -17532,7 +17570,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
         <v>14</v>
       </c>
@@ -17546,7 +17584,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
         <v>14</v>
       </c>
@@ -17560,7 +17598,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="s">
         <v>14</v>
       </c>
@@ -17574,7 +17612,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
         <v>14</v>
       </c>
@@ -17588,7 +17626,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
         <v>14</v>
       </c>
@@ -17602,7 +17640,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
         <v>14</v>
       </c>
@@ -17616,7 +17654,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="48" t="s">
         <v>14</v>
       </c>
@@ -17630,7 +17668,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="48" t="s">
         <v>14</v>
       </c>
@@ -17644,7 +17682,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="48" t="s">
         <v>14</v>
       </c>
@@ -17658,7 +17696,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="48" t="s">
         <v>283</v>
       </c>
@@ -17672,7 +17710,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="48" t="s">
         <v>283</v>
       </c>
@@ -17686,7 +17724,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="48" t="s">
         <v>16</v>
       </c>
@@ -17700,7 +17738,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="48" t="s">
         <v>16</v>
       </c>
@@ -17714,7 +17752,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="48" t="s">
         <v>271</v>
       </c>
@@ -17728,7 +17766,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="48" t="s">
         <v>271</v>
       </c>
@@ -17742,7 +17780,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="48" t="s">
         <v>271</v>
       </c>
@@ -17756,7 +17794,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="48" t="s">
         <v>271</v>
       </c>
@@ -17776,16 +17814,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>311</v>
       </c>
@@ -17799,7 +17837,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="50" t="s">
         <v>1029</v>
       </c>
@@ -17815,29 +17853,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.42578125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="28.85546875" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.453125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="28.81640625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
@@ -17878,7 +17916,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>217</v>
       </c>
@@ -17901,7 +17939,7 @@
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>215</v>
       </c>
@@ -17924,7 +17962,7 @@
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>213</v>
       </c>
@@ -17947,7 +17985,7 @@
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>211</v>
       </c>
@@ -17970,7 +18008,7 @@
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
         <v>160</v>
       </c>
@@ -17995,7 +18033,7 @@
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>67</v>
       </c>
@@ -18022,7 +18060,7 @@
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
         <v>49</v>
       </c>
@@ -18047,7 +18085,7 @@
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>152</v>
       </c>
@@ -18063,7 +18101,7 @@
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
         <v>160</v>
       </c>
@@ -18088,7 +18126,7 @@
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>197</v>
       </c>
@@ -18113,7 +18151,7 @@
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>39</v>
       </c>
@@ -18140,7 +18178,7 @@
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>49</v>
       </c>
@@ -18169,7 +18207,7 @@
       </c>
       <c r="M13" s="38"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
         <v>49</v>
       </c>
@@ -18194,7 +18232,7 @@
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
         <v>49</v>
       </c>
@@ -18225,7 +18263,7 @@
       </c>
       <c r="M15" s="52"/>
     </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>138</v>
       </c>
@@ -18248,7 +18286,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>178</v>
       </c>
@@ -18272,7 +18310,7 @@
       <c r="K17" s="59"/>
       <c r="L17" s="52"/>
     </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="s">
         <v>152</v>
       </c>
@@ -18288,7 +18326,7 @@
       <c r="K18" s="57"/>
       <c r="L18" s="57"/>
     </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
         <v>160</v>
       </c>
@@ -18312,7 +18350,7 @@
       <c r="K19" s="57"/>
       <c r="L19" s="57"/>
     </row>
-    <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>53</v>
       </c>
@@ -18336,7 +18374,7 @@
       <c r="K20" s="55"/>
       <c r="L20" s="55"/>
     </row>
-    <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>167</v>
       </c>
@@ -18362,7 +18400,7 @@
       <c r="K21" s="57"/>
       <c r="L21" s="57"/>
     </row>
-    <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>39</v>
       </c>
@@ -18388,7 +18426,7 @@
       <c r="K22" s="57"/>
       <c r="L22" s="57"/>
     </row>
-    <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="s">
         <v>333</v>
       </c>
@@ -18414,7 +18452,7 @@
       <c r="K23" s="57"/>
       <c r="L23" s="57"/>
     </row>
-    <row r="24" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
         <v>39</v>
       </c>
@@ -18440,7 +18478,7 @@
       <c r="K24" s="57"/>
       <c r="L24" s="57"/>
     </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="s">
         <v>152</v>
       </c>
@@ -18456,7 +18494,7 @@
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
     </row>
-    <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
         <v>160</v>
       </c>
@@ -18482,7 +18520,7 @@
       <c r="K26" s="57"/>
       <c r="L26" s="57"/>
     </row>
-    <row r="27" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="s">
         <v>49</v>
       </c>
@@ -18510,7 +18548,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>152</v>
       </c>
@@ -18526,7 +18564,7 @@
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
     </row>
-    <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
         <v>151</v>
       </c>
@@ -18548,7 +18586,7 @@
       </c>
       <c r="L29" s="57"/>
     </row>
-    <row r="30" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>160</v>
       </c>
@@ -18574,7 +18612,7 @@
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
     </row>
-    <row r="31" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
         <v>49</v>
       </c>
@@ -18600,7 +18638,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51" t="s">
         <v>145</v>
       </c>
@@ -18624,7 +18662,7 @@
       <c r="K32" s="57"/>
       <c r="L32" s="57"/>
     </row>
-    <row r="33" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
         <v>67</v>
       </c>
@@ -18648,7 +18686,7 @@
       <c r="K33" s="57"/>
       <c r="L33" s="57"/>
     </row>
-    <row r="34" spans="1:12" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51" t="s">
         <v>49</v>
       </c>
@@ -18678,7 +18716,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
         <v>49</v>
       </c>
@@ -18708,7 +18746,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>53</v>
       </c>
@@ -18732,7 +18770,7 @@
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
     </row>
-    <row r="37" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
         <v>312</v>
       </c>
@@ -18758,7 +18796,7 @@
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
     </row>
-    <row r="38" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="57" t="s">
         <v>312</v>
       </c>
@@ -18782,7 +18820,7 @@
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
     </row>
-    <row r="39" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
         <v>39</v>
       </c>
@@ -18808,7 +18846,7 @@
       <c r="K39" s="38"/>
       <c r="L39" s="38"/>
     </row>
-    <row r="40" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="51" t="s">
         <v>67</v>
       </c>
@@ -18834,7 +18872,7 @@
       <c r="K40" s="57"/>
       <c r="L40" s="57"/>
     </row>
-    <row r="41" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51" t="s">
         <v>152</v>
       </c>
@@ -18850,7 +18888,7 @@
       <c r="K41" s="57"/>
       <c r="L41" s="57"/>
     </row>
-    <row r="42" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
         <v>160</v>
       </c>
@@ -18876,7 +18914,7 @@
       <c r="K42" s="57"/>
       <c r="L42" s="57"/>
     </row>
-    <row r="43" spans="1:12" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A43" s="51" t="s">
         <v>312</v>
       </c>
@@ -18900,7 +18938,7 @@
       <c r="K43" s="57"/>
       <c r="L43" s="57"/>
     </row>
-    <row r="44" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="51" t="s">
         <v>1063</v>
       </c>
@@ -18926,7 +18964,7 @@
       <c r="K44" s="57"/>
       <c r="L44" s="57"/>
     </row>
-    <row r="45" spans="1:12" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" s="3" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A45" s="51" t="s">
         <v>312</v>
       </c>
@@ -18950,7 +18988,7 @@
       <c r="K45" s="57"/>
       <c r="L45" s="57"/>
     </row>
-    <row r="46" spans="1:12" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" s="3" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A46" s="51" t="s">
         <v>49</v>
       </c>
@@ -18980,7 +19018,7 @@
       <c r="K46" s="57"/>
       <c r="L46" s="57"/>
     </row>
-    <row r="47" spans="1:12" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A47" s="51" t="s">
         <v>49</v>
       </c>
@@ -19010,7 +19048,7 @@
       <c r="K47" s="57"/>
       <c r="L47" s="57"/>
     </row>
-    <row r="48" spans="1:12" s="3" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.35">
       <c r="A48" s="51" t="s">
         <v>312</v>
       </c>
@@ -19032,7 +19070,7 @@
       <c r="I48" s="57"/>
       <c r="J48" s="57"/>
     </row>
-    <row r="49" spans="1:13" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" s="3" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A49" s="51" t="s">
         <v>49</v>
       </c>
@@ -19060,7 +19098,7 @@
       </c>
       <c r="J49" s="57"/>
     </row>
-    <row r="50" spans="1:13" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" s="57" t="s">
         <v>312</v>
       </c>
@@ -19082,7 +19120,7 @@
       <c r="I50" s="57"/>
       <c r="J50" s="57"/>
     </row>
-    <row r="51" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="57" t="s">
         <v>49</v>
       </c>
@@ -19106,7 +19144,7 @@
       </c>
       <c r="J51" s="51"/>
     </row>
-    <row r="52" spans="1:13" s="3" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="3" customFormat="1" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="s">
         <v>312</v>
       </c>
@@ -19132,7 +19170,7 @@
       <c r="I52" s="51"/>
       <c r="J52" s="57"/>
     </row>
-    <row r="53" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="57" t="s">
         <v>49</v>
       </c>
@@ -19156,7 +19194,7 @@
       </c>
       <c r="J53" s="57"/>
     </row>
-    <row r="54" spans="1:13" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="3" customFormat="1" ht="100" x14ac:dyDescent="0.25">
       <c r="A54" s="57" t="s">
         <v>312</v>
       </c>
@@ -19182,7 +19220,7 @@
       <c r="I54" s="51"/>
       <c r="J54" s="57"/>
     </row>
-    <row r="55" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="57" t="s">
         <v>49</v>
       </c>
@@ -19206,7 +19244,7 @@
       </c>
       <c r="J55" s="57"/>
     </row>
-    <row r="56" spans="1:13" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" s="3" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="s">
         <v>49</v>
       </c>
@@ -19230,7 +19268,7 @@
       </c>
       <c r="J56" s="57"/>
     </row>
-    <row r="57" spans="1:13" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="s">
         <v>49</v>
       </c>
@@ -19254,7 +19292,7 @@
       </c>
       <c r="J57" s="57"/>
     </row>
-    <row r="58" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="57" t="s">
         <v>312</v>
       </c>
@@ -19276,7 +19314,7 @@
       <c r="I58" s="51"/>
       <c r="J58" s="51"/>
     </row>
-    <row r="59" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="57" t="s">
         <v>49</v>
       </c>
@@ -19300,7 +19338,7 @@
       </c>
       <c r="J59" s="51"/>
     </row>
-    <row r="60" spans="1:13" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" s="3" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A60" s="57" t="s">
         <v>49</v>
       </c>
@@ -19324,7 +19362,7 @@
       </c>
       <c r="J60" s="51"/>
     </row>
-    <row r="61" spans="1:13" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A61" s="57" t="s">
         <v>49</v>
       </c>
@@ -19348,7 +19386,7 @@
       </c>
       <c r="J61" s="57"/>
     </row>
-    <row r="62" spans="1:13" s="3" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.35">
       <c r="A62" s="57" t="s">
         <v>312</v>
       </c>
@@ -19371,7 +19409,7 @@
       <c r="J62" s="57"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="57" t="s">
         <v>49</v>
       </c>
@@ -19395,7 +19433,7 @@
       </c>
       <c r="J63" s="57"/>
     </row>
-    <row r="64" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="25" x14ac:dyDescent="0.25">
       <c r="A64" s="57" t="s">
         <v>1127</v>
       </c>
@@ -19420,7 +19458,7 @@
       <c r="L64" s="57"/>
       <c r="M64" s="57"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="57" t="s">
         <v>39</v>
       </c>
@@ -19447,7 +19485,7 @@
       <c r="L65" s="57"/>
       <c r="M65" s="51"/>
     </row>
-    <row r="66" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="25" x14ac:dyDescent="0.25">
       <c r="A66" s="57" t="s">
         <v>39</v>
       </c>
@@ -19476,7 +19514,7 @@
       <c r="L66" s="57"/>
       <c r="M66" s="57"/>
     </row>
-    <row r="67" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="57" t="s">
         <v>312</v>
       </c>
@@ -19501,7 +19539,7 @@
       <c r="L67" s="38"/>
       <c r="M67" s="38"/>
     </row>
-    <row r="68" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="25" x14ac:dyDescent="0.25">
       <c r="A68" s="57" t="s">
         <v>312</v>
       </c>
@@ -19528,7 +19566,7 @@
       <c r="L68" s="38"/>
       <c r="M68" s="38"/>
     </row>
-    <row r="69" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="50" x14ac:dyDescent="0.25">
       <c r="A69" s="57" t="s">
         <v>178</v>
       </c>
@@ -19553,7 +19591,7 @@
       <c r="L69" s="38"/>
       <c r="M69" s="38"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="57" t="s">
         <v>152</v>
       </c>
@@ -19569,7 +19607,7 @@
       <c r="L70" s="38"/>
       <c r="M70" s="38"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="57" t="s">
         <v>160</v>
       </c>
@@ -19596,7 +19634,7 @@
       <c r="L71" s="38"/>
       <c r="M71" s="38"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="57" t="s">
         <v>178</v>
       </c>
@@ -19621,7 +19659,7 @@
       <c r="L72" s="38"/>
       <c r="M72" s="38"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="51" t="s">
         <v>1157</v>
       </c>
@@ -19646,7 +19684,7 @@
       <c r="L73" s="38"/>
       <c r="M73" s="38"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="51" t="s">
         <v>67</v>
       </c>
@@ -19673,7 +19711,7 @@
       <c r="L74" s="38"/>
       <c r="M74" s="38"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="51" t="s">
         <v>1157</v>
       </c>
@@ -19698,7 +19736,7 @@
       <c r="L75" s="38"/>
       <c r="M75" s="38"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="51" t="s">
         <v>67</v>
       </c>
@@ -19725,7 +19763,7 @@
       <c r="L76" s="38"/>
       <c r="M76" s="38"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="51" t="s">
         <v>1157</v>
       </c>
@@ -19750,7 +19788,7 @@
       <c r="L77" s="38"/>
       <c r="M77" s="38"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="51" t="s">
         <v>67</v>
       </c>
@@ -19777,7 +19815,7 @@
       <c r="L78" s="38"/>
       <c r="M78" s="38"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="51" t="s">
         <v>1157</v>
       </c>
@@ -19798,7 +19836,7 @@
       <c r="H79" s="38"/>
       <c r="I79" s="38"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="51" t="s">
         <v>67</v>
       </c>
@@ -19821,7 +19859,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="51" t="s">
         <v>1157</v>
       </c>
@@ -19842,7 +19880,7 @@
       <c r="H81" s="38"/>
       <c r="I81" s="38"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="51" t="s">
         <v>67</v>
       </c>
@@ -19865,7 +19903,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="51" t="s">
         <v>1157</v>
       </c>
@@ -19886,7 +19924,7 @@
       <c r="H83" s="38"/>
       <c r="I83" s="38"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="51" t="s">
         <v>67</v>
       </c>
@@ -19909,7 +19947,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="51" t="s">
         <v>1157</v>
       </c>
@@ -19930,7 +19968,7 @@
       <c r="H85" s="38"/>
       <c r="I85" s="38"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="51" t="s">
         <v>67</v>
       </c>
@@ -19953,7 +19991,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="51" t="s">
         <v>1157</v>
       </c>
@@ -19974,7 +20012,7 @@
       <c r="H87" s="38"/>
       <c r="I87" s="38"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="51" t="s">
         <v>67</v>
       </c>
@@ -19997,7 +20035,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="51" t="s">
         <v>1157</v>
       </c>
@@ -20018,7 +20056,7 @@
       <c r="H89" s="38"/>
       <c r="I89" s="38"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="51" t="s">
         <v>67</v>
       </c>
@@ -20041,7 +20079,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="51" t="s">
         <v>1157</v>
       </c>
@@ -20062,7 +20100,7 @@
       <c r="H91" s="38"/>
       <c r="I91" s="38"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="51" t="s">
         <v>67</v>
       </c>
@@ -20085,7 +20123,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="51" t="s">
         <v>1157</v>
       </c>
@@ -20106,7 +20144,7 @@
       <c r="H93" s="38"/>
       <c r="I93" s="38"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="51" t="s">
         <v>67</v>
       </c>
@@ -20129,7 +20167,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="51" t="s">
         <v>1157</v>
       </c>
@@ -20150,7 +20188,7 @@
       <c r="H95" s="38"/>
       <c r="I95" s="38"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="51" t="s">
         <v>67</v>
       </c>
@@ -20173,7 +20211,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="51" t="s">
         <v>1157</v>
       </c>
@@ -20194,7 +20232,7 @@
       <c r="H97" s="38"/>
       <c r="I97" s="38"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="51" t="s">
         <v>67</v>
       </c>
@@ -20217,7 +20255,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="51" t="s">
         <v>1157</v>
       </c>
@@ -20238,7 +20276,7 @@
       <c r="H99" s="38"/>
       <c r="I99" s="38"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="51" t="s">
         <v>67</v>
       </c>
@@ -20261,7 +20299,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="51" t="s">
         <v>1157</v>
       </c>
@@ -20282,7 +20320,7 @@
       <c r="H101" s="38"/>
       <c r="I101" s="38"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="51" t="s">
         <v>67</v>
       </c>
@@ -20305,7 +20343,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="51" t="s">
         <v>1157</v>
       </c>
@@ -20313,7 +20351,7 @@
         <v>1254</v>
       </c>
       <c r="C103" s="69" t="s">
-        <v>1255</v>
+        <v>1726</v>
       </c>
       <c r="D103" s="57" t="s">
         <v>1255</v>
@@ -20326,7 +20364,7 @@
       <c r="H103" s="38"/>
       <c r="I103" s="38"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="51" t="s">
         <v>67</v>
       </c>
@@ -20349,7 +20387,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="51" t="s">
         <v>1157</v>
       </c>
@@ -20370,7 +20408,7 @@
       <c r="H105" s="38"/>
       <c r="I105" s="38"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="51" t="s">
         <v>67</v>
       </c>
@@ -20393,7 +20431,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="51" t="s">
         <v>1157</v>
       </c>
@@ -20414,7 +20452,7 @@
       <c r="H107" s="38"/>
       <c r="I107" s="38"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="51" t="s">
         <v>67</v>
       </c>
@@ -20437,7 +20475,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="51" t="s">
         <v>1157</v>
       </c>
@@ -20458,7 +20496,7 @@
       <c r="H109" s="38"/>
       <c r="I109" s="38"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="51" t="s">
         <v>67</v>
       </c>
@@ -20481,7 +20519,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="51" t="s">
         <v>1157</v>
       </c>
@@ -20502,7 +20540,7 @@
       <c r="H111" s="38"/>
       <c r="I111" s="38"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="51" t="s">
         <v>67</v>
       </c>
@@ -20525,7 +20563,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="51" t="s">
         <v>1157</v>
       </c>
@@ -20546,7 +20584,7 @@
       <c r="H113" s="38"/>
       <c r="I113" s="38"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="51" t="s">
         <v>67</v>
       </c>
@@ -20569,7 +20607,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="51" t="s">
         <v>1157</v>
       </c>
@@ -20590,7 +20628,7 @@
       <c r="H115" s="38"/>
       <c r="I115" s="38"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="51" t="s">
         <v>67</v>
       </c>
@@ -20613,7 +20651,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A117" s="51" t="s">
         <v>178</v>
       </c>
@@ -20634,7 +20672,7 @@
       <c r="H117" s="38"/>
       <c r="I117" s="57"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="57" t="s">
         <v>312</v>
       </c>
@@ -20655,7 +20693,7 @@
       <c r="H118" s="38"/>
       <c r="I118" s="57"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="51" t="s">
         <v>152</v>
       </c>
@@ -20667,7 +20705,7 @@
       <c r="H119" s="38"/>
       <c r="I119" s="38"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="51" t="s">
         <v>160</v>
       </c>
@@ -20688,7 +20726,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="57" t="s">
         <v>178</v>
       </c>
@@ -20709,7 +20747,7 @@
       <c r="H121" s="38"/>
       <c r="I121" s="38"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="57" t="s">
         <v>1311</v>
       </c>
@@ -20730,7 +20768,7 @@
       <c r="H122" s="38"/>
       <c r="I122" s="38"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="57" t="s">
         <v>39</v>
       </c>
@@ -20753,7 +20791,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="57" t="s">
         <v>152</v>
       </c>
@@ -20766,7 +20804,7 @@
       <c r="H124" s="38"/>
       <c r="I124" s="57"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="57" t="s">
         <v>34</v>
       </c>
@@ -20790,7 +20828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -20800,15 +20838,15 @@
       <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>306</v>
       </c>
@@ -20822,7 +20860,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>14</v>
       </c>
@@ -20836,7 +20874,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>14</v>
       </c>
@@ -20850,7 +20888,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>14</v>
       </c>
@@ -20864,7 +20902,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>14</v>
       </c>
@@ -20878,7 +20916,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>14</v>
       </c>
@@ -20892,7 +20930,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>14</v>
       </c>
@@ -20906,7 +20944,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
         <v>14</v>
       </c>
@@ -20920,7 +20958,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
         <v>14</v>
       </c>
@@ -20934,7 +20972,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
         <v>14</v>
       </c>
@@ -20948,7 +20986,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>14</v>
       </c>
@@ -20962,7 +21000,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
         <v>14</v>
       </c>
@@ -20976,7 +21014,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
         <v>283</v>
       </c>
@@ -20990,7 +21028,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>283</v>
       </c>
@@ -21004,7 +21042,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>271</v>
       </c>
@@ -21018,7 +21056,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="62" t="s">
         <v>271</v>
       </c>
@@ -21032,7 +21070,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
         <v>271</v>
       </c>
@@ -21046,7 +21084,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
         <v>271</v>
       </c>
@@ -21060,7 +21098,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
         <v>16</v>
       </c>
@@ -21074,7 +21112,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>16</v>
       </c>
@@ -21088,7 +21126,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>354</v>
       </c>
@@ -21102,7 +21140,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
         <v>354</v>
       </c>
@@ -21116,7 +21154,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
         <v>354</v>
       </c>
@@ -21130,7 +21168,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
         <v>332</v>
       </c>
@@ -21144,7 +21182,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
         <v>332</v>
       </c>
@@ -21158,7 +21196,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
         <v>332</v>
       </c>
@@ -21172,7 +21210,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="63" t="s">
         <v>332</v>
       </c>
@@ -21186,7 +21224,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="s">
         <v>332</v>
       </c>
@@ -21200,7 +21238,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="63" t="s">
         <v>332</v>
       </c>
@@ -21214,7 +21252,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
         <v>332</v>
       </c>
@@ -21228,7 +21266,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="63" t="s">
         <v>332</v>
       </c>
@@ -21242,7 +21280,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="63" t="s">
         <v>332</v>
       </c>
@@ -21256,7 +21294,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="64" t="s">
         <v>1319</v>
       </c>
@@ -21270,7 +21308,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="64" t="s">
         <v>1319</v>
       </c>
@@ -21284,7 +21322,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="64" t="s">
         <v>1319</v>
       </c>
@@ -21298,7 +21336,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="64" t="s">
         <v>1328</v>
       </c>
@@ -21312,7 +21350,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="64" t="s">
         <v>1328</v>
       </c>
@@ -21326,7 +21364,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="64" t="s">
         <v>1328</v>
       </c>
@@ -21340,7 +21378,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="64" t="s">
         <v>1328</v>
       </c>
@@ -21354,7 +21392,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="64" t="s">
         <v>1328</v>
       </c>
@@ -21368,7 +21406,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="64" t="s">
         <v>1328</v>
       </c>
@@ -21382,7 +21420,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="64" t="s">
         <v>1043</v>
       </c>
@@ -21396,7 +21434,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="64" t="s">
         <v>1043</v>
       </c>
@@ -21410,7 +21448,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="64" t="s">
         <v>1043</v>
       </c>
@@ -21424,7 +21462,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="64" t="s">
         <v>1353</v>
       </c>
@@ -21438,7 +21476,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="64" t="s">
         <v>1353</v>
       </c>
@@ -21452,7 +21490,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="64" t="s">
         <v>1353</v>
       </c>
@@ -21466,7 +21504,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="64" t="s">
         <v>1353</v>
       </c>
@@ -21480,7 +21518,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="64" t="s">
         <v>1353</v>
       </c>
@@ -21494,7 +21532,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="64" t="s">
         <v>1353</v>
       </c>
@@ -21508,7 +21546,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="64" t="s">
         <v>1353</v>
       </c>
@@ -21522,7 +21560,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="64" t="s">
         <v>1353</v>
       </c>
@@ -21536,7 +21574,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="64" t="s">
         <v>1353</v>
       </c>
@@ -21550,7 +21588,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="64" t="s">
         <v>1353</v>
       </c>
@@ -21564,7 +21602,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="64" t="s">
         <v>1353</v>
       </c>
@@ -21578,7 +21616,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="64" t="s">
         <v>1353</v>
       </c>
@@ -21592,7 +21630,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="64" t="s">
         <v>1353</v>
       </c>
@@ -21606,7 +21644,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="64" t="s">
         <v>1353</v>
       </c>
@@ -21620,7 +21658,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="64" t="s">
         <v>1353</v>
       </c>
@@ -21634,7 +21672,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="64" t="s">
         <v>1353</v>
       </c>
@@ -21648,13 +21686,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -21672,7 +21710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -21682,12 +21720,12 @@
       <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
         <v>999</v>
       </c>
@@ -21698,7 +21736,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>374</v>
       </c>

--- a/inst/extdata/MSF-survey-dict.xlsx
+++ b/inst/extdata/MSF-survey-dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkeating\epidict\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82D5427-7F0A-4A23-958C-B5C75B555D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D98E4AD-1870-4543-A610-E5DFFDD38499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="-195" windowWidth="29190" windowHeight="15870" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20617" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3590" uniqueCount="1872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3590" uniqueCount="1873">
   <si>
     <t>type</t>
   </si>
@@ -5738,6 +5738,9 @@
   </si>
   <si>
     <t>int(round(now() *10000)) + 1</t>
+  </si>
+  <si>
+    <t>c_signal_id2</t>
   </si>
 </sst>
 </file>
@@ -13894,8 +13897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF65934-6CFC-49E1-962F-A216D40F8DA6}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14623,7 +14626,7 @@
         <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
       <c r="C52" t="s">
         <v>1688</v>
@@ -20090,7 +20093,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>39</v>
       </c>
